--- a/export/files/excel/J59C_SD.xlsx
+++ b/export/files/excel/J59C_SD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\QC_Han\export\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E51D758-3E7F-49DB-BBF2-CD3DACB1C84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4127FAD-6B68-42F6-ACDC-A5CDECFD8B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1819,7 +1819,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1836,20 +1836,266 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1859,6 +2105,111 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1868,336 +2219,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2300,12 +2321,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2324,9 +2339,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2345,6 +2357,15 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2354,6 +2375,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2417,45 +2441,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2513,9 +2501,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2551,9 +2536,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2576,452 +2558,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="170705" name="Group 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF710FB-619D-42C6-ADAF-C221887DD45D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2251213" y="3730818"/>
-          <a:ext cx="393590" cy="3277594"/>
-          <a:chOff x="2322634" y="3608511"/>
-          <a:chExt cx="417635" cy="3322758"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="Double Bracket 137">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3140D989-1876-4B72-BE0D-1DDEF2DD9992}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2322634" y="3763058"/>
-            <a:ext cx="417635" cy="3168211"/>
-          </a:xfrm>
-          <a:prstGeom prst="bracketPair">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="139" name="Isosceles Triangle 138">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAF849C-40CD-4AE6-809F-765C107C2FD5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2410980" y="3608511"/>
-            <a:ext cx="224880" cy="170002"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="170706" name="Group 137">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8754AB4C-5556-4D3C-BEA9-466DB3FF9A65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5563263" y="3746058"/>
-          <a:ext cx="371723" cy="2323438"/>
-          <a:chOff x="2322634" y="3559644"/>
-          <a:chExt cx="417635" cy="3371625"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="141" name="Double Bracket 140">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7883DA67-9F68-43EA-BE7D-0A9C08F4C3C3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2322634" y="3769680"/>
-            <a:ext cx="417635" cy="3161589"/>
-          </a:xfrm>
-          <a:prstGeom prst="bracketPair">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="142" name="Isosceles Triangle 141">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B05B89A-2C25-4F94-A597-A289EE60B1E1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2424912" y="3559644"/>
-            <a:ext cx="213079" cy="243199"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>24185</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>36291</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>121054</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="Rectangle 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC39D77A-07C7-4563-9ACB-66DB80350CD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="704022" y="5607327"/>
-          <a:ext cx="161192" cy="95250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>27498</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>35781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>39604</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123704</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="Rectangle 139">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766553C8-5407-48EF-B715-520BDE0D2D3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="707335" y="5801139"/>
-          <a:ext cx="161192" cy="95250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3153,6 +2689,94 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19881</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>225288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165554</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE86990C-C261-4DEE-845D-CFCA787D6300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742124" y="3750366"/>
+          <a:ext cx="1908213" cy="3286029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>6624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>192150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>139148</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>58378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71F5BA9-E084-4AD6-91CC-7194282AE85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5539407" y="3717228"/>
+          <a:ext cx="397567" cy="2410646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3526,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AY16" sqref="AY16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AY30" sqref="AY30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3561,546 +3185,546 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="185" t="s">
+      <c r="A1" s="90"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="185"/>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="185"/>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="185"/>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="185"/>
-      <c r="AH1" s="185"/>
-      <c r="AI1" s="185"/>
-      <c r="AJ1" s="254" t="s">
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="192"/>
+      <c r="T1" s="192"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="192"/>
+      <c r="X1" s="192"/>
+      <c r="Y1" s="192"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="192"/>
+      <c r="AB1" s="192"/>
+      <c r="AC1" s="192"/>
+      <c r="AD1" s="192"/>
+      <c r="AE1" s="192"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="192"/>
+      <c r="AH1" s="192"/>
+      <c r="AI1" s="192"/>
+      <c r="AJ1" s="195" t="s">
         <v>164</v>
       </c>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="88"/>
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="88"/>
+      <c r="AQ1" s="88"/>
     </row>
     <row r="2" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="186"/>
-      <c r="AH2" s="186"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="188"/>
-      <c r="AL2" s="188"/>
-      <c r="AM2" s="188"/>
-      <c r="AN2" s="188"/>
-      <c r="AO2" s="188"/>
-      <c r="AP2" s="188"/>
-      <c r="AQ2" s="188"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="193"/>
+      <c r="AG2" s="193"/>
+      <c r="AH2" s="193"/>
+      <c r="AI2" s="193"/>
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="196"/>
+      <c r="AN2" s="196"/>
+      <c r="AO2" s="196"/>
+      <c r="AP2" s="196"/>
+      <c r="AQ2" s="196"/>
     </row>
     <row r="3" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="187"/>
-      <c r="AD3" s="187"/>
-      <c r="AE3" s="187"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="187"/>
-      <c r="AH3" s="187"/>
-      <c r="AI3" s="187"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="94"/>
-      <c r="AP3" s="94"/>
-      <c r="AQ3" s="94"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="194"/>
+      <c r="U3" s="194"/>
+      <c r="V3" s="194"/>
+      <c r="W3" s="194"/>
+      <c r="X3" s="194"/>
+      <c r="Y3" s="194"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="194"/>
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="194"/>
+      <c r="AH3" s="194"/>
+      <c r="AI3" s="194"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="89"/>
+      <c r="AO3" s="89"/>
+      <c r="AP3" s="89"/>
+      <c r="AQ3" s="89"/>
     </row>
     <row r="4" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="190"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="190"/>
-      <c r="P4" s="190"/>
-      <c r="Q4" s="190"/>
-      <c r="R4" s="190"/>
-      <c r="S4" s="190"/>
-      <c r="T4" s="190"/>
-      <c r="U4" s="190"/>
-      <c r="V4" s="190"/>
-      <c r="W4" s="190"/>
-      <c r="X4" s="190"/>
-      <c r="Y4" s="190"/>
-      <c r="Z4" s="190"/>
-      <c r="AA4" s="190"/>
-      <c r="AB4" s="190"/>
-      <c r="AC4" s="190"/>
-      <c r="AD4" s="190"/>
-      <c r="AE4" s="190"/>
-      <c r="AF4" s="190"/>
-      <c r="AG4" s="190"/>
-      <c r="AH4" s="190"/>
-      <c r="AI4" s="191"/>
-      <c r="AJ4" s="205" t="s">
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="198"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198"/>
+      <c r="T4" s="198"/>
+      <c r="U4" s="198"/>
+      <c r="V4" s="198"/>
+      <c r="W4" s="198"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="198"/>
+      <c r="Z4" s="198"/>
+      <c r="AA4" s="198"/>
+      <c r="AB4" s="198"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="198"/>
+      <c r="AE4" s="198"/>
+      <c r="AF4" s="198"/>
+      <c r="AG4" s="198"/>
+      <c r="AH4" s="198"/>
+      <c r="AI4" s="199"/>
+      <c r="AJ4" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="205"/>
-      <c r="AL4" s="205"/>
-      <c r="AM4" s="205"/>
-      <c r="AN4" s="196" t="s">
+      <c r="AK4" s="213"/>
+      <c r="AL4" s="213"/>
+      <c r="AM4" s="213"/>
+      <c r="AN4" s="204" t="s">
         <v>80</v>
       </c>
-      <c r="AO4" s="196"/>
-      <c r="AP4" s="196"/>
-      <c r="AQ4" s="196"/>
+      <c r="AO4" s="204"/>
+      <c r="AP4" s="204"/>
+      <c r="AQ4" s="204"/>
     </row>
     <row r="5" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="192"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="193"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="193"/>
-      <c r="O5" s="193"/>
-      <c r="P5" s="193"/>
-      <c r="Q5" s="193"/>
-      <c r="R5" s="193"/>
-      <c r="S5" s="193"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="193"/>
-      <c r="V5" s="193"/>
-      <c r="W5" s="193"/>
-      <c r="X5" s="193"/>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="193"/>
-      <c r="AA5" s="193"/>
-      <c r="AB5" s="193"/>
-      <c r="AC5" s="193"/>
-      <c r="AD5" s="193"/>
-      <c r="AE5" s="193"/>
-      <c r="AF5" s="193"/>
-      <c r="AG5" s="193"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="194"/>
-      <c r="AJ5" s="205"/>
-      <c r="AK5" s="205"/>
-      <c r="AL5" s="205"/>
-      <c r="AM5" s="205"/>
-      <c r="AN5" s="196"/>
-      <c r="AO5" s="196"/>
-      <c r="AP5" s="196"/>
-      <c r="AQ5" s="196"/>
+      <c r="A5" s="200"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="201"/>
+      <c r="R5" s="201"/>
+      <c r="S5" s="201"/>
+      <c r="T5" s="201"/>
+      <c r="U5" s="201"/>
+      <c r="V5" s="201"/>
+      <c r="W5" s="201"/>
+      <c r="X5" s="201"/>
+      <c r="Y5" s="201"/>
+      <c r="Z5" s="201"/>
+      <c r="AA5" s="201"/>
+      <c r="AB5" s="201"/>
+      <c r="AC5" s="201"/>
+      <c r="AD5" s="201"/>
+      <c r="AE5" s="201"/>
+      <c r="AF5" s="201"/>
+      <c r="AG5" s="201"/>
+      <c r="AH5" s="201"/>
+      <c r="AI5" s="202"/>
+      <c r="AJ5" s="213"/>
+      <c r="AK5" s="213"/>
+      <c r="AL5" s="213"/>
+      <c r="AM5" s="213"/>
+      <c r="AN5" s="204"/>
+      <c r="AO5" s="204"/>
+      <c r="AP5" s="204"/>
+      <c r="AQ5" s="204"/>
     </row>
     <row r="6" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="192"/>
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="193"/>
-      <c r="AA6" s="193"/>
-      <c r="AB6" s="193"/>
-      <c r="AC6" s="193"/>
-      <c r="AD6" s="193"/>
-      <c r="AE6" s="193"/>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="193"/>
-      <c r="AH6" s="193"/>
-      <c r="AI6" s="194"/>
-      <c r="AJ6" s="205"/>
-      <c r="AK6" s="205"/>
-      <c r="AL6" s="205"/>
-      <c r="AM6" s="205"/>
-      <c r="AN6" s="196"/>
-      <c r="AO6" s="196"/>
-      <c r="AP6" s="196"/>
-      <c r="AQ6" s="196"/>
+      <c r="A6" s="200"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="201"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201"/>
+      <c r="O6" s="201"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="201"/>
+      <c r="R6" s="201"/>
+      <c r="S6" s="201"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="201"/>
+      <c r="V6" s="201"/>
+      <c r="W6" s="201"/>
+      <c r="X6" s="201"/>
+      <c r="Y6" s="201"/>
+      <c r="Z6" s="201"/>
+      <c r="AA6" s="201"/>
+      <c r="AB6" s="201"/>
+      <c r="AC6" s="201"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="201"/>
+      <c r="AF6" s="201"/>
+      <c r="AG6" s="201"/>
+      <c r="AH6" s="201"/>
+      <c r="AI6" s="202"/>
+      <c r="AJ6" s="213"/>
+      <c r="AK6" s="213"/>
+      <c r="AL6" s="213"/>
+      <c r="AM6" s="213"/>
+      <c r="AN6" s="204"/>
+      <c r="AO6" s="204"/>
+      <c r="AP6" s="204"/>
+      <c r="AQ6" s="204"/>
     </row>
     <row r="7" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197" t="s">
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
+      <c r="H7" s="205"/>
+      <c r="I7" s="205"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="197"/>
-      <c r="R7" s="197"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="197"/>
-      <c r="V7" s="195" t="s">
+      <c r="L7" s="205"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="205"/>
+      <c r="Q7" s="205"/>
+      <c r="R7" s="205"/>
+      <c r="S7" s="205"/>
+      <c r="T7" s="205"/>
+      <c r="U7" s="205"/>
+      <c r="V7" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="195"/>
-      <c r="X7" s="195"/>
-      <c r="Y7" s="195"/>
-      <c r="Z7" s="195"/>
-      <c r="AA7" s="195"/>
-      <c r="AB7" s="195"/>
-      <c r="AC7" s="195"/>
-      <c r="AD7" s="195"/>
-      <c r="AE7" s="195"/>
-      <c r="AF7" s="195"/>
-      <c r="AG7" s="195"/>
-      <c r="AH7" s="195"/>
-      <c r="AI7" s="195"/>
-      <c r="AJ7" s="205"/>
-      <c r="AK7" s="205"/>
-      <c r="AL7" s="205"/>
-      <c r="AM7" s="205"/>
-      <c r="AN7" s="196"/>
-      <c r="AO7" s="196"/>
-      <c r="AP7" s="196"/>
-      <c r="AQ7" s="196"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="203"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="203"/>
+      <c r="AJ7" s="213"/>
+      <c r="AK7" s="213"/>
+      <c r="AL7" s="213"/>
+      <c r="AM7" s="213"/>
+      <c r="AN7" s="204"/>
+      <c r="AO7" s="204"/>
+      <c r="AP7" s="204"/>
+      <c r="AQ7" s="204"/>
     </row>
     <row r="8" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="198"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="198"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="198"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="198"/>
-      <c r="U8" s="198"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="195"/>
-      <c r="Z8" s="195"/>
-      <c r="AA8" s="195"/>
-      <c r="AB8" s="195"/>
-      <c r="AC8" s="195"/>
-      <c r="AD8" s="195"/>
-      <c r="AE8" s="195"/>
-      <c r="AF8" s="195"/>
-      <c r="AG8" s="195"/>
-      <c r="AH8" s="195"/>
-      <c r="AI8" s="195"/>
-      <c r="AJ8" s="205"/>
-      <c r="AK8" s="205"/>
-      <c r="AL8" s="205"/>
-      <c r="AM8" s="205"/>
-      <c r="AN8" s="196"/>
-      <c r="AO8" s="196"/>
-      <c r="AP8" s="196"/>
-      <c r="AQ8" s="196"/>
+      <c r="A8" s="206"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="206"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="206"/>
+      <c r="I8" s="206"/>
+      <c r="J8" s="206"/>
+      <c r="K8" s="206"/>
+      <c r="L8" s="206"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="206"/>
+      <c r="Q8" s="206"/>
+      <c r="R8" s="206"/>
+      <c r="S8" s="206"/>
+      <c r="T8" s="206"/>
+      <c r="U8" s="206"/>
+      <c r="V8" s="203"/>
+      <c r="W8" s="203"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="203"/>
+      <c r="Z8" s="203"/>
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="203"/>
+      <c r="AD8" s="203"/>
+      <c r="AE8" s="203"/>
+      <c r="AF8" s="203"/>
+      <c r="AG8" s="203"/>
+      <c r="AH8" s="203"/>
+      <c r="AI8" s="203"/>
+      <c r="AJ8" s="213"/>
+      <c r="AK8" s="213"/>
+      <c r="AL8" s="213"/>
+      <c r="AM8" s="213"/>
+      <c r="AN8" s="204"/>
+      <c r="AO8" s="204"/>
+      <c r="AP8" s="204"/>
+      <c r="AQ8" s="204"/>
     </row>
     <row r="9" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="200" t="s">
+      <c r="B9" s="208"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="208"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="209"/>
+      <c r="M9" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
-      <c r="U9" s="201"/>
-      <c r="V9" s="195" t="s">
+      <c r="N9" s="208"/>
+      <c r="O9" s="208"/>
+      <c r="P9" s="208"/>
+      <c r="Q9" s="208"/>
+      <c r="R9" s="208"/>
+      <c r="S9" s="208"/>
+      <c r="T9" s="208"/>
+      <c r="U9" s="209"/>
+      <c r="V9" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="195"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="195"/>
-      <c r="Z9" s="195"/>
-      <c r="AA9" s="195"/>
-      <c r="AB9" s="195"/>
-      <c r="AC9" s="195"/>
-      <c r="AD9" s="195"/>
-      <c r="AE9" s="195"/>
-      <c r="AF9" s="195"/>
-      <c r="AG9" s="195"/>
-      <c r="AH9" s="195"/>
-      <c r="AI9" s="195"/>
-      <c r="AJ9" s="205"/>
-      <c r="AK9" s="205"/>
-      <c r="AL9" s="205"/>
-      <c r="AM9" s="205"/>
-      <c r="AN9" s="196"/>
-      <c r="AO9" s="196"/>
-      <c r="AP9" s="196"/>
-      <c r="AQ9" s="196"/>
+      <c r="W9" s="203"/>
+      <c r="X9" s="203"/>
+      <c r="Y9" s="203"/>
+      <c r="Z9" s="203"/>
+      <c r="AA9" s="203"/>
+      <c r="AB9" s="203"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="203"/>
+      <c r="AE9" s="203"/>
+      <c r="AF9" s="203"/>
+      <c r="AG9" s="203"/>
+      <c r="AH9" s="203"/>
+      <c r="AI9" s="203"/>
+      <c r="AJ9" s="213"/>
+      <c r="AK9" s="213"/>
+      <c r="AL9" s="213"/>
+      <c r="AM9" s="213"/>
+      <c r="AN9" s="204"/>
+      <c r="AO9" s="204"/>
+      <c r="AP9" s="204"/>
+      <c r="AQ9" s="204"/>
     </row>
     <row r="10" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="202"/>
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="203"/>
-      <c r="Q10" s="203"/>
-      <c r="R10" s="203"/>
-      <c r="S10" s="203"/>
-      <c r="T10" s="203"/>
-      <c r="U10" s="204"/>
-      <c r="V10" s="195"/>
-      <c r="W10" s="195"/>
-      <c r="X10" s="195"/>
-      <c r="Y10" s="195"/>
-      <c r="Z10" s="195"/>
-      <c r="AA10" s="195"/>
-      <c r="AB10" s="195"/>
-      <c r="AC10" s="195"/>
-      <c r="AD10" s="195"/>
-      <c r="AE10" s="195"/>
-      <c r="AF10" s="195"/>
-      <c r="AG10" s="195"/>
-      <c r="AH10" s="195"/>
-      <c r="AI10" s="195"/>
-      <c r="AJ10" s="205"/>
-      <c r="AK10" s="205"/>
-      <c r="AL10" s="205"/>
-      <c r="AM10" s="205"/>
-      <c r="AN10" s="196"/>
-      <c r="AO10" s="196"/>
-      <c r="AP10" s="196"/>
-      <c r="AQ10" s="196"/>
+      <c r="A10" s="210"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
+      <c r="P10" s="211"/>
+      <c r="Q10" s="211"/>
+      <c r="R10" s="211"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="211"/>
+      <c r="U10" s="212"/>
+      <c r="V10" s="203"/>
+      <c r="W10" s="203"/>
+      <c r="X10" s="203"/>
+      <c r="Y10" s="203"/>
+      <c r="Z10" s="203"/>
+      <c r="AA10" s="203"/>
+      <c r="AB10" s="203"/>
+      <c r="AC10" s="203"/>
+      <c r="AD10" s="203"/>
+      <c r="AE10" s="203"/>
+      <c r="AF10" s="203"/>
+      <c r="AG10" s="203"/>
+      <c r="AH10" s="203"/>
+      <c r="AI10" s="203"/>
+      <c r="AJ10" s="213"/>
+      <c r="AK10" s="213"/>
+      <c r="AL10" s="213"/>
+      <c r="AM10" s="213"/>
+      <c r="AN10" s="204"/>
+      <c r="AO10" s="204"/>
+      <c r="AP10" s="204"/>
+      <c r="AQ10" s="204"/>
     </row>
     <row r="11" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="206" t="s">
+      <c r="A11" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="133" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="134"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="134"/>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="134"/>
-      <c r="AF11" s="134"/>
-      <c r="AG11" s="134"/>
-      <c r="AH11" s="134"/>
-      <c r="AI11" s="134"/>
-      <c r="AJ11" s="134"/>
-      <c r="AK11" s="134"/>
-      <c r="AL11" s="134"/>
-      <c r="AM11" s="134"/>
-      <c r="AN11" s="134"/>
-      <c r="AO11" s="134"/>
-      <c r="AP11" s="134"/>
-      <c r="AQ11" s="135"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="123"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="123"/>
+      <c r="AG11" s="123"/>
+      <c r="AH11" s="123"/>
+      <c r="AI11" s="123"/>
+      <c r="AJ11" s="123"/>
+      <c r="AK11" s="123"/>
+      <c r="AL11" s="123"/>
+      <c r="AM11" s="123"/>
+      <c r="AN11" s="123"/>
+      <c r="AO11" s="123"/>
+      <c r="AP11" s="123"/>
+      <c r="AQ11" s="124"/>
     </row>
     <row r="12" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="138"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="145"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -4672,1267 +4296,1267 @@
       <c r="AQ24" s="7"/>
     </row>
     <row r="25" spans="1:49" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="152" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="158" t="s">
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158" t="s">
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="252" t="s">
+      <c r="I25" s="165"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="247" t="s">
         <v>155</v>
       </c>
-      <c r="L25" s="207"/>
-      <c r="M25" s="207"/>
-      <c r="N25" s="253" t="s">
+      <c r="L25" s="215"/>
+      <c r="M25" s="215"/>
+      <c r="N25" s="248" t="s">
         <v>154</v>
       </c>
-      <c r="O25" s="147"/>
-      <c r="P25" s="159" t="s">
+      <c r="O25" s="154"/>
+      <c r="P25" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="Q25" s="207"/>
-      <c r="R25" s="208"/>
-      <c r="S25" s="159" t="s">
+      <c r="Q25" s="215"/>
+      <c r="R25" s="216"/>
+      <c r="S25" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="T25" s="207"/>
-      <c r="U25" s="208"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="159" t="s">
+      <c r="T25" s="215"/>
+      <c r="U25" s="216"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="X25" s="207"/>
-      <c r="Y25" s="207"/>
-      <c r="Z25" s="208"/>
-      <c r="AA25" s="158" t="s">
+      <c r="X25" s="215"/>
+      <c r="Y25" s="215"/>
+      <c r="Z25" s="216"/>
+      <c r="AA25" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="158"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158" t="s">
+      <c r="AB25" s="165"/>
+      <c r="AC25" s="165"/>
+      <c r="AD25" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="252" t="s">
+      <c r="AE25" s="165"/>
+      <c r="AF25" s="165"/>
+      <c r="AG25" s="247" t="s">
         <v>155</v>
       </c>
-      <c r="AH25" s="207"/>
-      <c r="AI25" s="207"/>
-      <c r="AJ25" s="253" t="s">
+      <c r="AH25" s="215"/>
+      <c r="AI25" s="215"/>
+      <c r="AJ25" s="248" t="s">
         <v>154</v>
       </c>
-      <c r="AK25" s="147"/>
-      <c r="AL25" s="159" t="s">
+      <c r="AK25" s="154"/>
+      <c r="AL25" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="AM25" s="207"/>
-      <c r="AN25" s="208"/>
-      <c r="AO25" s="159" t="s">
+      <c r="AM25" s="215"/>
+      <c r="AN25" s="216"/>
+      <c r="AO25" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="AP25" s="207"/>
-      <c r="AQ25" s="208"/>
+      <c r="AP25" s="215"/>
+      <c r="AQ25" s="216"/>
     </row>
     <row r="26" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="139" t="s">
+      <c r="A26" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="157" t="s">
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="122"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="160" t="s">
+      <c r="F26" s="113"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="164" t="s">
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="155"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="155" t="s">
+      <c r="L26" s="162"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="O26" s="156"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="230" t="s">
+      <c r="O26" s="163"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="X26" s="231"/>
-      <c r="Y26" s="231"/>
-      <c r="Z26" s="232"/>
-      <c r="AA26" s="114" t="s">
+      <c r="X26" s="227"/>
+      <c r="Y26" s="227"/>
+      <c r="Z26" s="228"/>
+      <c r="AA26" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="AB26" s="244"/>
-      <c r="AC26" s="245"/>
-      <c r="AD26" s="120" t="s">
+      <c r="AB26" s="239"/>
+      <c r="AC26" s="240"/>
+      <c r="AD26" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AE26" s="120"/>
-      <c r="AF26" s="120"/>
-      <c r="AG26" s="211" t="s">
+      <c r="AE26" s="111"/>
+      <c r="AF26" s="111"/>
+      <c r="AG26" s="217" t="s">
         <v>132</v>
       </c>
-      <c r="AH26" s="209"/>
-      <c r="AI26" s="210"/>
-      <c r="AJ26" s="209" t="s">
+      <c r="AH26" s="189"/>
+      <c r="AI26" s="190"/>
+      <c r="AJ26" s="189" t="s">
         <v>131</v>
       </c>
-      <c r="AK26" s="210"/>
-      <c r="AL26" s="111"/>
-      <c r="AM26" s="112"/>
-      <c r="AN26" s="113"/>
-      <c r="AO26" s="111"/>
-      <c r="AP26" s="112"/>
-      <c r="AQ26" s="113"/>
+      <c r="AK26" s="190"/>
+      <c r="AL26" s="102"/>
+      <c r="AM26" s="103"/>
+      <c r="AN26" s="104"/>
+      <c r="AO26" s="102"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="104"/>
     </row>
     <row r="27" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="142"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="157" t="s">
+      <c r="A27" s="149"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="164" t="s">
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="155"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="155" t="s">
+      <c r="L27" s="162"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="O27" s="156"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="113"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="113"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="236"/>
-      <c r="X27" s="237"/>
-      <c r="Y27" s="237"/>
-      <c r="Z27" s="238"/>
-      <c r="AA27" s="246"/>
-      <c r="AB27" s="247"/>
-      <c r="AC27" s="248"/>
-      <c r="AD27" s="120" t="s">
+      <c r="O27" s="163"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="232"/>
+      <c r="X27" s="233"/>
+      <c r="Y27" s="233"/>
+      <c r="Z27" s="234"/>
+      <c r="AA27" s="241"/>
+      <c r="AB27" s="242"/>
+      <c r="AC27" s="243"/>
+      <c r="AD27" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="211" t="s">
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
+      <c r="AG27" s="217" t="s">
         <v>134</v>
       </c>
-      <c r="AH27" s="209"/>
-      <c r="AI27" s="210"/>
-      <c r="AJ27" s="209" t="s">
+      <c r="AH27" s="189"/>
+      <c r="AI27" s="190"/>
+      <c r="AJ27" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="AK27" s="210"/>
-      <c r="AL27" s="111"/>
-      <c r="AM27" s="112"/>
-      <c r="AN27" s="113"/>
-      <c r="AO27" s="111"/>
-      <c r="AP27" s="112"/>
-      <c r="AQ27" s="113"/>
+      <c r="AK27" s="190"/>
+      <c r="AL27" s="102"/>
+      <c r="AM27" s="103"/>
+      <c r="AN27" s="104"/>
+      <c r="AO27" s="102"/>
+      <c r="AP27" s="103"/>
+      <c r="AQ27" s="104"/>
     </row>
     <row r="28" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="142"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="157" t="s">
+      <c r="A28" s="149"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="160" t="s">
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="164" t="s">
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="L28" s="155"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="155" t="s">
+      <c r="L28" s="162"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="O28" s="156"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="230" t="s">
+      <c r="O28" s="163"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="X28" s="231"/>
-      <c r="Y28" s="231"/>
-      <c r="Z28" s="232"/>
-      <c r="AA28" s="114" t="s">
+      <c r="X28" s="227"/>
+      <c r="Y28" s="227"/>
+      <c r="Z28" s="228"/>
+      <c r="AA28" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AB28" s="244"/>
-      <c r="AC28" s="245"/>
-      <c r="AD28" s="120" t="s">
+      <c r="AB28" s="239"/>
+      <c r="AC28" s="240"/>
+      <c r="AD28" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AE28" s="120"/>
-      <c r="AF28" s="120"/>
-      <c r="AG28" s="164" t="s">
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="171" t="s">
         <v>135</v>
       </c>
-      <c r="AH28" s="155"/>
-      <c r="AI28" s="156"/>
-      <c r="AJ28" s="155" t="s">
+      <c r="AH28" s="162"/>
+      <c r="AI28" s="163"/>
+      <c r="AJ28" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="AK28" s="156"/>
-      <c r="AL28" s="111"/>
-      <c r="AM28" s="112"/>
-      <c r="AN28" s="113"/>
-      <c r="AO28" s="111"/>
-      <c r="AP28" s="112"/>
-      <c r="AQ28" s="113"/>
+      <c r="AK28" s="163"/>
+      <c r="AL28" s="102"/>
+      <c r="AM28" s="103"/>
+      <c r="AN28" s="104"/>
+      <c r="AO28" s="102"/>
+      <c r="AP28" s="103"/>
+      <c r="AQ28" s="104"/>
     </row>
     <row r="29" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="142"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157" t="s">
+      <c r="A29" s="149"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="164" t="s">
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="L29" s="155"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="155" t="s">
+      <c r="L29" s="162"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="O29" s="156"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="233"/>
-      <c r="X29" s="234"/>
-      <c r="Y29" s="234"/>
-      <c r="Z29" s="235"/>
-      <c r="AA29" s="246"/>
-      <c r="AB29" s="247"/>
-      <c r="AC29" s="248"/>
-      <c r="AD29" s="120" t="s">
+      <c r="O29" s="163"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="229"/>
+      <c r="X29" s="230"/>
+      <c r="Y29" s="230"/>
+      <c r="Z29" s="231"/>
+      <c r="AA29" s="241"/>
+      <c r="AB29" s="242"/>
+      <c r="AC29" s="243"/>
+      <c r="AD29" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AE29" s="120"/>
-      <c r="AF29" s="120"/>
-      <c r="AG29" s="164" t="s">
+      <c r="AE29" s="111"/>
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="AH29" s="155"/>
-      <c r="AI29" s="156"/>
-      <c r="AJ29" s="155" t="s">
+      <c r="AH29" s="162"/>
+      <c r="AI29" s="163"/>
+      <c r="AJ29" s="162" t="s">
         <v>133</v>
       </c>
-      <c r="AK29" s="156"/>
-      <c r="AL29" s="111"/>
-      <c r="AM29" s="112"/>
-      <c r="AN29" s="113"/>
-      <c r="AO29" s="111"/>
-      <c r="AP29" s="112"/>
-      <c r="AQ29" s="113"/>
+      <c r="AK29" s="163"/>
+      <c r="AL29" s="102"/>
+      <c r="AM29" s="103"/>
+      <c r="AN29" s="104"/>
+      <c r="AO29" s="102"/>
+      <c r="AP29" s="103"/>
+      <c r="AQ29" s="104"/>
     </row>
     <row r="30" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="142"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="157" t="s">
+      <c r="A30" s="149"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="120" t="s">
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="164" t="s">
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="L30" s="155"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="155" t="s">
+      <c r="L30" s="162"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="O30" s="156"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="233"/>
-      <c r="X30" s="234"/>
-      <c r="Y30" s="234"/>
-      <c r="Z30" s="235"/>
-      <c r="AA30" s="114" t="s">
+      <c r="O30" s="163"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="229"/>
+      <c r="X30" s="230"/>
+      <c r="Y30" s="230"/>
+      <c r="Z30" s="231"/>
+      <c r="AA30" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="AB30" s="244"/>
-      <c r="AC30" s="245"/>
-      <c r="AD30" s="120" t="s">
+      <c r="AB30" s="239"/>
+      <c r="AC30" s="240"/>
+      <c r="AD30" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="164" t="s">
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="AH30" s="155"/>
-      <c r="AI30" s="156"/>
-      <c r="AJ30" s="155" t="s">
+      <c r="AH30" s="162"/>
+      <c r="AI30" s="163"/>
+      <c r="AJ30" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="AK30" s="156"/>
-      <c r="AL30" s="111"/>
-      <c r="AM30" s="112"/>
-      <c r="AN30" s="113"/>
-      <c r="AO30" s="111"/>
-      <c r="AP30" s="112"/>
-      <c r="AQ30" s="113"/>
+      <c r="AK30" s="163"/>
+      <c r="AL30" s="102"/>
+      <c r="AM30" s="103"/>
+      <c r="AN30" s="104"/>
+      <c r="AO30" s="102"/>
+      <c r="AP30" s="103"/>
+      <c r="AQ30" s="104"/>
     </row>
     <row r="31" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="142"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="161" t="s">
+      <c r="A31" s="149"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="162"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="164" t="s">
+      <c r="I31" s="169"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="155"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="155" t="s">
+      <c r="L31" s="162"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="O31" s="156"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="233"/>
-      <c r="X31" s="234"/>
-      <c r="Y31" s="234"/>
-      <c r="Z31" s="235"/>
-      <c r="AA31" s="246"/>
-      <c r="AB31" s="247"/>
-      <c r="AC31" s="248"/>
-      <c r="AD31" s="120" t="s">
+      <c r="O31" s="163"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="229"/>
+      <c r="X31" s="230"/>
+      <c r="Y31" s="230"/>
+      <c r="Z31" s="231"/>
+      <c r="AA31" s="241"/>
+      <c r="AB31" s="242"/>
+      <c r="AC31" s="243"/>
+      <c r="AD31" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AE31" s="120"/>
-      <c r="AF31" s="120"/>
-      <c r="AG31" s="164" t="s">
+      <c r="AE31" s="111"/>
+      <c r="AF31" s="111"/>
+      <c r="AG31" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="AH31" s="155"/>
-      <c r="AI31" s="156"/>
-      <c r="AJ31" s="155" t="s">
+      <c r="AH31" s="162"/>
+      <c r="AI31" s="163"/>
+      <c r="AJ31" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="AK31" s="156"/>
-      <c r="AL31" s="111"/>
-      <c r="AM31" s="112"/>
-      <c r="AN31" s="113"/>
-      <c r="AO31" s="111"/>
-      <c r="AP31" s="112"/>
-      <c r="AQ31" s="113"/>
+      <c r="AK31" s="163"/>
+      <c r="AL31" s="102"/>
+      <c r="AM31" s="103"/>
+      <c r="AN31" s="104"/>
+      <c r="AO31" s="102"/>
+      <c r="AP31" s="103"/>
+      <c r="AQ31" s="104"/>
     </row>
     <row r="32" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="142"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="157" t="s">
+      <c r="A32" s="149"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="120" t="s">
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="211" t="s">
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="L32" s="209"/>
-      <c r="M32" s="210"/>
-      <c r="N32" s="209" t="s">
+      <c r="L32" s="189"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="O32" s="210"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="233"/>
-      <c r="X32" s="234"/>
-      <c r="Y32" s="234"/>
-      <c r="Z32" s="235"/>
-      <c r="AA32" s="114" t="s">
+      <c r="O32" s="190"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="229"/>
+      <c r="X32" s="230"/>
+      <c r="Y32" s="230"/>
+      <c r="Z32" s="231"/>
+      <c r="AA32" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="AB32" s="244"/>
-      <c r="AC32" s="245"/>
-      <c r="AD32" s="120" t="s">
+      <c r="AB32" s="239"/>
+      <c r="AC32" s="240"/>
+      <c r="AD32" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="164" t="s">
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="AH32" s="155"/>
-      <c r="AI32" s="156"/>
-      <c r="AJ32" s="155" t="s">
+      <c r="AH32" s="162"/>
+      <c r="AI32" s="163"/>
+      <c r="AJ32" s="162" t="s">
         <v>162</v>
       </c>
-      <c r="AK32" s="156"/>
-      <c r="AL32" s="111"/>
-      <c r="AM32" s="112"/>
-      <c r="AN32" s="113"/>
-      <c r="AO32" s="111"/>
-      <c r="AP32" s="112"/>
-      <c r="AQ32" s="113"/>
+      <c r="AK32" s="163"/>
+      <c r="AL32" s="102"/>
+      <c r="AM32" s="103"/>
+      <c r="AN32" s="104"/>
+      <c r="AO32" s="102"/>
+      <c r="AP32" s="103"/>
+      <c r="AQ32" s="104"/>
     </row>
     <row r="33" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="142"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="161" t="s">
+      <c r="A33" s="149"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="I33" s="162"/>
-      <c r="J33" s="163"/>
-      <c r="K33" s="164" t="s">
+      <c r="I33" s="169"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="L33" s="155"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="155" t="s">
+      <c r="L33" s="162"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="O33" s="156"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="236"/>
-      <c r="X33" s="237"/>
-      <c r="Y33" s="237"/>
-      <c r="Z33" s="238"/>
-      <c r="AA33" s="246"/>
-      <c r="AB33" s="247"/>
-      <c r="AC33" s="248"/>
-      <c r="AD33" s="120" t="s">
+      <c r="O33" s="163"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="232"/>
+      <c r="X33" s="233"/>
+      <c r="Y33" s="233"/>
+      <c r="Z33" s="234"/>
+      <c r="AA33" s="241"/>
+      <c r="AB33" s="242"/>
+      <c r="AC33" s="243"/>
+      <c r="AD33" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AE33" s="120"/>
-      <c r="AF33" s="120"/>
-      <c r="AG33" s="164" t="s">
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="AH33" s="155"/>
-      <c r="AI33" s="156"/>
-      <c r="AJ33" s="155" t="s">
+      <c r="AH33" s="162"/>
+      <c r="AI33" s="163"/>
+      <c r="AJ33" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="AK33" s="156"/>
-      <c r="AL33" s="111"/>
-      <c r="AM33" s="112"/>
-      <c r="AN33" s="113"/>
-      <c r="AO33" s="111"/>
-      <c r="AP33" s="112"/>
-      <c r="AQ33" s="113"/>
+      <c r="AK33" s="163"/>
+      <c r="AL33" s="102"/>
+      <c r="AM33" s="103"/>
+      <c r="AN33" s="104"/>
+      <c r="AO33" s="102"/>
+      <c r="AP33" s="103"/>
+      <c r="AQ33" s="104"/>
     </row>
     <row r="34" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="139" t="s">
+      <c r="A34" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="140"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="148" t="s">
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="165" t="s">
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="168" t="s">
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="L34" s="166"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="166" t="s">
+      <c r="L34" s="173"/>
+      <c r="M34" s="174"/>
+      <c r="N34" s="173" t="s">
         <v>113</v>
       </c>
-      <c r="O34" s="167"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="233" t="s">
+      <c r="O34" s="174"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="102"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="X34" s="234"/>
-      <c r="Y34" s="234"/>
-      <c r="Z34" s="235"/>
-      <c r="AA34" s="114" t="s">
+      <c r="X34" s="230"/>
+      <c r="Y34" s="230"/>
+      <c r="Z34" s="231"/>
+      <c r="AA34" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="AB34" s="244"/>
-      <c r="AC34" s="245"/>
-      <c r="AD34" s="120" t="s">
+      <c r="AB34" s="239"/>
+      <c r="AC34" s="240"/>
+      <c r="AD34" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AE34" s="120"/>
-      <c r="AF34" s="120"/>
-      <c r="AG34" s="164" t="s">
+      <c r="AE34" s="111"/>
+      <c r="AF34" s="111"/>
+      <c r="AG34" s="171" t="s">
         <v>145</v>
       </c>
-      <c r="AH34" s="155"/>
-      <c r="AI34" s="156"/>
-      <c r="AJ34" s="155" t="s">
+      <c r="AH34" s="162"/>
+      <c r="AI34" s="163"/>
+      <c r="AJ34" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="AK34" s="156"/>
-      <c r="AL34" s="111"/>
-      <c r="AM34" s="112"/>
-      <c r="AN34" s="113"/>
-      <c r="AO34" s="111"/>
-      <c r="AP34" s="112"/>
-      <c r="AQ34" s="113"/>
+      <c r="AK34" s="163"/>
+      <c r="AL34" s="102"/>
+      <c r="AM34" s="103"/>
+      <c r="AN34" s="104"/>
+      <c r="AO34" s="102"/>
+      <c r="AP34" s="103"/>
+      <c r="AQ34" s="104"/>
     </row>
     <row r="35" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="142"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="165" t="s">
+      <c r="A35" s="149"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="169" t="s">
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="L35" s="153"/>
-      <c r="M35" s="154"/>
-      <c r="N35" s="153" t="s">
+      <c r="L35" s="160"/>
+      <c r="M35" s="161"/>
+      <c r="N35" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="O35" s="154"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="112"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
-      <c r="Y35" s="234"/>
-      <c r="Z35" s="235"/>
-      <c r="AA35" s="246"/>
-      <c r="AB35" s="247"/>
-      <c r="AC35" s="248"/>
-      <c r="AD35" s="120" t="s">
+      <c r="O35" s="161"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="102"/>
+      <c r="T35" s="103"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="229"/>
+      <c r="X35" s="230"/>
+      <c r="Y35" s="230"/>
+      <c r="Z35" s="231"/>
+      <c r="AA35" s="241"/>
+      <c r="AB35" s="242"/>
+      <c r="AC35" s="243"/>
+      <c r="AD35" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AE35" s="120"/>
-      <c r="AF35" s="120"/>
-      <c r="AG35" s="164" t="s">
+      <c r="AE35" s="111"/>
+      <c r="AF35" s="111"/>
+      <c r="AG35" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="AH35" s="155"/>
-      <c r="AI35" s="156"/>
-      <c r="AJ35" s="155" t="s">
+      <c r="AH35" s="162"/>
+      <c r="AI35" s="163"/>
+      <c r="AJ35" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="AK35" s="156"/>
-      <c r="AL35" s="111"/>
-      <c r="AM35" s="112"/>
-      <c r="AN35" s="113"/>
-      <c r="AO35" s="111"/>
-      <c r="AP35" s="112"/>
-      <c r="AQ35" s="113"/>
-      <c r="AY35" s="19"/>
+      <c r="AK35" s="163"/>
+      <c r="AL35" s="102"/>
+      <c r="AM35" s="103"/>
+      <c r="AN35" s="104"/>
+      <c r="AO35" s="102"/>
+      <c r="AP35" s="103"/>
+      <c r="AQ35" s="104"/>
+      <c r="AY35" s="16"/>
     </row>
     <row r="36" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="142"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="148" t="s">
+      <c r="A36" s="149"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="165" t="s">
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="168" t="s">
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="L36" s="166"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="166" t="s">
+      <c r="L36" s="173"/>
+      <c r="M36" s="174"/>
+      <c r="N36" s="173" t="s">
         <v>113</v>
       </c>
-      <c r="O36" s="167"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="112"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="233"/>
-      <c r="X36" s="234"/>
-      <c r="Y36" s="234"/>
-      <c r="Z36" s="235"/>
-      <c r="AA36" s="114" t="s">
+      <c r="O36" s="174"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="229"/>
+      <c r="X36" s="230"/>
+      <c r="Y36" s="230"/>
+      <c r="Z36" s="231"/>
+      <c r="AA36" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="AB36" s="244"/>
-      <c r="AC36" s="245"/>
-      <c r="AD36" s="120" t="s">
+      <c r="AB36" s="239"/>
+      <c r="AC36" s="240"/>
+      <c r="AD36" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AE36" s="120"/>
-      <c r="AF36" s="120"/>
-      <c r="AG36" s="164" t="s">
+      <c r="AE36" s="111"/>
+      <c r="AF36" s="111"/>
+      <c r="AG36" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="AH36" s="155"/>
-      <c r="AI36" s="156"/>
-      <c r="AJ36" s="155" t="s">
+      <c r="AH36" s="162"/>
+      <c r="AI36" s="163"/>
+      <c r="AJ36" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="AK36" s="156"/>
-      <c r="AL36" s="111"/>
-      <c r="AM36" s="112"/>
-      <c r="AN36" s="113"/>
-      <c r="AO36" s="111"/>
-      <c r="AP36" s="112"/>
-      <c r="AQ36" s="113"/>
+      <c r="AK36" s="163"/>
+      <c r="AL36" s="102"/>
+      <c r="AM36" s="103"/>
+      <c r="AN36" s="104"/>
+      <c r="AO36" s="102"/>
+      <c r="AP36" s="103"/>
+      <c r="AQ36" s="104"/>
     </row>
     <row r="37" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="150"/>
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="165" t="s">
+      <c r="A37" s="157"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="169" t="s">
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="L37" s="153"/>
-      <c r="M37" s="154"/>
-      <c r="N37" s="153" t="s">
+      <c r="L37" s="160"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="O37" s="154"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="113"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="112"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="233"/>
-      <c r="X37" s="234"/>
-      <c r="Y37" s="234"/>
-      <c r="Z37" s="235"/>
-      <c r="AA37" s="246"/>
-      <c r="AB37" s="247"/>
-      <c r="AC37" s="248"/>
-      <c r="AD37" s="120" t="s">
+      <c r="O37" s="161"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="102"/>
+      <c r="T37" s="103"/>
+      <c r="U37" s="104"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="229"/>
+      <c r="X37" s="230"/>
+      <c r="Y37" s="230"/>
+      <c r="Z37" s="231"/>
+      <c r="AA37" s="241"/>
+      <c r="AB37" s="242"/>
+      <c r="AC37" s="243"/>
+      <c r="AD37" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AE37" s="120"/>
-      <c r="AF37" s="120"/>
-      <c r="AG37" s="164" t="s">
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="AH37" s="155"/>
-      <c r="AI37" s="156"/>
-      <c r="AJ37" s="155" t="s">
+      <c r="AH37" s="162"/>
+      <c r="AI37" s="163"/>
+      <c r="AJ37" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="AK37" s="156"/>
-      <c r="AL37" s="111"/>
-      <c r="AM37" s="112"/>
-      <c r="AN37" s="113"/>
-      <c r="AO37" s="111"/>
-      <c r="AP37" s="112"/>
-      <c r="AQ37" s="113"/>
+      <c r="AK37" s="163"/>
+      <c r="AL37" s="102"/>
+      <c r="AM37" s="103"/>
+      <c r="AN37" s="104"/>
+      <c r="AO37" s="102"/>
+      <c r="AP37" s="103"/>
+      <c r="AQ37" s="104"/>
     </row>
     <row r="38" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="183" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="180"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="181"/>
-      <c r="E38" s="25">
+      <c r="B38" s="184"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="142">
         <v>17</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="23" t="s">
+      <c r="F38" s="140"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="249" t="s">
+      <c r="I38" s="140"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="244" t="s">
         <v>119</v>
       </c>
-      <c r="L38" s="250"/>
-      <c r="M38" s="251"/>
-      <c r="N38" s="153" t="s">
+      <c r="L38" s="245"/>
+      <c r="M38" s="246"/>
+      <c r="N38" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="O38" s="154"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="113"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="112"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="233"/>
-      <c r="X38" s="234"/>
-      <c r="Y38" s="234"/>
-      <c r="Z38" s="235"/>
-      <c r="AA38" s="114" t="s">
+      <c r="O38" s="161"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="102"/>
+      <c r="T38" s="103"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="229"/>
+      <c r="X38" s="230"/>
+      <c r="Y38" s="230"/>
+      <c r="Z38" s="231"/>
+      <c r="AA38" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="AB38" s="244"/>
-      <c r="AC38" s="245"/>
-      <c r="AD38" s="120" t="s">
+      <c r="AB38" s="239"/>
+      <c r="AC38" s="240"/>
+      <c r="AD38" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AE38" s="120"/>
-      <c r="AF38" s="120"/>
-      <c r="AG38" s="164" t="s">
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="AH38" s="155"/>
-      <c r="AI38" s="156"/>
-      <c r="AJ38" s="222" t="s">
+      <c r="AH38" s="162"/>
+      <c r="AI38" s="163"/>
+      <c r="AJ38" s="218" t="s">
         <v>152</v>
       </c>
-      <c r="AK38" s="223"/>
-      <c r="AL38" s="111"/>
-      <c r="AM38" s="112"/>
-      <c r="AN38" s="113"/>
-      <c r="AO38" s="111"/>
-      <c r="AP38" s="112"/>
-      <c r="AQ38" s="113"/>
+      <c r="AK38" s="219"/>
+      <c r="AL38" s="102"/>
+      <c r="AM38" s="103"/>
+      <c r="AN38" s="104"/>
+      <c r="AO38" s="102"/>
+      <c r="AP38" s="103"/>
+      <c r="AQ38" s="104"/>
     </row>
     <row r="39" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="182"/>
-      <c r="B39" s="183"/>
-      <c r="C39" s="183"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="25">
+      <c r="A39" s="186"/>
+      <c r="B39" s="187"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="142">
         <v>18</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="23" t="s">
+      <c r="F39" s="140"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="169" t="s">
+      <c r="I39" s="140"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="153"/>
-      <c r="M39" s="154"/>
-      <c r="N39" s="153" t="s">
+      <c r="L39" s="160"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="O39" s="154"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="113"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="112"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="236"/>
-      <c r="X39" s="237"/>
-      <c r="Y39" s="237"/>
-      <c r="Z39" s="238"/>
-      <c r="AA39" s="246"/>
-      <c r="AB39" s="247"/>
-      <c r="AC39" s="248"/>
-      <c r="AD39" s="120" t="s">
+      <c r="O39" s="161"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="102"/>
+      <c r="T39" s="103"/>
+      <c r="U39" s="104"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="232"/>
+      <c r="X39" s="233"/>
+      <c r="Y39" s="233"/>
+      <c r="Z39" s="234"/>
+      <c r="AA39" s="241"/>
+      <c r="AB39" s="242"/>
+      <c r="AC39" s="243"/>
+      <c r="AD39" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AE39" s="120"/>
-      <c r="AF39" s="120"/>
-      <c r="AG39" s="164" t="s">
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="AH39" s="155"/>
-      <c r="AI39" s="156"/>
-      <c r="AJ39" s="155" t="s">
+      <c r="AH39" s="162"/>
+      <c r="AI39" s="163"/>
+      <c r="AJ39" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="AK39" s="156"/>
-      <c r="AL39" s="111"/>
-      <c r="AM39" s="112"/>
-      <c r="AN39" s="113"/>
-      <c r="AO39" s="111"/>
-      <c r="AP39" s="112"/>
-      <c r="AQ39" s="113"/>
+      <c r="AK39" s="163"/>
+      <c r="AL39" s="102"/>
+      <c r="AM39" s="103"/>
+      <c r="AN39" s="104"/>
+      <c r="AO39" s="102"/>
+      <c r="AP39" s="103"/>
+      <c r="AQ39" s="104"/>
     </row>
     <row r="40" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="230" t="s">
+      <c r="A40" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="231"/>
-      <c r="C40" s="231"/>
-      <c r="D40" s="232"/>
-      <c r="E40" s="172" t="s">
+      <c r="B40" s="227"/>
+      <c r="C40" s="227"/>
+      <c r="D40" s="228"/>
+      <c r="E40" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="120" t="s">
+      <c r="F40" s="164"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="129" t="s">
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="L40" s="130"/>
-      <c r="M40" s="241"/>
-      <c r="N40" s="209" t="s">
+      <c r="L40" s="121"/>
+      <c r="M40" s="191"/>
+      <c r="N40" s="189" t="s">
         <v>126</v>
       </c>
-      <c r="O40" s="210"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="212" t="s">
+      <c r="O40" s="190"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="102"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="104"/>
+      <c r="V40" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="W40" s="213"/>
-      <c r="X40" s="213"/>
-      <c r="Y40" s="213"/>
-      <c r="Z40" s="213"/>
-      <c r="AA40" s="213"/>
-      <c r="AB40" s="213"/>
-      <c r="AC40" s="213"/>
-      <c r="AD40" s="213"/>
-      <c r="AE40" s="213"/>
-      <c r="AF40" s="213"/>
-      <c r="AG40" s="213"/>
-      <c r="AH40" s="213"/>
-      <c r="AI40" s="213"/>
-      <c r="AJ40" s="213"/>
-      <c r="AK40" s="213"/>
-      <c r="AL40" s="216" t="s">
+      <c r="W40" s="131"/>
+      <c r="X40" s="131"/>
+      <c r="Y40" s="131"/>
+      <c r="Z40" s="131"/>
+      <c r="AA40" s="131"/>
+      <c r="AB40" s="131"/>
+      <c r="AC40" s="131"/>
+      <c r="AD40" s="131"/>
+      <c r="AE40" s="131"/>
+      <c r="AF40" s="131"/>
+      <c r="AG40" s="131"/>
+      <c r="AH40" s="131"/>
+      <c r="AI40" s="131"/>
+      <c r="AJ40" s="131"/>
+      <c r="AK40" s="131"/>
+      <c r="AL40" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="AM40" s="217"/>
-      <c r="AN40" s="217"/>
-      <c r="AO40" s="217"/>
-      <c r="AP40" s="217"/>
-      <c r="AQ40" s="218"/>
+      <c r="AM40" s="135"/>
+      <c r="AN40" s="135"/>
+      <c r="AO40" s="135"/>
+      <c r="AP40" s="135"/>
+      <c r="AQ40" s="136"/>
     </row>
     <row r="41" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="233"/>
-      <c r="B41" s="234"/>
-      <c r="C41" s="234"/>
-      <c r="D41" s="235"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="120" t="s">
+      <c r="A41" s="229"/>
+      <c r="B41" s="230"/>
+      <c r="C41" s="230"/>
+      <c r="D41" s="231"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="120"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="129" t="s">
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="L41" s="130"/>
-      <c r="M41" s="241"/>
-      <c r="N41" s="209" t="s">
+      <c r="L41" s="121"/>
+      <c r="M41" s="191"/>
+      <c r="N41" s="189" t="s">
         <v>127</v>
       </c>
-      <c r="O41" s="210"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="214"/>
-      <c r="W41" s="215"/>
-      <c r="X41" s="215"/>
-      <c r="Y41" s="215"/>
-      <c r="Z41" s="215"/>
-      <c r="AA41" s="215"/>
-      <c r="AB41" s="215"/>
-      <c r="AC41" s="215"/>
-      <c r="AD41" s="215"/>
-      <c r="AE41" s="215"/>
-      <c r="AF41" s="215"/>
-      <c r="AG41" s="215"/>
-      <c r="AH41" s="215"/>
-      <c r="AI41" s="215"/>
-      <c r="AJ41" s="215"/>
-      <c r="AK41" s="215"/>
-      <c r="AL41" s="219"/>
-      <c r="AM41" s="220"/>
-      <c r="AN41" s="220"/>
-      <c r="AO41" s="220"/>
-      <c r="AP41" s="220"/>
-      <c r="AQ41" s="221"/>
+      <c r="O41" s="190"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="102"/>
+      <c r="T41" s="103"/>
+      <c r="U41" s="104"/>
+      <c r="V41" s="132"/>
+      <c r="W41" s="133"/>
+      <c r="X41" s="133"/>
+      <c r="Y41" s="133"/>
+      <c r="Z41" s="133"/>
+      <c r="AA41" s="133"/>
+      <c r="AB41" s="133"/>
+      <c r="AC41" s="133"/>
+      <c r="AD41" s="133"/>
+      <c r="AE41" s="133"/>
+      <c r="AF41" s="133"/>
+      <c r="AG41" s="133"/>
+      <c r="AH41" s="133"/>
+      <c r="AI41" s="133"/>
+      <c r="AJ41" s="133"/>
+      <c r="AK41" s="133"/>
+      <c r="AL41" s="137"/>
+      <c r="AM41" s="138"/>
+      <c r="AN41" s="138"/>
+      <c r="AO41" s="138"/>
+      <c r="AP41" s="138"/>
+      <c r="AQ41" s="139"/>
     </row>
     <row r="42" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="233"/>
-      <c r="B42" s="234"/>
-      <c r="C42" s="234"/>
-      <c r="D42" s="235"/>
-      <c r="E42" s="121" t="s">
+      <c r="A42" s="229"/>
+      <c r="B42" s="230"/>
+      <c r="C42" s="230"/>
+      <c r="D42" s="231"/>
+      <c r="E42" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="122"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="120" t="s">
+      <c r="F42" s="113"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="129" t="s">
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="L42" s="130"/>
-      <c r="M42" s="241"/>
-      <c r="N42" s="209" t="s">
+      <c r="L42" s="121"/>
+      <c r="M42" s="191"/>
+      <c r="N42" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="O42" s="210"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="214"/>
-      <c r="W42" s="215"/>
-      <c r="X42" s="215"/>
-      <c r="Y42" s="215"/>
-      <c r="Z42" s="215"/>
-      <c r="AA42" s="215"/>
-      <c r="AB42" s="215"/>
-      <c r="AC42" s="215"/>
-      <c r="AD42" s="215"/>
-      <c r="AE42" s="215"/>
-      <c r="AF42" s="215"/>
-      <c r="AG42" s="215"/>
-      <c r="AH42" s="215"/>
-      <c r="AI42" s="215"/>
-      <c r="AJ42" s="215"/>
-      <c r="AK42" s="215"/>
-      <c r="AL42" s="219"/>
-      <c r="AM42" s="220"/>
-      <c r="AN42" s="220"/>
-      <c r="AO42" s="220"/>
-      <c r="AP42" s="220"/>
-      <c r="AQ42" s="221"/>
+      <c r="O42" s="190"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="102"/>
+      <c r="T42" s="103"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="132"/>
+      <c r="W42" s="133"/>
+      <c r="X42" s="133"/>
+      <c r="Y42" s="133"/>
+      <c r="Z42" s="133"/>
+      <c r="AA42" s="133"/>
+      <c r="AB42" s="133"/>
+      <c r="AC42" s="133"/>
+      <c r="AD42" s="133"/>
+      <c r="AE42" s="133"/>
+      <c r="AF42" s="133"/>
+      <c r="AG42" s="133"/>
+      <c r="AH42" s="133"/>
+      <c r="AI42" s="133"/>
+      <c r="AJ42" s="133"/>
+      <c r="AK42" s="133"/>
+      <c r="AL42" s="137"/>
+      <c r="AM42" s="138"/>
+      <c r="AN42" s="138"/>
+      <c r="AO42" s="138"/>
+      <c r="AP42" s="138"/>
+      <c r="AQ42" s="139"/>
     </row>
     <row r="43" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="236"/>
-      <c r="B43" s="237"/>
-      <c r="C43" s="237"/>
-      <c r="D43" s="238"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="120" t="s">
+      <c r="A43" s="232"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="233"/>
+      <c r="D43" s="234"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="129" t="s">
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="211" t="s">
+      <c r="L43" s="121"/>
+      <c r="M43" s="121"/>
+      <c r="N43" s="217" t="s">
         <v>163</v>
       </c>
-      <c r="O43" s="210"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="214"/>
-      <c r="W43" s="215"/>
-      <c r="X43" s="215"/>
-      <c r="Y43" s="215"/>
-      <c r="Z43" s="215"/>
-      <c r="AA43" s="215"/>
-      <c r="AB43" s="215"/>
-      <c r="AC43" s="215"/>
-      <c r="AD43" s="215"/>
-      <c r="AE43" s="215"/>
-      <c r="AF43" s="215"/>
-      <c r="AG43" s="215"/>
-      <c r="AH43" s="215"/>
-      <c r="AI43" s="215"/>
-      <c r="AJ43" s="215"/>
-      <c r="AK43" s="215"/>
-      <c r="AL43" s="219"/>
-      <c r="AM43" s="220"/>
-      <c r="AN43" s="220"/>
-      <c r="AO43" s="220"/>
-      <c r="AP43" s="220"/>
-      <c r="AQ43" s="221"/>
+      <c r="O43" s="190"/>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="103"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="102"/>
+      <c r="T43" s="103"/>
+      <c r="U43" s="104"/>
+      <c r="V43" s="132"/>
+      <c r="W43" s="133"/>
+      <c r="X43" s="133"/>
+      <c r="Y43" s="133"/>
+      <c r="Z43" s="133"/>
+      <c r="AA43" s="133"/>
+      <c r="AB43" s="133"/>
+      <c r="AC43" s="133"/>
+      <c r="AD43" s="133"/>
+      <c r="AE43" s="133"/>
+      <c r="AF43" s="133"/>
+      <c r="AG43" s="133"/>
+      <c r="AH43" s="133"/>
+      <c r="AI43" s="133"/>
+      <c r="AJ43" s="133"/>
+      <c r="AK43" s="133"/>
+      <c r="AL43" s="137"/>
+      <c r="AM43" s="138"/>
+      <c r="AN43" s="138"/>
+      <c r="AO43" s="138"/>
+      <c r="AP43" s="138"/>
+      <c r="AQ43" s="139"/>
     </row>
     <row r="44" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="224" t="s">
+      <c r="A44" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="225"/>
-      <c r="C44" s="225"/>
-      <c r="D44" s="226"/>
-      <c r="E44" s="114" t="s">
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="120" t="s">
+      <c r="F44" s="106"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="129" t="s">
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="L44" s="130"/>
-      <c r="M44" s="130"/>
-      <c r="N44" s="211" t="s">
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="217" t="s">
         <v>129</v>
       </c>
-      <c r="O44" s="210"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="214"/>
-      <c r="W44" s="215"/>
-      <c r="X44" s="215"/>
-      <c r="Y44" s="215"/>
-      <c r="Z44" s="215"/>
-      <c r="AA44" s="215"/>
-      <c r="AB44" s="215"/>
-      <c r="AC44" s="215"/>
-      <c r="AD44" s="215"/>
-      <c r="AE44" s="215"/>
-      <c r="AF44" s="215"/>
-      <c r="AG44" s="215"/>
-      <c r="AH44" s="215"/>
-      <c r="AI44" s="215"/>
-      <c r="AJ44" s="215"/>
-      <c r="AK44" s="215"/>
-      <c r="AL44" s="219"/>
-      <c r="AM44" s="220"/>
-      <c r="AN44" s="220"/>
-      <c r="AO44" s="220"/>
-      <c r="AP44" s="220"/>
-      <c r="AQ44" s="221"/>
+      <c r="O44" s="190"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="103"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="102"/>
+      <c r="T44" s="103"/>
+      <c r="U44" s="104"/>
+      <c r="V44" s="132"/>
+      <c r="W44" s="133"/>
+      <c r="X44" s="133"/>
+      <c r="Y44" s="133"/>
+      <c r="Z44" s="133"/>
+      <c r="AA44" s="133"/>
+      <c r="AB44" s="133"/>
+      <c r="AC44" s="133"/>
+      <c r="AD44" s="133"/>
+      <c r="AE44" s="133"/>
+      <c r="AF44" s="133"/>
+      <c r="AG44" s="133"/>
+      <c r="AH44" s="133"/>
+      <c r="AI44" s="133"/>
+      <c r="AJ44" s="133"/>
+      <c r="AK44" s="133"/>
+      <c r="AL44" s="137"/>
+      <c r="AM44" s="138"/>
+      <c r="AN44" s="138"/>
+      <c r="AO44" s="138"/>
+      <c r="AP44" s="138"/>
+      <c r="AQ44" s="139"/>
     </row>
     <row r="45" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="227"/>
-      <c r="B45" s="228"/>
-      <c r="C45" s="228"/>
-      <c r="D45" s="229"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="120" t="s">
+      <c r="A45" s="223"/>
+      <c r="B45" s="224"/>
+      <c r="C45" s="224"/>
+      <c r="D45" s="225"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="120"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="211" t="s">
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="217" t="s">
         <v>125</v>
       </c>
-      <c r="L45" s="209"/>
-      <c r="M45" s="210"/>
-      <c r="N45" s="209" t="s">
+      <c r="L45" s="189"/>
+      <c r="M45" s="190"/>
+      <c r="N45" s="189" t="s">
         <v>130</v>
       </c>
-      <c r="O45" s="210"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="214"/>
-      <c r="W45" s="215"/>
-      <c r="X45" s="215"/>
-      <c r="Y45" s="215"/>
-      <c r="Z45" s="215"/>
-      <c r="AA45" s="215"/>
-      <c r="AB45" s="215"/>
-      <c r="AC45" s="215"/>
-      <c r="AD45" s="215"/>
-      <c r="AE45" s="215"/>
-      <c r="AF45" s="215"/>
-      <c r="AG45" s="215"/>
-      <c r="AH45" s="215"/>
-      <c r="AI45" s="215"/>
-      <c r="AJ45" s="215"/>
-      <c r="AK45" s="215"/>
-      <c r="AL45" s="219"/>
-      <c r="AM45" s="220"/>
-      <c r="AN45" s="220"/>
-      <c r="AO45" s="220"/>
-      <c r="AP45" s="220"/>
-      <c r="AQ45" s="221"/>
+      <c r="O45" s="190"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="103"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="132"/>
+      <c r="W45" s="133"/>
+      <c r="X45" s="133"/>
+      <c r="Y45" s="133"/>
+      <c r="Z45" s="133"/>
+      <c r="AA45" s="133"/>
+      <c r="AB45" s="133"/>
+      <c r="AC45" s="133"/>
+      <c r="AD45" s="133"/>
+      <c r="AE45" s="133"/>
+      <c r="AF45" s="133"/>
+      <c r="AG45" s="133"/>
+      <c r="AH45" s="133"/>
+      <c r="AI45" s="133"/>
+      <c r="AJ45" s="133"/>
+      <c r="AK45" s="133"/>
+      <c r="AL45" s="137"/>
+      <c r="AM45" s="138"/>
+      <c r="AN45" s="138"/>
+      <c r="AO45" s="138"/>
+      <c r="AP45" s="138"/>
+      <c r="AQ45" s="139"/>
     </row>
     <row r="46" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="127" t="s">
+      <c r="A46" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="34" t="s">
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="27" t="s">
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27" t="s">
+      <c r="M46" s="48"/>
+      <c r="N46" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
       <c r="R46" s="4"/>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
@@ -5961,23 +5585,23 @@
       <c r="AQ46" s="3"/>
     </row>
     <row r="47" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="128"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="170"/>
-      <c r="M47" s="170"/>
-      <c r="N47" s="170"/>
-      <c r="O47" s="170"/>
-      <c r="P47" s="170"/>
-      <c r="Q47" s="170"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="125"/>
+      <c r="N47" s="125"/>
+      <c r="O47" s="125"/>
+      <c r="P47" s="125"/>
+      <c r="Q47" s="125"/>
       <c r="R47" s="4"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
@@ -6006,29 +5630,29 @@
       <c r="AQ47" s="5"/>
     </row>
     <row r="48" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="131">
+      <c r="A48" s="127">
         <v>1</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="43" t="s">
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="86"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="106"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="96"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="95"/>
+      <c r="P48" s="95"/>
+      <c r="Q48" s="91"/>
       <c r="R48" s="4"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
@@ -6057,23 +5681,23 @@
       <c r="AQ48" s="5"/>
     </row>
     <row r="49" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="132"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="107"/>
-      <c r="O49" s="108"/>
-      <c r="P49" s="108"/>
-      <c r="Q49" s="109"/>
+      <c r="A49" s="128"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="97"/>
+      <c r="P49" s="97"/>
+      <c r="Q49" s="98"/>
       <c r="R49" s="4"/>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -6102,29 +5726,29 @@
       <c r="AQ49" s="5"/>
     </row>
     <row r="50" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="131">
+      <c r="A50" s="127">
         <v>2</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="43" t="s">
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="107"/>
-      <c r="O50" s="108"/>
-      <c r="P50" s="108"/>
-      <c r="Q50" s="109"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="96"/>
+      <c r="O50" s="97"/>
+      <c r="P50" s="97"/>
+      <c r="Q50" s="98"/>
       <c r="R50" s="4"/>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
@@ -6153,23 +5777,23 @@
       <c r="AQ50" s="5"/>
     </row>
     <row r="51" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="132"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="86"/>
-      <c r="N51" s="107"/>
-      <c r="O51" s="108"/>
-      <c r="P51" s="108"/>
-      <c r="Q51" s="109"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="96"/>
+      <c r="O51" s="97"/>
+      <c r="P51" s="97"/>
+      <c r="Q51" s="98"/>
       <c r="R51" s="4"/>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -6198,29 +5822,29 @@
       <c r="AQ51" s="5"/>
     </row>
     <row r="52" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="131">
+      <c r="A52" s="127">
         <v>3</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="43" t="s">
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="86"/>
-      <c r="N52" s="107"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="109"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="97"/>
+      <c r="Q52" s="98"/>
       <c r="R52" s="4"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
@@ -6249,23 +5873,23 @@
       <c r="AQ52" s="5"/>
     </row>
     <row r="53" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="132"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="107"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="109"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="96"/>
+      <c r="O53" s="97"/>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="98"/>
       <c r="R53" s="4"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
@@ -6294,29 +5918,29 @@
       <c r="AQ53" s="5"/>
     </row>
     <row r="54" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="131">
+      <c r="A54" s="127">
         <v>4</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="43" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="95"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="107"/>
-      <c r="O54" s="108"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="109"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="97"/>
+      <c r="P54" s="97"/>
+      <c r="Q54" s="98"/>
       <c r="R54" s="4"/>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
@@ -6345,23 +5969,23 @@
       <c r="AQ54" s="5"/>
     </row>
     <row r="55" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="178"/>
-      <c r="B55" s="173"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
-      <c r="E55" s="174"/>
-      <c r="F55" s="174"/>
-      <c r="G55" s="174"/>
-      <c r="H55" s="175"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="176"/>
-      <c r="K55" s="177"/>
-      <c r="L55" s="107"/>
-      <c r="M55" s="109"/>
-      <c r="N55" s="107"/>
-      <c r="O55" s="108"/>
-      <c r="P55" s="108"/>
-      <c r="Q55" s="109"/>
+      <c r="A55" s="129"/>
+      <c r="B55" s="178"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
+      <c r="E55" s="179"/>
+      <c r="F55" s="179"/>
+      <c r="G55" s="179"/>
+      <c r="H55" s="180"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="181"/>
+      <c r="K55" s="182"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="96"/>
+      <c r="O55" s="97"/>
+      <c r="P55" s="97"/>
+      <c r="Q55" s="98"/>
       <c r="R55" s="4"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
@@ -6390,23 +6014,23 @@
       <c r="AQ55" s="5"/>
     </row>
     <row r="56" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="132"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="97"/>
-      <c r="O56" s="110"/>
-      <c r="P56" s="110"/>
-      <c r="Q56" s="98"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="92"/>
+      <c r="O56" s="99"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="93"/>
       <c r="R56" s="6"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
@@ -6435,33 +6059,33 @@
       <c r="AQ56" s="7"/>
     </row>
     <row r="57" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="34" t="s">
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="170" t="s">
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="M57" s="170"/>
-      <c r="N57" s="170" t="s">
+      <c r="M57" s="125"/>
+      <c r="N57" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="O57" s="170"/>
-      <c r="P57" s="170"/>
-      <c r="Q57" s="170"/>
+      <c r="O57" s="125"/>
+      <c r="P57" s="125"/>
+      <c r="Q57" s="125"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
@@ -6490,23 +6114,23 @@
       <c r="AQ57" s="3"/>
     </row>
     <row r="58" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="71"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="170"/>
-      <c r="M58" s="170"/>
-      <c r="N58" s="170"/>
-      <c r="O58" s="170"/>
-      <c r="P58" s="170"/>
-      <c r="Q58" s="170"/>
+      <c r="A58" s="101"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="125"/>
+      <c r="M58" s="125"/>
+      <c r="N58" s="125"/>
+      <c r="O58" s="125"/>
+      <c r="P58" s="125"/>
+      <c r="Q58" s="125"/>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
@@ -6535,29 +6159,29 @@
       <c r="AQ58" s="5"/>
     </row>
     <row r="59" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="239">
+      <c r="A59" s="235">
         <v>1</v>
       </c>
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="43" t="s">
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="171"/>
-      <c r="M59" s="171"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="76"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="126"/>
+      <c r="M59" s="126"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="27"/>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
@@ -6586,23 +6210,23 @@
       <c r="AQ59" s="5"/>
     </row>
     <row r="60" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="240"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="171"/>
-      <c r="M60" s="171"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="82"/>
+      <c r="A60" s="236"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="126"/>
+      <c r="M60" s="126"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="33"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
@@ -6631,29 +6255,29 @@
       <c r="AQ60" s="5"/>
     </row>
     <row r="61" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="239">
+      <c r="A61" s="235">
         <v>2</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="43" t="s">
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="171"/>
-      <c r="M61" s="171"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="82"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="126"/>
+      <c r="M61" s="126"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="33"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
@@ -6682,23 +6306,23 @@
       <c r="AQ61" s="5"/>
     </row>
     <row r="62" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="240"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="171"/>
-      <c r="M62" s="171"/>
-      <c r="N62" s="80"/>
-      <c r="O62" s="81"/>
-      <c r="P62" s="81"/>
-      <c r="Q62" s="82"/>
+      <c r="A62" s="236"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="126"/>
+      <c r="M62" s="126"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="33"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
@@ -6727,29 +6351,29 @@
       <c r="AQ62" s="5"/>
     </row>
     <row r="63" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="239">
+      <c r="A63" s="235">
         <v>3</v>
       </c>
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="43" t="s">
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="171"/>
-      <c r="M63" s="171"/>
-      <c r="N63" s="80"/>
-      <c r="O63" s="81"/>
-      <c r="P63" s="81"/>
-      <c r="Q63" s="82"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="126"/>
+      <c r="M63" s="126"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="33"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
@@ -6778,23 +6402,23 @@
       <c r="AQ63" s="5"/>
     </row>
     <row r="64" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="240"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="171"/>
-      <c r="M64" s="171"/>
-      <c r="N64" s="80"/>
-      <c r="O64" s="81"/>
-      <c r="P64" s="81"/>
-      <c r="Q64" s="82"/>
+      <c r="A64" s="236"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="126"/>
+      <c r="M64" s="126"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="33"/>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
@@ -6823,29 +6447,29 @@
       <c r="AQ64" s="5"/>
     </row>
     <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="131">
+      <c r="A65" s="127">
         <v>4</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="43" t="s">
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="80"/>
-      <c r="O65" s="81"/>
-      <c r="P65" s="81"/>
-      <c r="Q65" s="82"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="33"/>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
@@ -6874,23 +6498,23 @@
       <c r="AQ65" s="5"/>
     </row>
     <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="132"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="78"/>
-      <c r="N66" s="80"/>
-      <c r="O66" s="81"/>
-      <c r="P66" s="81"/>
-      <c r="Q66" s="82"/>
+      <c r="A66" s="128"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="33"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
@@ -6919,29 +6543,29 @@
       <c r="AQ66" s="5"/>
     </row>
     <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="239">
+      <c r="A67" s="235">
         <v>5</v>
       </c>
-      <c r="B67" s="64" t="s">
+      <c r="B67" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="43" t="s">
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="171"/>
-      <c r="M67" s="171"/>
-      <c r="N67" s="80"/>
-      <c r="O67" s="81"/>
-      <c r="P67" s="81"/>
-      <c r="Q67" s="82"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="126"/>
+      <c r="M67" s="126"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="33"/>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
@@ -6970,23 +6594,23 @@
       <c r="AQ67" s="5"/>
     </row>
     <row r="68" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="240"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="171"/>
-      <c r="M68" s="171"/>
-      <c r="N68" s="77"/>
-      <c r="O68" s="83"/>
-      <c r="P68" s="83"/>
-      <c r="Q68" s="78"/>
+      <c r="A68" s="236"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="126"/>
+      <c r="M68" s="126"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="29"/>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
@@ -7015,82 +6639,82 @@
       <c r="AQ68" s="7"/>
     </row>
     <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="73"/>
-      <c r="L69" s="73"/>
-      <c r="M69" s="73"/>
-      <c r="N69" s="73"/>
-      <c r="O69" s="73"/>
-      <c r="P69" s="73"/>
-      <c r="Q69" s="74"/>
-      <c r="R69" s="133" t="s">
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="S69" s="134"/>
-      <c r="T69" s="134"/>
-      <c r="U69" s="134"/>
-      <c r="V69" s="134"/>
-      <c r="W69" s="134"/>
-      <c r="X69" s="134"/>
-      <c r="Y69" s="134"/>
-      <c r="Z69" s="134"/>
-      <c r="AA69" s="134"/>
-      <c r="AB69" s="134"/>
-      <c r="AC69" s="134"/>
-      <c r="AD69" s="134"/>
-      <c r="AE69" s="134"/>
-      <c r="AF69" s="134"/>
-      <c r="AG69" s="134"/>
-      <c r="AH69" s="134"/>
-      <c r="AI69" s="134"/>
-      <c r="AJ69" s="134"/>
-      <c r="AK69" s="134"/>
-      <c r="AL69" s="134"/>
-      <c r="AM69" s="134"/>
-      <c r="AN69" s="134"/>
-      <c r="AO69" s="134"/>
-      <c r="AP69" s="134"/>
-      <c r="AQ69" s="135"/>
+      <c r="S69" s="123"/>
+      <c r="T69" s="123"/>
+      <c r="U69" s="123"/>
+      <c r="V69" s="123"/>
+      <c r="W69" s="123"/>
+      <c r="X69" s="123"/>
+      <c r="Y69" s="123"/>
+      <c r="Z69" s="123"/>
+      <c r="AA69" s="123"/>
+      <c r="AB69" s="123"/>
+      <c r="AC69" s="123"/>
+      <c r="AD69" s="123"/>
+      <c r="AE69" s="123"/>
+      <c r="AF69" s="123"/>
+      <c r="AG69" s="123"/>
+      <c r="AH69" s="123"/>
+      <c r="AI69" s="123"/>
+      <c r="AJ69" s="123"/>
+      <c r="AK69" s="123"/>
+      <c r="AL69" s="123"/>
+      <c r="AM69" s="123"/>
+      <c r="AN69" s="123"/>
+      <c r="AO69" s="123"/>
+      <c r="AP69" s="123"/>
+      <c r="AQ69" s="124"/>
     </row>
     <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="34" t="s">
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="100" t="s">
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="M70" s="101"/>
-      <c r="N70" s="100" t="s">
+      <c r="M70" s="42"/>
+      <c r="N70" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O70" s="104"/>
-      <c r="P70" s="104"/>
-      <c r="Q70" s="101"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="42"/>
       <c r="R70" s="2"/>
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
@@ -7119,23 +6743,23 @@
       <c r="AQ70" s="3"/>
     </row>
     <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="71"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="102"/>
-      <c r="M71" s="103"/>
-      <c r="N71" s="102"/>
-      <c r="O71" s="105"/>
-      <c r="P71" s="105"/>
-      <c r="Q71" s="103"/>
+      <c r="A71" s="101"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="46"/>
+      <c r="Q71" s="44"/>
       <c r="R71" s="4"/>
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
@@ -7164,29 +6788,29 @@
       <c r="AQ71" s="5"/>
     </row>
     <row r="72" spans="1:43" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="93">
+      <c r="A72" s="88">
         <v>1</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="43" t="s">
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="95"/>
-      <c r="M72" s="96"/>
-      <c r="N72" s="86"/>
-      <c r="O72" s="86"/>
-      <c r="P72" s="86"/>
-      <c r="Q72" s="86"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="90"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="87"/>
+      <c r="O72" s="87"/>
+      <c r="P72" s="87"/>
+      <c r="Q72" s="87"/>
       <c r="R72" s="4"/>
       <c r="S72" s="8"/>
       <c r="T72" s="8"/>
@@ -7215,27 +6839,27 @@
       <c r="AQ72" s="5"/>
     </row>
     <row r="73" spans="1:43" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="94"/>
-      <c r="B73" s="58" t="s">
+      <c r="A73" s="89"/>
+      <c r="B73" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="61" t="s">
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="95"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="86"/>
-      <c r="O73" s="86"/>
-      <c r="P73" s="86"/>
-      <c r="Q73" s="86"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="87"/>
+      <c r="O73" s="87"/>
+      <c r="P73" s="87"/>
+      <c r="Q73" s="87"/>
       <c r="R73" s="4"/>
       <c r="S73" s="8"/>
       <c r="T73" s="8"/>
@@ -7264,29 +6888,29 @@
       <c r="AQ73" s="5"/>
     </row>
     <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="93">
+      <c r="A74" s="88">
         <v>2</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="43" t="s">
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="95"/>
-      <c r="M74" s="96"/>
-      <c r="N74" s="86"/>
-      <c r="O74" s="86"/>
-      <c r="P74" s="86"/>
-      <c r="Q74" s="86"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="90"/>
+      <c r="M74" s="91"/>
+      <c r="N74" s="87"/>
+      <c r="O74" s="87"/>
+      <c r="P74" s="87"/>
+      <c r="Q74" s="87"/>
       <c r="R74" s="4"/>
       <c r="S74" s="8"/>
       <c r="T74" s="8"/>
@@ -7315,23 +6939,23 @@
       <c r="AQ74" s="5"/>
     </row>
     <row r="75" spans="1:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="94"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="97"/>
-      <c r="M75" s="98"/>
-      <c r="N75" s="86"/>
-      <c r="O75" s="86"/>
-      <c r="P75" s="86"/>
-      <c r="Q75" s="86"/>
+      <c r="A75" s="89"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="76"/>
+      <c r="K75" s="77"/>
+      <c r="L75" s="92"/>
+      <c r="M75" s="93"/>
+      <c r="N75" s="87"/>
+      <c r="O75" s="87"/>
+      <c r="P75" s="87"/>
+      <c r="Q75" s="87"/>
       <c r="R75" s="4"/>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
@@ -7360,29 +6984,29 @@
       <c r="AQ75" s="5"/>
     </row>
     <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="99">
+      <c r="A76" s="94">
         <v>3</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="43" t="s">
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="86"/>
-      <c r="M76" s="86"/>
-      <c r="N76" s="86"/>
-      <c r="O76" s="86"/>
-      <c r="P76" s="86"/>
-      <c r="Q76" s="86"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="87"/>
+      <c r="M76" s="87"/>
+      <c r="N76" s="87"/>
+      <c r="O76" s="87"/>
+      <c r="P76" s="87"/>
+      <c r="Q76" s="87"/>
       <c r="R76" s="4"/>
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
@@ -7411,23 +7035,23 @@
       <c r="AQ76" s="5"/>
     </row>
     <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="99"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="86"/>
-      <c r="M77" s="86"/>
-      <c r="N77" s="86"/>
-      <c r="O77" s="86"/>
-      <c r="P77" s="86"/>
-      <c r="Q77" s="86"/>
+      <c r="A77" s="94"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="78"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="87"/>
+      <c r="M77" s="87"/>
+      <c r="N77" s="87"/>
+      <c r="O77" s="87"/>
+      <c r="P77" s="87"/>
+      <c r="Q77" s="87"/>
       <c r="R77" s="4"/>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
@@ -7456,29 +7080,29 @@
       <c r="AQ77" s="5"/>
     </row>
     <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="99">
+      <c r="A78" s="94">
         <v>4</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="43" t="s">
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="86"/>
-      <c r="M78" s="86"/>
-      <c r="N78" s="86"/>
-      <c r="O78" s="86"/>
-      <c r="P78" s="86"/>
-      <c r="Q78" s="86"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="87"/>
+      <c r="M78" s="87"/>
+      <c r="N78" s="87"/>
+      <c r="O78" s="87"/>
+      <c r="P78" s="87"/>
+      <c r="Q78" s="87"/>
       <c r="R78" s="4"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
@@ -7507,23 +7131,23 @@
       <c r="AQ78" s="5"/>
     </row>
     <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="99"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="86"/>
-      <c r="M79" s="86"/>
-      <c r="N79" s="86"/>
-      <c r="O79" s="86"/>
-      <c r="P79" s="86"/>
-      <c r="Q79" s="86"/>
+      <c r="A79" s="94"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76"/>
+      <c r="K79" s="77"/>
+      <c r="L79" s="87"/>
+      <c r="M79" s="87"/>
+      <c r="N79" s="87"/>
+      <c r="O79" s="87"/>
+      <c r="P79" s="87"/>
+      <c r="Q79" s="87"/>
       <c r="R79" s="4"/>
       <c r="S79" s="8"/>
       <c r="T79" s="8"/>
@@ -7552,29 +7176,29 @@
       <c r="AQ79" s="5"/>
     </row>
     <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="99">
+      <c r="A80" s="94">
         <v>5</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="43" t="s">
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="86"/>
-      <c r="M80" s="86"/>
-      <c r="N80" s="86"/>
-      <c r="O80" s="86"/>
-      <c r="P80" s="86"/>
-      <c r="Q80" s="86"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="87"/>
+      <c r="M80" s="87"/>
+      <c r="N80" s="87"/>
+      <c r="O80" s="87"/>
+      <c r="P80" s="87"/>
+      <c r="Q80" s="87"/>
       <c r="R80" s="4"/>
       <c r="S80" s="8"/>
       <c r="T80" s="8"/>
@@ -7603,23 +7227,23 @@
       <c r="AQ80" s="5"/>
     </row>
     <row r="81" spans="1:43" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="99"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="86"/>
-      <c r="M81" s="86"/>
-      <c r="N81" s="86"/>
-      <c r="O81" s="86"/>
-      <c r="P81" s="86"/>
-      <c r="Q81" s="86"/>
+      <c r="A81" s="94"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
+      <c r="K81" s="77"/>
+      <c r="L81" s="87"/>
+      <c r="M81" s="87"/>
+      <c r="N81" s="87"/>
+      <c r="O81" s="87"/>
+      <c r="P81" s="87"/>
+      <c r="Q81" s="87"/>
       <c r="R81" s="4"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
@@ -7648,29 +7272,29 @@
       <c r="AQ81" s="5"/>
     </row>
     <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="99">
+      <c r="A82" s="94">
         <v>6</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="43" t="s">
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I82" s="44"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="86"/>
-      <c r="M82" s="86"/>
-      <c r="N82" s="86"/>
-      <c r="O82" s="86"/>
-      <c r="P82" s="86"/>
-      <c r="Q82" s="86"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="87"/>
+      <c r="M82" s="87"/>
+      <c r="N82" s="87"/>
+      <c r="O82" s="87"/>
+      <c r="P82" s="87"/>
+      <c r="Q82" s="87"/>
       <c r="R82" s="4"/>
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
@@ -7699,23 +7323,23 @@
       <c r="AQ82" s="5"/>
     </row>
     <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="99"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="86"/>
-      <c r="M83" s="86"/>
-      <c r="N83" s="86"/>
-      <c r="O83" s="86"/>
-      <c r="P83" s="86"/>
-      <c r="Q83" s="86"/>
+      <c r="A83" s="94"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="75"/>
+      <c r="I83" s="76"/>
+      <c r="J83" s="76"/>
+      <c r="K83" s="77"/>
+      <c r="L83" s="87"/>
+      <c r="M83" s="87"/>
+      <c r="N83" s="87"/>
+      <c r="O83" s="87"/>
+      <c r="P83" s="87"/>
+      <c r="Q83" s="87"/>
       <c r="R83" s="4"/>
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
@@ -7744,29 +7368,29 @@
       <c r="AQ83" s="5"/>
     </row>
     <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="99">
+      <c r="A84" s="94">
         <v>7</v>
       </c>
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="43" t="s">
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="86"/>
-      <c r="M84" s="86"/>
-      <c r="N84" s="86"/>
-      <c r="O84" s="86"/>
-      <c r="P84" s="86"/>
-      <c r="Q84" s="86"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="87"/>
+      <c r="M84" s="87"/>
+      <c r="N84" s="87"/>
+      <c r="O84" s="87"/>
+      <c r="P84" s="87"/>
+      <c r="Q84" s="87"/>
       <c r="R84" s="4"/>
       <c r="S84" s="8"/>
       <c r="T84" s="8"/>
@@ -7795,23 +7419,23 @@
       <c r="AQ84" s="5"/>
     </row>
     <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="99"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="86"/>
-      <c r="M85" s="86"/>
-      <c r="N85" s="86"/>
-      <c r="O85" s="86"/>
-      <c r="P85" s="86"/>
-      <c r="Q85" s="86"/>
+      <c r="A85" s="94"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="87"/>
+      <c r="M85" s="87"/>
+      <c r="N85" s="87"/>
+      <c r="O85" s="87"/>
+      <c r="P85" s="87"/>
+      <c r="Q85" s="87"/>
       <c r="R85" s="4"/>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
@@ -7840,29 +7464,29 @@
       <c r="AQ85" s="5"/>
     </row>
     <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="93">
+      <c r="A86" s="88">
         <v>8</v>
       </c>
-      <c r="B86" s="40" t="s">
+      <c r="B86" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="48" t="s">
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="95"/>
-      <c r="M86" s="96"/>
-      <c r="N86" s="86"/>
-      <c r="O86" s="86"/>
-      <c r="P86" s="86"/>
-      <c r="Q86" s="86"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="90"/>
+      <c r="M86" s="91"/>
+      <c r="N86" s="87"/>
+      <c r="O86" s="87"/>
+      <c r="P86" s="87"/>
+      <c r="Q86" s="87"/>
       <c r="R86" s="4"/>
       <c r="S86" s="8"/>
       <c r="T86" s="8"/>
@@ -7891,23 +7515,23 @@
       <c r="AQ86" s="5"/>
     </row>
     <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="94"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="97"/>
-      <c r="M87" s="98"/>
-      <c r="N87" s="86"/>
-      <c r="O87" s="86"/>
-      <c r="P87" s="86"/>
-      <c r="Q87" s="86"/>
+      <c r="A87" s="89"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="68"/>
+      <c r="L87" s="92"/>
+      <c r="M87" s="93"/>
+      <c r="N87" s="87"/>
+      <c r="O87" s="87"/>
+      <c r="P87" s="87"/>
+      <c r="Q87" s="87"/>
       <c r="R87" s="4"/>
       <c r="S87" s="8"/>
       <c r="T87" s="8"/>
@@ -7936,33 +7560,33 @@
       <c r="AQ87" s="5"/>
     </row>
     <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="34" t="s">
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="100" t="s">
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="M88" s="101"/>
-      <c r="N88" s="100" t="s">
+      <c r="M88" s="42"/>
+      <c r="N88" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O88" s="104"/>
-      <c r="P88" s="104"/>
-      <c r="Q88" s="101"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="45"/>
+      <c r="Q88" s="42"/>
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
@@ -7991,23 +7615,23 @@
       <c r="AQ88" s="3"/>
     </row>
     <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="71"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="102"/>
-      <c r="M89" s="103"/>
-      <c r="N89" s="102"/>
-      <c r="O89" s="105"/>
-      <c r="P89" s="105"/>
-      <c r="Q89" s="103"/>
+      <c r="A89" s="101"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="46"/>
+      <c r="Q89" s="44"/>
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
@@ -8036,29 +7660,29 @@
       <c r="AQ89" s="5"/>
     </row>
     <row r="90" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="99">
+      <c r="A90" s="94">
         <v>1</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="43" t="s">
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="242"/>
-      <c r="M90" s="243"/>
-      <c r="N90" s="95"/>
-      <c r="O90" s="106"/>
-      <c r="P90" s="106"/>
-      <c r="Q90" s="96"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="237"/>
+      <c r="M90" s="238"/>
+      <c r="N90" s="90"/>
+      <c r="O90" s="95"/>
+      <c r="P90" s="95"/>
+      <c r="Q90" s="91"/>
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
@@ -8087,27 +7711,27 @@
       <c r="AQ90" s="5"/>
     </row>
     <row r="91" spans="1:43" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="99"/>
-      <c r="B91" s="58" t="s">
+      <c r="A91" s="94"/>
+      <c r="B91" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="61" t="s">
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="I91" s="62"/>
-      <c r="J91" s="62"/>
-      <c r="K91" s="63"/>
-      <c r="L91" s="242"/>
-      <c r="M91" s="243"/>
-      <c r="N91" s="107"/>
-      <c r="O91" s="108"/>
-      <c r="P91" s="108"/>
-      <c r="Q91" s="109"/>
+      <c r="I91" s="73"/>
+      <c r="J91" s="73"/>
+      <c r="K91" s="74"/>
+      <c r="L91" s="237"/>
+      <c r="M91" s="238"/>
+      <c r="N91" s="96"/>
+      <c r="O91" s="97"/>
+      <c r="P91" s="97"/>
+      <c r="Q91" s="98"/>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
@@ -8136,29 +7760,29 @@
       <c r="AQ91" s="5"/>
     </row>
     <row r="92" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="99">
+      <c r="A92" s="94">
         <v>2</v>
       </c>
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="43" t="s">
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="45"/>
-      <c r="L92" s="86"/>
-      <c r="M92" s="86"/>
-      <c r="N92" s="107"/>
-      <c r="O92" s="108"/>
-      <c r="P92" s="108"/>
-      <c r="Q92" s="109"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="87"/>
+      <c r="M92" s="87"/>
+      <c r="N92" s="96"/>
+      <c r="O92" s="97"/>
+      <c r="P92" s="97"/>
+      <c r="Q92" s="98"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -8187,23 +7811,23 @@
       <c r="AQ92" s="5"/>
     </row>
     <row r="93" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="99"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="55"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="86"/>
-      <c r="M93" s="86"/>
-      <c r="N93" s="107"/>
-      <c r="O93" s="108"/>
-      <c r="P93" s="108"/>
-      <c r="Q93" s="109"/>
+      <c r="A93" s="94"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="76"/>
+      <c r="K93" s="77"/>
+      <c r="L93" s="87"/>
+      <c r="M93" s="87"/>
+      <c r="N93" s="96"/>
+      <c r="O93" s="97"/>
+      <c r="P93" s="97"/>
+      <c r="Q93" s="98"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -8232,29 +7856,29 @@
       <c r="AQ93" s="5"/>
     </row>
     <row r="94" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="99">
+      <c r="A94" s="94">
         <v>3</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="43" t="s">
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="45"/>
-      <c r="L94" s="86"/>
-      <c r="M94" s="86"/>
-      <c r="N94" s="107"/>
-      <c r="O94" s="108"/>
-      <c r="P94" s="108"/>
-      <c r="Q94" s="109"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="87"/>
+      <c r="M94" s="87"/>
+      <c r="N94" s="96"/>
+      <c r="O94" s="97"/>
+      <c r="P94" s="97"/>
+      <c r="Q94" s="98"/>
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
@@ -8283,23 +7907,23 @@
       <c r="AQ94" s="5"/>
     </row>
     <row r="95" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="99"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="55"/>
-      <c r="J95" s="55"/>
-      <c r="K95" s="56"/>
-      <c r="L95" s="86"/>
-      <c r="M95" s="86"/>
-      <c r="N95" s="107"/>
-      <c r="O95" s="108"/>
-      <c r="P95" s="108"/>
-      <c r="Q95" s="109"/>
+      <c r="A95" s="94"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="76"/>
+      <c r="K95" s="77"/>
+      <c r="L95" s="87"/>
+      <c r="M95" s="87"/>
+      <c r="N95" s="96"/>
+      <c r="O95" s="97"/>
+      <c r="P95" s="97"/>
+      <c r="Q95" s="98"/>
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
@@ -8328,29 +7952,29 @@
       <c r="AQ95" s="5"/>
     </row>
     <row r="96" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="99">
+      <c r="A96" s="94">
         <v>4</v>
       </c>
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="43" t="s">
+      <c r="C96" s="56"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="86"/>
-      <c r="M96" s="86"/>
-      <c r="N96" s="107"/>
-      <c r="O96" s="108"/>
-      <c r="P96" s="108"/>
-      <c r="Q96" s="109"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="59"/>
+      <c r="K96" s="60"/>
+      <c r="L96" s="87"/>
+      <c r="M96" s="87"/>
+      <c r="N96" s="96"/>
+      <c r="O96" s="97"/>
+      <c r="P96" s="97"/>
+      <c r="Q96" s="98"/>
       <c r="R96" s="8"/>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
@@ -8379,23 +8003,23 @@
       <c r="AQ96" s="5"/>
     </row>
     <row r="97" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="99"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="55"/>
-      <c r="K97" s="56"/>
-      <c r="L97" s="86"/>
-      <c r="M97" s="86"/>
-      <c r="N97" s="107"/>
-      <c r="O97" s="108"/>
-      <c r="P97" s="108"/>
-      <c r="Q97" s="109"/>
+      <c r="A97" s="94"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="76"/>
+      <c r="J97" s="76"/>
+      <c r="K97" s="77"/>
+      <c r="L97" s="87"/>
+      <c r="M97" s="87"/>
+      <c r="N97" s="96"/>
+      <c r="O97" s="97"/>
+      <c r="P97" s="97"/>
+      <c r="Q97" s="98"/>
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -8424,29 +8048,29 @@
       <c r="AQ97" s="5"/>
     </row>
     <row r="98" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="99">
+      <c r="A98" s="94">
         <v>5</v>
       </c>
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="43" t="s">
+      <c r="C98" s="56"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="I98" s="44"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="45"/>
-      <c r="L98" s="86"/>
-      <c r="M98" s="86"/>
-      <c r="N98" s="107"/>
-      <c r="O98" s="108"/>
-      <c r="P98" s="108"/>
-      <c r="Q98" s="109"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="87"/>
+      <c r="M98" s="87"/>
+      <c r="N98" s="96"/>
+      <c r="O98" s="97"/>
+      <c r="P98" s="97"/>
+      <c r="Q98" s="98"/>
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
@@ -8475,23 +8099,23 @@
       <c r="AQ98" s="5"/>
     </row>
     <row r="99" spans="1:43" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="99"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="55"/>
-      <c r="K99" s="56"/>
-      <c r="L99" s="86"/>
-      <c r="M99" s="86"/>
-      <c r="N99" s="107"/>
-      <c r="O99" s="108"/>
-      <c r="P99" s="108"/>
-      <c r="Q99" s="109"/>
+      <c r="A99" s="94"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="76"/>
+      <c r="K99" s="77"/>
+      <c r="L99" s="87"/>
+      <c r="M99" s="87"/>
+      <c r="N99" s="96"/>
+      <c r="O99" s="97"/>
+      <c r="P99" s="97"/>
+      <c r="Q99" s="98"/>
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
       <c r="T99" s="8"/>
@@ -8520,29 +8144,29 @@
       <c r="AQ99" s="5"/>
     </row>
     <row r="100" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="99">
+      <c r="A100" s="94">
         <v>6</v>
       </c>
-      <c r="B100" s="40" t="s">
+      <c r="B100" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="43" t="s">
+      <c r="C100" s="56"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="86"/>
-      <c r="M100" s="86"/>
-      <c r="N100" s="107"/>
-      <c r="O100" s="108"/>
-      <c r="P100" s="108"/>
-      <c r="Q100" s="109"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="87"/>
+      <c r="M100" s="87"/>
+      <c r="N100" s="96"/>
+      <c r="O100" s="97"/>
+      <c r="P100" s="97"/>
+      <c r="Q100" s="98"/>
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
       <c r="T100" s="8"/>
@@ -8571,23 +8195,23 @@
       <c r="AQ100" s="5"/>
     </row>
     <row r="101" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="99"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="55"/>
-      <c r="K101" s="56"/>
-      <c r="L101" s="86"/>
-      <c r="M101" s="86"/>
-      <c r="N101" s="107"/>
-      <c r="O101" s="108"/>
-      <c r="P101" s="108"/>
-      <c r="Q101" s="109"/>
+      <c r="A101" s="94"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="75"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="87"/>
+      <c r="M101" s="87"/>
+      <c r="N101" s="96"/>
+      <c r="O101" s="97"/>
+      <c r="P101" s="97"/>
+      <c r="Q101" s="98"/>
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
@@ -8616,29 +8240,29 @@
       <c r="AQ101" s="5"/>
     </row>
     <row r="102" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="99">
+      <c r="A102" s="94">
         <v>7</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B102" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="43" t="s">
+      <c r="C102" s="56"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="86"/>
-      <c r="M102" s="86"/>
-      <c r="N102" s="107"/>
-      <c r="O102" s="108"/>
-      <c r="P102" s="108"/>
-      <c r="Q102" s="109"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="59"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="87"/>
+      <c r="M102" s="87"/>
+      <c r="N102" s="96"/>
+      <c r="O102" s="97"/>
+      <c r="P102" s="97"/>
+      <c r="Q102" s="98"/>
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
       <c r="T102" s="8"/>
@@ -8667,23 +8291,23 @@
       <c r="AQ102" s="5"/>
     </row>
     <row r="103" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="99"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="55"/>
-      <c r="K103" s="56"/>
-      <c r="L103" s="86"/>
-      <c r="M103" s="86"/>
-      <c r="N103" s="97"/>
-      <c r="O103" s="110"/>
-      <c r="P103" s="110"/>
-      <c r="Q103" s="98"/>
+      <c r="A103" s="94"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="87"/>
+      <c r="M103" s="87"/>
+      <c r="N103" s="92"/>
+      <c r="O103" s="99"/>
+      <c r="P103" s="99"/>
+      <c r="Q103" s="93"/>
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
@@ -8712,33 +8336,33 @@
       <c r="AQ103" s="7"/>
     </row>
     <row r="104" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="34" t="s">
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="100" t="s">
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="M104" s="101"/>
-      <c r="N104" s="100" t="s">
+      <c r="M104" s="42"/>
+      <c r="N104" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O104" s="104"/>
-      <c r="P104" s="104"/>
-      <c r="Q104" s="101"/>
+      <c r="O104" s="45"/>
+      <c r="P104" s="45"/>
+      <c r="Q104" s="42"/>
       <c r="R104" s="8"/>
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
@@ -8767,23 +8391,23 @@
       <c r="AQ104" s="5"/>
     </row>
     <row r="105" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="27"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="39"/>
-      <c r="L105" s="102"/>
-      <c r="M105" s="103"/>
-      <c r="N105" s="102"/>
-      <c r="O105" s="105"/>
-      <c r="P105" s="105"/>
-      <c r="Q105" s="103"/>
+      <c r="A105" s="48"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="44"/>
+      <c r="N105" s="43"/>
+      <c r="O105" s="46"/>
+      <c r="P105" s="46"/>
+      <c r="Q105" s="44"/>
       <c r="R105" s="8"/>
       <c r="S105" s="8"/>
       <c r="T105" s="8"/>
@@ -8812,29 +8436,29 @@
       <c r="AQ105" s="5"/>
     </row>
     <row r="106" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="99">
+      <c r="A106" s="94">
         <v>1</v>
       </c>
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="48" t="s">
+      <c r="C106" s="56"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I106" s="49"/>
-      <c r="J106" s="49"/>
-      <c r="K106" s="50"/>
-      <c r="L106" s="86"/>
-      <c r="M106" s="86"/>
-      <c r="N106" s="95"/>
-      <c r="O106" s="106"/>
-      <c r="P106" s="106"/>
-      <c r="Q106" s="96"/>
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="65"/>
+      <c r="L106" s="87"/>
+      <c r="M106" s="87"/>
+      <c r="N106" s="90"/>
+      <c r="O106" s="95"/>
+      <c r="P106" s="95"/>
+      <c r="Q106" s="91"/>
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
       <c r="T106" s="8"/>
@@ -8863,23 +8487,23 @@
       <c r="AQ106" s="5"/>
     </row>
     <row r="107" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="99"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="52"/>
-      <c r="J107" s="52"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="86"/>
-      <c r="M107" s="86"/>
-      <c r="N107" s="107"/>
-      <c r="O107" s="108"/>
-      <c r="P107" s="108"/>
-      <c r="Q107" s="109"/>
+      <c r="A107" s="94"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="68"/>
+      <c r="L107" s="87"/>
+      <c r="M107" s="87"/>
+      <c r="N107" s="96"/>
+      <c r="O107" s="97"/>
+      <c r="P107" s="97"/>
+      <c r="Q107" s="98"/>
       <c r="R107" s="8"/>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
@@ -8908,29 +8532,29 @@
       <c r="AQ107" s="5"/>
     </row>
     <row r="108" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="99">
+      <c r="A108" s="94">
         <v>2</v>
       </c>
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="41"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="48" t="s">
+      <c r="C108" s="56"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I108" s="49"/>
-      <c r="J108" s="49"/>
-      <c r="K108" s="50"/>
-      <c r="L108" s="86"/>
-      <c r="M108" s="86"/>
-      <c r="N108" s="107"/>
-      <c r="O108" s="108"/>
-      <c r="P108" s="108"/>
-      <c r="Q108" s="109"/>
+      <c r="I108" s="64"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="65"/>
+      <c r="L108" s="87"/>
+      <c r="M108" s="87"/>
+      <c r="N108" s="96"/>
+      <c r="O108" s="97"/>
+      <c r="P108" s="97"/>
+      <c r="Q108" s="98"/>
       <c r="R108" s="8"/>
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
@@ -8959,23 +8583,23 @@
       <c r="AQ108" s="5"/>
     </row>
     <row r="109" spans="1:43" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="99"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="47"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="52"/>
-      <c r="J109" s="52"/>
-      <c r="K109" s="53"/>
-      <c r="L109" s="86"/>
-      <c r="M109" s="86"/>
-      <c r="N109" s="107"/>
-      <c r="O109" s="108"/>
-      <c r="P109" s="108"/>
-      <c r="Q109" s="109"/>
+      <c r="A109" s="94"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="62"/>
+      <c r="E109" s="62"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="68"/>
+      <c r="L109" s="87"/>
+      <c r="M109" s="87"/>
+      <c r="N109" s="96"/>
+      <c r="O109" s="97"/>
+      <c r="P109" s="97"/>
+      <c r="Q109" s="98"/>
       <c r="R109" s="8"/>
       <c r="S109" s="8"/>
       <c r="T109" s="8"/>
@@ -9004,29 +8628,29 @@
       <c r="AQ109" s="5"/>
     </row>
     <row r="110" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="99">
+      <c r="A110" s="94">
         <v>3</v>
       </c>
-      <c r="B110" s="40" t="s">
+      <c r="B110" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="48" t="s">
+      <c r="C110" s="56"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I110" s="49"/>
-      <c r="J110" s="49"/>
-      <c r="K110" s="50"/>
-      <c r="L110" s="86"/>
-      <c r="M110" s="86"/>
-      <c r="N110" s="107"/>
-      <c r="O110" s="108"/>
-      <c r="P110" s="108"/>
-      <c r="Q110" s="109"/>
+      <c r="I110" s="64"/>
+      <c r="J110" s="64"/>
+      <c r="K110" s="65"/>
+      <c r="L110" s="87"/>
+      <c r="M110" s="87"/>
+      <c r="N110" s="96"/>
+      <c r="O110" s="97"/>
+      <c r="P110" s="97"/>
+      <c r="Q110" s="98"/>
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
       <c r="T110" s="8"/>
@@ -9055,23 +8679,23 @@
       <c r="AQ110" s="5"/>
     </row>
     <row r="111" spans="1:43" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="99"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="52"/>
-      <c r="J111" s="52"/>
-      <c r="K111" s="53"/>
-      <c r="L111" s="86"/>
-      <c r="M111" s="86"/>
-      <c r="N111" s="107"/>
-      <c r="O111" s="108"/>
-      <c r="P111" s="108"/>
-      <c r="Q111" s="109"/>
+      <c r="A111" s="94"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="62"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="68"/>
+      <c r="L111" s="87"/>
+      <c r="M111" s="87"/>
+      <c r="N111" s="96"/>
+      <c r="O111" s="97"/>
+      <c r="P111" s="97"/>
+      <c r="Q111" s="98"/>
       <c r="R111" s="8"/>
       <c r="S111" s="8"/>
       <c r="T111" s="8"/>
@@ -9100,29 +8724,29 @@
       <c r="AQ111" s="5"/>
     </row>
     <row r="112" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="99">
+      <c r="A112" s="94">
         <v>4</v>
       </c>
-      <c r="B112" s="40" t="s">
+      <c r="B112" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="48" t="s">
+      <c r="C112" s="56"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I112" s="49"/>
-      <c r="J112" s="49"/>
-      <c r="K112" s="50"/>
-      <c r="L112" s="86"/>
-      <c r="M112" s="86"/>
-      <c r="N112" s="107"/>
-      <c r="O112" s="108"/>
-      <c r="P112" s="108"/>
-      <c r="Q112" s="109"/>
+      <c r="I112" s="64"/>
+      <c r="J112" s="64"/>
+      <c r="K112" s="65"/>
+      <c r="L112" s="87"/>
+      <c r="M112" s="87"/>
+      <c r="N112" s="96"/>
+      <c r="O112" s="97"/>
+      <c r="P112" s="97"/>
+      <c r="Q112" s="98"/>
       <c r="R112" s="8"/>
       <c r="S112" s="8"/>
       <c r="T112" s="8"/>
@@ -9151,23 +8775,23 @@
       <c r="AQ112" s="5"/>
     </row>
     <row r="113" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="99"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="52"/>
-      <c r="J113" s="52"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="86"/>
-      <c r="M113" s="86"/>
-      <c r="N113" s="107"/>
-      <c r="O113" s="108"/>
-      <c r="P113" s="108"/>
-      <c r="Q113" s="109"/>
+      <c r="A113" s="94"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="68"/>
+      <c r="L113" s="87"/>
+      <c r="M113" s="87"/>
+      <c r="N113" s="96"/>
+      <c r="O113" s="97"/>
+      <c r="P113" s="97"/>
+      <c r="Q113" s="98"/>
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
       <c r="T113" s="8"/>
@@ -9196,29 +8820,29 @@
       <c r="AQ113" s="5"/>
     </row>
     <row r="114" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="99">
+      <c r="A114" s="94">
         <v>5</v>
       </c>
-      <c r="B114" s="40" t="s">
+      <c r="B114" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="48" t="s">
+      <c r="C114" s="56"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56"/>
+      <c r="H114" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I114" s="49"/>
-      <c r="J114" s="49"/>
-      <c r="K114" s="50"/>
-      <c r="L114" s="86"/>
-      <c r="M114" s="86"/>
-      <c r="N114" s="107"/>
-      <c r="O114" s="108"/>
-      <c r="P114" s="108"/>
-      <c r="Q114" s="109"/>
+      <c r="I114" s="64"/>
+      <c r="J114" s="64"/>
+      <c r="K114" s="65"/>
+      <c r="L114" s="87"/>
+      <c r="M114" s="87"/>
+      <c r="N114" s="96"/>
+      <c r="O114" s="97"/>
+      <c r="P114" s="97"/>
+      <c r="Q114" s="98"/>
       <c r="R114" s="8"/>
       <c r="S114" s="8"/>
       <c r="T114" s="8"/>
@@ -9247,23 +8871,23 @@
       <c r="AQ114" s="5"/>
     </row>
     <row r="115" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="99"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="52"/>
-      <c r="J115" s="52"/>
-      <c r="K115" s="53"/>
-      <c r="L115" s="86"/>
-      <c r="M115" s="86"/>
-      <c r="N115" s="107"/>
-      <c r="O115" s="108"/>
-      <c r="P115" s="108"/>
-      <c r="Q115" s="109"/>
+      <c r="A115" s="94"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="67"/>
+      <c r="K115" s="68"/>
+      <c r="L115" s="87"/>
+      <c r="M115" s="87"/>
+      <c r="N115" s="96"/>
+      <c r="O115" s="97"/>
+      <c r="P115" s="97"/>
+      <c r="Q115" s="98"/>
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
       <c r="T115" s="8"/>
@@ -9292,29 +8916,29 @@
       <c r="AQ115" s="5"/>
     </row>
     <row r="116" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="99">
+      <c r="A116" s="94">
         <v>6</v>
       </c>
-      <c r="B116" s="40" t="s">
+      <c r="B116" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="48" t="s">
+      <c r="C116" s="56"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I116" s="49"/>
-      <c r="J116" s="49"/>
-      <c r="K116" s="50"/>
-      <c r="L116" s="86"/>
-      <c r="M116" s="86"/>
-      <c r="N116" s="107"/>
-      <c r="O116" s="108"/>
-      <c r="P116" s="108"/>
-      <c r="Q116" s="109"/>
+      <c r="I116" s="64"/>
+      <c r="J116" s="64"/>
+      <c r="K116" s="65"/>
+      <c r="L116" s="87"/>
+      <c r="M116" s="87"/>
+      <c r="N116" s="96"/>
+      <c r="O116" s="97"/>
+      <c r="P116" s="97"/>
+      <c r="Q116" s="98"/>
       <c r="R116" s="8"/>
       <c r="S116" s="8"/>
       <c r="T116" s="8"/>
@@ -9343,23 +8967,23 @@
       <c r="AQ116" s="5"/>
     </row>
     <row r="117" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="99"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="47"/>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="52"/>
-      <c r="J117" s="52"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="86"/>
-      <c r="M117" s="86"/>
-      <c r="N117" s="107"/>
-      <c r="O117" s="108"/>
-      <c r="P117" s="108"/>
-      <c r="Q117" s="109"/>
+      <c r="A117" s="94"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="68"/>
+      <c r="L117" s="87"/>
+      <c r="M117" s="87"/>
+      <c r="N117" s="96"/>
+      <c r="O117" s="97"/>
+      <c r="P117" s="97"/>
+      <c r="Q117" s="98"/>
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
@@ -9388,29 +9012,29 @@
       <c r="AQ117" s="5"/>
     </row>
     <row r="118" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="99">
+      <c r="A118" s="94">
         <v>7</v>
       </c>
-      <c r="B118" s="40" t="s">
+      <c r="B118" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="48" t="s">
+      <c r="C118" s="56"/>
+      <c r="D118" s="56"/>
+      <c r="E118" s="56"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56"/>
+      <c r="H118" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I118" s="49"/>
-      <c r="J118" s="49"/>
-      <c r="K118" s="50"/>
-      <c r="L118" s="86"/>
-      <c r="M118" s="86"/>
-      <c r="N118" s="107"/>
-      <c r="O118" s="108"/>
-      <c r="P118" s="108"/>
-      <c r="Q118" s="109"/>
+      <c r="I118" s="64"/>
+      <c r="J118" s="64"/>
+      <c r="K118" s="65"/>
+      <c r="L118" s="87"/>
+      <c r="M118" s="87"/>
+      <c r="N118" s="96"/>
+      <c r="O118" s="97"/>
+      <c r="P118" s="97"/>
+      <c r="Q118" s="98"/>
       <c r="R118" s="8"/>
       <c r="S118" s="8"/>
       <c r="T118" s="8"/>
@@ -9439,23 +9063,23 @@
       <c r="AQ118" s="5"/>
     </row>
     <row r="119" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="99"/>
-      <c r="B119" s="46"/>
-      <c r="C119" s="47"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="51"/>
-      <c r="I119" s="52"/>
-      <c r="J119" s="52"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="86"/>
-      <c r="M119" s="86"/>
-      <c r="N119" s="107"/>
-      <c r="O119" s="108"/>
-      <c r="P119" s="108"/>
-      <c r="Q119" s="109"/>
+      <c r="A119" s="94"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="66"/>
+      <c r="I119" s="67"/>
+      <c r="J119" s="67"/>
+      <c r="K119" s="68"/>
+      <c r="L119" s="87"/>
+      <c r="M119" s="87"/>
+      <c r="N119" s="96"/>
+      <c r="O119" s="97"/>
+      <c r="P119" s="97"/>
+      <c r="Q119" s="98"/>
       <c r="R119" s="8"/>
       <c r="S119" s="8"/>
       <c r="T119" s="8"/>
@@ -9484,29 +9108,29 @@
       <c r="AQ119" s="5"/>
     </row>
     <row r="120" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="99">
+      <c r="A120" s="94">
         <v>8</v>
       </c>
-      <c r="B120" s="40" t="s">
+      <c r="B120" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="48" t="s">
+      <c r="C120" s="56"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I120" s="49"/>
-      <c r="J120" s="49"/>
-      <c r="K120" s="50"/>
-      <c r="L120" s="86"/>
-      <c r="M120" s="86"/>
-      <c r="N120" s="107"/>
-      <c r="O120" s="108"/>
-      <c r="P120" s="108"/>
-      <c r="Q120" s="109"/>
+      <c r="I120" s="64"/>
+      <c r="J120" s="64"/>
+      <c r="K120" s="65"/>
+      <c r="L120" s="87"/>
+      <c r="M120" s="87"/>
+      <c r="N120" s="96"/>
+      <c r="O120" s="97"/>
+      <c r="P120" s="97"/>
+      <c r="Q120" s="98"/>
       <c r="R120" s="8"/>
       <c r="S120" s="8"/>
       <c r="T120" s="8"/>
@@ -9535,23 +9159,23 @@
       <c r="AQ120" s="5"/>
     </row>
     <row r="121" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="99"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="47"/>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="51"/>
-      <c r="I121" s="52"/>
-      <c r="J121" s="52"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="86"/>
-      <c r="M121" s="86"/>
-      <c r="N121" s="107"/>
-      <c r="O121" s="108"/>
-      <c r="P121" s="108"/>
-      <c r="Q121" s="109"/>
+      <c r="A121" s="94"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="62"/>
+      <c r="D121" s="62"/>
+      <c r="E121" s="62"/>
+      <c r="F121" s="62"/>
+      <c r="G121" s="62"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67"/>
+      <c r="K121" s="68"/>
+      <c r="L121" s="87"/>
+      <c r="M121" s="87"/>
+      <c r="N121" s="96"/>
+      <c r="O121" s="97"/>
+      <c r="P121" s="97"/>
+      <c r="Q121" s="98"/>
       <c r="R121" s="8"/>
       <c r="S121" s="8"/>
       <c r="T121" s="8"/>
@@ -9580,29 +9204,29 @@
       <c r="AQ121" s="5"/>
     </row>
     <row r="122" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="99">
+      <c r="A122" s="94">
         <v>9</v>
       </c>
-      <c r="B122" s="40" t="s">
+      <c r="B122" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="48" t="s">
+      <c r="C122" s="56"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="56"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="56"/>
+      <c r="H122" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I122" s="49"/>
-      <c r="J122" s="49"/>
-      <c r="K122" s="50"/>
-      <c r="L122" s="86"/>
-      <c r="M122" s="86"/>
-      <c r="N122" s="107"/>
-      <c r="O122" s="108"/>
-      <c r="P122" s="108"/>
-      <c r="Q122" s="109"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="65"/>
+      <c r="L122" s="87"/>
+      <c r="M122" s="87"/>
+      <c r="N122" s="96"/>
+      <c r="O122" s="97"/>
+      <c r="P122" s="97"/>
+      <c r="Q122" s="98"/>
       <c r="R122" s="8"/>
       <c r="S122" s="8"/>
       <c r="T122" s="8"/>
@@ -9631,23 +9255,23 @@
       <c r="AQ122" s="5"/>
     </row>
     <row r="123" spans="1:43" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="99"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="47"/>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="47"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="86"/>
-      <c r="M123" s="86"/>
-      <c r="N123" s="107"/>
-      <c r="O123" s="108"/>
-      <c r="P123" s="108"/>
-      <c r="Q123" s="109"/>
+      <c r="A123" s="94"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="62"/>
+      <c r="E123" s="62"/>
+      <c r="F123" s="62"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="68"/>
+      <c r="L123" s="87"/>
+      <c r="M123" s="87"/>
+      <c r="N123" s="96"/>
+      <c r="O123" s="97"/>
+      <c r="P123" s="97"/>
+      <c r="Q123" s="98"/>
       <c r="R123" s="8"/>
       <c r="S123" s="8"/>
       <c r="T123" s="8"/>
@@ -9676,29 +9300,29 @@
       <c r="AQ123" s="5"/>
     </row>
     <row r="124" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="84">
+      <c r="A124" s="85">
         <v>10</v>
       </c>
-      <c r="B124" s="40" t="s">
+      <c r="B124" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="41"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="48" t="s">
+      <c r="C124" s="56"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="56"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="56"/>
+      <c r="H124" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I124" s="49"/>
-      <c r="J124" s="49"/>
-      <c r="K124" s="50"/>
-      <c r="L124" s="86"/>
-      <c r="M124" s="86"/>
-      <c r="N124" s="107"/>
-      <c r="O124" s="108"/>
-      <c r="P124" s="108"/>
-      <c r="Q124" s="109"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
+      <c r="K124" s="65"/>
+      <c r="L124" s="87"/>
+      <c r="M124" s="87"/>
+      <c r="N124" s="96"/>
+      <c r="O124" s="97"/>
+      <c r="P124" s="97"/>
+      <c r="Q124" s="98"/>
       <c r="R124" s="8"/>
       <c r="S124" s="8"/>
       <c r="T124" s="8"/>
@@ -9727,23 +9351,23 @@
       <c r="AQ124" s="5"/>
     </row>
     <row r="125" spans="1:43" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="85"/>
-      <c r="B125" s="46"/>
-      <c r="C125" s="47"/>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="51"/>
-      <c r="I125" s="52"/>
-      <c r="J125" s="52"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="86"/>
-      <c r="M125" s="86"/>
-      <c r="N125" s="107"/>
-      <c r="O125" s="108"/>
-      <c r="P125" s="108"/>
-      <c r="Q125" s="109"/>
+      <c r="A125" s="86"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="62"/>
+      <c r="F125" s="62"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="68"/>
+      <c r="L125" s="87"/>
+      <c r="M125" s="87"/>
+      <c r="N125" s="96"/>
+      <c r="O125" s="97"/>
+      <c r="P125" s="97"/>
+      <c r="Q125" s="98"/>
       <c r="R125" s="8"/>
       <c r="S125" s="8"/>
       <c r="T125" s="8"/>
@@ -9772,29 +9396,29 @@
       <c r="AQ125" s="5"/>
     </row>
     <row r="126" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="84">
+      <c r="A126" s="85">
         <v>11</v>
       </c>
-      <c r="B126" s="40" t="s">
+      <c r="B126" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C126" s="41"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="48" t="s">
+      <c r="C126" s="56"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="56"/>
+      <c r="G126" s="56"/>
+      <c r="H126" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I126" s="49"/>
-      <c r="J126" s="49"/>
-      <c r="K126" s="50"/>
-      <c r="L126" s="86"/>
-      <c r="M126" s="86"/>
-      <c r="N126" s="107"/>
-      <c r="O126" s="108"/>
-      <c r="P126" s="108"/>
-      <c r="Q126" s="109"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
+      <c r="K126" s="65"/>
+      <c r="L126" s="87"/>
+      <c r="M126" s="87"/>
+      <c r="N126" s="96"/>
+      <c r="O126" s="97"/>
+      <c r="P126" s="97"/>
+      <c r="Q126" s="98"/>
       <c r="R126" s="8"/>
       <c r="S126" s="8"/>
       <c r="T126" s="8"/>
@@ -9823,23 +9447,23 @@
       <c r="AQ126" s="5"/>
     </row>
     <row r="127" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="85"/>
-      <c r="B127" s="46"/>
-      <c r="C127" s="47"/>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="47"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="52"/>
-      <c r="J127" s="52"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="86"/>
-      <c r="M127" s="86"/>
-      <c r="N127" s="107"/>
-      <c r="O127" s="108"/>
-      <c r="P127" s="108"/>
-      <c r="Q127" s="109"/>
+      <c r="A127" s="86"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="62"/>
+      <c r="E127" s="62"/>
+      <c r="F127" s="62"/>
+      <c r="G127" s="62"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+      <c r="K127" s="68"/>
+      <c r="L127" s="87"/>
+      <c r="M127" s="87"/>
+      <c r="N127" s="96"/>
+      <c r="O127" s="97"/>
+      <c r="P127" s="97"/>
+      <c r="Q127" s="98"/>
       <c r="R127" s="8"/>
       <c r="S127" s="8"/>
       <c r="T127" s="8"/>
@@ -9868,29 +9492,29 @@
       <c r="AQ127" s="5"/>
     </row>
     <row r="128" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="93">
+      <c r="A128" s="88">
         <v>12</v>
       </c>
-      <c r="B128" s="40" t="s">
+      <c r="B128" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="41"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="41"/>
-      <c r="H128" s="48" t="s">
+      <c r="C128" s="56"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="56"/>
+      <c r="F128" s="56"/>
+      <c r="G128" s="56"/>
+      <c r="H128" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I128" s="49"/>
-      <c r="J128" s="49"/>
-      <c r="K128" s="50"/>
-      <c r="L128" s="95"/>
-      <c r="M128" s="96"/>
-      <c r="N128" s="107"/>
-      <c r="O128" s="108"/>
-      <c r="P128" s="108"/>
-      <c r="Q128" s="109"/>
+      <c r="I128" s="64"/>
+      <c r="J128" s="64"/>
+      <c r="K128" s="65"/>
+      <c r="L128" s="90"/>
+      <c r="M128" s="91"/>
+      <c r="N128" s="96"/>
+      <c r="O128" s="97"/>
+      <c r="P128" s="97"/>
+      <c r="Q128" s="98"/>
       <c r="R128" s="8"/>
       <c r="S128" s="8"/>
       <c r="T128" s="8"/>
@@ -9919,23 +9543,23 @@
       <c r="AQ128" s="5"/>
     </row>
     <row r="129" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="94"/>
-      <c r="B129" s="46"/>
-      <c r="C129" s="47"/>
-      <c r="D129" s="47"/>
-      <c r="E129" s="47"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="51"/>
-      <c r="I129" s="52"/>
-      <c r="J129" s="52"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="97"/>
-      <c r="M129" s="98"/>
-      <c r="N129" s="97"/>
-      <c r="O129" s="110"/>
-      <c r="P129" s="110"/>
-      <c r="Q129" s="98"/>
+      <c r="A129" s="89"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="62"/>
+      <c r="F129" s="62"/>
+      <c r="G129" s="62"/>
+      <c r="H129" s="66"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
+      <c r="K129" s="68"/>
+      <c r="L129" s="92"/>
+      <c r="M129" s="93"/>
+      <c r="N129" s="92"/>
+      <c r="O129" s="99"/>
+      <c r="P129" s="99"/>
+      <c r="Q129" s="93"/>
       <c r="R129" s="8"/>
       <c r="S129" s="8"/>
       <c r="T129" s="8"/>
@@ -9964,278 +9588,278 @@
       <c r="AQ129" s="5"/>
     </row>
     <row r="130" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="87" t="s">
+      <c r="A130" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="87"/>
-      <c r="C130" s="87"/>
-      <c r="D130" s="87"/>
-      <c r="E130" s="87"/>
-      <c r="F130" s="87"/>
-      <c r="G130" s="87"/>
-      <c r="H130" s="87"/>
-      <c r="I130" s="87"/>
-      <c r="J130" s="87"/>
-      <c r="K130" s="87"/>
-      <c r="L130" s="87"/>
-      <c r="M130" s="87"/>
-      <c r="N130" s="87"/>
-      <c r="O130" s="87"/>
-      <c r="P130" s="87"/>
-      <c r="Q130" s="87"/>
-      <c r="R130" s="87"/>
-      <c r="S130" s="87"/>
-      <c r="T130" s="87"/>
-      <c r="U130" s="87"/>
-      <c r="V130" s="87"/>
-      <c r="W130" s="87"/>
-      <c r="X130" s="87"/>
-      <c r="Y130" s="87"/>
-      <c r="Z130" s="87"/>
-      <c r="AA130" s="87"/>
-      <c r="AB130" s="87"/>
-      <c r="AC130" s="87"/>
-      <c r="AD130" s="87"/>
-      <c r="AE130" s="87"/>
-      <c r="AF130" s="87"/>
-      <c r="AG130" s="90" t="s">
+      <c r="B130" s="79"/>
+      <c r="C130" s="79"/>
+      <c r="D130" s="79"/>
+      <c r="E130" s="79"/>
+      <c r="F130" s="79"/>
+      <c r="G130" s="79"/>
+      <c r="H130" s="79"/>
+      <c r="I130" s="79"/>
+      <c r="J130" s="79"/>
+      <c r="K130" s="79"/>
+      <c r="L130" s="79"/>
+      <c r="M130" s="79"/>
+      <c r="N130" s="79"/>
+      <c r="O130" s="79"/>
+      <c r="P130" s="79"/>
+      <c r="Q130" s="79"/>
+      <c r="R130" s="79"/>
+      <c r="S130" s="79"/>
+      <c r="T130" s="79"/>
+      <c r="U130" s="79"/>
+      <c r="V130" s="79"/>
+      <c r="W130" s="79"/>
+      <c r="X130" s="79"/>
+      <c r="Y130" s="79"/>
+      <c r="Z130" s="79"/>
+      <c r="AA130" s="79"/>
+      <c r="AB130" s="79"/>
+      <c r="AC130" s="79"/>
+      <c r="AD130" s="79"/>
+      <c r="AE130" s="79"/>
+      <c r="AF130" s="79"/>
+      <c r="AG130" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AH130" s="90"/>
-      <c r="AI130" s="90"/>
-      <c r="AJ130" s="90"/>
-      <c r="AK130" s="90"/>
-      <c r="AL130" s="90"/>
-      <c r="AM130" s="90"/>
-      <c r="AN130" s="90"/>
-      <c r="AO130" s="90"/>
-      <c r="AP130" s="90"/>
-      <c r="AQ130" s="90"/>
+      <c r="AH130" s="82"/>
+      <c r="AI130" s="82"/>
+      <c r="AJ130" s="82"/>
+      <c r="AK130" s="82"/>
+      <c r="AL130" s="82"/>
+      <c r="AM130" s="82"/>
+      <c r="AN130" s="82"/>
+      <c r="AO130" s="82"/>
+      <c r="AP130" s="82"/>
+      <c r="AQ130" s="82"/>
     </row>
     <row r="131" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="88"/>
-      <c r="B131" s="88"/>
-      <c r="C131" s="88"/>
-      <c r="D131" s="88"/>
-      <c r="E131" s="88"/>
-      <c r="F131" s="88"/>
-      <c r="G131" s="88"/>
-      <c r="H131" s="88"/>
-      <c r="I131" s="88"/>
-      <c r="J131" s="88"/>
-      <c r="K131" s="88"/>
-      <c r="L131" s="88"/>
-      <c r="M131" s="88"/>
-      <c r="N131" s="88"/>
-      <c r="O131" s="88"/>
-      <c r="P131" s="88"/>
-      <c r="Q131" s="88"/>
-      <c r="R131" s="88"/>
-      <c r="S131" s="88"/>
-      <c r="T131" s="88"/>
-      <c r="U131" s="88"/>
-      <c r="V131" s="88"/>
-      <c r="W131" s="88"/>
-      <c r="X131" s="88"/>
-      <c r="Y131" s="88"/>
-      <c r="Z131" s="88"/>
-      <c r="AA131" s="88"/>
-      <c r="AB131" s="88"/>
-      <c r="AC131" s="88"/>
-      <c r="AD131" s="88"/>
-      <c r="AE131" s="88"/>
-      <c r="AF131" s="88"/>
-      <c r="AG131" s="91"/>
-      <c r="AH131" s="91"/>
-      <c r="AI131" s="91"/>
-      <c r="AJ131" s="91"/>
-      <c r="AK131" s="91"/>
-      <c r="AL131" s="91"/>
-      <c r="AM131" s="91"/>
-      <c r="AN131" s="91"/>
-      <c r="AO131" s="91"/>
-      <c r="AP131" s="91"/>
-      <c r="AQ131" s="91"/>
+      <c r="A131" s="80"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="80"/>
+      <c r="D131" s="80"/>
+      <c r="E131" s="80"/>
+      <c r="F131" s="80"/>
+      <c r="G131" s="80"/>
+      <c r="H131" s="80"/>
+      <c r="I131" s="80"/>
+      <c r="J131" s="80"/>
+      <c r="K131" s="80"/>
+      <c r="L131" s="80"/>
+      <c r="M131" s="80"/>
+      <c r="N131" s="80"/>
+      <c r="O131" s="80"/>
+      <c r="P131" s="80"/>
+      <c r="Q131" s="80"/>
+      <c r="R131" s="80"/>
+      <c r="S131" s="80"/>
+      <c r="T131" s="80"/>
+      <c r="U131" s="80"/>
+      <c r="V131" s="80"/>
+      <c r="W131" s="80"/>
+      <c r="X131" s="80"/>
+      <c r="Y131" s="80"/>
+      <c r="Z131" s="80"/>
+      <c r="AA131" s="80"/>
+      <c r="AB131" s="80"/>
+      <c r="AC131" s="80"/>
+      <c r="AD131" s="80"/>
+      <c r="AE131" s="80"/>
+      <c r="AF131" s="80"/>
+      <c r="AG131" s="83"/>
+      <c r="AH131" s="83"/>
+      <c r="AI131" s="83"/>
+      <c r="AJ131" s="83"/>
+      <c r="AK131" s="83"/>
+      <c r="AL131" s="83"/>
+      <c r="AM131" s="83"/>
+      <c r="AN131" s="83"/>
+      <c r="AO131" s="83"/>
+      <c r="AP131" s="83"/>
+      <c r="AQ131" s="83"/>
     </row>
     <row r="132" spans="1:43" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="88"/>
-      <c r="B132" s="88"/>
-      <c r="C132" s="88"/>
-      <c r="D132" s="88"/>
-      <c r="E132" s="88"/>
-      <c r="F132" s="88"/>
-      <c r="G132" s="88"/>
-      <c r="H132" s="88"/>
-      <c r="I132" s="88"/>
-      <c r="J132" s="88"/>
-      <c r="K132" s="88"/>
-      <c r="L132" s="88"/>
-      <c r="M132" s="88"/>
-      <c r="N132" s="88"/>
-      <c r="O132" s="88"/>
-      <c r="P132" s="88"/>
-      <c r="Q132" s="88"/>
-      <c r="R132" s="88"/>
-      <c r="S132" s="88"/>
-      <c r="T132" s="88"/>
-      <c r="U132" s="88"/>
-      <c r="V132" s="88"/>
-      <c r="W132" s="88"/>
-      <c r="X132" s="88"/>
-      <c r="Y132" s="88"/>
-      <c r="Z132" s="88"/>
-      <c r="AA132" s="88"/>
-      <c r="AB132" s="88"/>
-      <c r="AC132" s="88"/>
-      <c r="AD132" s="88"/>
-      <c r="AE132" s="88"/>
-      <c r="AF132" s="88"/>
-      <c r="AG132" s="91"/>
-      <c r="AH132" s="91"/>
-      <c r="AI132" s="91"/>
-      <c r="AJ132" s="91"/>
-      <c r="AK132" s="91"/>
-      <c r="AL132" s="91"/>
-      <c r="AM132" s="91"/>
-      <c r="AN132" s="91"/>
-      <c r="AO132" s="91"/>
-      <c r="AP132" s="91"/>
-      <c r="AQ132" s="91"/>
+      <c r="A132" s="80"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="80"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="80"/>
+      <c r="H132" s="80"/>
+      <c r="I132" s="80"/>
+      <c r="J132" s="80"/>
+      <c r="K132" s="80"/>
+      <c r="L132" s="80"/>
+      <c r="M132" s="80"/>
+      <c r="N132" s="80"/>
+      <c r="O132" s="80"/>
+      <c r="P132" s="80"/>
+      <c r="Q132" s="80"/>
+      <c r="R132" s="80"/>
+      <c r="S132" s="80"/>
+      <c r="T132" s="80"/>
+      <c r="U132" s="80"/>
+      <c r="V132" s="80"/>
+      <c r="W132" s="80"/>
+      <c r="X132" s="80"/>
+      <c r="Y132" s="80"/>
+      <c r="Z132" s="80"/>
+      <c r="AA132" s="80"/>
+      <c r="AB132" s="80"/>
+      <c r="AC132" s="80"/>
+      <c r="AD132" s="80"/>
+      <c r="AE132" s="80"/>
+      <c r="AF132" s="80"/>
+      <c r="AG132" s="83"/>
+      <c r="AH132" s="83"/>
+      <c r="AI132" s="83"/>
+      <c r="AJ132" s="83"/>
+      <c r="AK132" s="83"/>
+      <c r="AL132" s="83"/>
+      <c r="AM132" s="83"/>
+      <c r="AN132" s="83"/>
+      <c r="AO132" s="83"/>
+      <c r="AP132" s="83"/>
+      <c r="AQ132" s="83"/>
     </row>
     <row r="133" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="88"/>
-      <c r="B133" s="88"/>
-      <c r="C133" s="88"/>
-      <c r="D133" s="88"/>
-      <c r="E133" s="88"/>
-      <c r="F133" s="88"/>
-      <c r="G133" s="88"/>
-      <c r="H133" s="88"/>
-      <c r="I133" s="88"/>
-      <c r="J133" s="88"/>
-      <c r="K133" s="88"/>
-      <c r="L133" s="88"/>
-      <c r="M133" s="88"/>
-      <c r="N133" s="88"/>
-      <c r="O133" s="88"/>
-      <c r="P133" s="88"/>
-      <c r="Q133" s="88"/>
-      <c r="R133" s="88"/>
-      <c r="S133" s="88"/>
-      <c r="T133" s="88"/>
-      <c r="U133" s="88"/>
-      <c r="V133" s="88"/>
-      <c r="W133" s="88"/>
-      <c r="X133" s="88"/>
-      <c r="Y133" s="88"/>
-      <c r="Z133" s="88"/>
-      <c r="AA133" s="88"/>
-      <c r="AB133" s="88"/>
-      <c r="AC133" s="88"/>
-      <c r="AD133" s="88"/>
-      <c r="AE133" s="88"/>
-      <c r="AF133" s="88"/>
-      <c r="AG133" s="91"/>
-      <c r="AH133" s="91"/>
-      <c r="AI133" s="91"/>
-      <c r="AJ133" s="91"/>
-      <c r="AK133" s="91"/>
-      <c r="AL133" s="91"/>
-      <c r="AM133" s="91"/>
-      <c r="AN133" s="91"/>
-      <c r="AO133" s="91"/>
-      <c r="AP133" s="91"/>
-      <c r="AQ133" s="91"/>
+      <c r="A133" s="80"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="80"/>
+      <c r="F133" s="80"/>
+      <c r="G133" s="80"/>
+      <c r="H133" s="80"/>
+      <c r="I133" s="80"/>
+      <c r="J133" s="80"/>
+      <c r="K133" s="80"/>
+      <c r="L133" s="80"/>
+      <c r="M133" s="80"/>
+      <c r="N133" s="80"/>
+      <c r="O133" s="80"/>
+      <c r="P133" s="80"/>
+      <c r="Q133" s="80"/>
+      <c r="R133" s="80"/>
+      <c r="S133" s="80"/>
+      <c r="T133" s="80"/>
+      <c r="U133" s="80"/>
+      <c r="V133" s="80"/>
+      <c r="W133" s="80"/>
+      <c r="X133" s="80"/>
+      <c r="Y133" s="80"/>
+      <c r="Z133" s="80"/>
+      <c r="AA133" s="80"/>
+      <c r="AB133" s="80"/>
+      <c r="AC133" s="80"/>
+      <c r="AD133" s="80"/>
+      <c r="AE133" s="80"/>
+      <c r="AF133" s="80"/>
+      <c r="AG133" s="83"/>
+      <c r="AH133" s="83"/>
+      <c r="AI133" s="83"/>
+      <c r="AJ133" s="83"/>
+      <c r="AK133" s="83"/>
+      <c r="AL133" s="83"/>
+      <c r="AM133" s="83"/>
+      <c r="AN133" s="83"/>
+      <c r="AO133" s="83"/>
+      <c r="AP133" s="83"/>
+      <c r="AQ133" s="83"/>
     </row>
     <row r="134" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="88"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="88"/>
-      <c r="D134" s="88"/>
-      <c r="E134" s="88"/>
-      <c r="F134" s="88"/>
-      <c r="G134" s="88"/>
-      <c r="H134" s="88"/>
-      <c r="I134" s="88"/>
-      <c r="J134" s="88"/>
-      <c r="K134" s="88"/>
-      <c r="L134" s="88"/>
-      <c r="M134" s="88"/>
-      <c r="N134" s="88"/>
-      <c r="O134" s="88"/>
-      <c r="P134" s="88"/>
-      <c r="Q134" s="88"/>
-      <c r="R134" s="88"/>
-      <c r="S134" s="88"/>
-      <c r="T134" s="88"/>
-      <c r="U134" s="88"/>
-      <c r="V134" s="88"/>
-      <c r="W134" s="88"/>
-      <c r="X134" s="88"/>
-      <c r="Y134" s="88"/>
-      <c r="Z134" s="88"/>
-      <c r="AA134" s="88"/>
-      <c r="AB134" s="88"/>
-      <c r="AC134" s="88"/>
-      <c r="AD134" s="88"/>
-      <c r="AE134" s="88"/>
-      <c r="AF134" s="88"/>
-      <c r="AG134" s="91"/>
-      <c r="AH134" s="91"/>
-      <c r="AI134" s="91"/>
-      <c r="AJ134" s="91"/>
-      <c r="AK134" s="91"/>
-      <c r="AL134" s="91"/>
-      <c r="AM134" s="91"/>
-      <c r="AN134" s="91"/>
-      <c r="AO134" s="91"/>
-      <c r="AP134" s="91"/>
-      <c r="AQ134" s="91"/>
+      <c r="A134" s="80"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="80"/>
+      <c r="F134" s="80"/>
+      <c r="G134" s="80"/>
+      <c r="H134" s="80"/>
+      <c r="I134" s="80"/>
+      <c r="J134" s="80"/>
+      <c r="K134" s="80"/>
+      <c r="L134" s="80"/>
+      <c r="M134" s="80"/>
+      <c r="N134" s="80"/>
+      <c r="O134" s="80"/>
+      <c r="P134" s="80"/>
+      <c r="Q134" s="80"/>
+      <c r="R134" s="80"/>
+      <c r="S134" s="80"/>
+      <c r="T134" s="80"/>
+      <c r="U134" s="80"/>
+      <c r="V134" s="80"/>
+      <c r="W134" s="80"/>
+      <c r="X134" s="80"/>
+      <c r="Y134" s="80"/>
+      <c r="Z134" s="80"/>
+      <c r="AA134" s="80"/>
+      <c r="AB134" s="80"/>
+      <c r="AC134" s="80"/>
+      <c r="AD134" s="80"/>
+      <c r="AE134" s="80"/>
+      <c r="AF134" s="80"/>
+      <c r="AG134" s="83"/>
+      <c r="AH134" s="83"/>
+      <c r="AI134" s="83"/>
+      <c r="AJ134" s="83"/>
+      <c r="AK134" s="83"/>
+      <c r="AL134" s="83"/>
+      <c r="AM134" s="83"/>
+      <c r="AN134" s="83"/>
+      <c r="AO134" s="83"/>
+      <c r="AP134" s="83"/>
+      <c r="AQ134" s="83"/>
     </row>
     <row r="135" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="89"/>
-      <c r="B135" s="89"/>
-      <c r="C135" s="89"/>
-      <c r="D135" s="89"/>
-      <c r="E135" s="89"/>
-      <c r="F135" s="89"/>
-      <c r="G135" s="89"/>
-      <c r="H135" s="89"/>
-      <c r="I135" s="89"/>
-      <c r="J135" s="89"/>
-      <c r="K135" s="89"/>
-      <c r="L135" s="89"/>
-      <c r="M135" s="89"/>
-      <c r="N135" s="89"/>
-      <c r="O135" s="89"/>
-      <c r="P135" s="89"/>
-      <c r="Q135" s="89"/>
-      <c r="R135" s="89"/>
-      <c r="S135" s="89"/>
-      <c r="T135" s="89"/>
-      <c r="U135" s="89"/>
-      <c r="V135" s="89"/>
-      <c r="W135" s="89"/>
-      <c r="X135" s="89"/>
-      <c r="Y135" s="89"/>
-      <c r="Z135" s="89"/>
-      <c r="AA135" s="89"/>
-      <c r="AB135" s="89"/>
-      <c r="AC135" s="89"/>
-      <c r="AD135" s="89"/>
-      <c r="AE135" s="89"/>
-      <c r="AF135" s="89"/>
-      <c r="AG135" s="92"/>
-      <c r="AH135" s="92"/>
-      <c r="AI135" s="92"/>
-      <c r="AJ135" s="92"/>
-      <c r="AK135" s="92"/>
-      <c r="AL135" s="92"/>
-      <c r="AM135" s="92"/>
-      <c r="AN135" s="92"/>
-      <c r="AO135" s="92"/>
-      <c r="AP135" s="92"/>
-      <c r="AQ135" s="92"/>
+      <c r="A135" s="81"/>
+      <c r="B135" s="81"/>
+      <c r="C135" s="81"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81"/>
+      <c r="G135" s="81"/>
+      <c r="H135" s="81"/>
+      <c r="I135" s="81"/>
+      <c r="J135" s="81"/>
+      <c r="K135" s="81"/>
+      <c r="L135" s="81"/>
+      <c r="M135" s="81"/>
+      <c r="N135" s="81"/>
+      <c r="O135" s="81"/>
+      <c r="P135" s="81"/>
+      <c r="Q135" s="81"/>
+      <c r="R135" s="81"/>
+      <c r="S135" s="81"/>
+      <c r="T135" s="81"/>
+      <c r="U135" s="81"/>
+      <c r="V135" s="81"/>
+      <c r="W135" s="81"/>
+      <c r="X135" s="81"/>
+      <c r="Y135" s="81"/>
+      <c r="Z135" s="81"/>
+      <c r="AA135" s="81"/>
+      <c r="AB135" s="81"/>
+      <c r="AC135" s="81"/>
+      <c r="AD135" s="81"/>
+      <c r="AE135" s="81"/>
+      <c r="AF135" s="81"/>
+      <c r="AG135" s="84"/>
+      <c r="AH135" s="84"/>
+      <c r="AI135" s="84"/>
+      <c r="AJ135" s="84"/>
+      <c r="AK135" s="84"/>
+      <c r="AL135" s="84"/>
+      <c r="AM135" s="84"/>
+      <c r="AN135" s="84"/>
+      <c r="AO135" s="84"/>
+      <c r="AP135" s="84"/>
+      <c r="AQ135" s="84"/>
     </row>
     <row r="136" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
@@ -10370,7 +9994,8 @@
     <row r="222" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="223" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="399">
+  <mergeCells count="411">
+    <mergeCell ref="S40:U40"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="AG25:AI25"/>
@@ -10405,6 +10030,20 @@
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="S36:U36"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
     <mergeCell ref="AD34:AF34"/>
     <mergeCell ref="AD29:AF29"/>
     <mergeCell ref="W28:Z33"/>
@@ -10414,6 +10053,9 @@
     <mergeCell ref="P32:R32"/>
     <mergeCell ref="S32:U32"/>
     <mergeCell ref="P33:R33"/>
+    <mergeCell ref="H63:K64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="H41:J41"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="L48:M49"/>
     <mergeCell ref="H65:K66"/>
@@ -10435,10 +10077,9 @@
     <mergeCell ref="P34:R34"/>
     <mergeCell ref="S34:U34"/>
     <mergeCell ref="S35:U35"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AD33:AF33"/>
     <mergeCell ref="N48:Q56"/>
     <mergeCell ref="L54:M56"/>
     <mergeCell ref="L67:M68"/>
@@ -10460,8 +10101,9 @@
     <mergeCell ref="B61:G62"/>
     <mergeCell ref="H61:K62"/>
     <mergeCell ref="B63:G64"/>
-    <mergeCell ref="H63:K64"/>
-    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="AO30:AQ30"/>
+    <mergeCell ref="AL30:AN30"/>
+    <mergeCell ref="AD25:AF25"/>
     <mergeCell ref="AO25:AQ25"/>
     <mergeCell ref="AO26:AQ26"/>
     <mergeCell ref="AO27:AQ27"/>
@@ -10483,18 +10125,6 @@
     <mergeCell ref="AG29:AI29"/>
     <mergeCell ref="AD35:AF35"/>
     <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="R11:AQ11"/>
-    <mergeCell ref="AL25:AN25"/>
-    <mergeCell ref="AO29:AQ29"/>
-    <mergeCell ref="AJ30:AK30"/>
     <mergeCell ref="AG30:AI30"/>
     <mergeCell ref="S28:U28"/>
     <mergeCell ref="S29:U29"/>
@@ -10507,9 +10137,9 @@
     <mergeCell ref="AL28:AN28"/>
     <mergeCell ref="AL29:AN29"/>
     <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="AO30:AQ30"/>
-    <mergeCell ref="AL30:AN30"/>
-    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:G53"/>
     <mergeCell ref="G1:AI3"/>
     <mergeCell ref="AJ1:AQ3"/>
     <mergeCell ref="A4:AI6"/>
@@ -10522,22 +10152,28 @@
     <mergeCell ref="AJ4:AM10"/>
     <mergeCell ref="K7:U8"/>
     <mergeCell ref="V7:AI8"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="E40:G41"/>
-    <mergeCell ref="H52:K53"/>
-    <mergeCell ref="B54:G56"/>
-    <mergeCell ref="H54:K56"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="R11:AQ11"/>
+    <mergeCell ref="AL25:AN25"/>
+    <mergeCell ref="AO29:AQ29"/>
+    <mergeCell ref="AJ30:AK30"/>
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="N46:Q47"/>
     <mergeCell ref="N40:O40"/>
     <mergeCell ref="K40:M40"/>
     <mergeCell ref="N38:O38"/>
+    <mergeCell ref="B48:G49"/>
+    <mergeCell ref="H48:K49"/>
+    <mergeCell ref="B50:G51"/>
+    <mergeCell ref="H50:K51"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:R40"/>
     <mergeCell ref="AO32:AQ32"/>
     <mergeCell ref="AO31:AQ31"/>
     <mergeCell ref="AO33:AQ33"/>
@@ -10554,6 +10190,8 @@
     <mergeCell ref="AL32:AN32"/>
     <mergeCell ref="AJ35:AK35"/>
     <mergeCell ref="AG35:AI35"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="H31:J31"/>
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="H35:J35"/>
@@ -10573,6 +10211,8 @@
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="K35:M35"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:G71"/>
     <mergeCell ref="A12:Q12"/>
     <mergeCell ref="A26:D33"/>
     <mergeCell ref="A25:D25"/>
@@ -10595,11 +10235,6 @@
     <mergeCell ref="E28:G29"/>
     <mergeCell ref="E30:G31"/>
     <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="L70:M71"/>
-    <mergeCell ref="N70:Q71"/>
-    <mergeCell ref="A72:A73"/>
     <mergeCell ref="N72:Q87"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="L74:M75"/>
@@ -10619,14 +10254,6 @@
     <mergeCell ref="H84:K85"/>
     <mergeCell ref="B86:G87"/>
     <mergeCell ref="H86:K87"/>
-    <mergeCell ref="B48:G49"/>
-    <mergeCell ref="H48:K49"/>
-    <mergeCell ref="B50:G51"/>
-    <mergeCell ref="H50:K51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:G53"/>
-    <mergeCell ref="R69:AQ69"/>
     <mergeCell ref="AL38:AN38"/>
     <mergeCell ref="N57:Q58"/>
     <mergeCell ref="L59:M60"/>
@@ -10640,16 +10267,17 @@
     <mergeCell ref="B57:G58"/>
     <mergeCell ref="H57:K58"/>
     <mergeCell ref="A54:A56"/>
-    <mergeCell ref="L61:M62"/>
     <mergeCell ref="V40:AK45"/>
     <mergeCell ref="AL40:AQ45"/>
-    <mergeCell ref="L88:M89"/>
-    <mergeCell ref="N88:Q89"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:G89"/>
-    <mergeCell ref="H88:K89"/>
-    <mergeCell ref="B98:G99"/>
-    <mergeCell ref="H98:K99"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="E40:G41"/>
+    <mergeCell ref="H52:K53"/>
+    <mergeCell ref="B54:G56"/>
+    <mergeCell ref="H54:K56"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="AL39:AN39"/>
     <mergeCell ref="AO39:AQ39"/>
     <mergeCell ref="E44:G45"/>
@@ -10667,25 +10295,22 @@
     <mergeCell ref="B46:G47"/>
     <mergeCell ref="H46:K47"/>
     <mergeCell ref="K43:M43"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="L100:M101"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="N90:Q103"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="L92:M93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="L94:M95"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="L102:M103"/>
-    <mergeCell ref="B100:G101"/>
-    <mergeCell ref="H100:K101"/>
-    <mergeCell ref="B102:G103"/>
-    <mergeCell ref="H102:K103"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="L96:M97"/>
+    <mergeCell ref="R69:AQ69"/>
+    <mergeCell ref="L61:M62"/>
+    <mergeCell ref="B67:G68"/>
+    <mergeCell ref="H67:K68"/>
+    <mergeCell ref="L70:M71"/>
+    <mergeCell ref="N70:Q71"/>
+    <mergeCell ref="A72:A73"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="L98:M99"/>
+    <mergeCell ref="L88:M89"/>
+    <mergeCell ref="N88:Q89"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:G89"/>
+    <mergeCell ref="H88:K89"/>
+    <mergeCell ref="B98:G99"/>
+    <mergeCell ref="H98:K99"/>
     <mergeCell ref="A106:A107"/>
     <mergeCell ref="L106:M107"/>
     <mergeCell ref="N106:Q129"/>
@@ -10733,6 +10358,12 @@
     <mergeCell ref="H126:K127"/>
     <mergeCell ref="B128:G129"/>
     <mergeCell ref="H128:K129"/>
+    <mergeCell ref="B106:G107"/>
+    <mergeCell ref="H106:K107"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
     <mergeCell ref="B108:G109"/>
     <mergeCell ref="H108:K109"/>
     <mergeCell ref="B92:G93"/>
@@ -10746,23 +10377,11 @@
     <mergeCell ref="B76:G77"/>
     <mergeCell ref="H76:K77"/>
     <mergeCell ref="H80:K81"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:G105"/>
-    <mergeCell ref="H104:K105"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="B106:G107"/>
-    <mergeCell ref="H106:K107"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="B67:G68"/>
-    <mergeCell ref="H67:K68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:G71"/>
+    <mergeCell ref="B100:G101"/>
+    <mergeCell ref="H100:K101"/>
+    <mergeCell ref="B102:G103"/>
+    <mergeCell ref="H102:K103"/>
+    <mergeCell ref="B91:G91"/>
     <mergeCell ref="H70:K71"/>
     <mergeCell ref="A69:Q69"/>
     <mergeCell ref="L65:M66"/>
@@ -10770,6 +10389,23 @@
     <mergeCell ref="B65:G66"/>
     <mergeCell ref="L104:M105"/>
     <mergeCell ref="N104:Q105"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:G105"/>
+    <mergeCell ref="H104:K105"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="L100:M101"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="N90:Q103"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="L92:M93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="L94:M95"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="L102:M103"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="L96:M97"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/export/files/excel/J59C_SD.xlsx
+++ b/export/files/excel/J59C_SD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\QC_Han\export\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4127FAD-6B68-42F6-ACDC-A5CDECFD8B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A00C5D2-9005-47BE-9E1F-6182119D12CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MẶT TRƯỚC" sheetId="4" r:id="rId1"/>
@@ -1841,33 +1841,657 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1895,51 +2519,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1954,588 +2536,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2563,13 +2563,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>66260</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>50468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2599,8 +2599,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="708660" cy="365760"/>
+          <a:off x="0" y="1"/>
+          <a:ext cx="604630" cy="315510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2637,13 +2637,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>112643</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>72888</xdr:rowOff>
+      <xdr:rowOff>72889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>94330</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>79513</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2673,8 +2673,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="112643" y="1769166"/>
-          <a:ext cx="6667409" cy="1530625"/>
+          <a:off x="112643" y="1696280"/>
+          <a:ext cx="6016487" cy="1405784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3150,581 +3150,581 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AY30" sqref="AY30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BF23" sqref="BF23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="2.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="2.33203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="0.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.7109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="2.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="2.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="1" customWidth="1"/>
-    <col min="15" max="15" width="2.6640625" style="1" customWidth="1"/>
-    <col min="16" max="21" width="1.5546875" style="1" customWidth="1"/>
-    <col min="22" max="23" width="2.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="1.109375" style="1" customWidth="1"/>
-    <col min="25" max="33" width="2.33203125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="1.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="4.109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="3.88671875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="2.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="1" customWidth="1"/>
+    <col min="16" max="21" width="1.5703125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="2.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="1.140625" style="1" customWidth="1"/>
+    <col min="25" max="33" width="2.28515625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="1.7109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="4.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="3.85546875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="2.28515625" style="1" customWidth="1"/>
     <col min="38" max="41" width="2" style="1" customWidth="1"/>
-    <col min="42" max="42" width="2.5546875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="2.5703125" style="1" customWidth="1"/>
     <col min="43" max="43" width="2" style="1" customWidth="1"/>
-    <col min="44" max="50" width="2.33203125" style="1" customWidth="1"/>
-    <col min="51" max="51" width="3.88671875" style="1" customWidth="1"/>
-    <col min="52" max="82" width="2.33203125" style="1" customWidth="1"/>
-    <col min="83" max="16384" width="9.109375" style="1"/>
+    <col min="44" max="50" width="2.28515625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="3.85546875" style="1" customWidth="1"/>
+    <col min="52" max="82" width="2.28515625" style="1" customWidth="1"/>
+    <col min="83" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="192" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="192"/>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="192"/>
-      <c r="AA1" s="192"/>
-      <c r="AB1" s="192"/>
-      <c r="AC1" s="192"/>
-      <c r="AD1" s="192"/>
-      <c r="AE1" s="192"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="192"/>
-      <c r="AH1" s="192"/>
-      <c r="AI1" s="192"/>
-      <c r="AJ1" s="195" t="s">
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="88"/>
-      <c r="AM1" s="88"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="88"/>
-      <c r="AQ1" s="88"/>
+      <c r="AK1" s="101"/>
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="101"/>
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="101"/>
+      <c r="AQ1" s="101"/>
     </row>
     <row r="2" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="193"/>
-      <c r="AG2" s="193"/>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="196"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="196"/>
-      <c r="AM2" s="196"/>
-      <c r="AN2" s="196"/>
-      <c r="AO2" s="196"/>
-      <c r="AP2" s="196"/>
-      <c r="AQ2" s="196"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
     </row>
     <row r="3" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194"/>
-      <c r="Q3" s="194"/>
-      <c r="R3" s="194"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="194"/>
-      <c r="U3" s="194"/>
-      <c r="V3" s="194"/>
-      <c r="W3" s="194"/>
-      <c r="X3" s="194"/>
-      <c r="Y3" s="194"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="194"/>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="194"/>
-      <c r="AH3" s="194"/>
-      <c r="AI3" s="194"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="89"/>
-      <c r="AO3" s="89"/>
-      <c r="AP3" s="89"/>
-      <c r="AQ3" s="89"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="103"/>
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
     </row>
     <row r="4" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="198"/>
-      <c r="V4" s="198"/>
-      <c r="W4" s="198"/>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="198"/>
-      <c r="Z4" s="198"/>
-      <c r="AA4" s="198"/>
-      <c r="AB4" s="198"/>
-      <c r="AC4" s="198"/>
-      <c r="AD4" s="198"/>
-      <c r="AE4" s="198"/>
-      <c r="AF4" s="198"/>
-      <c r="AG4" s="198"/>
-      <c r="AH4" s="198"/>
-      <c r="AI4" s="199"/>
-      <c r="AJ4" s="213" t="s">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="213"/>
-      <c r="AL4" s="213"/>
-      <c r="AM4" s="213"/>
-      <c r="AN4" s="204" t="s">
+      <c r="AK4" s="120"/>
+      <c r="AL4" s="120"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="AO4" s="204"/>
-      <c r="AP4" s="204"/>
-      <c r="AQ4" s="204"/>
+      <c r="AO4" s="111"/>
+      <c r="AP4" s="111"/>
+      <c r="AQ4" s="111"/>
     </row>
     <row r="5" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="200"/>
-      <c r="B5" s="201"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="201"/>
-      <c r="U5" s="201"/>
-      <c r="V5" s="201"/>
-      <c r="W5" s="201"/>
-      <c r="X5" s="201"/>
-      <c r="Y5" s="201"/>
-      <c r="Z5" s="201"/>
-      <c r="AA5" s="201"/>
-      <c r="AB5" s="201"/>
-      <c r="AC5" s="201"/>
-      <c r="AD5" s="201"/>
-      <c r="AE5" s="201"/>
-      <c r="AF5" s="201"/>
-      <c r="AG5" s="201"/>
-      <c r="AH5" s="201"/>
-      <c r="AI5" s="202"/>
-      <c r="AJ5" s="213"/>
-      <c r="AK5" s="213"/>
-      <c r="AL5" s="213"/>
-      <c r="AM5" s="213"/>
-      <c r="AN5" s="204"/>
-      <c r="AO5" s="204"/>
-      <c r="AP5" s="204"/>
-      <c r="AQ5" s="204"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="120"/>
+      <c r="AK5" s="120"/>
+      <c r="AL5" s="120"/>
+      <c r="AM5" s="120"/>
+      <c r="AN5" s="111"/>
+      <c r="AO5" s="111"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
     </row>
     <row r="6" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="200"/>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="201"/>
-      <c r="K6" s="201"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="201"/>
-      <c r="S6" s="201"/>
-      <c r="T6" s="201"/>
-      <c r="U6" s="201"/>
-      <c r="V6" s="201"/>
-      <c r="W6" s="201"/>
-      <c r="X6" s="201"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="201"/>
-      <c r="AA6" s="201"/>
-      <c r="AB6" s="201"/>
-      <c r="AC6" s="201"/>
-      <c r="AD6" s="201"/>
-      <c r="AE6" s="201"/>
-      <c r="AF6" s="201"/>
-      <c r="AG6" s="201"/>
-      <c r="AH6" s="201"/>
-      <c r="AI6" s="202"/>
-      <c r="AJ6" s="213"/>
-      <c r="AK6" s="213"/>
-      <c r="AL6" s="213"/>
-      <c r="AM6" s="213"/>
-      <c r="AN6" s="204"/>
-      <c r="AO6" s="204"/>
-      <c r="AP6" s="204"/>
-      <c r="AQ6" s="204"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="120"/>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="120"/>
+      <c r="AM6" s="120"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111"/>
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
     </row>
     <row r="7" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="205"/>
-      <c r="I7" s="205"/>
-      <c r="J7" s="205"/>
-      <c r="K7" s="205" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="205"/>
-      <c r="O7" s="205"/>
-      <c r="P7" s="205"/>
-      <c r="Q7" s="205"/>
-      <c r="R7" s="205"/>
-      <c r="S7" s="205"/>
-      <c r="T7" s="205"/>
-      <c r="U7" s="205"/>
-      <c r="V7" s="203" t="s">
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="203"/>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="203"/>
-      <c r="Z7" s="203"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="203"/>
-      <c r="AF7" s="203"/>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="203"/>
-      <c r="AJ7" s="213"/>
-      <c r="AK7" s="213"/>
-      <c r="AL7" s="213"/>
-      <c r="AM7" s="213"/>
-      <c r="AN7" s="204"/>
-      <c r="AO7" s="204"/>
-      <c r="AP7" s="204"/>
-      <c r="AQ7" s="204"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="110"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="120"/>
+      <c r="AL7" s="120"/>
+      <c r="AM7" s="120"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
     </row>
     <row r="8" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="206"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="206"/>
-      <c r="L8" s="206"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="206"/>
-      <c r="Q8" s="206"/>
-      <c r="R8" s="206"/>
-      <c r="S8" s="206"/>
-      <c r="T8" s="206"/>
-      <c r="U8" s="206"/>
-      <c r="V8" s="203"/>
-      <c r="W8" s="203"/>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="203"/>
-      <c r="Z8" s="203"/>
-      <c r="AA8" s="203"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="203"/>
-      <c r="AD8" s="203"/>
-      <c r="AE8" s="203"/>
-      <c r="AF8" s="203"/>
-      <c r="AG8" s="203"/>
-      <c r="AH8" s="203"/>
-      <c r="AI8" s="203"/>
-      <c r="AJ8" s="213"/>
-      <c r="AK8" s="213"/>
-      <c r="AL8" s="213"/>
-      <c r="AM8" s="213"/>
-      <c r="AN8" s="204"/>
-      <c r="AO8" s="204"/>
-      <c r="AP8" s="204"/>
-      <c r="AQ8" s="204"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="110"/>
+      <c r="AJ8" s="120"/>
+      <c r="AK8" s="120"/>
+      <c r="AL8" s="120"/>
+      <c r="AM8" s="120"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
     </row>
     <row r="9" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="208"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="209"/>
-      <c r="M9" s="208" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="208"/>
-      <c r="O9" s="208"/>
-      <c r="P9" s="208"/>
-      <c r="Q9" s="208"/>
-      <c r="R9" s="208"/>
-      <c r="S9" s="208"/>
-      <c r="T9" s="208"/>
-      <c r="U9" s="209"/>
-      <c r="V9" s="203" t="s">
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="203"/>
-      <c r="X9" s="203"/>
-      <c r="Y9" s="203"/>
-      <c r="Z9" s="203"/>
-      <c r="AA9" s="203"/>
-      <c r="AB9" s="203"/>
-      <c r="AC9" s="203"/>
-      <c r="AD9" s="203"/>
-      <c r="AE9" s="203"/>
-      <c r="AF9" s="203"/>
-      <c r="AG9" s="203"/>
-      <c r="AH9" s="203"/>
-      <c r="AI9" s="203"/>
-      <c r="AJ9" s="213"/>
-      <c r="AK9" s="213"/>
-      <c r="AL9" s="213"/>
-      <c r="AM9" s="213"/>
-      <c r="AN9" s="204"/>
-      <c r="AO9" s="204"/>
-      <c r="AP9" s="204"/>
-      <c r="AQ9" s="204"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="120"/>
+      <c r="AK9" s="120"/>
+      <c r="AL9" s="120"/>
+      <c r="AM9" s="120"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
     </row>
     <row r="10" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="210"/>
-      <c r="B10" s="211"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="212"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="211"/>
-      <c r="P10" s="211"/>
-      <c r="Q10" s="211"/>
-      <c r="R10" s="211"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="211"/>
-      <c r="U10" s="212"/>
-      <c r="V10" s="203"/>
-      <c r="W10" s="203"/>
-      <c r="X10" s="203"/>
-      <c r="Y10" s="203"/>
-      <c r="Z10" s="203"/>
-      <c r="AA10" s="203"/>
-      <c r="AB10" s="203"/>
-      <c r="AC10" s="203"/>
-      <c r="AD10" s="203"/>
-      <c r="AE10" s="203"/>
-      <c r="AF10" s="203"/>
-      <c r="AG10" s="203"/>
-      <c r="AH10" s="203"/>
-      <c r="AI10" s="203"/>
-      <c r="AJ10" s="213"/>
-      <c r="AK10" s="213"/>
-      <c r="AL10" s="213"/>
-      <c r="AM10" s="213"/>
-      <c r="AN10" s="204"/>
-      <c r="AO10" s="204"/>
-      <c r="AP10" s="204"/>
-      <c r="AQ10" s="204"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="120"/>
+      <c r="AL10" s="120"/>
+      <c r="AM10" s="120"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="111"/>
+      <c r="AP10" s="111"/>
+      <c r="AQ10" s="111"/>
     </row>
     <row r="11" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="214" t="s">
+      <c r="A11" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="122" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="123"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="123"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="123"/>
-      <c r="AI11" s="123"/>
-      <c r="AJ11" s="123"/>
-      <c r="AK11" s="123"/>
-      <c r="AL11" s="123"/>
-      <c r="AM11" s="123"/>
-      <c r="AN11" s="123"/>
-      <c r="AO11" s="123"/>
-      <c r="AP11" s="123"/>
-      <c r="AQ11" s="124"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="125"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="125"/>
+      <c r="AJ11" s="125"/>
+      <c r="AK11" s="125"/>
+      <c r="AL11" s="125"/>
+      <c r="AM11" s="125"/>
+      <c r="AN11" s="125"/>
+      <c r="AO11" s="125"/>
+      <c r="AP11" s="125"/>
+      <c r="AQ11" s="126"/>
     </row>
     <row r="12" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="145"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="151"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -4296,1267 +4296,1267 @@
       <c r="AQ24" s="7"/>
     </row>
     <row r="25" spans="1:49" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="152" t="s">
+      <c r="A25" s="158" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="165" t="s">
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165" t="s">
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="165"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="247" t="s">
+      <c r="I25" s="34"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="L25" s="215"/>
-      <c r="M25" s="215"/>
-      <c r="N25" s="248" t="s">
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="O25" s="154"/>
-      <c r="P25" s="166" t="s">
+      <c r="O25" s="23"/>
+      <c r="P25" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="Q25" s="215"/>
-      <c r="R25" s="216"/>
-      <c r="S25" s="166" t="s">
+      <c r="Q25" s="21"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="T25" s="215"/>
-      <c r="U25" s="216"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="42"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="166" t="s">
+      <c r="W25" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="X25" s="215"/>
-      <c r="Y25" s="215"/>
-      <c r="Z25" s="216"/>
-      <c r="AA25" s="165" t="s">
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="165"/>
-      <c r="AC25" s="165"/>
-      <c r="AD25" s="165" t="s">
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AE25" s="165"/>
-      <c r="AF25" s="165"/>
-      <c r="AG25" s="247" t="s">
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="AH25" s="215"/>
-      <c r="AI25" s="215"/>
-      <c r="AJ25" s="248" t="s">
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="AK25" s="154"/>
-      <c r="AL25" s="166" t="s">
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AM25" s="215"/>
-      <c r="AN25" s="216"/>
-      <c r="AO25" s="166" t="s">
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AP25" s="215"/>
-      <c r="AQ25" s="216"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="42"/>
     </row>
     <row r="26" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="164" t="s">
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="113"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="167" t="s">
+      <c r="F26" s="166"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="171" t="s">
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="162"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="162" t="s">
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="O26" s="163"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="104"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="19"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="226" t="s">
+      <c r="W26" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="X26" s="227"/>
-      <c r="Y26" s="227"/>
-      <c r="Z26" s="228"/>
-      <c r="AA26" s="105" t="s">
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="AB26" s="239"/>
-      <c r="AC26" s="240"/>
-      <c r="AD26" s="111" t="s">
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AE26" s="111"/>
-      <c r="AF26" s="111"/>
-      <c r="AG26" s="217" t="s">
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="AH26" s="189"/>
-      <c r="AI26" s="190"/>
-      <c r="AJ26" s="189" t="s">
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AK26" s="190"/>
-      <c r="AL26" s="102"/>
-      <c r="AM26" s="103"/>
-      <c r="AN26" s="104"/>
-      <c r="AO26" s="102"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="104"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="19"/>
     </row>
     <row r="27" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="149"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="164" t="s">
+      <c r="A27" s="155"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="164"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="171" t="s">
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="162"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="162" t="s">
+      <c r="L27" s="25"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="O27" s="163"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="104"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="19"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="232"/>
-      <c r="X27" s="233"/>
-      <c r="Y27" s="233"/>
-      <c r="Z27" s="234"/>
-      <c r="AA27" s="241"/>
-      <c r="AB27" s="242"/>
-      <c r="AC27" s="243"/>
-      <c r="AD27" s="111" t="s">
+      <c r="W27" s="31"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="111"/>
-      <c r="AG27" s="217" t="s">
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="AH27" s="189"/>
-      <c r="AI27" s="190"/>
-      <c r="AJ27" s="189" t="s">
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="AK27" s="190"/>
-      <c r="AL27" s="102"/>
-      <c r="AM27" s="103"/>
-      <c r="AN27" s="104"/>
-      <c r="AO27" s="102"/>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="104"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="19"/>
     </row>
     <row r="28" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="149"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="164" t="s">
+      <c r="A28" s="155"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="167" t="s">
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="171" t="s">
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="L28" s="162"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="162" t="s">
+      <c r="L28" s="25"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="O28" s="163"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="104"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="226" t="s">
+      <c r="W28" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="X28" s="227"/>
-      <c r="Y28" s="227"/>
-      <c r="Z28" s="228"/>
-      <c r="AA28" s="105" t="s">
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="AB28" s="239"/>
-      <c r="AC28" s="240"/>
-      <c r="AD28" s="111" t="s">
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AE28" s="111"/>
-      <c r="AF28" s="111"/>
-      <c r="AG28" s="171" t="s">
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="AH28" s="162"/>
-      <c r="AI28" s="163"/>
-      <c r="AJ28" s="162" t="s">
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="AK28" s="163"/>
-      <c r="AL28" s="102"/>
-      <c r="AM28" s="103"/>
-      <c r="AN28" s="104"/>
-      <c r="AO28" s="102"/>
-      <c r="AP28" s="103"/>
-      <c r="AQ28" s="104"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="19"/>
     </row>
     <row r="29" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="149"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164" t="s">
+      <c r="A29" s="155"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="171" t="s">
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="L29" s="162"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="162" t="s">
+      <c r="L29" s="25"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="O29" s="163"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="104"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="19"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="229"/>
-      <c r="X29" s="230"/>
-      <c r="Y29" s="230"/>
-      <c r="Z29" s="231"/>
-      <c r="AA29" s="241"/>
-      <c r="AB29" s="242"/>
-      <c r="AC29" s="243"/>
-      <c r="AD29" s="111" t="s">
+      <c r="W29" s="46"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AE29" s="111"/>
-      <c r="AF29" s="111"/>
-      <c r="AG29" s="171" t="s">
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="AH29" s="162"/>
-      <c r="AI29" s="163"/>
-      <c r="AJ29" s="162" t="s">
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="AK29" s="163"/>
-      <c r="AL29" s="102"/>
-      <c r="AM29" s="103"/>
-      <c r="AN29" s="104"/>
-      <c r="AO29" s="102"/>
-      <c r="AP29" s="103"/>
-      <c r="AQ29" s="104"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="19"/>
     </row>
     <row r="30" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="149"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="164" t="s">
+      <c r="A30" s="155"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="111" t="s">
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="171" t="s">
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="L30" s="162"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="162" t="s">
+      <c r="L30" s="25"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="O30" s="163"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="104"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="19"/>
       <c r="V30" s="14"/>
-      <c r="W30" s="229"/>
-      <c r="X30" s="230"/>
-      <c r="Y30" s="230"/>
-      <c r="Z30" s="231"/>
-      <c r="AA30" s="105" t="s">
+      <c r="W30" s="46"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="AB30" s="239"/>
-      <c r="AC30" s="240"/>
-      <c r="AD30" s="111" t="s">
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AE30" s="111"/>
-      <c r="AF30" s="111"/>
-      <c r="AG30" s="171" t="s">
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AH30" s="162"/>
-      <c r="AI30" s="163"/>
-      <c r="AJ30" s="162" t="s">
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="AK30" s="163"/>
-      <c r="AL30" s="102"/>
-      <c r="AM30" s="103"/>
-      <c r="AN30" s="104"/>
-      <c r="AO30" s="102"/>
-      <c r="AP30" s="103"/>
-      <c r="AQ30" s="104"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="19"/>
     </row>
     <row r="31" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="149"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="168" t="s">
+      <c r="A31" s="155"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="169"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="171" t="s">
+      <c r="I31" s="138"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="162"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="162" t="s">
+      <c r="L31" s="25"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="O31" s="163"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="104"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="19"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="229"/>
-      <c r="X31" s="230"/>
-      <c r="Y31" s="230"/>
-      <c r="Z31" s="231"/>
-      <c r="AA31" s="241"/>
-      <c r="AB31" s="242"/>
-      <c r="AC31" s="243"/>
-      <c r="AD31" s="111" t="s">
+      <c r="W31" s="46"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AE31" s="111"/>
-      <c r="AF31" s="111"/>
-      <c r="AG31" s="171" t="s">
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AH31" s="162"/>
-      <c r="AI31" s="163"/>
-      <c r="AJ31" s="162" t="s">
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AK31" s="163"/>
-      <c r="AL31" s="102"/>
-      <c r="AM31" s="103"/>
-      <c r="AN31" s="104"/>
-      <c r="AO31" s="102"/>
-      <c r="AP31" s="103"/>
-      <c r="AQ31" s="104"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="17"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="19"/>
     </row>
     <row r="32" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="149"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="164" t="s">
+      <c r="A32" s="155"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="111" t="s">
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="217" t="s">
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="L32" s="189"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="189" t="s">
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="O32" s="190"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="104"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="19"/>
       <c r="V32" s="14"/>
-      <c r="W32" s="229"/>
-      <c r="X32" s="230"/>
-      <c r="Y32" s="230"/>
-      <c r="Z32" s="231"/>
-      <c r="AA32" s="105" t="s">
+      <c r="W32" s="46"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="AB32" s="239"/>
-      <c r="AC32" s="240"/>
-      <c r="AD32" s="111" t="s">
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AE32" s="111"/>
-      <c r="AF32" s="111"/>
-      <c r="AG32" s="171" t="s">
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="AH32" s="162"/>
-      <c r="AI32" s="163"/>
-      <c r="AJ32" s="162" t="s">
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="AK32" s="163"/>
-      <c r="AL32" s="102"/>
-      <c r="AM32" s="103"/>
-      <c r="AN32" s="104"/>
-      <c r="AO32" s="102"/>
-      <c r="AP32" s="103"/>
-      <c r="AQ32" s="104"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="18"/>
+      <c r="AQ32" s="19"/>
     </row>
     <row r="33" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="149"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="168" t="s">
+      <c r="A33" s="155"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="I33" s="169"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="171" t="s">
+      <c r="I33" s="138"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="L33" s="162"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="162" t="s">
+      <c r="L33" s="25"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="O33" s="163"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="104"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="19"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="232"/>
-      <c r="X33" s="233"/>
-      <c r="Y33" s="233"/>
-      <c r="Z33" s="234"/>
-      <c r="AA33" s="241"/>
-      <c r="AB33" s="242"/>
-      <c r="AC33" s="243"/>
-      <c r="AD33" s="111" t="s">
+      <c r="W33" s="31"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AE33" s="111"/>
-      <c r="AF33" s="111"/>
-      <c r="AG33" s="171" t="s">
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="AH33" s="162"/>
-      <c r="AI33" s="163"/>
-      <c r="AJ33" s="162" t="s">
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK33" s="163"/>
-      <c r="AL33" s="102"/>
-      <c r="AM33" s="103"/>
-      <c r="AN33" s="104"/>
-      <c r="AO33" s="102"/>
-      <c r="AP33" s="103"/>
-      <c r="AQ33" s="104"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="18"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="18"/>
+      <c r="AQ33" s="19"/>
     </row>
     <row r="34" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="146" t="s">
+      <c r="A34" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="155" t="s">
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="172" t="s">
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="175" t="s">
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="L34" s="173"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="173" t="s">
+      <c r="L34" s="61"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="O34" s="174"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="102"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="104"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="19"/>
       <c r="V34" s="14"/>
-      <c r="W34" s="229" t="s">
+      <c r="W34" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="X34" s="230"/>
-      <c r="Y34" s="230"/>
-      <c r="Z34" s="231"/>
-      <c r="AA34" s="105" t="s">
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AB34" s="239"/>
-      <c r="AC34" s="240"/>
-      <c r="AD34" s="111" t="s">
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AE34" s="111"/>
-      <c r="AF34" s="111"/>
-      <c r="AG34" s="171" t="s">
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="AH34" s="162"/>
-      <c r="AI34" s="163"/>
-      <c r="AJ34" s="162" t="s">
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="AK34" s="163"/>
-      <c r="AL34" s="102"/>
-      <c r="AM34" s="103"/>
-      <c r="AN34" s="104"/>
-      <c r="AO34" s="102"/>
-      <c r="AP34" s="103"/>
-      <c r="AQ34" s="104"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="18"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="18"/>
+      <c r="AQ34" s="19"/>
     </row>
     <row r="35" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="149"/>
-      <c r="B35" s="150"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="172" t="s">
+      <c r="A35" s="155"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="176" t="s">
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="L35" s="160"/>
-      <c r="M35" s="161"/>
-      <c r="N35" s="160" t="s">
+      <c r="L35" s="130"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="O35" s="161"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="102"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="104"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="19"/>
       <c r="V35" s="14"/>
-      <c r="W35" s="229"/>
-      <c r="X35" s="230"/>
-      <c r="Y35" s="230"/>
-      <c r="Z35" s="231"/>
-      <c r="AA35" s="241"/>
-      <c r="AB35" s="242"/>
-      <c r="AC35" s="243"/>
-      <c r="AD35" s="111" t="s">
+      <c r="W35" s="46"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="111"/>
-      <c r="AG35" s="171" t="s">
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="AH35" s="162"/>
-      <c r="AI35" s="163"/>
-      <c r="AJ35" s="162" t="s">
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="AK35" s="163"/>
-      <c r="AL35" s="102"/>
-      <c r="AM35" s="103"/>
-      <c r="AN35" s="104"/>
-      <c r="AO35" s="102"/>
-      <c r="AP35" s="103"/>
-      <c r="AQ35" s="104"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="19"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="19"/>
       <c r="AY35" s="16"/>
     </row>
     <row r="36" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="149"/>
-      <c r="B36" s="150"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="155" t="s">
+      <c r="A36" s="155"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="172" t="s">
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="175" t="s">
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="L36" s="173"/>
-      <c r="M36" s="174"/>
-      <c r="N36" s="173" t="s">
+      <c r="L36" s="61"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="O36" s="174"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="104"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="19"/>
       <c r="V36" s="14"/>
-      <c r="W36" s="229"/>
-      <c r="X36" s="230"/>
-      <c r="Y36" s="230"/>
-      <c r="Z36" s="231"/>
-      <c r="AA36" s="105" t="s">
+      <c r="W36" s="46"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="AB36" s="239"/>
-      <c r="AC36" s="240"/>
-      <c r="AD36" s="111" t="s">
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AE36" s="111"/>
-      <c r="AF36" s="111"/>
-      <c r="AG36" s="171" t="s">
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="AH36" s="162"/>
-      <c r="AI36" s="163"/>
-      <c r="AJ36" s="162" t="s">
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="AK36" s="163"/>
-      <c r="AL36" s="102"/>
-      <c r="AM36" s="103"/>
-      <c r="AN36" s="104"/>
-      <c r="AO36" s="102"/>
-      <c r="AP36" s="103"/>
-      <c r="AQ36" s="104"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="19"/>
     </row>
     <row r="37" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="157"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="172" t="s">
+      <c r="A37" s="162"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="176" t="s">
+      <c r="I37" s="140"/>
+      <c r="J37" s="140"/>
+      <c r="K37" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="L37" s="160"/>
-      <c r="M37" s="161"/>
-      <c r="N37" s="160" t="s">
+      <c r="L37" s="130"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="O37" s="161"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="104"/>
-      <c r="S37" s="102"/>
-      <c r="T37" s="103"/>
-      <c r="U37" s="104"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="19"/>
       <c r="V37" s="14"/>
-      <c r="W37" s="229"/>
-      <c r="X37" s="230"/>
-      <c r="Y37" s="230"/>
-      <c r="Z37" s="231"/>
-      <c r="AA37" s="241"/>
-      <c r="AB37" s="242"/>
-      <c r="AC37" s="243"/>
-      <c r="AD37" s="111" t="s">
+      <c r="W37" s="46"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AE37" s="111"/>
-      <c r="AF37" s="111"/>
-      <c r="AG37" s="171" t="s">
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="AH37" s="162"/>
-      <c r="AI37" s="163"/>
-      <c r="AJ37" s="162" t="s">
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="AK37" s="163"/>
-      <c r="AL37" s="102"/>
-      <c r="AM37" s="103"/>
-      <c r="AN37" s="104"/>
-      <c r="AO37" s="102"/>
-      <c r="AP37" s="103"/>
-      <c r="AQ37" s="104"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="18"/>
+      <c r="AQ37" s="19"/>
     </row>
     <row r="38" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="183" t="s">
+      <c r="A38" s="202" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="184"/>
-      <c r="C38" s="184"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="142">
+      <c r="B38" s="203"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="204"/>
+      <c r="E38" s="127">
         <v>17</v>
       </c>
-      <c r="F38" s="140"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="140" t="s">
+      <c r="F38" s="128"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="140"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="244" t="s">
+      <c r="I38" s="128"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="L38" s="245"/>
-      <c r="M38" s="246"/>
-      <c r="N38" s="160" t="s">
+      <c r="L38" s="133"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="O38" s="161"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="103"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="103"/>
-      <c r="U38" s="104"/>
+      <c r="O38" s="131"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="14"/>
-      <c r="W38" s="229"/>
-      <c r="X38" s="230"/>
-      <c r="Y38" s="230"/>
-      <c r="Z38" s="231"/>
-      <c r="AA38" s="105" t="s">
+      <c r="W38" s="46"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AB38" s="239"/>
-      <c r="AC38" s="240"/>
-      <c r="AD38" s="111" t="s">
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AE38" s="111"/>
-      <c r="AF38" s="111"/>
-      <c r="AG38" s="171" t="s">
+      <c r="AE38" s="27"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="AH38" s="162"/>
-      <c r="AI38" s="163"/>
-      <c r="AJ38" s="218" t="s">
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="AK38" s="219"/>
-      <c r="AL38" s="102"/>
-      <c r="AM38" s="103"/>
-      <c r="AN38" s="104"/>
-      <c r="AO38" s="102"/>
-      <c r="AP38" s="103"/>
-      <c r="AQ38" s="104"/>
+      <c r="AK38" s="96"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="18"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="18"/>
+      <c r="AQ38" s="19"/>
     </row>
     <row r="39" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="186"/>
-      <c r="B39" s="187"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="142">
+      <c r="A39" s="205"/>
+      <c r="B39" s="206"/>
+      <c r="C39" s="206"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="127">
         <v>18</v>
       </c>
-      <c r="F39" s="140"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="140" t="s">
+      <c r="F39" s="128"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="140"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="176" t="s">
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="160"/>
-      <c r="M39" s="161"/>
-      <c r="N39" s="160" t="s">
+      <c r="L39" s="130"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="O39" s="161"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="103"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="102"/>
-      <c r="T39" s="103"/>
-      <c r="U39" s="104"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="19"/>
       <c r="V39" s="14"/>
-      <c r="W39" s="232"/>
-      <c r="X39" s="233"/>
-      <c r="Y39" s="233"/>
-      <c r="Z39" s="234"/>
-      <c r="AA39" s="241"/>
-      <c r="AB39" s="242"/>
-      <c r="AC39" s="243"/>
-      <c r="AD39" s="111" t="s">
+      <c r="W39" s="31"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AE39" s="111"/>
-      <c r="AF39" s="111"/>
-      <c r="AG39" s="171" t="s">
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="AH39" s="162"/>
-      <c r="AI39" s="163"/>
-      <c r="AJ39" s="162" t="s">
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="AK39" s="163"/>
-      <c r="AL39" s="102"/>
-      <c r="AM39" s="103"/>
-      <c r="AN39" s="104"/>
-      <c r="AO39" s="102"/>
-      <c r="AP39" s="103"/>
-      <c r="AQ39" s="104"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="19"/>
     </row>
     <row r="40" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="226" t="s">
+      <c r="A40" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="227"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="228"/>
-      <c r="E40" s="177" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="164"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="111" t="s">
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="120" t="s">
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="L40" s="121"/>
-      <c r="M40" s="191"/>
-      <c r="N40" s="189" t="s">
+      <c r="L40" s="59"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="O40" s="190"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="103"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="103"/>
-      <c r="U40" s="104"/>
-      <c r="V40" s="130" t="s">
+      <c r="O40" s="44"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="W40" s="131"/>
-      <c r="X40" s="131"/>
-      <c r="Y40" s="131"/>
-      <c r="Z40" s="131"/>
-      <c r="AA40" s="131"/>
-      <c r="AB40" s="131"/>
-      <c r="AC40" s="131"/>
-      <c r="AD40" s="131"/>
-      <c r="AE40" s="131"/>
-      <c r="AF40" s="131"/>
-      <c r="AG40" s="131"/>
-      <c r="AH40" s="131"/>
-      <c r="AI40" s="131"/>
-      <c r="AJ40" s="131"/>
-      <c r="AK40" s="131"/>
-      <c r="AL40" s="134" t="s">
+      <c r="W40" s="187"/>
+      <c r="X40" s="187"/>
+      <c r="Y40" s="187"/>
+      <c r="Z40" s="187"/>
+      <c r="AA40" s="187"/>
+      <c r="AB40" s="187"/>
+      <c r="AC40" s="187"/>
+      <c r="AD40" s="187"/>
+      <c r="AE40" s="187"/>
+      <c r="AF40" s="187"/>
+      <c r="AG40" s="187"/>
+      <c r="AH40" s="187"/>
+      <c r="AI40" s="187"/>
+      <c r="AJ40" s="187"/>
+      <c r="AK40" s="187"/>
+      <c r="AL40" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="AM40" s="135"/>
-      <c r="AN40" s="135"/>
-      <c r="AO40" s="135"/>
-      <c r="AP40" s="135"/>
-      <c r="AQ40" s="136"/>
+      <c r="AM40" s="191"/>
+      <c r="AN40" s="191"/>
+      <c r="AO40" s="191"/>
+      <c r="AP40" s="191"/>
+      <c r="AQ40" s="192"/>
     </row>
     <row r="41" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="229"/>
-      <c r="B41" s="230"/>
-      <c r="C41" s="230"/>
-      <c r="D41" s="231"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="111" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="120" t="s">
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="L41" s="121"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="189" t="s">
+      <c r="L41" s="59"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="O41" s="190"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="104"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="103"/>
-      <c r="U41" s="104"/>
-      <c r="V41" s="132"/>
-      <c r="W41" s="133"/>
-      <c r="X41" s="133"/>
-      <c r="Y41" s="133"/>
-      <c r="Z41" s="133"/>
-      <c r="AA41" s="133"/>
-      <c r="AB41" s="133"/>
-      <c r="AC41" s="133"/>
-      <c r="AD41" s="133"/>
-      <c r="AE41" s="133"/>
-      <c r="AF41" s="133"/>
-      <c r="AG41" s="133"/>
-      <c r="AH41" s="133"/>
-      <c r="AI41" s="133"/>
-      <c r="AJ41" s="133"/>
-      <c r="AK41" s="133"/>
-      <c r="AL41" s="137"/>
-      <c r="AM41" s="138"/>
-      <c r="AN41" s="138"/>
-      <c r="AO41" s="138"/>
-      <c r="AP41" s="138"/>
-      <c r="AQ41" s="139"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="188"/>
+      <c r="W41" s="189"/>
+      <c r="X41" s="189"/>
+      <c r="Y41" s="189"/>
+      <c r="Z41" s="189"/>
+      <c r="AA41" s="189"/>
+      <c r="AB41" s="189"/>
+      <c r="AC41" s="189"/>
+      <c r="AD41" s="189"/>
+      <c r="AE41" s="189"/>
+      <c r="AF41" s="189"/>
+      <c r="AG41" s="189"/>
+      <c r="AH41" s="189"/>
+      <c r="AI41" s="189"/>
+      <c r="AJ41" s="189"/>
+      <c r="AK41" s="189"/>
+      <c r="AL41" s="193"/>
+      <c r="AM41" s="194"/>
+      <c r="AN41" s="194"/>
+      <c r="AO41" s="194"/>
+      <c r="AP41" s="194"/>
+      <c r="AQ41" s="195"/>
     </row>
     <row r="42" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="229"/>
-      <c r="B42" s="230"/>
-      <c r="C42" s="230"/>
-      <c r="D42" s="231"/>
-      <c r="E42" s="112" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="113"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="111" t="s">
+      <c r="F42" s="166"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="120" t="s">
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="L42" s="121"/>
-      <c r="M42" s="191"/>
-      <c r="N42" s="189" t="s">
+      <c r="L42" s="59"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="O42" s="190"/>
-      <c r="P42" s="102"/>
-      <c r="Q42" s="103"/>
-      <c r="R42" s="104"/>
-      <c r="S42" s="102"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="104"/>
-      <c r="V42" s="132"/>
-      <c r="W42" s="133"/>
-      <c r="X42" s="133"/>
-      <c r="Y42" s="133"/>
-      <c r="Z42" s="133"/>
-      <c r="AA42" s="133"/>
-      <c r="AB42" s="133"/>
-      <c r="AC42" s="133"/>
-      <c r="AD42" s="133"/>
-      <c r="AE42" s="133"/>
-      <c r="AF42" s="133"/>
-      <c r="AG42" s="133"/>
-      <c r="AH42" s="133"/>
-      <c r="AI42" s="133"/>
-      <c r="AJ42" s="133"/>
-      <c r="AK42" s="133"/>
-      <c r="AL42" s="137"/>
-      <c r="AM42" s="138"/>
-      <c r="AN42" s="138"/>
-      <c r="AO42" s="138"/>
-      <c r="AP42" s="138"/>
-      <c r="AQ42" s="139"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="188"/>
+      <c r="W42" s="189"/>
+      <c r="X42" s="189"/>
+      <c r="Y42" s="189"/>
+      <c r="Z42" s="189"/>
+      <c r="AA42" s="189"/>
+      <c r="AB42" s="189"/>
+      <c r="AC42" s="189"/>
+      <c r="AD42" s="189"/>
+      <c r="AE42" s="189"/>
+      <c r="AF42" s="189"/>
+      <c r="AG42" s="189"/>
+      <c r="AH42" s="189"/>
+      <c r="AI42" s="189"/>
+      <c r="AJ42" s="189"/>
+      <c r="AK42" s="189"/>
+      <c r="AL42" s="193"/>
+      <c r="AM42" s="194"/>
+      <c r="AN42" s="194"/>
+      <c r="AO42" s="194"/>
+      <c r="AP42" s="194"/>
+      <c r="AQ42" s="195"/>
     </row>
     <row r="43" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="232"/>
-      <c r="B43" s="233"/>
-      <c r="C43" s="233"/>
-      <c r="D43" s="234"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="111" t="s">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="169"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="120" t="s">
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="217" t="s">
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="O43" s="190"/>
-      <c r="P43" s="102"/>
-      <c r="Q43" s="103"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="103"/>
-      <c r="U43" s="104"/>
-      <c r="V43" s="132"/>
-      <c r="W43" s="133"/>
-      <c r="X43" s="133"/>
-      <c r="Y43" s="133"/>
-      <c r="Z43" s="133"/>
-      <c r="AA43" s="133"/>
-      <c r="AB43" s="133"/>
-      <c r="AC43" s="133"/>
-      <c r="AD43" s="133"/>
-      <c r="AE43" s="133"/>
-      <c r="AF43" s="133"/>
-      <c r="AG43" s="133"/>
-      <c r="AH43" s="133"/>
-      <c r="AI43" s="133"/>
-      <c r="AJ43" s="133"/>
-      <c r="AK43" s="133"/>
-      <c r="AL43" s="137"/>
-      <c r="AM43" s="138"/>
-      <c r="AN43" s="138"/>
-      <c r="AO43" s="138"/>
-      <c r="AP43" s="138"/>
-      <c r="AQ43" s="139"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="188"/>
+      <c r="W43" s="189"/>
+      <c r="X43" s="189"/>
+      <c r="Y43" s="189"/>
+      <c r="Z43" s="189"/>
+      <c r="AA43" s="189"/>
+      <c r="AB43" s="189"/>
+      <c r="AC43" s="189"/>
+      <c r="AD43" s="189"/>
+      <c r="AE43" s="189"/>
+      <c r="AF43" s="189"/>
+      <c r="AG43" s="189"/>
+      <c r="AH43" s="189"/>
+      <c r="AI43" s="189"/>
+      <c r="AJ43" s="189"/>
+      <c r="AK43" s="189"/>
+      <c r="AL43" s="193"/>
+      <c r="AM43" s="194"/>
+      <c r="AN43" s="194"/>
+      <c r="AO43" s="194"/>
+      <c r="AP43" s="194"/>
+      <c r="AQ43" s="195"/>
     </row>
     <row r="44" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="220" t="s">
+      <c r="A44" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="221"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="105" t="s">
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="106"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="111" t="s">
+      <c r="F44" s="208"/>
+      <c r="G44" s="209"/>
+      <c r="H44" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="120" t="s">
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="217" t="s">
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="O44" s="190"/>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="103"/>
-      <c r="R44" s="104"/>
-      <c r="S44" s="102"/>
-      <c r="T44" s="103"/>
-      <c r="U44" s="104"/>
-      <c r="V44" s="132"/>
-      <c r="W44" s="133"/>
-      <c r="X44" s="133"/>
-      <c r="Y44" s="133"/>
-      <c r="Z44" s="133"/>
-      <c r="AA44" s="133"/>
-      <c r="AB44" s="133"/>
-      <c r="AC44" s="133"/>
-      <c r="AD44" s="133"/>
-      <c r="AE44" s="133"/>
-      <c r="AF44" s="133"/>
-      <c r="AG44" s="133"/>
-      <c r="AH44" s="133"/>
-      <c r="AI44" s="133"/>
-      <c r="AJ44" s="133"/>
-      <c r="AK44" s="133"/>
-      <c r="AL44" s="137"/>
-      <c r="AM44" s="138"/>
-      <c r="AN44" s="138"/>
-      <c r="AO44" s="138"/>
-      <c r="AP44" s="138"/>
-      <c r="AQ44" s="139"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="188"/>
+      <c r="W44" s="189"/>
+      <c r="X44" s="189"/>
+      <c r="Y44" s="189"/>
+      <c r="Z44" s="189"/>
+      <c r="AA44" s="189"/>
+      <c r="AB44" s="189"/>
+      <c r="AC44" s="189"/>
+      <c r="AD44" s="189"/>
+      <c r="AE44" s="189"/>
+      <c r="AF44" s="189"/>
+      <c r="AG44" s="189"/>
+      <c r="AH44" s="189"/>
+      <c r="AI44" s="189"/>
+      <c r="AJ44" s="189"/>
+      <c r="AK44" s="189"/>
+      <c r="AL44" s="193"/>
+      <c r="AM44" s="194"/>
+      <c r="AN44" s="194"/>
+      <c r="AO44" s="194"/>
+      <c r="AP44" s="194"/>
+      <c r="AQ44" s="195"/>
     </row>
     <row r="45" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="223"/>
-      <c r="B45" s="224"/>
-      <c r="C45" s="224"/>
-      <c r="D45" s="225"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="111" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="211"/>
+      <c r="G45" s="212"/>
+      <c r="H45" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="217" t="s">
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="L45" s="189"/>
-      <c r="M45" s="190"/>
-      <c r="N45" s="189" t="s">
+      <c r="L45" s="43"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="O45" s="190"/>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="102"/>
-      <c r="T45" s="103"/>
-      <c r="U45" s="104"/>
-      <c r="V45" s="132"/>
-      <c r="W45" s="133"/>
-      <c r="X45" s="133"/>
-      <c r="Y45" s="133"/>
-      <c r="Z45" s="133"/>
-      <c r="AA45" s="133"/>
-      <c r="AB45" s="133"/>
-      <c r="AC45" s="133"/>
-      <c r="AD45" s="133"/>
-      <c r="AE45" s="133"/>
-      <c r="AF45" s="133"/>
-      <c r="AG45" s="133"/>
-      <c r="AH45" s="133"/>
-      <c r="AI45" s="133"/>
-      <c r="AJ45" s="133"/>
-      <c r="AK45" s="133"/>
-      <c r="AL45" s="137"/>
-      <c r="AM45" s="138"/>
-      <c r="AN45" s="138"/>
-      <c r="AO45" s="138"/>
-      <c r="AP45" s="138"/>
-      <c r="AQ45" s="139"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="188"/>
+      <c r="W45" s="189"/>
+      <c r="X45" s="189"/>
+      <c r="Y45" s="189"/>
+      <c r="Z45" s="189"/>
+      <c r="AA45" s="189"/>
+      <c r="AB45" s="189"/>
+      <c r="AC45" s="189"/>
+      <c r="AD45" s="189"/>
+      <c r="AE45" s="189"/>
+      <c r="AF45" s="189"/>
+      <c r="AG45" s="189"/>
+      <c r="AH45" s="189"/>
+      <c r="AI45" s="189"/>
+      <c r="AJ45" s="189"/>
+      <c r="AK45" s="189"/>
+      <c r="AL45" s="193"/>
+      <c r="AM45" s="194"/>
+      <c r="AN45" s="194"/>
+      <c r="AO45" s="194"/>
+      <c r="AP45" s="194"/>
+      <c r="AQ45" s="195"/>
     </row>
     <row r="46" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="118" t="s">
+      <c r="A46" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="17" t="s">
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="48" t="s">
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="145"/>
+      <c r="L46" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48" t="s">
+      <c r="M46" s="87"/>
+      <c r="N46" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
       <c r="R46" s="4"/>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
@@ -5585,23 +5585,23 @@
       <c r="AQ46" s="3"/>
     </row>
     <row r="47" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="119"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="125"/>
-      <c r="O47" s="125"/>
-      <c r="P47" s="125"/>
-      <c r="Q47" s="125"/>
+      <c r="A47" s="215"/>
+      <c r="B47" s="146"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="148"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
       <c r="R47" s="4"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
@@ -5630,29 +5630,29 @@
       <c r="AQ47" s="5"/>
     </row>
     <row r="48" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="127">
+      <c r="A48" s="83">
         <v>1</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="58" t="s">
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="91"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="66"/>
       <c r="R48" s="4"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
@@ -5681,23 +5681,23 @@
       <c r="AQ48" s="5"/>
     </row>
     <row r="49" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="128"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="97"/>
-      <c r="P49" s="97"/>
-      <c r="Q49" s="98"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="69"/>
       <c r="R49" s="4"/>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -5726,29 +5726,29 @@
       <c r="AQ49" s="5"/>
     </row>
     <row r="50" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="127">
+      <c r="A50" s="83">
         <v>2</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="58" t="s">
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="97"/>
-      <c r="P50" s="97"/>
-      <c r="Q50" s="98"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="69"/>
       <c r="R50" s="4"/>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
@@ -5777,23 +5777,23 @@
       <c r="AQ50" s="5"/>
     </row>
     <row r="51" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="128"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="97"/>
-      <c r="P51" s="97"/>
-      <c r="Q51" s="98"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="69"/>
       <c r="R51" s="4"/>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -5822,29 +5822,29 @@
       <c r="AQ51" s="5"/>
     </row>
     <row r="52" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="127">
+      <c r="A52" s="83">
         <v>3</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="58" t="s">
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="97"/>
-      <c r="P52" s="97"/>
-      <c r="Q52" s="98"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="69"/>
       <c r="R52" s="4"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
@@ -5873,23 +5873,23 @@
       <c r="AQ52" s="5"/>
     </row>
     <row r="53" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="128"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="97"/>
-      <c r="Q53" s="98"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="69"/>
       <c r="R53" s="4"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
@@ -5918,29 +5918,29 @@
       <c r="AQ53" s="5"/>
     </row>
     <row r="54" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="127">
+      <c r="A54" s="83">
         <v>4</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="58" t="s">
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="91"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="97"/>
-      <c r="Q54" s="98"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="69"/>
       <c r="R54" s="4"/>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
@@ -5969,23 +5969,23 @@
       <c r="AQ54" s="5"/>
     </row>
     <row r="55" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="129"/>
-      <c r="B55" s="178"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="179"/>
-      <c r="E55" s="179"/>
-      <c r="F55" s="179"/>
-      <c r="G55" s="179"/>
-      <c r="H55" s="180"/>
-      <c r="I55" s="181"/>
-      <c r="J55" s="181"/>
-      <c r="K55" s="182"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="98"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="97"/>
-      <c r="Q55" s="98"/>
+      <c r="A55" s="185"/>
+      <c r="B55" s="197"/>
+      <c r="C55" s="198"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="198"/>
+      <c r="F55" s="198"/>
+      <c r="G55" s="198"/>
+      <c r="H55" s="199"/>
+      <c r="I55" s="200"/>
+      <c r="J55" s="200"/>
+      <c r="K55" s="201"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="69"/>
       <c r="R55" s="4"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
@@ -6014,23 +6014,23 @@
       <c r="AQ55" s="5"/>
     </row>
     <row r="56" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="128"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="93"/>
-      <c r="N56" s="92"/>
-      <c r="O56" s="99"/>
-      <c r="P56" s="99"/>
-      <c r="Q56" s="93"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="72"/>
       <c r="R56" s="6"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
@@ -6059,33 +6059,33 @@
       <c r="AQ56" s="7"/>
     </row>
     <row r="57" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="17" t="s">
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="125" t="s">
+      <c r="I57" s="144"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="M57" s="125"/>
-      <c r="N57" s="125" t="s">
+      <c r="M57" s="88"/>
+      <c r="N57" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O57" s="125"/>
-      <c r="P57" s="125"/>
-      <c r="Q57" s="125"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="88"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
@@ -6114,23 +6114,23 @@
       <c r="AQ57" s="3"/>
     </row>
     <row r="58" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="101"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="125"/>
-      <c r="M58" s="125"/>
-      <c r="N58" s="125"/>
-      <c r="O58" s="125"/>
-      <c r="P58" s="125"/>
-      <c r="Q58" s="125"/>
+      <c r="A58" s="142"/>
+      <c r="B58" s="146"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="147"/>
+      <c r="J58" s="147"/>
+      <c r="K58" s="148"/>
+      <c r="L58" s="88"/>
+      <c r="M58" s="88"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="88"/>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
@@ -6159,29 +6159,29 @@
       <c r="AQ58" s="5"/>
     </row>
     <row r="59" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="235">
+      <c r="A59" s="55">
         <v>1</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="58" t="s">
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="126"/>
-      <c r="M59" s="126"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="27"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="234"/>
+      <c r="O59" s="238"/>
+      <c r="P59" s="238"/>
+      <c r="Q59" s="235"/>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
@@ -6210,23 +6210,23 @@
       <c r="AQ59" s="5"/>
     </row>
     <row r="60" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="236"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="126"/>
-      <c r="M60" s="126"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="33"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="239"/>
+      <c r="O60" s="240"/>
+      <c r="P60" s="240"/>
+      <c r="Q60" s="241"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
@@ -6255,29 +6255,29 @@
       <c r="AQ60" s="5"/>
     </row>
     <row r="61" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="235">
+      <c r="A61" s="55">
         <v>2</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="58" t="s">
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="126"/>
-      <c r="M61" s="126"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="33"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="239"/>
+      <c r="O61" s="240"/>
+      <c r="P61" s="240"/>
+      <c r="Q61" s="241"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
@@ -6306,23 +6306,23 @@
       <c r="AQ61" s="5"/>
     </row>
     <row r="62" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="236"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="126"/>
-      <c r="M62" s="126"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="33"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="239"/>
+      <c r="O62" s="240"/>
+      <c r="P62" s="240"/>
+      <c r="Q62" s="241"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
@@ -6351,29 +6351,29 @@
       <c r="AQ62" s="5"/>
     </row>
     <row r="63" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="235">
+      <c r="A63" s="55">
         <v>3</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="58" t="s">
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="126"/>
-      <c r="M63" s="126"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="33"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="239"/>
+      <c r="O63" s="240"/>
+      <c r="P63" s="240"/>
+      <c r="Q63" s="241"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
@@ -6402,23 +6402,23 @@
       <c r="AQ63" s="5"/>
     </row>
     <row r="64" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="236"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="76"/>
-      <c r="K64" s="77"/>
-      <c r="L64" s="126"/>
-      <c r="M64" s="126"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="33"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="239"/>
+      <c r="O64" s="240"/>
+      <c r="P64" s="240"/>
+      <c r="Q64" s="241"/>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
@@ -6447,29 +6447,29 @@
       <c r="AQ64" s="5"/>
     </row>
     <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="127">
+      <c r="A65" s="83">
         <v>4</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="58" t="s">
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="33"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="234"/>
+      <c r="M65" s="235"/>
+      <c r="N65" s="239"/>
+      <c r="O65" s="240"/>
+      <c r="P65" s="240"/>
+      <c r="Q65" s="241"/>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
@@ -6498,23 +6498,23 @@
       <c r="AQ65" s="5"/>
     </row>
     <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="128"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="33"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="236"/>
+      <c r="M66" s="237"/>
+      <c r="N66" s="239"/>
+      <c r="O66" s="240"/>
+      <c r="P66" s="240"/>
+      <c r="Q66" s="241"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
@@ -6543,29 +6543,29 @@
       <c r="AQ66" s="5"/>
     </row>
     <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="235">
+      <c r="A67" s="55">
         <v>5</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="58" t="s">
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="126"/>
-      <c r="M67" s="126"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="33"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="239"/>
+      <c r="O67" s="240"/>
+      <c r="P67" s="240"/>
+      <c r="Q67" s="241"/>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
@@ -6594,23 +6594,23 @@
       <c r="AQ67" s="5"/>
     </row>
     <row r="68" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="236"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="76"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="126"/>
-      <c r="M68" s="126"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="29"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="73"/>
+      <c r="N68" s="236"/>
+      <c r="O68" s="242"/>
+      <c r="P68" s="242"/>
+      <c r="Q68" s="237"/>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
@@ -6639,82 +6639,82 @@
       <c r="AQ68" s="7"/>
     </row>
     <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="122" t="s">
+      <c r="B69" s="122"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="122"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="122"/>
+      <c r="J69" s="122"/>
+      <c r="K69" s="122"/>
+      <c r="L69" s="122"/>
+      <c r="M69" s="122"/>
+      <c r="N69" s="122"/>
+      <c r="O69" s="122"/>
+      <c r="P69" s="122"/>
+      <c r="Q69" s="123"/>
+      <c r="R69" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="S69" s="123"/>
-      <c r="T69" s="123"/>
-      <c r="U69" s="123"/>
-      <c r="V69" s="123"/>
-      <c r="W69" s="123"/>
-      <c r="X69" s="123"/>
-      <c r="Y69" s="123"/>
-      <c r="Z69" s="123"/>
-      <c r="AA69" s="123"/>
-      <c r="AB69" s="123"/>
-      <c r="AC69" s="123"/>
-      <c r="AD69" s="123"/>
-      <c r="AE69" s="123"/>
-      <c r="AF69" s="123"/>
-      <c r="AG69" s="123"/>
-      <c r="AH69" s="123"/>
-      <c r="AI69" s="123"/>
-      <c r="AJ69" s="123"/>
-      <c r="AK69" s="123"/>
-      <c r="AL69" s="123"/>
-      <c r="AM69" s="123"/>
-      <c r="AN69" s="123"/>
-      <c r="AO69" s="123"/>
-      <c r="AP69" s="123"/>
-      <c r="AQ69" s="124"/>
+      <c r="S69" s="125"/>
+      <c r="T69" s="125"/>
+      <c r="U69" s="125"/>
+      <c r="V69" s="125"/>
+      <c r="W69" s="125"/>
+      <c r="X69" s="125"/>
+      <c r="Y69" s="125"/>
+      <c r="Z69" s="125"/>
+      <c r="AA69" s="125"/>
+      <c r="AB69" s="125"/>
+      <c r="AC69" s="125"/>
+      <c r="AD69" s="125"/>
+      <c r="AE69" s="125"/>
+      <c r="AF69" s="125"/>
+      <c r="AG69" s="125"/>
+      <c r="AH69" s="125"/>
+      <c r="AI69" s="125"/>
+      <c r="AJ69" s="125"/>
+      <c r="AK69" s="125"/>
+      <c r="AL69" s="125"/>
+      <c r="AM69" s="125"/>
+      <c r="AN69" s="125"/>
+      <c r="AO69" s="125"/>
+      <c r="AP69" s="125"/>
+      <c r="AQ69" s="126"/>
     </row>
     <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="100" t="s">
+      <c r="A70" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="17" t="s">
+      <c r="C70" s="144"/>
+      <c r="D70" s="144"/>
+      <c r="E70" s="144"/>
+      <c r="F70" s="144"/>
+      <c r="G70" s="145"/>
+      <c r="H70" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="41" t="s">
+      <c r="I70" s="144"/>
+      <c r="J70" s="144"/>
+      <c r="K70" s="145"/>
+      <c r="L70" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="M70" s="42"/>
-      <c r="N70" s="41" t="s">
+      <c r="M70" s="217"/>
+      <c r="N70" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="42"/>
+      <c r="O70" s="220"/>
+      <c r="P70" s="220"/>
+      <c r="Q70" s="217"/>
       <c r="R70" s="2"/>
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
@@ -6743,23 +6743,23 @@
       <c r="AQ70" s="3"/>
     </row>
     <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="101"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="44"/>
+      <c r="A71" s="142"/>
+      <c r="B71" s="146"/>
+      <c r="C71" s="147"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="147"/>
+      <c r="F71" s="147"/>
+      <c r="G71" s="148"/>
+      <c r="H71" s="146"/>
+      <c r="I71" s="147"/>
+      <c r="J71" s="147"/>
+      <c r="K71" s="148"/>
+      <c r="L71" s="218"/>
+      <c r="M71" s="219"/>
+      <c r="N71" s="218"/>
+      <c r="O71" s="221"/>
+      <c r="P71" s="221"/>
+      <c r="Q71" s="219"/>
       <c r="R71" s="4"/>
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
@@ -6788,29 +6788,29 @@
       <c r="AQ71" s="5"/>
     </row>
     <row r="72" spans="1:43" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="88">
+      <c r="A72" s="101">
         <v>1</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="58" t="s">
+      <c r="C72" s="173"/>
+      <c r="D72" s="173"/>
+      <c r="E72" s="173"/>
+      <c r="F72" s="173"/>
+      <c r="G72" s="176"/>
+      <c r="H72" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="90"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="87"/>
-      <c r="O72" s="87"/>
-      <c r="P72" s="87"/>
-      <c r="Q72" s="87"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="57"/>
+      <c r="O72" s="57"/>
+      <c r="P72" s="57"/>
+      <c r="Q72" s="57"/>
       <c r="R72" s="4"/>
       <c r="S72" s="8"/>
       <c r="T72" s="8"/>
@@ -6839,27 +6839,27 @@
       <c r="AQ72" s="5"/>
     </row>
     <row r="73" spans="1:43" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="89"/>
-      <c r="B73" s="69" t="s">
+      <c r="A73" s="103"/>
+      <c r="B73" s="230" t="s">
         <v>157</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="72" t="s">
+      <c r="C73" s="231"/>
+      <c r="D73" s="231"/>
+      <c r="E73" s="231"/>
+      <c r="F73" s="231"/>
+      <c r="G73" s="232"/>
+      <c r="H73" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="90"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="87"/>
-      <c r="O73" s="87"/>
-      <c r="P73" s="87"/>
-      <c r="Q73" s="87"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="82"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="57"/>
       <c r="R73" s="4"/>
       <c r="S73" s="8"/>
       <c r="T73" s="8"/>
@@ -6888,29 +6888,29 @@
       <c r="AQ73" s="5"/>
     </row>
     <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="88">
+      <c r="A74" s="101">
         <v>2</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="58" t="s">
+      <c r="C74" s="173"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="173"/>
+      <c r="F74" s="173"/>
+      <c r="G74" s="176"/>
+      <c r="H74" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="90"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="87"/>
-      <c r="O74" s="87"/>
-      <c r="P74" s="87"/>
-      <c r="Q74" s="87"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="57"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="57"/>
+      <c r="Q74" s="57"/>
       <c r="R74" s="4"/>
       <c r="S74" s="8"/>
       <c r="T74" s="8"/>
@@ -6939,23 +6939,23 @@
       <c r="AQ74" s="5"/>
     </row>
     <row r="75" spans="1:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="89"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="76"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="92"/>
-      <c r="M75" s="93"/>
-      <c r="N75" s="87"/>
-      <c r="O75" s="87"/>
-      <c r="P75" s="87"/>
-      <c r="Q75" s="87"/>
+      <c r="A75" s="103"/>
+      <c r="B75" s="174"/>
+      <c r="C75" s="175"/>
+      <c r="D75" s="175"/>
+      <c r="E75" s="175"/>
+      <c r="F75" s="175"/>
+      <c r="G75" s="177"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
       <c r="R75" s="4"/>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
@@ -6984,29 +6984,29 @@
       <c r="AQ75" s="5"/>
     </row>
     <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="94">
+      <c r="A76" s="171">
         <v>3</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="58" t="s">
+      <c r="C76" s="173"/>
+      <c r="D76" s="173"/>
+      <c r="E76" s="173"/>
+      <c r="F76" s="173"/>
+      <c r="G76" s="176"/>
+      <c r="H76" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="87"/>
-      <c r="M76" s="87"/>
-      <c r="N76" s="87"/>
-      <c r="O76" s="87"/>
-      <c r="P76" s="87"/>
-      <c r="Q76" s="87"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="57"/>
       <c r="R76" s="4"/>
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
@@ -7035,23 +7035,23 @@
       <c r="AQ76" s="5"/>
     </row>
     <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="94"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="78"/>
-      <c r="H77" s="75"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="87"/>
-      <c r="M77" s="87"/>
-      <c r="N77" s="87"/>
-      <c r="O77" s="87"/>
-      <c r="P77" s="87"/>
-      <c r="Q77" s="87"/>
+      <c r="A77" s="171"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="175"/>
+      <c r="D77" s="175"/>
+      <c r="E77" s="175"/>
+      <c r="F77" s="175"/>
+      <c r="G77" s="177"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
       <c r="R77" s="4"/>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
@@ -7080,29 +7080,29 @@
       <c r="AQ77" s="5"/>
     </row>
     <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="94">
+      <c r="A78" s="171">
         <v>4</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="58" t="s">
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
+      <c r="E78" s="173"/>
+      <c r="F78" s="173"/>
+      <c r="G78" s="176"/>
+      <c r="H78" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="87"/>
-      <c r="M78" s="87"/>
-      <c r="N78" s="87"/>
-      <c r="O78" s="87"/>
-      <c r="P78" s="87"/>
-      <c r="Q78" s="87"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
       <c r="R78" s="4"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
@@ -7131,23 +7131,23 @@
       <c r="AQ78" s="5"/>
     </row>
     <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="94"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="76"/>
-      <c r="K79" s="77"/>
-      <c r="L79" s="87"/>
-      <c r="M79" s="87"/>
-      <c r="N79" s="87"/>
-      <c r="O79" s="87"/>
-      <c r="P79" s="87"/>
-      <c r="Q79" s="87"/>
+      <c r="A79" s="171"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="175"/>
+      <c r="E79" s="175"/>
+      <c r="F79" s="175"/>
+      <c r="G79" s="177"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
       <c r="R79" s="4"/>
       <c r="S79" s="8"/>
       <c r="T79" s="8"/>
@@ -7176,29 +7176,29 @@
       <c r="AQ79" s="5"/>
     </row>
     <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="94">
+      <c r="A80" s="171">
         <v>5</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="58" t="s">
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="173"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="173"/>
+      <c r="H80" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="87"/>
-      <c r="M80" s="87"/>
-      <c r="N80" s="87"/>
-      <c r="O80" s="87"/>
-      <c r="P80" s="87"/>
-      <c r="Q80" s="87"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="57"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="57"/>
+      <c r="Q80" s="57"/>
       <c r="R80" s="4"/>
       <c r="S80" s="8"/>
       <c r="T80" s="8"/>
@@ -7227,23 +7227,23 @@
       <c r="AQ80" s="5"/>
     </row>
     <row r="81" spans="1:43" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="94"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="75"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
-      <c r="K81" s="77"/>
-      <c r="L81" s="87"/>
-      <c r="M81" s="87"/>
-      <c r="N81" s="87"/>
-      <c r="O81" s="87"/>
-      <c r="P81" s="87"/>
-      <c r="Q81" s="87"/>
+      <c r="A81" s="171"/>
+      <c r="B81" s="174"/>
+      <c r="C81" s="175"/>
+      <c r="D81" s="175"/>
+      <c r="E81" s="175"/>
+      <c r="F81" s="175"/>
+      <c r="G81" s="175"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
       <c r="R81" s="4"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
@@ -7272,29 +7272,29 @@
       <c r="AQ81" s="5"/>
     </row>
     <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="94">
+      <c r="A82" s="171">
         <v>6</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="58" t="s">
+      <c r="C82" s="173"/>
+      <c r="D82" s="173"/>
+      <c r="E82" s="173"/>
+      <c r="F82" s="173"/>
+      <c r="G82" s="173"/>
+      <c r="H82" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="87"/>
-      <c r="M82" s="87"/>
-      <c r="N82" s="87"/>
-      <c r="O82" s="87"/>
-      <c r="P82" s="87"/>
-      <c r="Q82" s="87"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="57"/>
+      <c r="Q82" s="57"/>
       <c r="R82" s="4"/>
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
@@ -7323,23 +7323,23 @@
       <c r="AQ82" s="5"/>
     </row>
     <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="94"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="76"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="87"/>
-      <c r="M83" s="87"/>
-      <c r="N83" s="87"/>
-      <c r="O83" s="87"/>
-      <c r="P83" s="87"/>
-      <c r="Q83" s="87"/>
+      <c r="A83" s="171"/>
+      <c r="B83" s="174"/>
+      <c r="C83" s="175"/>
+      <c r="D83" s="175"/>
+      <c r="E83" s="175"/>
+      <c r="F83" s="175"/>
+      <c r="G83" s="175"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="53"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="57"/>
+      <c r="M83" s="57"/>
+      <c r="N83" s="57"/>
+      <c r="O83" s="57"/>
+      <c r="P83" s="57"/>
+      <c r="Q83" s="57"/>
       <c r="R83" s="4"/>
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
@@ -7368,29 +7368,29 @@
       <c r="AQ83" s="5"/>
     </row>
     <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="94">
+      <c r="A84" s="171">
         <v>7</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="58" t="s">
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
+      <c r="G84" s="173"/>
+      <c r="H84" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="87"/>
-      <c r="M84" s="87"/>
-      <c r="N84" s="87"/>
-      <c r="O84" s="87"/>
-      <c r="P84" s="87"/>
-      <c r="Q84" s="87"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="57"/>
       <c r="R84" s="4"/>
       <c r="S84" s="8"/>
       <c r="T84" s="8"/>
@@ -7419,23 +7419,23 @@
       <c r="AQ84" s="5"/>
     </row>
     <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="94"/>
-      <c r="B85" s="61"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="76"/>
-      <c r="K85" s="77"/>
-      <c r="L85" s="87"/>
-      <c r="M85" s="87"/>
-      <c r="N85" s="87"/>
-      <c r="O85" s="87"/>
-      <c r="P85" s="87"/>
-      <c r="Q85" s="87"/>
+      <c r="A85" s="171"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="175"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
+      <c r="G85" s="175"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="57"/>
       <c r="R85" s="4"/>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
@@ -7464,29 +7464,29 @@
       <c r="AQ85" s="5"/>
     </row>
     <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="88">
+      <c r="A86" s="101">
         <v>8</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="63" t="s">
+      <c r="C86" s="173"/>
+      <c r="D86" s="173"/>
+      <c r="E86" s="173"/>
+      <c r="F86" s="173"/>
+      <c r="G86" s="173"/>
+      <c r="H86" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="I86" s="64"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="90"/>
-      <c r="M86" s="91"/>
-      <c r="N86" s="87"/>
-      <c r="O86" s="87"/>
-      <c r="P86" s="87"/>
-      <c r="Q86" s="87"/>
+      <c r="I86" s="179"/>
+      <c r="J86" s="179"/>
+      <c r="K86" s="180"/>
+      <c r="L86" s="64"/>
+      <c r="M86" s="66"/>
+      <c r="N86" s="57"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="57"/>
+      <c r="Q86" s="57"/>
       <c r="R86" s="4"/>
       <c r="S86" s="8"/>
       <c r="T86" s="8"/>
@@ -7515,23 +7515,23 @@
       <c r="AQ86" s="5"/>
     </row>
     <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="89"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="68"/>
-      <c r="L87" s="92"/>
-      <c r="M87" s="93"/>
-      <c r="N87" s="87"/>
-      <c r="O87" s="87"/>
-      <c r="P87" s="87"/>
-      <c r="Q87" s="87"/>
+      <c r="A87" s="103"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="175"/>
+      <c r="D87" s="175"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="175"/>
+      <c r="G87" s="175"/>
+      <c r="H87" s="181"/>
+      <c r="I87" s="182"/>
+      <c r="J87" s="182"/>
+      <c r="K87" s="183"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="72"/>
+      <c r="N87" s="57"/>
+      <c r="O87" s="57"/>
+      <c r="P87" s="57"/>
+      <c r="Q87" s="57"/>
       <c r="R87" s="4"/>
       <c r="S87" s="8"/>
       <c r="T87" s="8"/>
@@ -7560,33 +7560,33 @@
       <c r="AQ87" s="5"/>
     </row>
     <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="100" t="s">
+      <c r="A88" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="17" t="s">
+      <c r="C88" s="144"/>
+      <c r="D88" s="144"/>
+      <c r="E88" s="144"/>
+      <c r="F88" s="144"/>
+      <c r="G88" s="145"/>
+      <c r="H88" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="41" t="s">
+      <c r="I88" s="144"/>
+      <c r="J88" s="144"/>
+      <c r="K88" s="145"/>
+      <c r="L88" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="M88" s="42"/>
-      <c r="N88" s="41" t="s">
+      <c r="M88" s="217"/>
+      <c r="N88" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="O88" s="45"/>
-      <c r="P88" s="45"/>
-      <c r="Q88" s="42"/>
+      <c r="O88" s="220"/>
+      <c r="P88" s="220"/>
+      <c r="Q88" s="217"/>
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
@@ -7615,23 +7615,23 @@
       <c r="AQ88" s="3"/>
     </row>
     <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="101"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="43"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="43"/>
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
-      <c r="Q89" s="44"/>
+      <c r="A89" s="142"/>
+      <c r="B89" s="146"/>
+      <c r="C89" s="147"/>
+      <c r="D89" s="147"/>
+      <c r="E89" s="147"/>
+      <c r="F89" s="147"/>
+      <c r="G89" s="148"/>
+      <c r="H89" s="146"/>
+      <c r="I89" s="147"/>
+      <c r="J89" s="147"/>
+      <c r="K89" s="148"/>
+      <c r="L89" s="218"/>
+      <c r="M89" s="219"/>
+      <c r="N89" s="218"/>
+      <c r="O89" s="221"/>
+      <c r="P89" s="221"/>
+      <c r="Q89" s="219"/>
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
@@ -7660,29 +7660,29 @@
       <c r="AQ89" s="5"/>
     </row>
     <row r="90" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="94">
+      <c r="A90" s="171">
         <v>1</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="58" t="s">
+      <c r="C90" s="173"/>
+      <c r="D90" s="173"/>
+      <c r="E90" s="173"/>
+      <c r="F90" s="173"/>
+      <c r="G90" s="176"/>
+      <c r="H90" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="237"/>
-      <c r="M90" s="238"/>
-      <c r="N90" s="90"/>
-      <c r="O90" s="95"/>
-      <c r="P90" s="95"/>
-      <c r="Q90" s="91"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="85"/>
+      <c r="M90" s="86"/>
+      <c r="N90" s="64"/>
+      <c r="O90" s="65"/>
+      <c r="P90" s="65"/>
+      <c r="Q90" s="66"/>
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
@@ -7711,27 +7711,27 @@
       <c r="AQ90" s="5"/>
     </row>
     <row r="91" spans="1:43" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="94"/>
-      <c r="B91" s="69" t="s">
+      <c r="A91" s="171"/>
+      <c r="B91" s="230" t="s">
         <v>158</v>
       </c>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="72" t="s">
+      <c r="C91" s="231"/>
+      <c r="D91" s="231"/>
+      <c r="E91" s="231"/>
+      <c r="F91" s="231"/>
+      <c r="G91" s="232"/>
+      <c r="H91" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="I91" s="73"/>
-      <c r="J91" s="73"/>
-      <c r="K91" s="74"/>
-      <c r="L91" s="237"/>
-      <c r="M91" s="238"/>
-      <c r="N91" s="96"/>
-      <c r="O91" s="97"/>
-      <c r="P91" s="97"/>
-      <c r="Q91" s="98"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="81"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="85"/>
+      <c r="M91" s="86"/>
+      <c r="N91" s="67"/>
+      <c r="O91" s="68"/>
+      <c r="P91" s="68"/>
+      <c r="Q91" s="69"/>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
@@ -7760,29 +7760,29 @@
       <c r="AQ91" s="5"/>
     </row>
     <row r="92" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="94">
+      <c r="A92" s="171">
         <v>2</v>
       </c>
-      <c r="B92" s="55" t="s">
+      <c r="B92" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="58" t="s">
+      <c r="C92" s="173"/>
+      <c r="D92" s="173"/>
+      <c r="E92" s="173"/>
+      <c r="F92" s="173"/>
+      <c r="G92" s="173"/>
+      <c r="H92" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="87"/>
-      <c r="M92" s="87"/>
-      <c r="N92" s="96"/>
-      <c r="O92" s="97"/>
-      <c r="P92" s="97"/>
-      <c r="Q92" s="98"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="57"/>
+      <c r="M92" s="57"/>
+      <c r="N92" s="67"/>
+      <c r="O92" s="68"/>
+      <c r="P92" s="68"/>
+      <c r="Q92" s="69"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -7811,23 +7811,23 @@
       <c r="AQ92" s="5"/>
     </row>
     <row r="93" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="94"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="62"/>
-      <c r="H93" s="75"/>
-      <c r="I93" s="76"/>
-      <c r="J93" s="76"/>
-      <c r="K93" s="77"/>
-      <c r="L93" s="87"/>
-      <c r="M93" s="87"/>
-      <c r="N93" s="96"/>
-      <c r="O93" s="97"/>
-      <c r="P93" s="97"/>
-      <c r="Q93" s="98"/>
+      <c r="A93" s="171"/>
+      <c r="B93" s="174"/>
+      <c r="C93" s="175"/>
+      <c r="D93" s="175"/>
+      <c r="E93" s="175"/>
+      <c r="F93" s="175"/>
+      <c r="G93" s="175"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="54"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="67"/>
+      <c r="O93" s="68"/>
+      <c r="P93" s="68"/>
+      <c r="Q93" s="69"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -7856,29 +7856,29 @@
       <c r="AQ93" s="5"/>
     </row>
     <row r="94" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="94">
+      <c r="A94" s="171">
         <v>3</v>
       </c>
-      <c r="B94" s="55" t="s">
+      <c r="B94" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="58" t="s">
+      <c r="C94" s="173"/>
+      <c r="D94" s="173"/>
+      <c r="E94" s="173"/>
+      <c r="F94" s="173"/>
+      <c r="G94" s="173"/>
+      <c r="H94" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="87"/>
-      <c r="M94" s="87"/>
-      <c r="N94" s="96"/>
-      <c r="O94" s="97"/>
-      <c r="P94" s="97"/>
-      <c r="Q94" s="98"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="57"/>
+      <c r="M94" s="57"/>
+      <c r="N94" s="67"/>
+      <c r="O94" s="68"/>
+      <c r="P94" s="68"/>
+      <c r="Q94" s="69"/>
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
@@ -7907,23 +7907,23 @@
       <c r="AQ94" s="5"/>
     </row>
     <row r="95" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="94"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="75"/>
-      <c r="I95" s="76"/>
-      <c r="J95" s="76"/>
-      <c r="K95" s="77"/>
-      <c r="L95" s="87"/>
-      <c r="M95" s="87"/>
-      <c r="N95" s="96"/>
-      <c r="O95" s="97"/>
-      <c r="P95" s="97"/>
-      <c r="Q95" s="98"/>
+      <c r="A95" s="171"/>
+      <c r="B95" s="174"/>
+      <c r="C95" s="175"/>
+      <c r="D95" s="175"/>
+      <c r="E95" s="175"/>
+      <c r="F95" s="175"/>
+      <c r="G95" s="175"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="57"/>
+      <c r="M95" s="57"/>
+      <c r="N95" s="67"/>
+      <c r="O95" s="68"/>
+      <c r="P95" s="68"/>
+      <c r="Q95" s="69"/>
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
@@ -7952,29 +7952,29 @@
       <c r="AQ95" s="5"/>
     </row>
     <row r="96" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="94">
+      <c r="A96" s="171">
         <v>4</v>
       </c>
-      <c r="B96" s="55" t="s">
+      <c r="B96" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="58" t="s">
+      <c r="C96" s="173"/>
+      <c r="D96" s="173"/>
+      <c r="E96" s="173"/>
+      <c r="F96" s="173"/>
+      <c r="G96" s="173"/>
+      <c r="H96" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59"/>
-      <c r="K96" s="60"/>
-      <c r="L96" s="87"/>
-      <c r="M96" s="87"/>
-      <c r="N96" s="96"/>
-      <c r="O96" s="97"/>
-      <c r="P96" s="97"/>
-      <c r="Q96" s="98"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="57"/>
+      <c r="M96" s="57"/>
+      <c r="N96" s="67"/>
+      <c r="O96" s="68"/>
+      <c r="P96" s="68"/>
+      <c r="Q96" s="69"/>
       <c r="R96" s="8"/>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
@@ -8003,23 +8003,23 @@
       <c r="AQ96" s="5"/>
     </row>
     <row r="97" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="94"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="75"/>
-      <c r="I97" s="76"/>
-      <c r="J97" s="76"/>
-      <c r="K97" s="77"/>
-      <c r="L97" s="87"/>
-      <c r="M97" s="87"/>
-      <c r="N97" s="96"/>
-      <c r="O97" s="97"/>
-      <c r="P97" s="97"/>
-      <c r="Q97" s="98"/>
+      <c r="A97" s="171"/>
+      <c r="B97" s="174"/>
+      <c r="C97" s="175"/>
+      <c r="D97" s="175"/>
+      <c r="E97" s="175"/>
+      <c r="F97" s="175"/>
+      <c r="G97" s="175"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="53"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="57"/>
+      <c r="M97" s="57"/>
+      <c r="N97" s="67"/>
+      <c r="O97" s="68"/>
+      <c r="P97" s="68"/>
+      <c r="Q97" s="69"/>
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -8048,29 +8048,29 @@
       <c r="AQ97" s="5"/>
     </row>
     <row r="98" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="94">
+      <c r="A98" s="171">
         <v>5</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="C98" s="56"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="58" t="s">
+      <c r="C98" s="173"/>
+      <c r="D98" s="173"/>
+      <c r="E98" s="173"/>
+      <c r="F98" s="173"/>
+      <c r="G98" s="173"/>
+      <c r="H98" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I98" s="59"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="87"/>
-      <c r="M98" s="87"/>
-      <c r="N98" s="96"/>
-      <c r="O98" s="97"/>
-      <c r="P98" s="97"/>
-      <c r="Q98" s="98"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="57"/>
+      <c r="M98" s="57"/>
+      <c r="N98" s="67"/>
+      <c r="O98" s="68"/>
+      <c r="P98" s="68"/>
+      <c r="Q98" s="69"/>
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
@@ -8099,23 +8099,23 @@
       <c r="AQ98" s="5"/>
     </row>
     <row r="99" spans="1:43" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="94"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="75"/>
-      <c r="I99" s="76"/>
-      <c r="J99" s="76"/>
-      <c r="K99" s="77"/>
-      <c r="L99" s="87"/>
-      <c r="M99" s="87"/>
-      <c r="N99" s="96"/>
-      <c r="O99" s="97"/>
-      <c r="P99" s="97"/>
-      <c r="Q99" s="98"/>
+      <c r="A99" s="171"/>
+      <c r="B99" s="174"/>
+      <c r="C99" s="175"/>
+      <c r="D99" s="175"/>
+      <c r="E99" s="175"/>
+      <c r="F99" s="175"/>
+      <c r="G99" s="175"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="53"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="57"/>
+      <c r="M99" s="57"/>
+      <c r="N99" s="67"/>
+      <c r="O99" s="68"/>
+      <c r="P99" s="68"/>
+      <c r="Q99" s="69"/>
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
       <c r="T99" s="8"/>
@@ -8144,29 +8144,29 @@
       <c r="AQ99" s="5"/>
     </row>
     <row r="100" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="94">
+      <c r="A100" s="171">
         <v>6</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B100" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="58" t="s">
+      <c r="C100" s="173"/>
+      <c r="D100" s="173"/>
+      <c r="E100" s="173"/>
+      <c r="F100" s="173"/>
+      <c r="G100" s="173"/>
+      <c r="H100" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="87"/>
-      <c r="M100" s="87"/>
-      <c r="N100" s="96"/>
-      <c r="O100" s="97"/>
-      <c r="P100" s="97"/>
-      <c r="Q100" s="98"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="57"/>
+      <c r="M100" s="57"/>
+      <c r="N100" s="67"/>
+      <c r="O100" s="68"/>
+      <c r="P100" s="68"/>
+      <c r="Q100" s="69"/>
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
       <c r="T100" s="8"/>
@@ -8195,23 +8195,23 @@
       <c r="AQ100" s="5"/>
     </row>
     <row r="101" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="94"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="62"/>
-      <c r="H101" s="75"/>
-      <c r="I101" s="76"/>
-      <c r="J101" s="76"/>
-      <c r="K101" s="77"/>
-      <c r="L101" s="87"/>
-      <c r="M101" s="87"/>
-      <c r="N101" s="96"/>
-      <c r="O101" s="97"/>
-      <c r="P101" s="97"/>
-      <c r="Q101" s="98"/>
+      <c r="A101" s="171"/>
+      <c r="B101" s="174"/>
+      <c r="C101" s="175"/>
+      <c r="D101" s="175"/>
+      <c r="E101" s="175"/>
+      <c r="F101" s="175"/>
+      <c r="G101" s="175"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="57"/>
+      <c r="M101" s="57"/>
+      <c r="N101" s="67"/>
+      <c r="O101" s="68"/>
+      <c r="P101" s="68"/>
+      <c r="Q101" s="69"/>
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
@@ -8240,29 +8240,29 @@
       <c r="AQ101" s="5"/>
     </row>
     <row r="102" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="94">
+      <c r="A102" s="171">
         <v>7</v>
       </c>
-      <c r="B102" s="55" t="s">
+      <c r="B102" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="58" t="s">
+      <c r="C102" s="173"/>
+      <c r="D102" s="173"/>
+      <c r="E102" s="173"/>
+      <c r="F102" s="173"/>
+      <c r="G102" s="173"/>
+      <c r="H102" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="87"/>
-      <c r="M102" s="87"/>
-      <c r="N102" s="96"/>
-      <c r="O102" s="97"/>
-      <c r="P102" s="97"/>
-      <c r="Q102" s="98"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="57"/>
+      <c r="M102" s="57"/>
+      <c r="N102" s="67"/>
+      <c r="O102" s="68"/>
+      <c r="P102" s="68"/>
+      <c r="Q102" s="69"/>
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
       <c r="T102" s="8"/>
@@ -8291,23 +8291,23 @@
       <c r="AQ102" s="5"/>
     </row>
     <row r="103" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="94"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="62"/>
-      <c r="G103" s="62"/>
-      <c r="H103" s="75"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="76"/>
-      <c r="K103" s="77"/>
-      <c r="L103" s="87"/>
-      <c r="M103" s="87"/>
-      <c r="N103" s="92"/>
-      <c r="O103" s="99"/>
-      <c r="P103" s="99"/>
-      <c r="Q103" s="93"/>
+      <c r="A103" s="171"/>
+      <c r="B103" s="174"/>
+      <c r="C103" s="175"/>
+      <c r="D103" s="175"/>
+      <c r="E103" s="175"/>
+      <c r="F103" s="175"/>
+      <c r="G103" s="175"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="53"/>
+      <c r="K103" s="54"/>
+      <c r="L103" s="57"/>
+      <c r="M103" s="57"/>
+      <c r="N103" s="70"/>
+      <c r="O103" s="71"/>
+      <c r="P103" s="71"/>
+      <c r="Q103" s="72"/>
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
@@ -8336,33 +8336,33 @@
       <c r="AQ103" s="7"/>
     </row>
     <row r="104" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="47" t="s">
+      <c r="A104" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="49" t="s">
+      <c r="B104" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="51"/>
-      <c r="H104" s="17" t="s">
+      <c r="C104" s="244"/>
+      <c r="D104" s="244"/>
+      <c r="E104" s="244"/>
+      <c r="F104" s="244"/>
+      <c r="G104" s="245"/>
+      <c r="H104" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="41" t="s">
+      <c r="I104" s="144"/>
+      <c r="J104" s="144"/>
+      <c r="K104" s="145"/>
+      <c r="L104" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="M104" s="42"/>
-      <c r="N104" s="41" t="s">
+      <c r="M104" s="217"/>
+      <c r="N104" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
-      <c r="Q104" s="42"/>
+      <c r="O104" s="220"/>
+      <c r="P104" s="220"/>
+      <c r="Q104" s="217"/>
       <c r="R104" s="8"/>
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
@@ -8391,23 +8391,23 @@
       <c r="AQ104" s="5"/>
     </row>
     <row r="105" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="48"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="43"/>
-      <c r="M105" s="44"/>
-      <c r="N105" s="43"/>
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
-      <c r="Q105" s="44"/>
+      <c r="A105" s="87"/>
+      <c r="B105" s="246"/>
+      <c r="C105" s="247"/>
+      <c r="D105" s="247"/>
+      <c r="E105" s="247"/>
+      <c r="F105" s="247"/>
+      <c r="G105" s="248"/>
+      <c r="H105" s="146"/>
+      <c r="I105" s="147"/>
+      <c r="J105" s="147"/>
+      <c r="K105" s="148"/>
+      <c r="L105" s="218"/>
+      <c r="M105" s="219"/>
+      <c r="N105" s="218"/>
+      <c r="O105" s="221"/>
+      <c r="P105" s="221"/>
+      <c r="Q105" s="219"/>
       <c r="R105" s="8"/>
       <c r="S105" s="8"/>
       <c r="T105" s="8"/>
@@ -8436,29 +8436,29 @@
       <c r="AQ105" s="5"/>
     </row>
     <row r="106" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="94">
+      <c r="A106" s="171">
         <v>1</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B106" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
-      <c r="H106" s="63" t="s">
+      <c r="C106" s="173"/>
+      <c r="D106" s="173"/>
+      <c r="E106" s="173"/>
+      <c r="F106" s="173"/>
+      <c r="G106" s="173"/>
+      <c r="H106" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I106" s="64"/>
-      <c r="J106" s="64"/>
-      <c r="K106" s="65"/>
-      <c r="L106" s="87"/>
-      <c r="M106" s="87"/>
-      <c r="N106" s="90"/>
-      <c r="O106" s="95"/>
-      <c r="P106" s="95"/>
-      <c r="Q106" s="91"/>
+      <c r="I106" s="179"/>
+      <c r="J106" s="179"/>
+      <c r="K106" s="180"/>
+      <c r="L106" s="57"/>
+      <c r="M106" s="57"/>
+      <c r="N106" s="64"/>
+      <c r="O106" s="65"/>
+      <c r="P106" s="65"/>
+      <c r="Q106" s="66"/>
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
       <c r="T106" s="8"/>
@@ -8487,23 +8487,23 @@
       <c r="AQ106" s="5"/>
     </row>
     <row r="107" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="94"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="62"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="62"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="67"/>
-      <c r="J107" s="67"/>
-      <c r="K107" s="68"/>
-      <c r="L107" s="87"/>
-      <c r="M107" s="87"/>
-      <c r="N107" s="96"/>
-      <c r="O107" s="97"/>
-      <c r="P107" s="97"/>
-      <c r="Q107" s="98"/>
+      <c r="A107" s="171"/>
+      <c r="B107" s="174"/>
+      <c r="C107" s="175"/>
+      <c r="D107" s="175"/>
+      <c r="E107" s="175"/>
+      <c r="F107" s="175"/>
+      <c r="G107" s="175"/>
+      <c r="H107" s="181"/>
+      <c r="I107" s="182"/>
+      <c r="J107" s="182"/>
+      <c r="K107" s="183"/>
+      <c r="L107" s="57"/>
+      <c r="M107" s="57"/>
+      <c r="N107" s="67"/>
+      <c r="O107" s="68"/>
+      <c r="P107" s="68"/>
+      <c r="Q107" s="69"/>
       <c r="R107" s="8"/>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
@@ -8532,29 +8532,29 @@
       <c r="AQ107" s="5"/>
     </row>
     <row r="108" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="94">
+      <c r="A108" s="171">
         <v>2</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56"/>
-      <c r="H108" s="63" t="s">
+      <c r="C108" s="173"/>
+      <c r="D108" s="173"/>
+      <c r="E108" s="173"/>
+      <c r="F108" s="173"/>
+      <c r="G108" s="173"/>
+      <c r="H108" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I108" s="64"/>
-      <c r="J108" s="64"/>
-      <c r="K108" s="65"/>
-      <c r="L108" s="87"/>
-      <c r="M108" s="87"/>
-      <c r="N108" s="96"/>
-      <c r="O108" s="97"/>
-      <c r="P108" s="97"/>
-      <c r="Q108" s="98"/>
+      <c r="I108" s="179"/>
+      <c r="J108" s="179"/>
+      <c r="K108" s="180"/>
+      <c r="L108" s="57"/>
+      <c r="M108" s="57"/>
+      <c r="N108" s="67"/>
+      <c r="O108" s="68"/>
+      <c r="P108" s="68"/>
+      <c r="Q108" s="69"/>
       <c r="R108" s="8"/>
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
@@ -8583,23 +8583,23 @@
       <c r="AQ108" s="5"/>
     </row>
     <row r="109" spans="1:43" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="94"/>
-      <c r="B109" s="61"/>
-      <c r="C109" s="62"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
-      <c r="F109" s="62"/>
-      <c r="G109" s="62"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="67"/>
-      <c r="K109" s="68"/>
-      <c r="L109" s="87"/>
-      <c r="M109" s="87"/>
-      <c r="N109" s="96"/>
-      <c r="O109" s="97"/>
-      <c r="P109" s="97"/>
-      <c r="Q109" s="98"/>
+      <c r="A109" s="171"/>
+      <c r="B109" s="174"/>
+      <c r="C109" s="175"/>
+      <c r="D109" s="175"/>
+      <c r="E109" s="175"/>
+      <c r="F109" s="175"/>
+      <c r="G109" s="175"/>
+      <c r="H109" s="181"/>
+      <c r="I109" s="182"/>
+      <c r="J109" s="182"/>
+      <c r="K109" s="183"/>
+      <c r="L109" s="57"/>
+      <c r="M109" s="57"/>
+      <c r="N109" s="67"/>
+      <c r="O109" s="68"/>
+      <c r="P109" s="68"/>
+      <c r="Q109" s="69"/>
       <c r="R109" s="8"/>
       <c r="S109" s="8"/>
       <c r="T109" s="8"/>
@@ -8628,29 +8628,29 @@
       <c r="AQ109" s="5"/>
     </row>
     <row r="110" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="94">
+      <c r="A110" s="171">
         <v>3</v>
       </c>
-      <c r="B110" s="55" t="s">
+      <c r="B110" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="56"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56"/>
-      <c r="H110" s="63" t="s">
+      <c r="C110" s="173"/>
+      <c r="D110" s="173"/>
+      <c r="E110" s="173"/>
+      <c r="F110" s="173"/>
+      <c r="G110" s="173"/>
+      <c r="H110" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I110" s="64"/>
-      <c r="J110" s="64"/>
-      <c r="K110" s="65"/>
-      <c r="L110" s="87"/>
-      <c r="M110" s="87"/>
-      <c r="N110" s="96"/>
-      <c r="O110" s="97"/>
-      <c r="P110" s="97"/>
-      <c r="Q110" s="98"/>
+      <c r="I110" s="179"/>
+      <c r="J110" s="179"/>
+      <c r="K110" s="180"/>
+      <c r="L110" s="57"/>
+      <c r="M110" s="57"/>
+      <c r="N110" s="67"/>
+      <c r="O110" s="68"/>
+      <c r="P110" s="68"/>
+      <c r="Q110" s="69"/>
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
       <c r="T110" s="8"/>
@@ -8679,23 +8679,23 @@
       <c r="AQ110" s="5"/>
     </row>
     <row r="111" spans="1:43" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="94"/>
-      <c r="B111" s="61"/>
-      <c r="C111" s="62"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67"/>
-      <c r="K111" s="68"/>
-      <c r="L111" s="87"/>
-      <c r="M111" s="87"/>
-      <c r="N111" s="96"/>
-      <c r="O111" s="97"/>
-      <c r="P111" s="97"/>
-      <c r="Q111" s="98"/>
+      <c r="A111" s="171"/>
+      <c r="B111" s="174"/>
+      <c r="C111" s="175"/>
+      <c r="D111" s="175"/>
+      <c r="E111" s="175"/>
+      <c r="F111" s="175"/>
+      <c r="G111" s="175"/>
+      <c r="H111" s="181"/>
+      <c r="I111" s="182"/>
+      <c r="J111" s="182"/>
+      <c r="K111" s="183"/>
+      <c r="L111" s="57"/>
+      <c r="M111" s="57"/>
+      <c r="N111" s="67"/>
+      <c r="O111" s="68"/>
+      <c r="P111" s="68"/>
+      <c r="Q111" s="69"/>
       <c r="R111" s="8"/>
       <c r="S111" s="8"/>
       <c r="T111" s="8"/>
@@ -8724,29 +8724,29 @@
       <c r="AQ111" s="5"/>
     </row>
     <row r="112" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="94">
+      <c r="A112" s="171">
         <v>4</v>
       </c>
-      <c r="B112" s="55" t="s">
+      <c r="B112" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="C112" s="56"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="63" t="s">
+      <c r="C112" s="173"/>
+      <c r="D112" s="173"/>
+      <c r="E112" s="173"/>
+      <c r="F112" s="173"/>
+      <c r="G112" s="173"/>
+      <c r="H112" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I112" s="64"/>
-      <c r="J112" s="64"/>
-      <c r="K112" s="65"/>
-      <c r="L112" s="87"/>
-      <c r="M112" s="87"/>
-      <c r="N112" s="96"/>
-      <c r="O112" s="97"/>
-      <c r="P112" s="97"/>
-      <c r="Q112" s="98"/>
+      <c r="I112" s="179"/>
+      <c r="J112" s="179"/>
+      <c r="K112" s="180"/>
+      <c r="L112" s="57"/>
+      <c r="M112" s="57"/>
+      <c r="N112" s="67"/>
+      <c r="O112" s="68"/>
+      <c r="P112" s="68"/>
+      <c r="Q112" s="69"/>
       <c r="R112" s="8"/>
       <c r="S112" s="8"/>
       <c r="T112" s="8"/>
@@ -8775,23 +8775,23 @@
       <c r="AQ112" s="5"/>
     </row>
     <row r="113" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="94"/>
-      <c r="B113" s="61"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="68"/>
-      <c r="L113" s="87"/>
-      <c r="M113" s="87"/>
-      <c r="N113" s="96"/>
-      <c r="O113" s="97"/>
-      <c r="P113" s="97"/>
-      <c r="Q113" s="98"/>
+      <c r="A113" s="171"/>
+      <c r="B113" s="174"/>
+      <c r="C113" s="175"/>
+      <c r="D113" s="175"/>
+      <c r="E113" s="175"/>
+      <c r="F113" s="175"/>
+      <c r="G113" s="175"/>
+      <c r="H113" s="181"/>
+      <c r="I113" s="182"/>
+      <c r="J113" s="182"/>
+      <c r="K113" s="183"/>
+      <c r="L113" s="57"/>
+      <c r="M113" s="57"/>
+      <c r="N113" s="67"/>
+      <c r="O113" s="68"/>
+      <c r="P113" s="68"/>
+      <c r="Q113" s="69"/>
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
       <c r="T113" s="8"/>
@@ -8820,29 +8820,29 @@
       <c r="AQ113" s="5"/>
     </row>
     <row r="114" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="94">
+      <c r="A114" s="171">
         <v>5</v>
       </c>
-      <c r="B114" s="55" t="s">
+      <c r="B114" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="C114" s="56"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="63" t="s">
+      <c r="C114" s="173"/>
+      <c r="D114" s="173"/>
+      <c r="E114" s="173"/>
+      <c r="F114" s="173"/>
+      <c r="G114" s="173"/>
+      <c r="H114" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I114" s="64"/>
-      <c r="J114" s="64"/>
-      <c r="K114" s="65"/>
-      <c r="L114" s="87"/>
-      <c r="M114" s="87"/>
-      <c r="N114" s="96"/>
-      <c r="O114" s="97"/>
-      <c r="P114" s="97"/>
-      <c r="Q114" s="98"/>
+      <c r="I114" s="179"/>
+      <c r="J114" s="179"/>
+      <c r="K114" s="180"/>
+      <c r="L114" s="57"/>
+      <c r="M114" s="57"/>
+      <c r="N114" s="67"/>
+      <c r="O114" s="68"/>
+      <c r="P114" s="68"/>
+      <c r="Q114" s="69"/>
       <c r="R114" s="8"/>
       <c r="S114" s="8"/>
       <c r="T114" s="8"/>
@@ -8871,23 +8871,23 @@
       <c r="AQ114" s="5"/>
     </row>
     <row r="115" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="94"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67"/>
-      <c r="K115" s="68"/>
-      <c r="L115" s="87"/>
-      <c r="M115" s="87"/>
-      <c r="N115" s="96"/>
-      <c r="O115" s="97"/>
-      <c r="P115" s="97"/>
-      <c r="Q115" s="98"/>
+      <c r="A115" s="171"/>
+      <c r="B115" s="174"/>
+      <c r="C115" s="175"/>
+      <c r="D115" s="175"/>
+      <c r="E115" s="175"/>
+      <c r="F115" s="175"/>
+      <c r="G115" s="175"/>
+      <c r="H115" s="181"/>
+      <c r="I115" s="182"/>
+      <c r="J115" s="182"/>
+      <c r="K115" s="183"/>
+      <c r="L115" s="57"/>
+      <c r="M115" s="57"/>
+      <c r="N115" s="67"/>
+      <c r="O115" s="68"/>
+      <c r="P115" s="68"/>
+      <c r="Q115" s="69"/>
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
       <c r="T115" s="8"/>
@@ -8916,29 +8916,29 @@
       <c r="AQ115" s="5"/>
     </row>
     <row r="116" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="94">
+      <c r="A116" s="171">
         <v>6</v>
       </c>
-      <c r="B116" s="55" t="s">
+      <c r="B116" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="56"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="63" t="s">
+      <c r="C116" s="173"/>
+      <c r="D116" s="173"/>
+      <c r="E116" s="173"/>
+      <c r="F116" s="173"/>
+      <c r="G116" s="173"/>
+      <c r="H116" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I116" s="64"/>
-      <c r="J116" s="64"/>
-      <c r="K116" s="65"/>
-      <c r="L116" s="87"/>
-      <c r="M116" s="87"/>
-      <c r="N116" s="96"/>
-      <c r="O116" s="97"/>
-      <c r="P116" s="97"/>
-      <c r="Q116" s="98"/>
+      <c r="I116" s="179"/>
+      <c r="J116" s="179"/>
+      <c r="K116" s="180"/>
+      <c r="L116" s="57"/>
+      <c r="M116" s="57"/>
+      <c r="N116" s="67"/>
+      <c r="O116" s="68"/>
+      <c r="P116" s="68"/>
+      <c r="Q116" s="69"/>
       <c r="R116" s="8"/>
       <c r="S116" s="8"/>
       <c r="T116" s="8"/>
@@ -8967,23 +8967,23 @@
       <c r="AQ116" s="5"/>
     </row>
     <row r="117" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="94"/>
-      <c r="B117" s="61"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
-      <c r="K117" s="68"/>
-      <c r="L117" s="87"/>
-      <c r="M117" s="87"/>
-      <c r="N117" s="96"/>
-      <c r="O117" s="97"/>
-      <c r="P117" s="97"/>
-      <c r="Q117" s="98"/>
+      <c r="A117" s="171"/>
+      <c r="B117" s="174"/>
+      <c r="C117" s="175"/>
+      <c r="D117" s="175"/>
+      <c r="E117" s="175"/>
+      <c r="F117" s="175"/>
+      <c r="G117" s="175"/>
+      <c r="H117" s="181"/>
+      <c r="I117" s="182"/>
+      <c r="J117" s="182"/>
+      <c r="K117" s="183"/>
+      <c r="L117" s="57"/>
+      <c r="M117" s="57"/>
+      <c r="N117" s="67"/>
+      <c r="O117" s="68"/>
+      <c r="P117" s="68"/>
+      <c r="Q117" s="69"/>
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
@@ -9012,29 +9012,29 @@
       <c r="AQ117" s="5"/>
     </row>
     <row r="118" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="94">
+      <c r="A118" s="171">
         <v>7</v>
       </c>
-      <c r="B118" s="55" t="s">
+      <c r="B118" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="56"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="56"/>
-      <c r="G118" s="56"/>
-      <c r="H118" s="63" t="s">
+      <c r="C118" s="173"/>
+      <c r="D118" s="173"/>
+      <c r="E118" s="173"/>
+      <c r="F118" s="173"/>
+      <c r="G118" s="173"/>
+      <c r="H118" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I118" s="64"/>
-      <c r="J118" s="64"/>
-      <c r="K118" s="65"/>
-      <c r="L118" s="87"/>
-      <c r="M118" s="87"/>
-      <c r="N118" s="96"/>
-      <c r="O118" s="97"/>
-      <c r="P118" s="97"/>
-      <c r="Q118" s="98"/>
+      <c r="I118" s="179"/>
+      <c r="J118" s="179"/>
+      <c r="K118" s="180"/>
+      <c r="L118" s="57"/>
+      <c r="M118" s="57"/>
+      <c r="N118" s="67"/>
+      <c r="O118" s="68"/>
+      <c r="P118" s="68"/>
+      <c r="Q118" s="69"/>
       <c r="R118" s="8"/>
       <c r="S118" s="8"/>
       <c r="T118" s="8"/>
@@ -9063,23 +9063,23 @@
       <c r="AQ118" s="5"/>
     </row>
     <row r="119" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="94"/>
-      <c r="B119" s="61"/>
-      <c r="C119" s="62"/>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="67"/>
-      <c r="J119" s="67"/>
-      <c r="K119" s="68"/>
-      <c r="L119" s="87"/>
-      <c r="M119" s="87"/>
-      <c r="N119" s="96"/>
-      <c r="O119" s="97"/>
-      <c r="P119" s="97"/>
-      <c r="Q119" s="98"/>
+      <c r="A119" s="171"/>
+      <c r="B119" s="174"/>
+      <c r="C119" s="175"/>
+      <c r="D119" s="175"/>
+      <c r="E119" s="175"/>
+      <c r="F119" s="175"/>
+      <c r="G119" s="175"/>
+      <c r="H119" s="181"/>
+      <c r="I119" s="182"/>
+      <c r="J119" s="182"/>
+      <c r="K119" s="183"/>
+      <c r="L119" s="57"/>
+      <c r="M119" s="57"/>
+      <c r="N119" s="67"/>
+      <c r="O119" s="68"/>
+      <c r="P119" s="68"/>
+      <c r="Q119" s="69"/>
       <c r="R119" s="8"/>
       <c r="S119" s="8"/>
       <c r="T119" s="8"/>
@@ -9108,29 +9108,29 @@
       <c r="AQ119" s="5"/>
     </row>
     <row r="120" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="94">
+      <c r="A120" s="171">
         <v>8</v>
       </c>
-      <c r="B120" s="55" t="s">
+      <c r="B120" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="56"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56"/>
-      <c r="H120" s="63" t="s">
+      <c r="C120" s="173"/>
+      <c r="D120" s="173"/>
+      <c r="E120" s="173"/>
+      <c r="F120" s="173"/>
+      <c r="G120" s="173"/>
+      <c r="H120" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I120" s="64"/>
-      <c r="J120" s="64"/>
-      <c r="K120" s="65"/>
-      <c r="L120" s="87"/>
-      <c r="M120" s="87"/>
-      <c r="N120" s="96"/>
-      <c r="O120" s="97"/>
-      <c r="P120" s="97"/>
-      <c r="Q120" s="98"/>
+      <c r="I120" s="179"/>
+      <c r="J120" s="179"/>
+      <c r="K120" s="180"/>
+      <c r="L120" s="57"/>
+      <c r="M120" s="57"/>
+      <c r="N120" s="67"/>
+      <c r="O120" s="68"/>
+      <c r="P120" s="68"/>
+      <c r="Q120" s="69"/>
       <c r="R120" s="8"/>
       <c r="S120" s="8"/>
       <c r="T120" s="8"/>
@@ -9159,23 +9159,23 @@
       <c r="AQ120" s="5"/>
     </row>
     <row r="121" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="94"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="62"/>
-      <c r="D121" s="62"/>
-      <c r="E121" s="62"/>
-      <c r="F121" s="62"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="67"/>
-      <c r="J121" s="67"/>
-      <c r="K121" s="68"/>
-      <c r="L121" s="87"/>
-      <c r="M121" s="87"/>
-      <c r="N121" s="96"/>
-      <c r="O121" s="97"/>
-      <c r="P121" s="97"/>
-      <c r="Q121" s="98"/>
+      <c r="A121" s="171"/>
+      <c r="B121" s="174"/>
+      <c r="C121" s="175"/>
+      <c r="D121" s="175"/>
+      <c r="E121" s="175"/>
+      <c r="F121" s="175"/>
+      <c r="G121" s="175"/>
+      <c r="H121" s="181"/>
+      <c r="I121" s="182"/>
+      <c r="J121" s="182"/>
+      <c r="K121" s="183"/>
+      <c r="L121" s="57"/>
+      <c r="M121" s="57"/>
+      <c r="N121" s="67"/>
+      <c r="O121" s="68"/>
+      <c r="P121" s="68"/>
+      <c r="Q121" s="69"/>
       <c r="R121" s="8"/>
       <c r="S121" s="8"/>
       <c r="T121" s="8"/>
@@ -9204,29 +9204,29 @@
       <c r="AQ121" s="5"/>
     </row>
     <row r="122" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="94">
+      <c r="A122" s="171">
         <v>9</v>
       </c>
-      <c r="B122" s="55" t="s">
+      <c r="B122" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="C122" s="56"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="56"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="56"/>
-      <c r="H122" s="63" t="s">
+      <c r="C122" s="173"/>
+      <c r="D122" s="173"/>
+      <c r="E122" s="173"/>
+      <c r="F122" s="173"/>
+      <c r="G122" s="173"/>
+      <c r="H122" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="65"/>
-      <c r="L122" s="87"/>
-      <c r="M122" s="87"/>
-      <c r="N122" s="96"/>
-      <c r="O122" s="97"/>
-      <c r="P122" s="97"/>
-      <c r="Q122" s="98"/>
+      <c r="I122" s="179"/>
+      <c r="J122" s="179"/>
+      <c r="K122" s="180"/>
+      <c r="L122" s="57"/>
+      <c r="M122" s="57"/>
+      <c r="N122" s="67"/>
+      <c r="O122" s="68"/>
+      <c r="P122" s="68"/>
+      <c r="Q122" s="69"/>
       <c r="R122" s="8"/>
       <c r="S122" s="8"/>
       <c r="T122" s="8"/>
@@ -9255,23 +9255,23 @@
       <c r="AQ122" s="5"/>
     </row>
     <row r="123" spans="1:43" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="94"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="62"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="67"/>
-      <c r="J123" s="67"/>
-      <c r="K123" s="68"/>
-      <c r="L123" s="87"/>
-      <c r="M123" s="87"/>
-      <c r="N123" s="96"/>
-      <c r="O123" s="97"/>
-      <c r="P123" s="97"/>
-      <c r="Q123" s="98"/>
+      <c r="A123" s="171"/>
+      <c r="B123" s="174"/>
+      <c r="C123" s="175"/>
+      <c r="D123" s="175"/>
+      <c r="E123" s="175"/>
+      <c r="F123" s="175"/>
+      <c r="G123" s="175"/>
+      <c r="H123" s="181"/>
+      <c r="I123" s="182"/>
+      <c r="J123" s="182"/>
+      <c r="K123" s="183"/>
+      <c r="L123" s="57"/>
+      <c r="M123" s="57"/>
+      <c r="N123" s="67"/>
+      <c r="O123" s="68"/>
+      <c r="P123" s="68"/>
+      <c r="Q123" s="69"/>
       <c r="R123" s="8"/>
       <c r="S123" s="8"/>
       <c r="T123" s="8"/>
@@ -9300,29 +9300,29 @@
       <c r="AQ123" s="5"/>
     </row>
     <row r="124" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="85">
+      <c r="A124" s="222">
         <v>10</v>
       </c>
-      <c r="B124" s="55" t="s">
+      <c r="B124" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="56"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="56"/>
-      <c r="H124" s="63" t="s">
+      <c r="C124" s="173"/>
+      <c r="D124" s="173"/>
+      <c r="E124" s="173"/>
+      <c r="F124" s="173"/>
+      <c r="G124" s="173"/>
+      <c r="H124" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I124" s="64"/>
-      <c r="J124" s="64"/>
-      <c r="K124" s="65"/>
-      <c r="L124" s="87"/>
-      <c r="M124" s="87"/>
-      <c r="N124" s="96"/>
-      <c r="O124" s="97"/>
-      <c r="P124" s="97"/>
-      <c r="Q124" s="98"/>
+      <c r="I124" s="179"/>
+      <c r="J124" s="179"/>
+      <c r="K124" s="180"/>
+      <c r="L124" s="57"/>
+      <c r="M124" s="57"/>
+      <c r="N124" s="67"/>
+      <c r="O124" s="68"/>
+      <c r="P124" s="68"/>
+      <c r="Q124" s="69"/>
       <c r="R124" s="8"/>
       <c r="S124" s="8"/>
       <c r="T124" s="8"/>
@@ -9351,23 +9351,23 @@
       <c r="AQ124" s="5"/>
     </row>
     <row r="125" spans="1:43" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="86"/>
-      <c r="B125" s="61"/>
-      <c r="C125" s="62"/>
-      <c r="D125" s="62"/>
-      <c r="E125" s="62"/>
-      <c r="F125" s="62"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="66"/>
-      <c r="I125" s="67"/>
-      <c r="J125" s="67"/>
-      <c r="K125" s="68"/>
-      <c r="L125" s="87"/>
-      <c r="M125" s="87"/>
-      <c r="N125" s="96"/>
-      <c r="O125" s="97"/>
-      <c r="P125" s="97"/>
-      <c r="Q125" s="98"/>
+      <c r="A125" s="223"/>
+      <c r="B125" s="174"/>
+      <c r="C125" s="175"/>
+      <c r="D125" s="175"/>
+      <c r="E125" s="175"/>
+      <c r="F125" s="175"/>
+      <c r="G125" s="175"/>
+      <c r="H125" s="181"/>
+      <c r="I125" s="182"/>
+      <c r="J125" s="182"/>
+      <c r="K125" s="183"/>
+      <c r="L125" s="57"/>
+      <c r="M125" s="57"/>
+      <c r="N125" s="67"/>
+      <c r="O125" s="68"/>
+      <c r="P125" s="68"/>
+      <c r="Q125" s="69"/>
       <c r="R125" s="8"/>
       <c r="S125" s="8"/>
       <c r="T125" s="8"/>
@@ -9396,29 +9396,29 @@
       <c r="AQ125" s="5"/>
     </row>
     <row r="126" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="85">
+      <c r="A126" s="222">
         <v>11</v>
       </c>
-      <c r="B126" s="55" t="s">
+      <c r="B126" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="C126" s="56"/>
-      <c r="D126" s="56"/>
-      <c r="E126" s="56"/>
-      <c r="F126" s="56"/>
-      <c r="G126" s="56"/>
-      <c r="H126" s="63" t="s">
+      <c r="C126" s="173"/>
+      <c r="D126" s="173"/>
+      <c r="E126" s="173"/>
+      <c r="F126" s="173"/>
+      <c r="G126" s="173"/>
+      <c r="H126" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I126" s="64"/>
-      <c r="J126" s="64"/>
-      <c r="K126" s="65"/>
-      <c r="L126" s="87"/>
-      <c r="M126" s="87"/>
-      <c r="N126" s="96"/>
-      <c r="O126" s="97"/>
-      <c r="P126" s="97"/>
-      <c r="Q126" s="98"/>
+      <c r="I126" s="179"/>
+      <c r="J126" s="179"/>
+      <c r="K126" s="180"/>
+      <c r="L126" s="57"/>
+      <c r="M126" s="57"/>
+      <c r="N126" s="67"/>
+      <c r="O126" s="68"/>
+      <c r="P126" s="68"/>
+      <c r="Q126" s="69"/>
       <c r="R126" s="8"/>
       <c r="S126" s="8"/>
       <c r="T126" s="8"/>
@@ -9447,23 +9447,23 @@
       <c r="AQ126" s="5"/>
     </row>
     <row r="127" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="86"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="62"/>
-      <c r="D127" s="62"/>
-      <c r="E127" s="62"/>
-      <c r="F127" s="62"/>
-      <c r="G127" s="62"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="67"/>
-      <c r="J127" s="67"/>
-      <c r="K127" s="68"/>
-      <c r="L127" s="87"/>
-      <c r="M127" s="87"/>
-      <c r="N127" s="96"/>
-      <c r="O127" s="97"/>
-      <c r="P127" s="97"/>
-      <c r="Q127" s="98"/>
+      <c r="A127" s="223"/>
+      <c r="B127" s="174"/>
+      <c r="C127" s="175"/>
+      <c r="D127" s="175"/>
+      <c r="E127" s="175"/>
+      <c r="F127" s="175"/>
+      <c r="G127" s="175"/>
+      <c r="H127" s="181"/>
+      <c r="I127" s="182"/>
+      <c r="J127" s="182"/>
+      <c r="K127" s="183"/>
+      <c r="L127" s="57"/>
+      <c r="M127" s="57"/>
+      <c r="N127" s="67"/>
+      <c r="O127" s="68"/>
+      <c r="P127" s="68"/>
+      <c r="Q127" s="69"/>
       <c r="R127" s="8"/>
       <c r="S127" s="8"/>
       <c r="T127" s="8"/>
@@ -9492,29 +9492,29 @@
       <c r="AQ127" s="5"/>
     </row>
     <row r="128" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="88">
+      <c r="A128" s="101">
         <v>12</v>
       </c>
-      <c r="B128" s="55" t="s">
+      <c r="B128" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="56"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="56"/>
-      <c r="F128" s="56"/>
-      <c r="G128" s="56"/>
-      <c r="H128" s="63" t="s">
+      <c r="C128" s="173"/>
+      <c r="D128" s="173"/>
+      <c r="E128" s="173"/>
+      <c r="F128" s="173"/>
+      <c r="G128" s="173"/>
+      <c r="H128" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="I128" s="64"/>
-      <c r="J128" s="64"/>
-      <c r="K128" s="65"/>
-      <c r="L128" s="90"/>
-      <c r="M128" s="91"/>
-      <c r="N128" s="96"/>
-      <c r="O128" s="97"/>
-      <c r="P128" s="97"/>
-      <c r="Q128" s="98"/>
+      <c r="I128" s="179"/>
+      <c r="J128" s="179"/>
+      <c r="K128" s="180"/>
+      <c r="L128" s="64"/>
+      <c r="M128" s="66"/>
+      <c r="N128" s="67"/>
+      <c r="O128" s="68"/>
+      <c r="P128" s="68"/>
+      <c r="Q128" s="69"/>
       <c r="R128" s="8"/>
       <c r="S128" s="8"/>
       <c r="T128" s="8"/>
@@ -9543,23 +9543,23 @@
       <c r="AQ128" s="5"/>
     </row>
     <row r="129" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="89"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="62"/>
-      <c r="D129" s="62"/>
-      <c r="E129" s="62"/>
-      <c r="F129" s="62"/>
-      <c r="G129" s="62"/>
-      <c r="H129" s="66"/>
-      <c r="I129" s="67"/>
-      <c r="J129" s="67"/>
-      <c r="K129" s="68"/>
-      <c r="L129" s="92"/>
-      <c r="M129" s="93"/>
-      <c r="N129" s="92"/>
-      <c r="O129" s="99"/>
-      <c r="P129" s="99"/>
-      <c r="Q129" s="93"/>
+      <c r="A129" s="103"/>
+      <c r="B129" s="174"/>
+      <c r="C129" s="175"/>
+      <c r="D129" s="175"/>
+      <c r="E129" s="175"/>
+      <c r="F129" s="175"/>
+      <c r="G129" s="175"/>
+      <c r="H129" s="181"/>
+      <c r="I129" s="182"/>
+      <c r="J129" s="182"/>
+      <c r="K129" s="183"/>
+      <c r="L129" s="70"/>
+      <c r="M129" s="72"/>
+      <c r="N129" s="70"/>
+      <c r="O129" s="71"/>
+      <c r="P129" s="71"/>
+      <c r="Q129" s="72"/>
       <c r="R129" s="8"/>
       <c r="S129" s="8"/>
       <c r="T129" s="8"/>
@@ -9588,278 +9588,278 @@
       <c r="AQ129" s="5"/>
     </row>
     <row r="130" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="79" t="s">
+      <c r="A130" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="79"/>
-      <c r="C130" s="79"/>
-      <c r="D130" s="79"/>
-      <c r="E130" s="79"/>
-      <c r="F130" s="79"/>
-      <c r="G130" s="79"/>
-      <c r="H130" s="79"/>
-      <c r="I130" s="79"/>
-      <c r="J130" s="79"/>
-      <c r="K130" s="79"/>
-      <c r="L130" s="79"/>
-      <c r="M130" s="79"/>
-      <c r="N130" s="79"/>
-      <c r="O130" s="79"/>
-      <c r="P130" s="79"/>
-      <c r="Q130" s="79"/>
-      <c r="R130" s="79"/>
-      <c r="S130" s="79"/>
-      <c r="T130" s="79"/>
-      <c r="U130" s="79"/>
-      <c r="V130" s="79"/>
-      <c r="W130" s="79"/>
-      <c r="X130" s="79"/>
-      <c r="Y130" s="79"/>
-      <c r="Z130" s="79"/>
-      <c r="AA130" s="79"/>
-      <c r="AB130" s="79"/>
-      <c r="AC130" s="79"/>
-      <c r="AD130" s="79"/>
-      <c r="AE130" s="79"/>
-      <c r="AF130" s="79"/>
-      <c r="AG130" s="82" t="s">
+      <c r="B130" s="224"/>
+      <c r="C130" s="224"/>
+      <c r="D130" s="224"/>
+      <c r="E130" s="224"/>
+      <c r="F130" s="224"/>
+      <c r="G130" s="224"/>
+      <c r="H130" s="224"/>
+      <c r="I130" s="224"/>
+      <c r="J130" s="224"/>
+      <c r="K130" s="224"/>
+      <c r="L130" s="224"/>
+      <c r="M130" s="224"/>
+      <c r="N130" s="224"/>
+      <c r="O130" s="224"/>
+      <c r="P130" s="224"/>
+      <c r="Q130" s="224"/>
+      <c r="R130" s="224"/>
+      <c r="S130" s="224"/>
+      <c r="T130" s="224"/>
+      <c r="U130" s="224"/>
+      <c r="V130" s="224"/>
+      <c r="W130" s="224"/>
+      <c r="X130" s="224"/>
+      <c r="Y130" s="224"/>
+      <c r="Z130" s="224"/>
+      <c r="AA130" s="224"/>
+      <c r="AB130" s="224"/>
+      <c r="AC130" s="224"/>
+      <c r="AD130" s="224"/>
+      <c r="AE130" s="224"/>
+      <c r="AF130" s="224"/>
+      <c r="AG130" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="AH130" s="82"/>
-      <c r="AI130" s="82"/>
-      <c r="AJ130" s="82"/>
-      <c r="AK130" s="82"/>
-      <c r="AL130" s="82"/>
-      <c r="AM130" s="82"/>
-      <c r="AN130" s="82"/>
-      <c r="AO130" s="82"/>
-      <c r="AP130" s="82"/>
-      <c r="AQ130" s="82"/>
+      <c r="AH130" s="227"/>
+      <c r="AI130" s="227"/>
+      <c r="AJ130" s="227"/>
+      <c r="AK130" s="227"/>
+      <c r="AL130" s="227"/>
+      <c r="AM130" s="227"/>
+      <c r="AN130" s="227"/>
+      <c r="AO130" s="227"/>
+      <c r="AP130" s="227"/>
+      <c r="AQ130" s="227"/>
     </row>
     <row r="131" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="80"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="80"/>
-      <c r="D131" s="80"/>
-      <c r="E131" s="80"/>
-      <c r="F131" s="80"/>
-      <c r="G131" s="80"/>
-      <c r="H131" s="80"/>
-      <c r="I131" s="80"/>
-      <c r="J131" s="80"/>
-      <c r="K131" s="80"/>
-      <c r="L131" s="80"/>
-      <c r="M131" s="80"/>
-      <c r="N131" s="80"/>
-      <c r="O131" s="80"/>
-      <c r="P131" s="80"/>
-      <c r="Q131" s="80"/>
-      <c r="R131" s="80"/>
-      <c r="S131" s="80"/>
-      <c r="T131" s="80"/>
-      <c r="U131" s="80"/>
-      <c r="V131" s="80"/>
-      <c r="W131" s="80"/>
-      <c r="X131" s="80"/>
-      <c r="Y131" s="80"/>
-      <c r="Z131" s="80"/>
-      <c r="AA131" s="80"/>
-      <c r="AB131" s="80"/>
-      <c r="AC131" s="80"/>
-      <c r="AD131" s="80"/>
-      <c r="AE131" s="80"/>
-      <c r="AF131" s="80"/>
-      <c r="AG131" s="83"/>
-      <c r="AH131" s="83"/>
-      <c r="AI131" s="83"/>
-      <c r="AJ131" s="83"/>
-      <c r="AK131" s="83"/>
-      <c r="AL131" s="83"/>
-      <c r="AM131" s="83"/>
-      <c r="AN131" s="83"/>
-      <c r="AO131" s="83"/>
-      <c r="AP131" s="83"/>
-      <c r="AQ131" s="83"/>
+      <c r="A131" s="225"/>
+      <c r="B131" s="225"/>
+      <c r="C131" s="225"/>
+      <c r="D131" s="225"/>
+      <c r="E131" s="225"/>
+      <c r="F131" s="225"/>
+      <c r="G131" s="225"/>
+      <c r="H131" s="225"/>
+      <c r="I131" s="225"/>
+      <c r="J131" s="225"/>
+      <c r="K131" s="225"/>
+      <c r="L131" s="225"/>
+      <c r="M131" s="225"/>
+      <c r="N131" s="225"/>
+      <c r="O131" s="225"/>
+      <c r="P131" s="225"/>
+      <c r="Q131" s="225"/>
+      <c r="R131" s="225"/>
+      <c r="S131" s="225"/>
+      <c r="T131" s="225"/>
+      <c r="U131" s="225"/>
+      <c r="V131" s="225"/>
+      <c r="W131" s="225"/>
+      <c r="X131" s="225"/>
+      <c r="Y131" s="225"/>
+      <c r="Z131" s="225"/>
+      <c r="AA131" s="225"/>
+      <c r="AB131" s="225"/>
+      <c r="AC131" s="225"/>
+      <c r="AD131" s="225"/>
+      <c r="AE131" s="225"/>
+      <c r="AF131" s="225"/>
+      <c r="AG131" s="228"/>
+      <c r="AH131" s="228"/>
+      <c r="AI131" s="228"/>
+      <c r="AJ131" s="228"/>
+      <c r="AK131" s="228"/>
+      <c r="AL131" s="228"/>
+      <c r="AM131" s="228"/>
+      <c r="AN131" s="228"/>
+      <c r="AO131" s="228"/>
+      <c r="AP131" s="228"/>
+      <c r="AQ131" s="228"/>
     </row>
     <row r="132" spans="1:43" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="80"/>
-      <c r="B132" s="80"/>
-      <c r="C132" s="80"/>
-      <c r="D132" s="80"/>
-      <c r="E132" s="80"/>
-      <c r="F132" s="80"/>
-      <c r="G132" s="80"/>
-      <c r="H132" s="80"/>
-      <c r="I132" s="80"/>
-      <c r="J132" s="80"/>
-      <c r="K132" s="80"/>
-      <c r="L132" s="80"/>
-      <c r="M132" s="80"/>
-      <c r="N132" s="80"/>
-      <c r="O132" s="80"/>
-      <c r="P132" s="80"/>
-      <c r="Q132" s="80"/>
-      <c r="R132" s="80"/>
-      <c r="S132" s="80"/>
-      <c r="T132" s="80"/>
-      <c r="U132" s="80"/>
-      <c r="V132" s="80"/>
-      <c r="W132" s="80"/>
-      <c r="X132" s="80"/>
-      <c r="Y132" s="80"/>
-      <c r="Z132" s="80"/>
-      <c r="AA132" s="80"/>
-      <c r="AB132" s="80"/>
-      <c r="AC132" s="80"/>
-      <c r="AD132" s="80"/>
-      <c r="AE132" s="80"/>
-      <c r="AF132" s="80"/>
-      <c r="AG132" s="83"/>
-      <c r="AH132" s="83"/>
-      <c r="AI132" s="83"/>
-      <c r="AJ132" s="83"/>
-      <c r="AK132" s="83"/>
-      <c r="AL132" s="83"/>
-      <c r="AM132" s="83"/>
-      <c r="AN132" s="83"/>
-      <c r="AO132" s="83"/>
-      <c r="AP132" s="83"/>
-      <c r="AQ132" s="83"/>
+      <c r="A132" s="225"/>
+      <c r="B132" s="225"/>
+      <c r="C132" s="225"/>
+      <c r="D132" s="225"/>
+      <c r="E132" s="225"/>
+      <c r="F132" s="225"/>
+      <c r="G132" s="225"/>
+      <c r="H132" s="225"/>
+      <c r="I132" s="225"/>
+      <c r="J132" s="225"/>
+      <c r="K132" s="225"/>
+      <c r="L132" s="225"/>
+      <c r="M132" s="225"/>
+      <c r="N132" s="225"/>
+      <c r="O132" s="225"/>
+      <c r="P132" s="225"/>
+      <c r="Q132" s="225"/>
+      <c r="R132" s="225"/>
+      <c r="S132" s="225"/>
+      <c r="T132" s="225"/>
+      <c r="U132" s="225"/>
+      <c r="V132" s="225"/>
+      <c r="W132" s="225"/>
+      <c r="X132" s="225"/>
+      <c r="Y132" s="225"/>
+      <c r="Z132" s="225"/>
+      <c r="AA132" s="225"/>
+      <c r="AB132" s="225"/>
+      <c r="AC132" s="225"/>
+      <c r="AD132" s="225"/>
+      <c r="AE132" s="225"/>
+      <c r="AF132" s="225"/>
+      <c r="AG132" s="228"/>
+      <c r="AH132" s="228"/>
+      <c r="AI132" s="228"/>
+      <c r="AJ132" s="228"/>
+      <c r="AK132" s="228"/>
+      <c r="AL132" s="228"/>
+      <c r="AM132" s="228"/>
+      <c r="AN132" s="228"/>
+      <c r="AO132" s="228"/>
+      <c r="AP132" s="228"/>
+      <c r="AQ132" s="228"/>
     </row>
     <row r="133" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="80"/>
-      <c r="B133" s="80"/>
-      <c r="C133" s="80"/>
-      <c r="D133" s="80"/>
-      <c r="E133" s="80"/>
-      <c r="F133" s="80"/>
-      <c r="G133" s="80"/>
-      <c r="H133" s="80"/>
-      <c r="I133" s="80"/>
-      <c r="J133" s="80"/>
-      <c r="K133" s="80"/>
-      <c r="L133" s="80"/>
-      <c r="M133" s="80"/>
-      <c r="N133" s="80"/>
-      <c r="O133" s="80"/>
-      <c r="P133" s="80"/>
-      <c r="Q133" s="80"/>
-      <c r="R133" s="80"/>
-      <c r="S133" s="80"/>
-      <c r="T133" s="80"/>
-      <c r="U133" s="80"/>
-      <c r="V133" s="80"/>
-      <c r="W133" s="80"/>
-      <c r="X133" s="80"/>
-      <c r="Y133" s="80"/>
-      <c r="Z133" s="80"/>
-      <c r="AA133" s="80"/>
-      <c r="AB133" s="80"/>
-      <c r="AC133" s="80"/>
-      <c r="AD133" s="80"/>
-      <c r="AE133" s="80"/>
-      <c r="AF133" s="80"/>
-      <c r="AG133" s="83"/>
-      <c r="AH133" s="83"/>
-      <c r="AI133" s="83"/>
-      <c r="AJ133" s="83"/>
-      <c r="AK133" s="83"/>
-      <c r="AL133" s="83"/>
-      <c r="AM133" s="83"/>
-      <c r="AN133" s="83"/>
-      <c r="AO133" s="83"/>
-      <c r="AP133" s="83"/>
-      <c r="AQ133" s="83"/>
+      <c r="A133" s="225"/>
+      <c r="B133" s="225"/>
+      <c r="C133" s="225"/>
+      <c r="D133" s="225"/>
+      <c r="E133" s="225"/>
+      <c r="F133" s="225"/>
+      <c r="G133" s="225"/>
+      <c r="H133" s="225"/>
+      <c r="I133" s="225"/>
+      <c r="J133" s="225"/>
+      <c r="K133" s="225"/>
+      <c r="L133" s="225"/>
+      <c r="M133" s="225"/>
+      <c r="N133" s="225"/>
+      <c r="O133" s="225"/>
+      <c r="P133" s="225"/>
+      <c r="Q133" s="225"/>
+      <c r="R133" s="225"/>
+      <c r="S133" s="225"/>
+      <c r="T133" s="225"/>
+      <c r="U133" s="225"/>
+      <c r="V133" s="225"/>
+      <c r="W133" s="225"/>
+      <c r="X133" s="225"/>
+      <c r="Y133" s="225"/>
+      <c r="Z133" s="225"/>
+      <c r="AA133" s="225"/>
+      <c r="AB133" s="225"/>
+      <c r="AC133" s="225"/>
+      <c r="AD133" s="225"/>
+      <c r="AE133" s="225"/>
+      <c r="AF133" s="225"/>
+      <c r="AG133" s="228"/>
+      <c r="AH133" s="228"/>
+      <c r="AI133" s="228"/>
+      <c r="AJ133" s="228"/>
+      <c r="AK133" s="228"/>
+      <c r="AL133" s="228"/>
+      <c r="AM133" s="228"/>
+      <c r="AN133" s="228"/>
+      <c r="AO133" s="228"/>
+      <c r="AP133" s="228"/>
+      <c r="AQ133" s="228"/>
     </row>
     <row r="134" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="80"/>
-      <c r="B134" s="80"/>
-      <c r="C134" s="80"/>
-      <c r="D134" s="80"/>
-      <c r="E134" s="80"/>
-      <c r="F134" s="80"/>
-      <c r="G134" s="80"/>
-      <c r="H134" s="80"/>
-      <c r="I134" s="80"/>
-      <c r="J134" s="80"/>
-      <c r="K134" s="80"/>
-      <c r="L134" s="80"/>
-      <c r="M134" s="80"/>
-      <c r="N134" s="80"/>
-      <c r="O134" s="80"/>
-      <c r="P134" s="80"/>
-      <c r="Q134" s="80"/>
-      <c r="R134" s="80"/>
-      <c r="S134" s="80"/>
-      <c r="T134" s="80"/>
-      <c r="U134" s="80"/>
-      <c r="V134" s="80"/>
-      <c r="W134" s="80"/>
-      <c r="X134" s="80"/>
-      <c r="Y134" s="80"/>
-      <c r="Z134" s="80"/>
-      <c r="AA134" s="80"/>
-      <c r="AB134" s="80"/>
-      <c r="AC134" s="80"/>
-      <c r="AD134" s="80"/>
-      <c r="AE134" s="80"/>
-      <c r="AF134" s="80"/>
-      <c r="AG134" s="83"/>
-      <c r="AH134" s="83"/>
-      <c r="AI134" s="83"/>
-      <c r="AJ134" s="83"/>
-      <c r="AK134" s="83"/>
-      <c r="AL134" s="83"/>
-      <c r="AM134" s="83"/>
-      <c r="AN134" s="83"/>
-      <c r="AO134" s="83"/>
-      <c r="AP134" s="83"/>
-      <c r="AQ134" s="83"/>
+      <c r="A134" s="225"/>
+      <c r="B134" s="225"/>
+      <c r="C134" s="225"/>
+      <c r="D134" s="225"/>
+      <c r="E134" s="225"/>
+      <c r="F134" s="225"/>
+      <c r="G134" s="225"/>
+      <c r="H134" s="225"/>
+      <c r="I134" s="225"/>
+      <c r="J134" s="225"/>
+      <c r="K134" s="225"/>
+      <c r="L134" s="225"/>
+      <c r="M134" s="225"/>
+      <c r="N134" s="225"/>
+      <c r="O134" s="225"/>
+      <c r="P134" s="225"/>
+      <c r="Q134" s="225"/>
+      <c r="R134" s="225"/>
+      <c r="S134" s="225"/>
+      <c r="T134" s="225"/>
+      <c r="U134" s="225"/>
+      <c r="V134" s="225"/>
+      <c r="W134" s="225"/>
+      <c r="X134" s="225"/>
+      <c r="Y134" s="225"/>
+      <c r="Z134" s="225"/>
+      <c r="AA134" s="225"/>
+      <c r="AB134" s="225"/>
+      <c r="AC134" s="225"/>
+      <c r="AD134" s="225"/>
+      <c r="AE134" s="225"/>
+      <c r="AF134" s="225"/>
+      <c r="AG134" s="228"/>
+      <c r="AH134" s="228"/>
+      <c r="AI134" s="228"/>
+      <c r="AJ134" s="228"/>
+      <c r="AK134" s="228"/>
+      <c r="AL134" s="228"/>
+      <c r="AM134" s="228"/>
+      <c r="AN134" s="228"/>
+      <c r="AO134" s="228"/>
+      <c r="AP134" s="228"/>
+      <c r="AQ134" s="228"/>
     </row>
     <row r="135" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="81"/>
-      <c r="B135" s="81"/>
-      <c r="C135" s="81"/>
-      <c r="D135" s="81"/>
-      <c r="E135" s="81"/>
-      <c r="F135" s="81"/>
-      <c r="G135" s="81"/>
-      <c r="H135" s="81"/>
-      <c r="I135" s="81"/>
-      <c r="J135" s="81"/>
-      <c r="K135" s="81"/>
-      <c r="L135" s="81"/>
-      <c r="M135" s="81"/>
-      <c r="N135" s="81"/>
-      <c r="O135" s="81"/>
-      <c r="P135" s="81"/>
-      <c r="Q135" s="81"/>
-      <c r="R135" s="81"/>
-      <c r="S135" s="81"/>
-      <c r="T135" s="81"/>
-      <c r="U135" s="81"/>
-      <c r="V135" s="81"/>
-      <c r="W135" s="81"/>
-      <c r="X135" s="81"/>
-      <c r="Y135" s="81"/>
-      <c r="Z135" s="81"/>
-      <c r="AA135" s="81"/>
-      <c r="AB135" s="81"/>
-      <c r="AC135" s="81"/>
-      <c r="AD135" s="81"/>
-      <c r="AE135" s="81"/>
-      <c r="AF135" s="81"/>
-      <c r="AG135" s="84"/>
-      <c r="AH135" s="84"/>
-      <c r="AI135" s="84"/>
-      <c r="AJ135" s="84"/>
-      <c r="AK135" s="84"/>
-      <c r="AL135" s="84"/>
-      <c r="AM135" s="84"/>
-      <c r="AN135" s="84"/>
-      <c r="AO135" s="84"/>
-      <c r="AP135" s="84"/>
-      <c r="AQ135" s="84"/>
+      <c r="A135" s="226"/>
+      <c r="B135" s="226"/>
+      <c r="C135" s="226"/>
+      <c r="D135" s="226"/>
+      <c r="E135" s="226"/>
+      <c r="F135" s="226"/>
+      <c r="G135" s="226"/>
+      <c r="H135" s="226"/>
+      <c r="I135" s="226"/>
+      <c r="J135" s="226"/>
+      <c r="K135" s="226"/>
+      <c r="L135" s="226"/>
+      <c r="M135" s="226"/>
+      <c r="N135" s="226"/>
+      <c r="O135" s="226"/>
+      <c r="P135" s="226"/>
+      <c r="Q135" s="226"/>
+      <c r="R135" s="226"/>
+      <c r="S135" s="226"/>
+      <c r="T135" s="226"/>
+      <c r="U135" s="226"/>
+      <c r="V135" s="226"/>
+      <c r="W135" s="226"/>
+      <c r="X135" s="226"/>
+      <c r="Y135" s="226"/>
+      <c r="Z135" s="226"/>
+      <c r="AA135" s="226"/>
+      <c r="AB135" s="226"/>
+      <c r="AC135" s="226"/>
+      <c r="AD135" s="226"/>
+      <c r="AE135" s="226"/>
+      <c r="AF135" s="226"/>
+      <c r="AG135" s="229"/>
+      <c r="AH135" s="229"/>
+      <c r="AI135" s="229"/>
+      <c r="AJ135" s="229"/>
+      <c r="AK135" s="229"/>
+      <c r="AL135" s="229"/>
+      <c r="AM135" s="229"/>
+      <c r="AN135" s="229"/>
+      <c r="AO135" s="229"/>
+      <c r="AP135" s="229"/>
+      <c r="AQ135" s="229"/>
     </row>
     <row r="136" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
@@ -9995,6 +9995,393 @@
     <row r="223" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="411">
+    <mergeCell ref="H70:K71"/>
+    <mergeCell ref="A69:Q69"/>
+    <mergeCell ref="L65:M66"/>
+    <mergeCell ref="N59:Q68"/>
+    <mergeCell ref="B65:G66"/>
+    <mergeCell ref="L104:M105"/>
+    <mergeCell ref="N104:Q105"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:G105"/>
+    <mergeCell ref="H104:K105"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="L100:M101"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="N90:Q103"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="L92:M93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="L94:M95"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="L102:M103"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="L96:M97"/>
+    <mergeCell ref="B106:G107"/>
+    <mergeCell ref="H106:K107"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="B108:G109"/>
+    <mergeCell ref="H108:K109"/>
+    <mergeCell ref="B92:G93"/>
+    <mergeCell ref="H92:K93"/>
+    <mergeCell ref="B94:G95"/>
+    <mergeCell ref="H94:K95"/>
+    <mergeCell ref="B96:G97"/>
+    <mergeCell ref="H96:K97"/>
+    <mergeCell ref="B74:G75"/>
+    <mergeCell ref="H74:K75"/>
+    <mergeCell ref="B76:G77"/>
+    <mergeCell ref="H76:K77"/>
+    <mergeCell ref="H80:K81"/>
+    <mergeCell ref="B100:G101"/>
+    <mergeCell ref="H100:K101"/>
+    <mergeCell ref="B102:G103"/>
+    <mergeCell ref="H102:K103"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="A130:AF135"/>
+    <mergeCell ref="AG130:AQ135"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="L126:M127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="L128:M129"/>
+    <mergeCell ref="B126:G127"/>
+    <mergeCell ref="H126:K127"/>
+    <mergeCell ref="B128:G129"/>
+    <mergeCell ref="H128:K129"/>
+    <mergeCell ref="L120:M121"/>
+    <mergeCell ref="B118:G119"/>
+    <mergeCell ref="H118:K119"/>
+    <mergeCell ref="B120:G121"/>
+    <mergeCell ref="H120:K121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="L122:M123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="L124:M125"/>
+    <mergeCell ref="B122:G123"/>
+    <mergeCell ref="H122:K123"/>
+    <mergeCell ref="B124:G125"/>
+    <mergeCell ref="H124:K125"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="L106:M107"/>
+    <mergeCell ref="N106:Q129"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="L108:M109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="L110:M111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="L112:M113"/>
+    <mergeCell ref="B110:G111"/>
+    <mergeCell ref="H110:K111"/>
+    <mergeCell ref="B112:G113"/>
+    <mergeCell ref="H112:K113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="L114:M115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="L116:M117"/>
+    <mergeCell ref="B114:G115"/>
+    <mergeCell ref="H114:K115"/>
+    <mergeCell ref="B116:G117"/>
+    <mergeCell ref="H116:K117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="L118:M119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="L98:M99"/>
+    <mergeCell ref="L88:M89"/>
+    <mergeCell ref="N88:Q89"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:G89"/>
+    <mergeCell ref="H88:K89"/>
+    <mergeCell ref="B98:G99"/>
+    <mergeCell ref="H98:K99"/>
+    <mergeCell ref="AL39:AN39"/>
+    <mergeCell ref="AO39:AQ39"/>
+    <mergeCell ref="E44:G45"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="L84:M85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="L82:M83"/>
+    <mergeCell ref="B80:G81"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="E42:G43"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:G47"/>
+    <mergeCell ref="H46:K47"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="R69:AQ69"/>
+    <mergeCell ref="L61:M62"/>
+    <mergeCell ref="B67:G68"/>
+    <mergeCell ref="H67:K68"/>
+    <mergeCell ref="L70:M71"/>
+    <mergeCell ref="N70:Q71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="N57:Q58"/>
+    <mergeCell ref="L59:M60"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B59:G60"/>
+    <mergeCell ref="H59:K60"/>
+    <mergeCell ref="L57:M58"/>
+    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:G58"/>
+    <mergeCell ref="H57:K58"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="V40:AK45"/>
+    <mergeCell ref="AL40:AQ45"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="E40:G41"/>
+    <mergeCell ref="H52:K53"/>
+    <mergeCell ref="B54:G56"/>
+    <mergeCell ref="H54:K56"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="N72:Q87"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="L74:M75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="L76:M77"/>
+    <mergeCell ref="B82:G83"/>
+    <mergeCell ref="H82:K83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="L78:M79"/>
+    <mergeCell ref="B78:G79"/>
+    <mergeCell ref="H78:K79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="L80:M81"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="L86:M87"/>
+    <mergeCell ref="B84:G85"/>
+    <mergeCell ref="H84:K85"/>
+    <mergeCell ref="B86:G87"/>
+    <mergeCell ref="H86:K87"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:G71"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A26:D33"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E34:G35"/>
+    <mergeCell ref="A34:D37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="AO32:AQ32"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AL33:AN33"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="AL35:AN35"/>
+    <mergeCell ref="AL34:AN34"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="AG32:AI32"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="AL31:AN31"/>
+    <mergeCell ref="AL32:AN32"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="AG35:AI35"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N46:Q47"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="B48:G49"/>
+    <mergeCell ref="H48:K49"/>
+    <mergeCell ref="B50:G51"/>
+    <mergeCell ref="H50:K51"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="R11:AQ11"/>
+    <mergeCell ref="AL25:AN25"/>
+    <mergeCell ref="AO29:AQ29"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="G1:AI3"/>
+    <mergeCell ref="AJ1:AQ3"/>
+    <mergeCell ref="A4:AI6"/>
+    <mergeCell ref="V9:AI10"/>
+    <mergeCell ref="AN4:AQ10"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A7:J8"/>
+    <mergeCell ref="A9:L10"/>
+    <mergeCell ref="M9:U10"/>
+    <mergeCell ref="AJ4:AM10"/>
+    <mergeCell ref="K7:U8"/>
+    <mergeCell ref="V7:AI8"/>
+    <mergeCell ref="AG30:AI30"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AL26:AN26"/>
+    <mergeCell ref="AL27:AN27"/>
+    <mergeCell ref="AL28:AN28"/>
+    <mergeCell ref="AL29:AN29"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="AO30:AQ30"/>
+    <mergeCell ref="AL30:AN30"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AO25:AQ25"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="AO27:AQ27"/>
+    <mergeCell ref="AO28:AQ28"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AG26:AI26"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AG27:AI27"/>
+    <mergeCell ref="AO36:AQ36"/>
+    <mergeCell ref="AL36:AN36"/>
+    <mergeCell ref="AL37:AN37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AJ38:AK38"/>
+    <mergeCell ref="AO37:AQ37"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="N48:Q56"/>
+    <mergeCell ref="L54:M56"/>
+    <mergeCell ref="L67:M68"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A40:D43"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="L46:M47"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="B61:G62"/>
+    <mergeCell ref="H61:K62"/>
+    <mergeCell ref="B63:G64"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:G53"/>
+    <mergeCell ref="H63:K64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="L48:M49"/>
+    <mergeCell ref="H65:K66"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="AG39:AI39"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="AA38:AC39"/>
+    <mergeCell ref="W34:Z39"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="AA34:AC35"/>
+    <mergeCell ref="AA36:AC37"/>
+    <mergeCell ref="AG37:AI37"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="W28:Z33"/>
+    <mergeCell ref="AA28:AC29"/>
+    <mergeCell ref="AA30:AC31"/>
+    <mergeCell ref="AA32:AC33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AG36:AI36"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="AG38:AI38"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="P41:R41"/>
     <mergeCell ref="S40:U40"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="N25:O25"/>
@@ -10019,393 +10406,6 @@
     <mergeCell ref="S25:U25"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="S26:U26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="AG36:AI36"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="AG38:AI38"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="W28:Z33"/>
-    <mergeCell ref="AA28:AC29"/>
-    <mergeCell ref="AA30:AC31"/>
-    <mergeCell ref="AA32:AC33"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="H63:K64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="L48:M49"/>
-    <mergeCell ref="H65:K66"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="AG39:AI39"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="AA38:AC39"/>
-    <mergeCell ref="W34:Z39"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="AA34:AC35"/>
-    <mergeCell ref="AA36:AC37"/>
-    <mergeCell ref="AG37:AI37"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="N48:Q56"/>
-    <mergeCell ref="L54:M56"/>
-    <mergeCell ref="L67:M68"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A40:D43"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="L46:M47"/>
-    <mergeCell ref="L63:M64"/>
-    <mergeCell ref="B61:G62"/>
-    <mergeCell ref="H61:K62"/>
-    <mergeCell ref="B63:G64"/>
-    <mergeCell ref="AO30:AQ30"/>
-    <mergeCell ref="AL30:AN30"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AO25:AQ25"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="AO27:AQ27"/>
-    <mergeCell ref="AO28:AQ28"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="AG26:AI26"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="AG27:AI27"/>
-    <mergeCell ref="AO36:AQ36"/>
-    <mergeCell ref="AL36:AN36"/>
-    <mergeCell ref="AL37:AN37"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AJ38:AK38"/>
-    <mergeCell ref="AO37:AQ37"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="AG29:AI29"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AG30:AI30"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AL26:AN26"/>
-    <mergeCell ref="AL27:AN27"/>
-    <mergeCell ref="AL28:AN28"/>
-    <mergeCell ref="AL29:AN29"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:G53"/>
-    <mergeCell ref="G1:AI3"/>
-    <mergeCell ref="AJ1:AQ3"/>
-    <mergeCell ref="A4:AI6"/>
-    <mergeCell ref="V9:AI10"/>
-    <mergeCell ref="AN4:AQ10"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A7:J8"/>
-    <mergeCell ref="A9:L10"/>
-    <mergeCell ref="M9:U10"/>
-    <mergeCell ref="AJ4:AM10"/>
-    <mergeCell ref="K7:U8"/>
-    <mergeCell ref="V7:AI8"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="R11:AQ11"/>
-    <mergeCell ref="AL25:AN25"/>
-    <mergeCell ref="AO29:AQ29"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N46:Q47"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="B48:G49"/>
-    <mergeCell ref="H48:K49"/>
-    <mergeCell ref="B50:G51"/>
-    <mergeCell ref="H50:K51"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="AO32:AQ32"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AL33:AN33"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="AL35:AN35"/>
-    <mergeCell ref="AL34:AN34"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="AG32:AI32"/>
-    <mergeCell ref="AJ33:AK33"/>
-    <mergeCell ref="AL31:AN31"/>
-    <mergeCell ref="AL32:AN32"/>
-    <mergeCell ref="AJ35:AK35"/>
-    <mergeCell ref="AG35:AI35"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:G71"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A26:D33"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E34:G35"/>
-    <mergeCell ref="A34:D37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="N72:Q87"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="L74:M75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="L76:M77"/>
-    <mergeCell ref="B82:G83"/>
-    <mergeCell ref="H82:K83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="L78:M79"/>
-    <mergeCell ref="B78:G79"/>
-    <mergeCell ref="H78:K79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="L80:M81"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="L86:M87"/>
-    <mergeCell ref="B84:G85"/>
-    <mergeCell ref="H84:K85"/>
-    <mergeCell ref="B86:G87"/>
-    <mergeCell ref="H86:K87"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="N57:Q58"/>
-    <mergeCell ref="L59:M60"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B59:G60"/>
-    <mergeCell ref="H59:K60"/>
-    <mergeCell ref="L57:M58"/>
-    <mergeCell ref="L50:M51"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:G58"/>
-    <mergeCell ref="H57:K58"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="V40:AK45"/>
-    <mergeCell ref="AL40:AQ45"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="E40:G41"/>
-    <mergeCell ref="H52:K53"/>
-    <mergeCell ref="B54:G56"/>
-    <mergeCell ref="H54:K56"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="AL39:AN39"/>
-    <mergeCell ref="AO39:AQ39"/>
-    <mergeCell ref="E44:G45"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="L84:M85"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="L82:M83"/>
-    <mergeCell ref="B80:G81"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="E42:G43"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:G47"/>
-    <mergeCell ref="H46:K47"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="R69:AQ69"/>
-    <mergeCell ref="L61:M62"/>
-    <mergeCell ref="B67:G68"/>
-    <mergeCell ref="H67:K68"/>
-    <mergeCell ref="L70:M71"/>
-    <mergeCell ref="N70:Q71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="L98:M99"/>
-    <mergeCell ref="L88:M89"/>
-    <mergeCell ref="N88:Q89"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:G89"/>
-    <mergeCell ref="H88:K89"/>
-    <mergeCell ref="B98:G99"/>
-    <mergeCell ref="H98:K99"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="L106:M107"/>
-    <mergeCell ref="N106:Q129"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="L108:M109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="L110:M111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="L112:M113"/>
-    <mergeCell ref="B110:G111"/>
-    <mergeCell ref="H110:K111"/>
-    <mergeCell ref="B112:G113"/>
-    <mergeCell ref="H112:K113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="L114:M115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="L116:M117"/>
-    <mergeCell ref="B114:G115"/>
-    <mergeCell ref="H114:K115"/>
-    <mergeCell ref="B116:G117"/>
-    <mergeCell ref="H116:K117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="L118:M119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="L120:M121"/>
-    <mergeCell ref="B118:G119"/>
-    <mergeCell ref="H118:K119"/>
-    <mergeCell ref="B120:G121"/>
-    <mergeCell ref="H120:K121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="L122:M123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="L124:M125"/>
-    <mergeCell ref="B122:G123"/>
-    <mergeCell ref="H122:K123"/>
-    <mergeCell ref="B124:G125"/>
-    <mergeCell ref="H124:K125"/>
-    <mergeCell ref="A130:AF135"/>
-    <mergeCell ref="AG130:AQ135"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="L126:M127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="L128:M129"/>
-    <mergeCell ref="B126:G127"/>
-    <mergeCell ref="H126:K127"/>
-    <mergeCell ref="B128:G129"/>
-    <mergeCell ref="H128:K129"/>
-    <mergeCell ref="B106:G107"/>
-    <mergeCell ref="H106:K107"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="B108:G109"/>
-    <mergeCell ref="H108:K109"/>
-    <mergeCell ref="B92:G93"/>
-    <mergeCell ref="H92:K93"/>
-    <mergeCell ref="B94:G95"/>
-    <mergeCell ref="H94:K95"/>
-    <mergeCell ref="B96:G97"/>
-    <mergeCell ref="H96:K97"/>
-    <mergeCell ref="B74:G75"/>
-    <mergeCell ref="H74:K75"/>
-    <mergeCell ref="B76:G77"/>
-    <mergeCell ref="H76:K77"/>
-    <mergeCell ref="H80:K81"/>
-    <mergeCell ref="B100:G101"/>
-    <mergeCell ref="H100:K101"/>
-    <mergeCell ref="B102:G103"/>
-    <mergeCell ref="H102:K103"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="H70:K71"/>
-    <mergeCell ref="A69:Q69"/>
-    <mergeCell ref="L65:M66"/>
-    <mergeCell ref="N59:Q68"/>
-    <mergeCell ref="B65:G66"/>
-    <mergeCell ref="L104:M105"/>
-    <mergeCell ref="N104:Q105"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:G105"/>
-    <mergeCell ref="H104:K105"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="L100:M101"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="N90:Q103"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="L92:M93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="L94:M95"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="L102:M103"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="L96:M97"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10421,7 +10421,7 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/export/files/excel/J59C_SD.xlsx
+++ b/export/files/excel/J59C_SD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\QC_Han\export\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A00C5D2-9005-47BE-9E1F-6182119D12CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A7E447-6C49-4A7C-BAF2-06C39F30C7EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MẶT TRƯỚC" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="165">
   <si>
     <t>LH</t>
   </si>
@@ -1819,7 +1819,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1841,6 +1841,75 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1850,83 +1919,86 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1937,23 +2009,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1961,55 +2024,385 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,6 +2423,30 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2039,325 +2456,22 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2378,145 +2492,76 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2777,6 +2822,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>72887</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>114826</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>46382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106BC7DC-6CBB-48A0-9340-0A5F80B91B74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2955235" y="16737495"/>
+          <a:ext cx="3845313" cy="3134139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3150,581 +3256,581 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BF23" sqref="BF23"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AH88" sqref="AH88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.7109375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="2.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="0.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="2.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="2.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="1" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" style="1" customWidth="1"/>
-    <col min="16" max="21" width="1.5703125" style="1" customWidth="1"/>
-    <col min="22" max="23" width="2.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="1.140625" style="1" customWidth="1"/>
-    <col min="25" max="33" width="2.28515625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="1.7109375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="4.140625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="3.85546875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="2.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" style="1" customWidth="1"/>
+    <col min="16" max="21" width="1.5546875" style="1" customWidth="1"/>
+    <col min="22" max="23" width="2.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="1.109375" style="1" customWidth="1"/>
+    <col min="25" max="33" width="2.33203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="1.6640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="4.109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="3.88671875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="2.33203125" style="1" customWidth="1"/>
     <col min="38" max="41" width="2" style="1" customWidth="1"/>
-    <col min="42" max="42" width="2.5703125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="2.5546875" style="1" customWidth="1"/>
     <col min="43" max="43" width="2" style="1" customWidth="1"/>
-    <col min="44" max="50" width="2.28515625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="3.85546875" style="1" customWidth="1"/>
-    <col min="52" max="82" width="2.28515625" style="1" customWidth="1"/>
-    <col min="83" max="16384" width="9.140625" style="1"/>
+    <col min="44" max="50" width="2.33203125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="3.88671875" style="1" customWidth="1"/>
+    <col min="52" max="82" width="2.33203125" style="1" customWidth="1"/>
+    <col min="83" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="97" t="s">
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="100" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="94"/>
+      <c r="AM1" s="94"/>
+      <c r="AN1" s="94"/>
+      <c r="AO1" s="94"/>
+      <c r="AP1" s="94"/>
+      <c r="AQ1" s="94"/>
     </row>
     <row r="2" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="102"/>
-      <c r="AP2" s="102"/>
-      <c r="AQ2" s="102"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="95"/>
     </row>
     <row r="3" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="103"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="96"/>
     </row>
     <row r="4" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="120" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="120"/>
-      <c r="AL4" s="120"/>
-      <c r="AM4" s="120"/>
-      <c r="AN4" s="111" t="s">
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="AO4" s="111"/>
-      <c r="AP4" s="111"/>
-      <c r="AQ4" s="111"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
     </row>
     <row r="5" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="120"/>
-      <c r="AK5" s="120"/>
-      <c r="AL5" s="120"/>
-      <c r="AM5" s="120"/>
-      <c r="AN5" s="111"/>
-      <c r="AO5" s="111"/>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="111"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="102"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
     </row>
     <row r="6" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="120"/>
-      <c r="AL6" s="120"/>
-      <c r="AM6" s="120"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111"/>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="101"/>
+      <c r="AG6" s="101"/>
+      <c r="AH6" s="101"/>
+      <c r="AI6" s="102"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="122"/>
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
     </row>
     <row r="7" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="110" t="s">
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="110"/>
-      <c r="AF7" s="110"/>
-      <c r="AG7" s="110"/>
-      <c r="AH7" s="110"/>
-      <c r="AI7" s="110"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="120"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="120"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="111"/>
-      <c r="AP7" s="111"/>
-      <c r="AQ7" s="111"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="122"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="104"/>
+      <c r="AP7" s="104"/>
+      <c r="AQ7" s="104"/>
     </row>
     <row r="8" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="110"/>
-      <c r="AG8" s="110"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="110"/>
-      <c r="AJ8" s="120"/>
-      <c r="AK8" s="120"/>
-      <c r="AL8" s="120"/>
-      <c r="AM8" s="120"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
     </row>
     <row r="9" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="115" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="110" t="s">
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="110"/>
-      <c r="AJ9" s="120"/>
-      <c r="AK9" s="120"/>
-      <c r="AL9" s="120"/>
-      <c r="AM9" s="120"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="122"/>
+      <c r="AL9" s="122"/>
+      <c r="AM9" s="122"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="104"/>
     </row>
     <row r="10" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="110"/>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="110"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="110"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="110"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="120"/>
-      <c r="AL10" s="120"/>
-      <c r="AM10" s="120"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="111"/>
-      <c r="AP10" s="111"/>
-      <c r="AQ10" s="111"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="104"/>
+      <c r="AP10" s="104"/>
+      <c r="AQ10" s="104"/>
     </row>
     <row r="11" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="124" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="125"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="125"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="125"/>
-      <c r="AE11" s="125"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="125"/>
-      <c r="AJ11" s="125"/>
-      <c r="AK11" s="125"/>
-      <c r="AL11" s="125"/>
-      <c r="AM11" s="125"/>
-      <c r="AN11" s="125"/>
-      <c r="AO11" s="125"/>
-      <c r="AP11" s="125"/>
-      <c r="AQ11" s="126"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="127"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="127"/>
+      <c r="AI11" s="127"/>
+      <c r="AJ11" s="127"/>
+      <c r="AK11" s="127"/>
+      <c r="AL11" s="127"/>
+      <c r="AM11" s="127"/>
+      <c r="AN11" s="127"/>
+      <c r="AO11" s="127"/>
+      <c r="AP11" s="127"/>
+      <c r="AQ11" s="128"/>
     </row>
     <row r="12" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="151"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="144"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -4296,1267 +4402,1267 @@
       <c r="AQ24" s="7"/>
     </row>
     <row r="25" spans="1:49" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="158" t="s">
+      <c r="A25" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="159"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="34" t="s">
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34" t="s">
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="20" t="s">
+      <c r="I25" s="31"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="22" t="s">
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="O25" s="23"/>
-      <c r="P25" s="41" t="s">
+      <c r="O25" s="20"/>
+      <c r="P25" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="41" t="s">
+      <c r="Q25" s="18"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="T25" s="21"/>
-      <c r="U25" s="42"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="39"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="41" t="s">
+      <c r="W25" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="34" t="s">
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34" t="s">
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="20" t="s">
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="22" t="s">
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="41" t="s">
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="41" t="s">
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AP25" s="21"/>
-      <c r="AQ25" s="42"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="39"/>
     </row>
     <row r="26" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="152" t="s">
+      <c r="A26" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="165" t="s">
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="166"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="136" t="s">
+      <c r="F26" s="159"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="24" t="s">
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="25" t="s">
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="19"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="42"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="28" t="s">
+      <c r="W26" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="35" t="s">
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="27" t="s">
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="45" t="s">
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="AH26" s="43"/>
+      <c r="AH26" s="45"/>
       <c r="AI26" s="44"/>
-      <c r="AJ26" s="43" t="s">
+      <c r="AJ26" s="45" t="s">
         <v>131</v>
       </c>
       <c r="AK26" s="44"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="19"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="18"/>
-      <c r="AQ26" s="19"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="42"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="41"/>
+      <c r="AQ26" s="42"/>
     </row>
     <row r="27" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="155"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="165" t="s">
+      <c r="A27" s="148"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="24" t="s">
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="25" t="s">
+      <c r="L27" s="22"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="19"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="42"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="27" t="s">
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="45" t="s">
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="AH27" s="43"/>
+      <c r="AH27" s="45"/>
       <c r="AI27" s="44"/>
-      <c r="AJ27" s="43" t="s">
+      <c r="AJ27" s="45" t="s">
         <v>133</v>
       </c>
       <c r="AK27" s="44"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="19"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="19"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="42"/>
     </row>
     <row r="28" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="155"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="165" t="s">
+      <c r="A28" s="148"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="136" t="s">
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="24" t="s">
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="L28" s="25"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="25" t="s">
+      <c r="L28" s="22"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="19"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="42"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="28" t="s">
+      <c r="W28" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="35" t="s">
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="27" t="s">
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="24" t="s">
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="25" t="s">
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="18"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="18"/>
-      <c r="AQ28" s="19"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="41"/>
+      <c r="AQ28" s="42"/>
     </row>
     <row r="29" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="155"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165" t="s">
+      <c r="A29" s="148"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="24" t="s">
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="25" t="s">
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="19"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="42"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="27" t="s">
+      <c r="W29" s="70"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="24" t="s">
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="25" t="s">
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="AK29" s="26"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="19"/>
-      <c r="AO29" s="17"/>
-      <c r="AP29" s="18"/>
-      <c r="AQ29" s="19"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="40"/>
+      <c r="AP29" s="41"/>
+      <c r="AQ29" s="42"/>
     </row>
     <row r="30" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="155"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="165" t="s">
+      <c r="A30" s="148"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="27" t="s">
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="24" t="s">
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="25" t="s">
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="19"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="42"/>
       <c r="V30" s="14"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="35" t="s">
+      <c r="W30" s="70"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="27" t="s">
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="24" t="s">
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="25" t="s">
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="19"/>
-      <c r="AO30" s="17"/>
-      <c r="AP30" s="18"/>
-      <c r="AQ30" s="19"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="40"/>
+      <c r="AM30" s="41"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="40"/>
+      <c r="AP30" s="41"/>
+      <c r="AQ30" s="42"/>
     </row>
     <row r="31" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="155"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="137" t="s">
+      <c r="A31" s="148"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="138"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="24" t="s">
+      <c r="I31" s="132"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="25" t="s">
+      <c r="L31" s="22"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="19"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="42"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="27" t="s">
+      <c r="W31" s="70"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="24" t="s">
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="25" t="s">
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="18"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="17"/>
-      <c r="AP31" s="18"/>
-      <c r="AQ31" s="19"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="40"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="42"/>
     </row>
     <row r="32" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="155"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="165" t="s">
+      <c r="A32" s="148"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="27" t="s">
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="45" t="s">
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="L32" s="43"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="44"/>
-      <c r="N32" s="43" t="s">
+      <c r="N32" s="45" t="s">
         <v>111</v>
       </c>
       <c r="O32" s="44"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="19"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="42"/>
       <c r="V32" s="14"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="35" t="s">
+      <c r="W32" s="70"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="27" t="s">
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="24" t="s">
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="25" t="s">
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="18"/>
-      <c r="AN32" s="19"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="18"/>
-      <c r="AQ32" s="19"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="41"/>
+      <c r="AN32" s="42"/>
+      <c r="AO32" s="40"/>
+      <c r="AP32" s="41"/>
+      <c r="AQ32" s="42"/>
     </row>
     <row r="33" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="155"/>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="137" t="s">
+      <c r="A33" s="148"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="I33" s="138"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="24" t="s">
+      <c r="I33" s="132"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="25" t="s">
+      <c r="L33" s="22"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="19"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="42"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="27" t="s">
+      <c r="W33" s="28"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="24" t="s">
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="25" t="s">
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="18"/>
-      <c r="AN33" s="19"/>
-      <c r="AO33" s="17"/>
-      <c r="AP33" s="18"/>
-      <c r="AQ33" s="19"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="41"/>
+      <c r="AQ33" s="42"/>
     </row>
     <row r="34" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="152" t="s">
+      <c r="A34" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="160" t="s">
+      <c r="B34" s="146"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="140" t="s">
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="140"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="63" t="s">
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="61" t="s">
+      <c r="L34" s="73"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="O34" s="62"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="19"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="42"/>
       <c r="V34" s="14"/>
-      <c r="W34" s="46" t="s">
+      <c r="W34" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="35" t="s">
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="27" t="s">
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="24" t="s">
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="25" t="s">
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="17"/>
-      <c r="AP34" s="18"/>
-      <c r="AQ34" s="19"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="40"/>
+      <c r="AM34" s="41"/>
+      <c r="AN34" s="42"/>
+      <c r="AO34" s="40"/>
+      <c r="AP34" s="41"/>
+      <c r="AQ34" s="42"/>
     </row>
     <row r="35" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="155"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="140" t="s">
+      <c r="A35" s="148"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="135" t="s">
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="L35" s="130"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="130" t="s">
+      <c r="L35" s="54"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="O35" s="131"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="19"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="42"/>
       <c r="V35" s="14"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="27" t="s">
+      <c r="W35" s="70"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="24" t="s">
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="25" t="s">
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="18"/>
-      <c r="AN35" s="19"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="18"/>
-      <c r="AQ35" s="19"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="40"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="42"/>
+      <c r="AO35" s="40"/>
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="42"/>
       <c r="AY35" s="16"/>
     </row>
     <row r="36" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="155"/>
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="160" t="s">
+      <c r="A36" s="148"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="140" t="s">
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="140"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="63" t="s">
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="L36" s="61"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="61" t="s">
+      <c r="L36" s="73"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="O36" s="62"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="19"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="42"/>
       <c r="V36" s="14"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="35" t="s">
+      <c r="W36" s="70"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="27" t="s">
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="24" t="s">
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="25" t="s">
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="18"/>
-      <c r="AN36" s="19"/>
-      <c r="AO36" s="17"/>
-      <c r="AP36" s="18"/>
-      <c r="AQ36" s="19"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="40"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="42"/>
+      <c r="AO36" s="40"/>
+      <c r="AP36" s="41"/>
+      <c r="AQ36" s="42"/>
     </row>
     <row r="37" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="162"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="140" t="s">
+      <c r="A37" s="155"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="135" t="s">
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="L37" s="130"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="130" t="s">
+      <c r="L37" s="54"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="O37" s="131"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="19"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="42"/>
       <c r="V37" s="14"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="40"/>
-      <c r="AD37" s="27" t="s">
+      <c r="W37" s="70"/>
+      <c r="X37" s="71"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="24" t="s">
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="25" t="s">
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="18"/>
-      <c r="AN37" s="19"/>
-      <c r="AO37" s="17"/>
-      <c r="AP37" s="18"/>
-      <c r="AQ37" s="19"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="40"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="42"/>
+      <c r="AO37" s="40"/>
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="42"/>
     </row>
     <row r="38" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="202" t="s">
+      <c r="A38" s="199" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="203"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="127">
+      <c r="B38" s="200"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="46">
         <v>17</v>
       </c>
-      <c r="F38" s="128"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="128" t="s">
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="128"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="132" t="s">
+      <c r="I38" s="47"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="L38" s="133"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="130" t="s">
+      <c r="L38" s="67"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="O38" s="131"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="19"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="42"/>
       <c r="V38" s="14"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="35" t="s">
+      <c r="W38" s="70"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="27" t="s">
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="24" t="s">
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="95" t="s">
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="AK38" s="96"/>
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="18"/>
-      <c r="AN38" s="19"/>
-      <c r="AO38" s="17"/>
-      <c r="AP38" s="18"/>
-      <c r="AQ38" s="19"/>
+      <c r="AK38" s="89"/>
+      <c r="AL38" s="40"/>
+      <c r="AM38" s="41"/>
+      <c r="AN38" s="42"/>
+      <c r="AO38" s="40"/>
+      <c r="AP38" s="41"/>
+      <c r="AQ38" s="42"/>
     </row>
     <row r="39" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="205"/>
-      <c r="B39" s="206"/>
-      <c r="C39" s="206"/>
-      <c r="D39" s="207"/>
-      <c r="E39" s="127">
+      <c r="A39" s="202"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="204"/>
+      <c r="E39" s="46">
         <v>18</v>
       </c>
-      <c r="F39" s="128"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="128" t="s">
+      <c r="F39" s="47"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="128"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="135" t="s">
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="130"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="130" t="s">
+      <c r="L39" s="54"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="O39" s="131"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="19"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="42"/>
       <c r="V39" s="14"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="27" t="s">
+      <c r="W39" s="28"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="24" t="s">
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="25" t="s">
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="17"/>
-      <c r="AM39" s="18"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="17"/>
-      <c r="AP39" s="18"/>
-      <c r="AQ39" s="19"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="40"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="42"/>
+      <c r="AO39" s="40"/>
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="42"/>
     </row>
     <row r="40" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="196" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="165"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="27" t="s">
+      <c r="F40" s="158"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="58" t="s">
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="L40" s="59"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="43" t="s">
+      <c r="L40" s="52"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="45" t="s">
         <v>126</v>
       </c>
       <c r="O40" s="44"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="186" t="s">
+      <c r="P40" s="40"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="W40" s="187"/>
-      <c r="X40" s="187"/>
-      <c r="Y40" s="187"/>
-      <c r="Z40" s="187"/>
-      <c r="AA40" s="187"/>
-      <c r="AB40" s="187"/>
-      <c r="AC40" s="187"/>
-      <c r="AD40" s="187"/>
-      <c r="AE40" s="187"/>
-      <c r="AF40" s="187"/>
-      <c r="AG40" s="187"/>
-      <c r="AH40" s="187"/>
-      <c r="AI40" s="187"/>
-      <c r="AJ40" s="187"/>
-      <c r="AK40" s="187"/>
-      <c r="AL40" s="190" t="s">
+      <c r="W40" s="195"/>
+      <c r="X40" s="195"/>
+      <c r="Y40" s="195"/>
+      <c r="Z40" s="195"/>
+      <c r="AA40" s="195"/>
+      <c r="AB40" s="195"/>
+      <c r="AC40" s="195"/>
+      <c r="AD40" s="195"/>
+      <c r="AE40" s="195"/>
+      <c r="AF40" s="195"/>
+      <c r="AG40" s="195"/>
+      <c r="AH40" s="195"/>
+      <c r="AI40" s="195"/>
+      <c r="AJ40" s="195"/>
+      <c r="AK40" s="195"/>
+      <c r="AL40" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="AM40" s="191"/>
-      <c r="AN40" s="191"/>
-      <c r="AO40" s="191"/>
-      <c r="AP40" s="191"/>
-      <c r="AQ40" s="192"/>
+      <c r="AM40" s="229"/>
+      <c r="AN40" s="229"/>
+      <c r="AO40" s="229"/>
+      <c r="AP40" s="229"/>
+      <c r="AQ40" s="230"/>
     </row>
     <row r="41" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="27" t="s">
+      <c r="A41" s="70"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="58" t="s">
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L41" s="59"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="43" t="s">
+      <c r="L41" s="52"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="45" t="s">
         <v>127</v>
       </c>
       <c r="O41" s="44"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="188"/>
-      <c r="W41" s="189"/>
-      <c r="X41" s="189"/>
-      <c r="Y41" s="189"/>
-      <c r="Z41" s="189"/>
-      <c r="AA41" s="189"/>
-      <c r="AB41" s="189"/>
-      <c r="AC41" s="189"/>
-      <c r="AD41" s="189"/>
-      <c r="AE41" s="189"/>
-      <c r="AF41" s="189"/>
-      <c r="AG41" s="189"/>
-      <c r="AH41" s="189"/>
-      <c r="AI41" s="189"/>
-      <c r="AJ41" s="189"/>
-      <c r="AK41" s="189"/>
-      <c r="AL41" s="193"/>
-      <c r="AM41" s="194"/>
-      <c r="AN41" s="194"/>
-      <c r="AO41" s="194"/>
-      <c r="AP41" s="194"/>
-      <c r="AQ41" s="195"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="196"/>
+      <c r="W41" s="197"/>
+      <c r="X41" s="197"/>
+      <c r="Y41" s="197"/>
+      <c r="Z41" s="197"/>
+      <c r="AA41" s="197"/>
+      <c r="AB41" s="197"/>
+      <c r="AC41" s="197"/>
+      <c r="AD41" s="197"/>
+      <c r="AE41" s="197"/>
+      <c r="AF41" s="197"/>
+      <c r="AG41" s="197"/>
+      <c r="AH41" s="197"/>
+      <c r="AI41" s="197"/>
+      <c r="AJ41" s="197"/>
+      <c r="AK41" s="197"/>
+      <c r="AL41" s="231"/>
+      <c r="AM41" s="232"/>
+      <c r="AN41" s="232"/>
+      <c r="AO41" s="232"/>
+      <c r="AP41" s="232"/>
+      <c r="AQ41" s="233"/>
     </row>
     <row r="42" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="213" t="s">
+      <c r="A42" s="70"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="216" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="166"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="27" t="s">
+      <c r="F42" s="159"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="58" t="s">
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="L42" s="59"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="43" t="s">
+      <c r="L42" s="52"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="45" t="s">
         <v>128</v>
       </c>
       <c r="O42" s="44"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="188"/>
-      <c r="W42" s="189"/>
-      <c r="X42" s="189"/>
-      <c r="Y42" s="189"/>
-      <c r="Z42" s="189"/>
-      <c r="AA42" s="189"/>
-      <c r="AB42" s="189"/>
-      <c r="AC42" s="189"/>
-      <c r="AD42" s="189"/>
-      <c r="AE42" s="189"/>
-      <c r="AF42" s="189"/>
-      <c r="AG42" s="189"/>
-      <c r="AH42" s="189"/>
-      <c r="AI42" s="189"/>
-      <c r="AJ42" s="189"/>
-      <c r="AK42" s="189"/>
-      <c r="AL42" s="193"/>
-      <c r="AM42" s="194"/>
-      <c r="AN42" s="194"/>
-      <c r="AO42" s="194"/>
-      <c r="AP42" s="194"/>
-      <c r="AQ42" s="195"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="196"/>
+      <c r="W42" s="197"/>
+      <c r="X42" s="197"/>
+      <c r="Y42" s="197"/>
+      <c r="Z42" s="197"/>
+      <c r="AA42" s="197"/>
+      <c r="AB42" s="197"/>
+      <c r="AC42" s="197"/>
+      <c r="AD42" s="197"/>
+      <c r="AE42" s="197"/>
+      <c r="AF42" s="197"/>
+      <c r="AG42" s="197"/>
+      <c r="AH42" s="197"/>
+      <c r="AI42" s="197"/>
+      <c r="AJ42" s="197"/>
+      <c r="AK42" s="197"/>
+      <c r="AL42" s="231"/>
+      <c r="AM42" s="232"/>
+      <c r="AN42" s="232"/>
+      <c r="AO42" s="232"/>
+      <c r="AP42" s="232"/>
+      <c r="AQ42" s="233"/>
     </row>
     <row r="43" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="27" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="58" t="s">
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="45" t="s">
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="43" t="s">
         <v>163</v>
       </c>
       <c r="O43" s="44"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="188"/>
-      <c r="W43" s="189"/>
-      <c r="X43" s="189"/>
-      <c r="Y43" s="189"/>
-      <c r="Z43" s="189"/>
-      <c r="AA43" s="189"/>
-      <c r="AB43" s="189"/>
-      <c r="AC43" s="189"/>
-      <c r="AD43" s="189"/>
-      <c r="AE43" s="189"/>
-      <c r="AF43" s="189"/>
-      <c r="AG43" s="189"/>
-      <c r="AH43" s="189"/>
-      <c r="AI43" s="189"/>
-      <c r="AJ43" s="189"/>
-      <c r="AK43" s="189"/>
-      <c r="AL43" s="193"/>
-      <c r="AM43" s="194"/>
-      <c r="AN43" s="194"/>
-      <c r="AO43" s="194"/>
-      <c r="AP43" s="194"/>
-      <c r="AQ43" s="195"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="196"/>
+      <c r="W43" s="197"/>
+      <c r="X43" s="197"/>
+      <c r="Y43" s="197"/>
+      <c r="Z43" s="197"/>
+      <c r="AA43" s="197"/>
+      <c r="AB43" s="197"/>
+      <c r="AC43" s="197"/>
+      <c r="AD43" s="197"/>
+      <c r="AE43" s="197"/>
+      <c r="AF43" s="197"/>
+      <c r="AG43" s="197"/>
+      <c r="AH43" s="197"/>
+      <c r="AI43" s="197"/>
+      <c r="AJ43" s="197"/>
+      <c r="AK43" s="197"/>
+      <c r="AL43" s="231"/>
+      <c r="AM43" s="232"/>
+      <c r="AN43" s="232"/>
+      <c r="AO43" s="232"/>
+      <c r="AP43" s="232"/>
+      <c r="AQ43" s="233"/>
     </row>
     <row r="44" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="35" t="s">
+      <c r="B44" s="206"/>
+      <c r="C44" s="206"/>
+      <c r="D44" s="207"/>
+      <c r="E44" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="208"/>
-      <c r="G44" s="209"/>
-      <c r="H44" s="27" t="s">
+      <c r="F44" s="211"/>
+      <c r="G44" s="212"/>
+      <c r="H44" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="58" t="s">
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="45" t="s">
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="43" t="s">
         <v>129</v>
       </c>
       <c r="O44" s="44"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="188"/>
-      <c r="W44" s="189"/>
-      <c r="X44" s="189"/>
-      <c r="Y44" s="189"/>
-      <c r="Z44" s="189"/>
-      <c r="AA44" s="189"/>
-      <c r="AB44" s="189"/>
-      <c r="AC44" s="189"/>
-      <c r="AD44" s="189"/>
-      <c r="AE44" s="189"/>
-      <c r="AF44" s="189"/>
-      <c r="AG44" s="189"/>
-      <c r="AH44" s="189"/>
-      <c r="AI44" s="189"/>
-      <c r="AJ44" s="189"/>
-      <c r="AK44" s="189"/>
-      <c r="AL44" s="193"/>
-      <c r="AM44" s="194"/>
-      <c r="AN44" s="194"/>
-      <c r="AO44" s="194"/>
-      <c r="AP44" s="194"/>
-      <c r="AQ44" s="195"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="196"/>
+      <c r="W44" s="197"/>
+      <c r="X44" s="197"/>
+      <c r="Y44" s="197"/>
+      <c r="Z44" s="197"/>
+      <c r="AA44" s="197"/>
+      <c r="AB44" s="197"/>
+      <c r="AC44" s="197"/>
+      <c r="AD44" s="197"/>
+      <c r="AE44" s="197"/>
+      <c r="AF44" s="197"/>
+      <c r="AG44" s="197"/>
+      <c r="AH44" s="197"/>
+      <c r="AI44" s="197"/>
+      <c r="AJ44" s="197"/>
+      <c r="AK44" s="197"/>
+      <c r="AL44" s="231"/>
+      <c r="AM44" s="232"/>
+      <c r="AN44" s="232"/>
+      <c r="AO44" s="232"/>
+      <c r="AP44" s="232"/>
+      <c r="AQ44" s="233"/>
     </row>
     <row r="45" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="77"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="211"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="27" t="s">
+      <c r="A45" s="208"/>
+      <c r="B45" s="209"/>
+      <c r="C45" s="209"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="214"/>
+      <c r="G45" s="215"/>
+      <c r="H45" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="45" t="s">
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="L45" s="43"/>
+      <c r="L45" s="45"/>
       <c r="M45" s="44"/>
-      <c r="N45" s="43" t="s">
+      <c r="N45" s="45" t="s">
         <v>130</v>
       </c>
       <c r="O45" s="44"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="188"/>
-      <c r="W45" s="189"/>
-      <c r="X45" s="189"/>
-      <c r="Y45" s="189"/>
-      <c r="Z45" s="189"/>
-      <c r="AA45" s="189"/>
-      <c r="AB45" s="189"/>
-      <c r="AC45" s="189"/>
-      <c r="AD45" s="189"/>
-      <c r="AE45" s="189"/>
-      <c r="AF45" s="189"/>
-      <c r="AG45" s="189"/>
-      <c r="AH45" s="189"/>
-      <c r="AI45" s="189"/>
-      <c r="AJ45" s="189"/>
-      <c r="AK45" s="189"/>
-      <c r="AL45" s="193"/>
-      <c r="AM45" s="194"/>
-      <c r="AN45" s="194"/>
-      <c r="AO45" s="194"/>
-      <c r="AP45" s="194"/>
-      <c r="AQ45" s="195"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="196"/>
+      <c r="W45" s="197"/>
+      <c r="X45" s="197"/>
+      <c r="Y45" s="197"/>
+      <c r="Z45" s="197"/>
+      <c r="AA45" s="197"/>
+      <c r="AB45" s="197"/>
+      <c r="AC45" s="197"/>
+      <c r="AD45" s="197"/>
+      <c r="AE45" s="197"/>
+      <c r="AF45" s="197"/>
+      <c r="AG45" s="197"/>
+      <c r="AH45" s="197"/>
+      <c r="AI45" s="197"/>
+      <c r="AJ45" s="197"/>
+      <c r="AK45" s="197"/>
+      <c r="AL45" s="234"/>
+      <c r="AM45" s="235"/>
+      <c r="AN45" s="235"/>
+      <c r="AO45" s="235"/>
+      <c r="AP45" s="235"/>
+      <c r="AQ45" s="236"/>
     </row>
     <row r="46" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="214" t="s">
+      <c r="A46" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="143" t="s">
+      <c r="B46" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="184" t="s">
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="145"/>
-      <c r="L46" s="87" t="s">
+      <c r="I46" s="137"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87" t="s">
+      <c r="M46" s="49"/>
+      <c r="N46" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
       <c r="R46" s="4"/>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
@@ -5585,23 +5691,23 @@
       <c r="AQ46" s="3"/>
     </row>
     <row r="47" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="215"/>
-      <c r="B47" s="146"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="148"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
+      <c r="A47" s="218"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="139"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="141"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
       <c r="R47" s="4"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
@@ -5630,29 +5736,29 @@
       <c r="AQ47" s="5"/>
     </row>
     <row r="48" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="83">
+      <c r="A48" s="85">
         <v>1</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="49" t="s">
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="66"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="105"/>
+      <c r="O48" s="106"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="107"/>
       <c r="R48" s="4"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
@@ -5681,23 +5787,23 @@
       <c r="AQ48" s="5"/>
     </row>
     <row r="49" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="84"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="68"/>
-      <c r="Q49" s="69"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="108"/>
+      <c r="O49" s="109"/>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="110"/>
       <c r="R49" s="4"/>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -5726,29 +5832,29 @@
       <c r="AQ49" s="5"/>
     </row>
     <row r="50" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="83">
+      <c r="A50" s="85">
         <v>2</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="49" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="68"/>
-      <c r="Q50" s="69"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="108"/>
+      <c r="O50" s="109"/>
+      <c r="P50" s="109"/>
+      <c r="Q50" s="110"/>
       <c r="R50" s="4"/>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
@@ -5777,23 +5883,23 @@
       <c r="AQ50" s="5"/>
     </row>
     <row r="51" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="84"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="68"/>
-      <c r="P51" s="68"/>
-      <c r="Q51" s="69"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="109"/>
+      <c r="P51" s="109"/>
+      <c r="Q51" s="110"/>
       <c r="R51" s="4"/>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -5822,29 +5928,29 @@
       <c r="AQ51" s="5"/>
     </row>
     <row r="52" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="83">
+      <c r="A52" s="85">
         <v>3</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="49" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="69"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="109"/>
+      <c r="P52" s="109"/>
+      <c r="Q52" s="110"/>
       <c r="R52" s="4"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
@@ -5873,23 +5979,23 @@
       <c r="AQ52" s="5"/>
     </row>
     <row r="53" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="84"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="69"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="108"/>
+      <c r="O53" s="109"/>
+      <c r="P53" s="109"/>
+      <c r="Q53" s="110"/>
       <c r="R53" s="4"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
@@ -5918,29 +6024,29 @@
       <c r="AQ53" s="5"/>
     </row>
     <row r="54" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="83">
+      <c r="A54" s="85">
         <v>4</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="49" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="69"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="108"/>
+      <c r="O54" s="109"/>
+      <c r="P54" s="109"/>
+      <c r="Q54" s="110"/>
       <c r="R54" s="4"/>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
@@ -5969,23 +6075,23 @@
       <c r="AQ54" s="5"/>
     </row>
     <row r="55" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="185"/>
-      <c r="B55" s="197"/>
-      <c r="C55" s="198"/>
-      <c r="D55" s="198"/>
-      <c r="E55" s="198"/>
-      <c r="F55" s="198"/>
-      <c r="G55" s="198"/>
-      <c r="H55" s="199"/>
-      <c r="I55" s="200"/>
-      <c r="J55" s="200"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="68"/>
-      <c r="Q55" s="69"/>
+      <c r="A55" s="174"/>
+      <c r="B55" s="175"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="176"/>
+      <c r="G55" s="176"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="178"/>
+      <c r="J55" s="178"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="180"/>
+      <c r="M55" s="181"/>
+      <c r="N55" s="108"/>
+      <c r="O55" s="109"/>
+      <c r="P55" s="109"/>
+      <c r="Q55" s="110"/>
       <c r="R55" s="4"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
@@ -6014,23 +6120,23 @@
       <c r="AQ55" s="5"/>
     </row>
     <row r="56" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="84"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="72"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="165"/>
+      <c r="M56" s="166"/>
+      <c r="N56" s="111"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="113"/>
       <c r="R56" s="6"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
@@ -6059,33 +6165,33 @@
       <c r="AQ56" s="7"/>
     </row>
     <row r="57" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="141" t="s">
+      <c r="A57" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="143" t="s">
+      <c r="B57" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="184" t="s">
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="I57" s="144"/>
-      <c r="J57" s="144"/>
-      <c r="K57" s="145"/>
-      <c r="L57" s="88" t="s">
+      <c r="I57" s="137"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="138"/>
+      <c r="L57" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88" t="s">
+      <c r="M57" s="50"/>
+      <c r="N57" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="88"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
@@ -6114,23 +6220,23 @@
       <c r="AQ57" s="3"/>
     </row>
     <row r="58" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="142"/>
-      <c r="B58" s="146"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="148"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="147"/>
-      <c r="K58" s="148"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="88"/>
+      <c r="A58" s="135"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="141"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="141"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
@@ -6159,29 +6265,29 @@
       <c r="AQ58" s="5"/>
     </row>
     <row r="59" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="55">
+      <c r="A59" s="76">
         <v>1</v>
       </c>
-      <c r="B59" s="89" t="s">
+      <c r="B59" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="49" t="s">
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="234"/>
-      <c r="O59" s="238"/>
-      <c r="P59" s="238"/>
-      <c r="Q59" s="235"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="82"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="249"/>
+      <c r="O59" s="250"/>
+      <c r="P59" s="250"/>
+      <c r="Q59" s="251"/>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
@@ -6210,23 +6316,23 @@
       <c r="AQ59" s="5"/>
     </row>
     <row r="60" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="56"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="239"/>
-      <c r="O60" s="240"/>
-      <c r="P60" s="240"/>
-      <c r="Q60" s="241"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="252"/>
+      <c r="O60" s="253"/>
+      <c r="P60" s="253"/>
+      <c r="Q60" s="254"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
@@ -6255,29 +6361,29 @@
       <c r="AQ60" s="5"/>
     </row>
     <row r="61" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="55">
+      <c r="A61" s="76">
         <v>2</v>
       </c>
-      <c r="B61" s="89" t="s">
+      <c r="B61" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="90"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="49" t="s">
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="239"/>
-      <c r="O61" s="240"/>
-      <c r="P61" s="240"/>
-      <c r="Q61" s="241"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="82"/>
+      <c r="N61" s="252"/>
+      <c r="O61" s="253"/>
+      <c r="P61" s="253"/>
+      <c r="Q61" s="254"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
@@ -6306,23 +6412,23 @@
       <c r="AQ61" s="5"/>
     </row>
     <row r="62" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="56"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="239"/>
-      <c r="O62" s="240"/>
-      <c r="P62" s="240"/>
-      <c r="Q62" s="241"/>
+      <c r="A62" s="77"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="82"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="252"/>
+      <c r="O62" s="253"/>
+      <c r="P62" s="253"/>
+      <c r="Q62" s="254"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
@@ -6351,29 +6457,29 @@
       <c r="AQ62" s="5"/>
     </row>
     <row r="63" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="55">
+      <c r="A63" s="76">
         <v>3</v>
       </c>
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="49" t="s">
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="73"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="239"/>
-      <c r="O63" s="240"/>
-      <c r="P63" s="240"/>
-      <c r="Q63" s="241"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="252"/>
+      <c r="O63" s="253"/>
+      <c r="P63" s="253"/>
+      <c r="Q63" s="254"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
@@ -6402,23 +6508,23 @@
       <c r="AQ63" s="5"/>
     </row>
     <row r="64" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="56"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="239"/>
-      <c r="O64" s="240"/>
-      <c r="P64" s="240"/>
-      <c r="Q64" s="241"/>
+      <c r="A64" s="77"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="252"/>
+      <c r="O64" s="253"/>
+      <c r="P64" s="253"/>
+      <c r="Q64" s="254"/>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
@@ -6447,29 +6553,29 @@
       <c r="AQ64" s="5"/>
     </row>
     <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="83">
+      <c r="A65" s="85">
         <v>4</v>
       </c>
-      <c r="B65" s="89" t="s">
+      <c r="B65" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="49" t="s">
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="234"/>
-      <c r="M65" s="235"/>
-      <c r="N65" s="239"/>
-      <c r="O65" s="240"/>
-      <c r="P65" s="240"/>
-      <c r="Q65" s="241"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="97"/>
+      <c r="M65" s="99"/>
+      <c r="N65" s="252"/>
+      <c r="O65" s="253"/>
+      <c r="P65" s="253"/>
+      <c r="Q65" s="254"/>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
@@ -6498,23 +6604,23 @@
       <c r="AQ65" s="5"/>
     </row>
     <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="84"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="93"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="236"/>
-      <c r="M66" s="237"/>
-      <c r="N66" s="239"/>
-      <c r="O66" s="240"/>
-      <c r="P66" s="240"/>
-      <c r="Q66" s="241"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="247"/>
+      <c r="M66" s="248"/>
+      <c r="N66" s="252"/>
+      <c r="O66" s="253"/>
+      <c r="P66" s="253"/>
+      <c r="Q66" s="254"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
@@ -6543,29 +6649,29 @@
       <c r="AQ66" s="5"/>
     </row>
     <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="55">
+      <c r="A67" s="76">
         <v>5</v>
       </c>
-      <c r="B67" s="89" t="s">
+      <c r="B67" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="91"/>
-      <c r="H67" s="49" t="s">
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="239"/>
-      <c r="O67" s="240"/>
-      <c r="P67" s="240"/>
-      <c r="Q67" s="241"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="252"/>
+      <c r="O67" s="253"/>
+      <c r="P67" s="253"/>
+      <c r="Q67" s="254"/>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
@@ -6594,23 +6700,23 @@
       <c r="AQ67" s="5"/>
     </row>
     <row r="68" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="56"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="73"/>
-      <c r="M68" s="73"/>
-      <c r="N68" s="236"/>
-      <c r="O68" s="242"/>
-      <c r="P68" s="242"/>
-      <c r="Q68" s="237"/>
+      <c r="A68" s="77"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="255"/>
+      <c r="O68" s="256"/>
+      <c r="P68" s="256"/>
+      <c r="Q68" s="257"/>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
@@ -6639,82 +6745,82 @@
       <c r="AQ68" s="7"/>
     </row>
     <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="233" t="s">
+      <c r="A69" s="246" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="122"/>
-      <c r="C69" s="122"/>
-      <c r="D69" s="122"/>
-      <c r="E69" s="122"/>
-      <c r="F69" s="122"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="122"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="122"/>
-      <c r="L69" s="122"/>
-      <c r="M69" s="122"/>
-      <c r="N69" s="122"/>
-      <c r="O69" s="122"/>
-      <c r="P69" s="122"/>
-      <c r="Q69" s="123"/>
-      <c r="R69" s="124" t="s">
+      <c r="B69" s="124"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="124"/>
+      <c r="J69" s="124"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="124"/>
+      <c r="N69" s="124"/>
+      <c r="O69" s="124"/>
+      <c r="P69" s="124"/>
+      <c r="Q69" s="125"/>
+      <c r="R69" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="S69" s="125"/>
-      <c r="T69" s="125"/>
-      <c r="U69" s="125"/>
-      <c r="V69" s="125"/>
-      <c r="W69" s="125"/>
-      <c r="X69" s="125"/>
-      <c r="Y69" s="125"/>
-      <c r="Z69" s="125"/>
-      <c r="AA69" s="125"/>
-      <c r="AB69" s="125"/>
-      <c r="AC69" s="125"/>
-      <c r="AD69" s="125"/>
-      <c r="AE69" s="125"/>
-      <c r="AF69" s="125"/>
-      <c r="AG69" s="125"/>
-      <c r="AH69" s="125"/>
-      <c r="AI69" s="125"/>
-      <c r="AJ69" s="125"/>
-      <c r="AK69" s="125"/>
-      <c r="AL69" s="125"/>
-      <c r="AM69" s="125"/>
-      <c r="AN69" s="125"/>
-      <c r="AO69" s="125"/>
-      <c r="AP69" s="125"/>
-      <c r="AQ69" s="126"/>
+      <c r="S69" s="127"/>
+      <c r="T69" s="127"/>
+      <c r="U69" s="127"/>
+      <c r="V69" s="127"/>
+      <c r="W69" s="127"/>
+      <c r="X69" s="127"/>
+      <c r="Y69" s="127"/>
+      <c r="Z69" s="127"/>
+      <c r="AA69" s="127"/>
+      <c r="AB69" s="127"/>
+      <c r="AC69" s="127"/>
+      <c r="AD69" s="127"/>
+      <c r="AE69" s="127"/>
+      <c r="AF69" s="127"/>
+      <c r="AG69" s="127"/>
+      <c r="AH69" s="127"/>
+      <c r="AI69" s="127"/>
+      <c r="AJ69" s="127"/>
+      <c r="AK69" s="127"/>
+      <c r="AL69" s="127"/>
+      <c r="AM69" s="127"/>
+      <c r="AN69" s="127"/>
+      <c r="AO69" s="127"/>
+      <c r="AP69" s="127"/>
+      <c r="AQ69" s="128"/>
     </row>
     <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="141" t="s">
+      <c r="A70" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="143" t="s">
+      <c r="B70" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="144"/>
-      <c r="D70" s="144"/>
-      <c r="E70" s="144"/>
-      <c r="F70" s="144"/>
-      <c r="G70" s="145"/>
-      <c r="H70" s="184" t="s">
+      <c r="C70" s="137"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="138"/>
+      <c r="H70" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="144"/>
-      <c r="J70" s="144"/>
-      <c r="K70" s="145"/>
-      <c r="L70" s="216" t="s">
+      <c r="I70" s="137"/>
+      <c r="J70" s="137"/>
+      <c r="K70" s="138"/>
+      <c r="L70" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="M70" s="217"/>
-      <c r="N70" s="216" t="s">
+      <c r="M70" s="183"/>
+      <c r="N70" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="O70" s="220"/>
-      <c r="P70" s="220"/>
-      <c r="Q70" s="217"/>
+      <c r="O70" s="186"/>
+      <c r="P70" s="186"/>
+      <c r="Q70" s="183"/>
       <c r="R70" s="2"/>
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
@@ -6743,23 +6849,23 @@
       <c r="AQ70" s="3"/>
     </row>
     <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="142"/>
-      <c r="B71" s="146"/>
-      <c r="C71" s="147"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="147"/>
-      <c r="F71" s="147"/>
-      <c r="G71" s="148"/>
-      <c r="H71" s="146"/>
-      <c r="I71" s="147"/>
-      <c r="J71" s="147"/>
-      <c r="K71" s="148"/>
-      <c r="L71" s="218"/>
-      <c r="M71" s="219"/>
-      <c r="N71" s="218"/>
-      <c r="O71" s="221"/>
-      <c r="P71" s="221"/>
-      <c r="Q71" s="219"/>
+      <c r="A71" s="135"/>
+      <c r="B71" s="139"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="140"/>
+      <c r="F71" s="140"/>
+      <c r="G71" s="141"/>
+      <c r="H71" s="139"/>
+      <c r="I71" s="140"/>
+      <c r="J71" s="140"/>
+      <c r="K71" s="141"/>
+      <c r="L71" s="184"/>
+      <c r="M71" s="185"/>
+      <c r="N71" s="184"/>
+      <c r="O71" s="187"/>
+      <c r="P71" s="187"/>
+      <c r="Q71" s="185"/>
       <c r="R71" s="4"/>
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
@@ -6788,29 +6894,29 @@
       <c r="AQ71" s="5"/>
     </row>
     <row r="72" spans="1:43" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="101">
+      <c r="A72" s="94">
         <v>1</v>
       </c>
-      <c r="B72" s="172" t="s">
+      <c r="B72" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="173"/>
-      <c r="D72" s="173"/>
-      <c r="E72" s="173"/>
-      <c r="F72" s="173"/>
-      <c r="G72" s="176"/>
-      <c r="H72" s="49" t="s">
+      <c r="C72" s="168"/>
+      <c r="D72" s="168"/>
+      <c r="E72" s="168"/>
+      <c r="F72" s="168"/>
+      <c r="G72" s="171"/>
+      <c r="H72" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="66"/>
-      <c r="N72" s="57"/>
-      <c r="O72" s="57"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="57"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="80"/>
+      <c r="M72" s="81"/>
+      <c r="N72" s="164"/>
+      <c r="O72" s="164"/>
+      <c r="P72" s="164"/>
+      <c r="Q72" s="164"/>
       <c r="R72" s="4"/>
       <c r="S72" s="8"/>
       <c r="T72" s="8"/>
@@ -6839,27 +6945,27 @@
       <c r="AQ72" s="5"/>
     </row>
     <row r="73" spans="1:43" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="103"/>
-      <c r="B73" s="230" t="s">
+      <c r="A73" s="96"/>
+      <c r="B73" s="225" t="s">
         <v>157</v>
       </c>
-      <c r="C73" s="231"/>
-      <c r="D73" s="231"/>
-      <c r="E73" s="231"/>
-      <c r="F73" s="231"/>
-      <c r="G73" s="232"/>
-      <c r="H73" s="80" t="s">
+      <c r="C73" s="226"/>
+      <c r="D73" s="226"/>
+      <c r="E73" s="226"/>
+      <c r="F73" s="226"/>
+      <c r="G73" s="227"/>
+      <c r="H73" s="219" t="s">
         <v>159</v>
       </c>
-      <c r="I73" s="81"/>
-      <c r="J73" s="81"/>
-      <c r="K73" s="82"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="57"/>
-      <c r="O73" s="57"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="57"/>
+      <c r="I73" s="220"/>
+      <c r="J73" s="220"/>
+      <c r="K73" s="221"/>
+      <c r="L73" s="80"/>
+      <c r="M73" s="81"/>
+      <c r="N73" s="164"/>
+      <c r="O73" s="164"/>
+      <c r="P73" s="164"/>
+      <c r="Q73" s="164"/>
       <c r="R73" s="4"/>
       <c r="S73" s="8"/>
       <c r="T73" s="8"/>
@@ -6888,29 +6994,29 @@
       <c r="AQ73" s="5"/>
     </row>
     <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="101">
+      <c r="A74" s="94">
         <v>2</v>
       </c>
-      <c r="B74" s="172" t="s">
+      <c r="B74" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="173"/>
-      <c r="D74" s="173"/>
-      <c r="E74" s="173"/>
-      <c r="F74" s="173"/>
-      <c r="G74" s="176"/>
-      <c r="H74" s="49" t="s">
+      <c r="C74" s="168"/>
+      <c r="D74" s="168"/>
+      <c r="E74" s="168"/>
+      <c r="F74" s="168"/>
+      <c r="G74" s="171"/>
+      <c r="H74" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="51"/>
-      <c r="L74" s="64"/>
-      <c r="M74" s="66"/>
-      <c r="N74" s="57"/>
-      <c r="O74" s="57"/>
-      <c r="P74" s="57"/>
-      <c r="Q74" s="57"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="80"/>
+      <c r="M74" s="81"/>
+      <c r="N74" s="164"/>
+      <c r="O74" s="164"/>
+      <c r="P74" s="164"/>
+      <c r="Q74" s="164"/>
       <c r="R74" s="4"/>
       <c r="S74" s="8"/>
       <c r="T74" s="8"/>
@@ -6939,23 +7045,23 @@
       <c r="AQ74" s="5"/>
     </row>
     <row r="75" spans="1:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="103"/>
-      <c r="B75" s="174"/>
-      <c r="C75" s="175"/>
-      <c r="D75" s="175"/>
-      <c r="E75" s="175"/>
-      <c r="F75" s="175"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="72"/>
-      <c r="N75" s="57"/>
-      <c r="O75" s="57"/>
-      <c r="P75" s="57"/>
-      <c r="Q75" s="57"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="169"/>
+      <c r="C75" s="170"/>
+      <c r="D75" s="170"/>
+      <c r="E75" s="170"/>
+      <c r="F75" s="170"/>
+      <c r="G75" s="172"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="165"/>
+      <c r="M75" s="166"/>
+      <c r="N75" s="164"/>
+      <c r="O75" s="164"/>
+      <c r="P75" s="164"/>
+      <c r="Q75" s="164"/>
       <c r="R75" s="4"/>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
@@ -6984,29 +7090,29 @@
       <c r="AQ75" s="5"/>
     </row>
     <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="171">
+      <c r="A76" s="87">
         <v>3</v>
       </c>
-      <c r="B76" s="172" t="s">
+      <c r="B76" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="173"/>
-      <c r="D76" s="173"/>
-      <c r="E76" s="173"/>
-      <c r="F76" s="173"/>
-      <c r="G76" s="176"/>
-      <c r="H76" s="49" t="s">
+      <c r="C76" s="168"/>
+      <c r="D76" s="168"/>
+      <c r="E76" s="168"/>
+      <c r="F76" s="168"/>
+      <c r="G76" s="171"/>
+      <c r="H76" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="57"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="87"/>
+      <c r="M76" s="87"/>
+      <c r="N76" s="164"/>
+      <c r="O76" s="164"/>
+      <c r="P76" s="164"/>
+      <c r="Q76" s="164"/>
       <c r="R76" s="4"/>
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
@@ -7035,23 +7141,23 @@
       <c r="AQ76" s="5"/>
     </row>
     <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="171"/>
-      <c r="B77" s="174"/>
-      <c r="C77" s="175"/>
-      <c r="D77" s="175"/>
-      <c r="E77" s="175"/>
-      <c r="F77" s="175"/>
-      <c r="G77" s="177"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="57"/>
-      <c r="M77" s="57"/>
-      <c r="N77" s="57"/>
-      <c r="O77" s="57"/>
-      <c r="P77" s="57"/>
-      <c r="Q77" s="57"/>
+      <c r="A77" s="87"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
+      <c r="E77" s="170"/>
+      <c r="F77" s="170"/>
+      <c r="G77" s="172"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="87"/>
+      <c r="M77" s="87"/>
+      <c r="N77" s="164"/>
+      <c r="O77" s="164"/>
+      <c r="P77" s="164"/>
+      <c r="Q77" s="164"/>
       <c r="R77" s="4"/>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
@@ -7080,29 +7186,29 @@
       <c r="AQ77" s="5"/>
     </row>
     <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="171">
+      <c r="A78" s="87">
         <v>4</v>
       </c>
-      <c r="B78" s="172" t="s">
+      <c r="B78" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
-      <c r="E78" s="173"/>
-      <c r="F78" s="173"/>
-      <c r="G78" s="176"/>
-      <c r="H78" s="49" t="s">
+      <c r="C78" s="168"/>
+      <c r="D78" s="168"/>
+      <c r="E78" s="168"/>
+      <c r="F78" s="168"/>
+      <c r="G78" s="171"/>
+      <c r="H78" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="87"/>
+      <c r="M78" s="87"/>
+      <c r="N78" s="164"/>
+      <c r="O78" s="164"/>
+      <c r="P78" s="164"/>
+      <c r="Q78" s="164"/>
       <c r="R78" s="4"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
@@ -7131,23 +7237,23 @@
       <c r="AQ78" s="5"/>
     </row>
     <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="171"/>
-      <c r="B79" s="174"/>
-      <c r="C79" s="175"/>
-      <c r="D79" s="175"/>
-      <c r="E79" s="175"/>
-      <c r="F79" s="175"/>
-      <c r="G79" s="177"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="57"/>
-      <c r="P79" s="57"/>
-      <c r="Q79" s="57"/>
+      <c r="A79" s="87"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="170"/>
+      <c r="F79" s="170"/>
+      <c r="G79" s="172"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="87"/>
+      <c r="M79" s="87"/>
+      <c r="N79" s="164"/>
+      <c r="O79" s="164"/>
+      <c r="P79" s="164"/>
+      <c r="Q79" s="164"/>
       <c r="R79" s="4"/>
       <c r="S79" s="8"/>
       <c r="T79" s="8"/>
@@ -7176,29 +7282,29 @@
       <c r="AQ79" s="5"/>
     </row>
     <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="171">
+      <c r="A80" s="87">
         <v>5</v>
       </c>
-      <c r="B80" s="172" t="s">
+      <c r="B80" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
-      <c r="E80" s="173"/>
-      <c r="F80" s="173"/>
-      <c r="G80" s="173"/>
-      <c r="H80" s="49" t="s">
+      <c r="C80" s="168"/>
+      <c r="D80" s="168"/>
+      <c r="E80" s="168"/>
+      <c r="F80" s="168"/>
+      <c r="G80" s="168"/>
+      <c r="H80" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="I80" s="50"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="51"/>
-      <c r="L80" s="57"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="57"/>
-      <c r="O80" s="57"/>
-      <c r="P80" s="57"/>
-      <c r="Q80" s="57"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="87"/>
+      <c r="M80" s="87"/>
+      <c r="N80" s="164"/>
+      <c r="O80" s="164"/>
+      <c r="P80" s="164"/>
+      <c r="Q80" s="164"/>
       <c r="R80" s="4"/>
       <c r="S80" s="8"/>
       <c r="T80" s="8"/>
@@ -7227,23 +7333,23 @@
       <c r="AQ80" s="5"/>
     </row>
     <row r="81" spans="1:43" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="171"/>
-      <c r="B81" s="174"/>
-      <c r="C81" s="175"/>
-      <c r="D81" s="175"/>
-      <c r="E81" s="175"/>
-      <c r="F81" s="175"/>
-      <c r="G81" s="175"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="57"/>
-      <c r="M81" s="57"/>
-      <c r="N81" s="57"/>
-      <c r="O81" s="57"/>
-      <c r="P81" s="57"/>
-      <c r="Q81" s="57"/>
+      <c r="A81" s="87"/>
+      <c r="B81" s="169"/>
+      <c r="C81" s="170"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="170"/>
+      <c r="F81" s="170"/>
+      <c r="G81" s="170"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="65"/>
+      <c r="L81" s="87"/>
+      <c r="M81" s="87"/>
+      <c r="N81" s="164"/>
+      <c r="O81" s="164"/>
+      <c r="P81" s="164"/>
+      <c r="Q81" s="164"/>
       <c r="R81" s="4"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
@@ -7272,29 +7378,29 @@
       <c r="AQ81" s="5"/>
     </row>
     <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="171">
+      <c r="A82" s="87">
         <v>6</v>
       </c>
-      <c r="B82" s="172" t="s">
+      <c r="B82" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="173"/>
-      <c r="D82" s="173"/>
-      <c r="E82" s="173"/>
-      <c r="F82" s="173"/>
-      <c r="G82" s="173"/>
-      <c r="H82" s="49" t="s">
+      <c r="C82" s="168"/>
+      <c r="D82" s="168"/>
+      <c r="E82" s="168"/>
+      <c r="F82" s="168"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I82" s="50"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="51"/>
-      <c r="L82" s="57"/>
-      <c r="M82" s="57"/>
-      <c r="N82" s="57"/>
-      <c r="O82" s="57"/>
-      <c r="P82" s="57"/>
-      <c r="Q82" s="57"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="87"/>
+      <c r="M82" s="87"/>
+      <c r="N82" s="164"/>
+      <c r="O82" s="164"/>
+      <c r="P82" s="164"/>
+      <c r="Q82" s="164"/>
       <c r="R82" s="4"/>
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
@@ -7323,23 +7429,23 @@
       <c r="AQ82" s="5"/>
     </row>
     <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="171"/>
-      <c r="B83" s="174"/>
-      <c r="C83" s="175"/>
-      <c r="D83" s="175"/>
-      <c r="E83" s="175"/>
-      <c r="F83" s="175"/>
-      <c r="G83" s="175"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="57"/>
-      <c r="M83" s="57"/>
-      <c r="N83" s="57"/>
-      <c r="O83" s="57"/>
-      <c r="P83" s="57"/>
-      <c r="Q83" s="57"/>
+      <c r="A83" s="87"/>
+      <c r="B83" s="169"/>
+      <c r="C83" s="170"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
+      <c r="F83" s="170"/>
+      <c r="G83" s="170"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="64"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="87"/>
+      <c r="M83" s="87"/>
+      <c r="N83" s="164"/>
+      <c r="O83" s="164"/>
+      <c r="P83" s="164"/>
+      <c r="Q83" s="164"/>
       <c r="R83" s="4"/>
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
@@ -7368,29 +7474,29 @@
       <c r="AQ83" s="5"/>
     </row>
     <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="171">
+      <c r="A84" s="87">
         <v>7</v>
       </c>
-      <c r="B84" s="172" t="s">
+      <c r="B84" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
-      <c r="G84" s="173"/>
-      <c r="H84" s="49" t="s">
+      <c r="C84" s="168"/>
+      <c r="D84" s="168"/>
+      <c r="E84" s="168"/>
+      <c r="F84" s="168"/>
+      <c r="G84" s="168"/>
+      <c r="H84" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I84" s="50"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="57"/>
-      <c r="M84" s="57"/>
-      <c r="N84" s="57"/>
-      <c r="O84" s="57"/>
-      <c r="P84" s="57"/>
-      <c r="Q84" s="57"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="87"/>
+      <c r="M84" s="87"/>
+      <c r="N84" s="164"/>
+      <c r="O84" s="164"/>
+      <c r="P84" s="164"/>
+      <c r="Q84" s="164"/>
       <c r="R84" s="4"/>
       <c r="S84" s="8"/>
       <c r="T84" s="8"/>
@@ -7419,23 +7525,23 @@
       <c r="AQ84" s="5"/>
     </row>
     <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="171"/>
-      <c r="B85" s="174"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
-      <c r="G85" s="175"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="57"/>
-      <c r="O85" s="57"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="57"/>
+      <c r="A85" s="87"/>
+      <c r="B85" s="169"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
+      <c r="G85" s="170"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="87"/>
+      <c r="M85" s="87"/>
+      <c r="N85" s="164"/>
+      <c r="O85" s="164"/>
+      <c r="P85" s="164"/>
+      <c r="Q85" s="164"/>
       <c r="R85" s="4"/>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
@@ -7464,29 +7570,31 @@
       <c r="AQ85" s="5"/>
     </row>
     <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="101">
+      <c r="A86" s="94">
         <v>8</v>
       </c>
-      <c r="B86" s="172" t="s">
+      <c r="B86" s="167" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="173"/>
-      <c r="D86" s="173"/>
-      <c r="E86" s="173"/>
-      <c r="F86" s="173"/>
-      <c r="G86" s="173"/>
-      <c r="H86" s="178" t="s">
+      <c r="C86" s="168"/>
+      <c r="D86" s="168"/>
+      <c r="E86" s="168"/>
+      <c r="F86" s="168"/>
+      <c r="G86" s="168"/>
+      <c r="H86" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="I86" s="179"/>
-      <c r="J86" s="179"/>
-      <c r="K86" s="180"/>
-      <c r="L86" s="64"/>
-      <c r="M86" s="66"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="57"/>
-      <c r="P86" s="57"/>
-      <c r="Q86" s="57"/>
+      <c r="I86" s="189"/>
+      <c r="J86" s="189"/>
+      <c r="K86" s="190"/>
+      <c r="L86" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="M86" s="81"/>
+      <c r="N86" s="164"/>
+      <c r="O86" s="164"/>
+      <c r="P86" s="164"/>
+      <c r="Q86" s="164"/>
       <c r="R86" s="4"/>
       <c r="S86" s="8"/>
       <c r="T86" s="8"/>
@@ -7515,23 +7623,23 @@
       <c r="AQ86" s="5"/>
     </row>
     <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="103"/>
-      <c r="B87" s="174"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
-      <c r="F87" s="175"/>
-      <c r="G87" s="175"/>
-      <c r="H87" s="181"/>
-      <c r="I87" s="182"/>
-      <c r="J87" s="182"/>
-      <c r="K87" s="183"/>
-      <c r="L87" s="70"/>
-      <c r="M87" s="72"/>
-      <c r="N87" s="57"/>
-      <c r="O87" s="57"/>
-      <c r="P87" s="57"/>
-      <c r="Q87" s="57"/>
+      <c r="A87" s="96"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="170"/>
+      <c r="E87" s="170"/>
+      <c r="F87" s="170"/>
+      <c r="G87" s="170"/>
+      <c r="H87" s="191"/>
+      <c r="I87" s="192"/>
+      <c r="J87" s="192"/>
+      <c r="K87" s="193"/>
+      <c r="L87" s="165"/>
+      <c r="M87" s="166"/>
+      <c r="N87" s="164"/>
+      <c r="O87" s="164"/>
+      <c r="P87" s="164"/>
+      <c r="Q87" s="164"/>
       <c r="R87" s="4"/>
       <c r="S87" s="8"/>
       <c r="T87" s="8"/>
@@ -7560,33 +7668,33 @@
       <c r="AQ87" s="5"/>
     </row>
     <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="141" t="s">
+      <c r="A88" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="143" t="s">
+      <c r="B88" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="144"/>
-      <c r="D88" s="144"/>
-      <c r="E88" s="144"/>
-      <c r="F88" s="144"/>
-      <c r="G88" s="145"/>
-      <c r="H88" s="184" t="s">
+      <c r="C88" s="137"/>
+      <c r="D88" s="137"/>
+      <c r="E88" s="137"/>
+      <c r="F88" s="137"/>
+      <c r="G88" s="138"/>
+      <c r="H88" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="I88" s="144"/>
-      <c r="J88" s="144"/>
-      <c r="K88" s="145"/>
-      <c r="L88" s="216" t="s">
+      <c r="I88" s="137"/>
+      <c r="J88" s="137"/>
+      <c r="K88" s="138"/>
+      <c r="L88" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="M88" s="217"/>
-      <c r="N88" s="216" t="s">
+      <c r="M88" s="183"/>
+      <c r="N88" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="O88" s="220"/>
-      <c r="P88" s="220"/>
-      <c r="Q88" s="217"/>
+      <c r="O88" s="186"/>
+      <c r="P88" s="186"/>
+      <c r="Q88" s="183"/>
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
@@ -7615,23 +7723,23 @@
       <c r="AQ88" s="3"/>
     </row>
     <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="142"/>
-      <c r="B89" s="146"/>
-      <c r="C89" s="147"/>
-      <c r="D89" s="147"/>
-      <c r="E89" s="147"/>
-      <c r="F89" s="147"/>
-      <c r="G89" s="148"/>
-      <c r="H89" s="146"/>
-      <c r="I89" s="147"/>
-      <c r="J89" s="147"/>
-      <c r="K89" s="148"/>
-      <c r="L89" s="218"/>
-      <c r="M89" s="219"/>
-      <c r="N89" s="218"/>
-      <c r="O89" s="221"/>
-      <c r="P89" s="221"/>
-      <c r="Q89" s="219"/>
+      <c r="A89" s="135"/>
+      <c r="B89" s="139"/>
+      <c r="C89" s="140"/>
+      <c r="D89" s="140"/>
+      <c r="E89" s="140"/>
+      <c r="F89" s="140"/>
+      <c r="G89" s="141"/>
+      <c r="H89" s="139"/>
+      <c r="I89" s="140"/>
+      <c r="J89" s="140"/>
+      <c r="K89" s="141"/>
+      <c r="L89" s="184"/>
+      <c r="M89" s="185"/>
+      <c r="N89" s="184"/>
+      <c r="O89" s="187"/>
+      <c r="P89" s="187"/>
+      <c r="Q89" s="185"/>
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
@@ -7660,29 +7768,29 @@
       <c r="AQ89" s="5"/>
     </row>
     <row r="90" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="171">
+      <c r="A90" s="87">
         <v>1</v>
       </c>
-      <c r="B90" s="172" t="s">
+      <c r="B90" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="173"/>
-      <c r="D90" s="173"/>
-      <c r="E90" s="173"/>
-      <c r="F90" s="173"/>
-      <c r="G90" s="176"/>
-      <c r="H90" s="49" t="s">
+      <c r="C90" s="168"/>
+      <c r="D90" s="168"/>
+      <c r="E90" s="168"/>
+      <c r="F90" s="168"/>
+      <c r="G90" s="171"/>
+      <c r="H90" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="51"/>
-      <c r="L90" s="85"/>
-      <c r="M90" s="86"/>
-      <c r="N90" s="64"/>
-      <c r="O90" s="65"/>
-      <c r="P90" s="65"/>
-      <c r="Q90" s="66"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="62"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="79"/>
+      <c r="N90" s="105"/>
+      <c r="O90" s="106"/>
+      <c r="P90" s="106"/>
+      <c r="Q90" s="107"/>
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
@@ -7711,27 +7819,27 @@
       <c r="AQ90" s="5"/>
     </row>
     <row r="91" spans="1:43" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="171"/>
-      <c r="B91" s="230" t="s">
+      <c r="A91" s="87"/>
+      <c r="B91" s="225" t="s">
         <v>158</v>
       </c>
-      <c r="C91" s="231"/>
-      <c r="D91" s="231"/>
-      <c r="E91" s="231"/>
-      <c r="F91" s="231"/>
-      <c r="G91" s="232"/>
-      <c r="H91" s="80" t="s">
+      <c r="C91" s="226"/>
+      <c r="D91" s="226"/>
+      <c r="E91" s="226"/>
+      <c r="F91" s="226"/>
+      <c r="G91" s="227"/>
+      <c r="H91" s="219" t="s">
         <v>159</v>
       </c>
-      <c r="I91" s="81"/>
-      <c r="J91" s="81"/>
-      <c r="K91" s="82"/>
-      <c r="L91" s="85"/>
-      <c r="M91" s="86"/>
-      <c r="N91" s="67"/>
-      <c r="O91" s="68"/>
-      <c r="P91" s="68"/>
-      <c r="Q91" s="69"/>
+      <c r="I91" s="220"/>
+      <c r="J91" s="220"/>
+      <c r="K91" s="221"/>
+      <c r="L91" s="78"/>
+      <c r="M91" s="79"/>
+      <c r="N91" s="108"/>
+      <c r="O91" s="109"/>
+      <c r="P91" s="109"/>
+      <c r="Q91" s="110"/>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
@@ -7760,29 +7868,29 @@
       <c r="AQ91" s="5"/>
     </row>
     <row r="92" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="171">
+      <c r="A92" s="87">
         <v>2</v>
       </c>
-      <c r="B92" s="172" t="s">
+      <c r="B92" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="173"/>
-      <c r="D92" s="173"/>
-      <c r="E92" s="173"/>
-      <c r="F92" s="173"/>
-      <c r="G92" s="173"/>
-      <c r="H92" s="49" t="s">
+      <c r="C92" s="168"/>
+      <c r="D92" s="168"/>
+      <c r="E92" s="168"/>
+      <c r="F92" s="168"/>
+      <c r="G92" s="168"/>
+      <c r="H92" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="57"/>
-      <c r="M92" s="57"/>
-      <c r="N92" s="67"/>
-      <c r="O92" s="68"/>
-      <c r="P92" s="68"/>
-      <c r="Q92" s="69"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="62"/>
+      <c r="L92" s="87"/>
+      <c r="M92" s="87"/>
+      <c r="N92" s="108"/>
+      <c r="O92" s="109"/>
+      <c r="P92" s="109"/>
+      <c r="Q92" s="110"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -7811,23 +7919,23 @@
       <c r="AQ92" s="5"/>
     </row>
     <row r="93" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="171"/>
-      <c r="B93" s="174"/>
-      <c r="C93" s="175"/>
-      <c r="D93" s="175"/>
-      <c r="E93" s="175"/>
-      <c r="F93" s="175"/>
-      <c r="G93" s="175"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="57"/>
-      <c r="M93" s="57"/>
-      <c r="N93" s="67"/>
-      <c r="O93" s="68"/>
-      <c r="P93" s="68"/>
-      <c r="Q93" s="69"/>
+      <c r="A93" s="87"/>
+      <c r="B93" s="169"/>
+      <c r="C93" s="170"/>
+      <c r="D93" s="170"/>
+      <c r="E93" s="170"/>
+      <c r="F93" s="170"/>
+      <c r="G93" s="170"/>
+      <c r="H93" s="63"/>
+      <c r="I93" s="64"/>
+      <c r="J93" s="64"/>
+      <c r="K93" s="65"/>
+      <c r="L93" s="87"/>
+      <c r="M93" s="87"/>
+      <c r="N93" s="108"/>
+      <c r="O93" s="109"/>
+      <c r="P93" s="109"/>
+      <c r="Q93" s="110"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -7856,29 +7964,29 @@
       <c r="AQ93" s="5"/>
     </row>
     <row r="94" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="171">
+      <c r="A94" s="87">
         <v>3</v>
       </c>
-      <c r="B94" s="172" t="s">
+      <c r="B94" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="173"/>
-      <c r="D94" s="173"/>
-      <c r="E94" s="173"/>
-      <c r="F94" s="173"/>
-      <c r="G94" s="173"/>
-      <c r="H94" s="49" t="s">
+      <c r="C94" s="168"/>
+      <c r="D94" s="168"/>
+      <c r="E94" s="168"/>
+      <c r="F94" s="168"/>
+      <c r="G94" s="168"/>
+      <c r="H94" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="51"/>
-      <c r="L94" s="57"/>
-      <c r="M94" s="57"/>
-      <c r="N94" s="67"/>
-      <c r="O94" s="68"/>
-      <c r="P94" s="68"/>
-      <c r="Q94" s="69"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="61"/>
+      <c r="K94" s="62"/>
+      <c r="L94" s="87"/>
+      <c r="M94" s="87"/>
+      <c r="N94" s="108"/>
+      <c r="O94" s="109"/>
+      <c r="P94" s="109"/>
+      <c r="Q94" s="110"/>
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
@@ -7907,23 +8015,23 @@
       <c r="AQ94" s="5"/>
     </row>
     <row r="95" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="171"/>
-      <c r="B95" s="174"/>
-      <c r="C95" s="175"/>
-      <c r="D95" s="175"/>
-      <c r="E95" s="175"/>
-      <c r="F95" s="175"/>
-      <c r="G95" s="175"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="57"/>
-      <c r="M95" s="57"/>
-      <c r="N95" s="67"/>
-      <c r="O95" s="68"/>
-      <c r="P95" s="68"/>
-      <c r="Q95" s="69"/>
+      <c r="A95" s="87"/>
+      <c r="B95" s="169"/>
+      <c r="C95" s="170"/>
+      <c r="D95" s="170"/>
+      <c r="E95" s="170"/>
+      <c r="F95" s="170"/>
+      <c r="G95" s="170"/>
+      <c r="H95" s="63"/>
+      <c r="I95" s="64"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="87"/>
+      <c r="M95" s="87"/>
+      <c r="N95" s="108"/>
+      <c r="O95" s="109"/>
+      <c r="P95" s="109"/>
+      <c r="Q95" s="110"/>
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
@@ -7952,29 +8060,29 @@
       <c r="AQ95" s="5"/>
     </row>
     <row r="96" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="171">
+      <c r="A96" s="87">
         <v>4</v>
       </c>
-      <c r="B96" s="172" t="s">
+      <c r="B96" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="173"/>
-      <c r="D96" s="173"/>
-      <c r="E96" s="173"/>
-      <c r="F96" s="173"/>
-      <c r="G96" s="173"/>
-      <c r="H96" s="49" t="s">
+      <c r="C96" s="168"/>
+      <c r="D96" s="168"/>
+      <c r="E96" s="168"/>
+      <c r="F96" s="168"/>
+      <c r="G96" s="168"/>
+      <c r="H96" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I96" s="50"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="57"/>
-      <c r="M96" s="57"/>
-      <c r="N96" s="67"/>
-      <c r="O96" s="68"/>
-      <c r="P96" s="68"/>
-      <c r="Q96" s="69"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="61"/>
+      <c r="K96" s="62"/>
+      <c r="L96" s="87"/>
+      <c r="M96" s="87"/>
+      <c r="N96" s="108"/>
+      <c r="O96" s="109"/>
+      <c r="P96" s="109"/>
+      <c r="Q96" s="110"/>
       <c r="R96" s="8"/>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
@@ -8003,23 +8111,23 @@
       <c r="AQ96" s="5"/>
     </row>
     <row r="97" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="171"/>
-      <c r="B97" s="174"/>
-      <c r="C97" s="175"/>
-      <c r="D97" s="175"/>
-      <c r="E97" s="175"/>
-      <c r="F97" s="175"/>
-      <c r="G97" s="175"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="57"/>
-      <c r="M97" s="57"/>
-      <c r="N97" s="67"/>
-      <c r="O97" s="68"/>
-      <c r="P97" s="68"/>
-      <c r="Q97" s="69"/>
+      <c r="A97" s="87"/>
+      <c r="B97" s="169"/>
+      <c r="C97" s="170"/>
+      <c r="D97" s="170"/>
+      <c r="E97" s="170"/>
+      <c r="F97" s="170"/>
+      <c r="G97" s="170"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="65"/>
+      <c r="L97" s="87"/>
+      <c r="M97" s="87"/>
+      <c r="N97" s="108"/>
+      <c r="O97" s="109"/>
+      <c r="P97" s="109"/>
+      <c r="Q97" s="110"/>
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -8048,29 +8156,29 @@
       <c r="AQ97" s="5"/>
     </row>
     <row r="98" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="171">
+      <c r="A98" s="87">
         <v>5</v>
       </c>
-      <c r="B98" s="172" t="s">
+      <c r="B98" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="C98" s="173"/>
-      <c r="D98" s="173"/>
-      <c r="E98" s="173"/>
-      <c r="F98" s="173"/>
-      <c r="G98" s="173"/>
-      <c r="H98" s="49" t="s">
+      <c r="C98" s="168"/>
+      <c r="D98" s="168"/>
+      <c r="E98" s="168"/>
+      <c r="F98" s="168"/>
+      <c r="G98" s="168"/>
+      <c r="H98" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="I98" s="50"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="57"/>
-      <c r="M98" s="57"/>
-      <c r="N98" s="67"/>
-      <c r="O98" s="68"/>
-      <c r="P98" s="68"/>
-      <c r="Q98" s="69"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="61"/>
+      <c r="K98" s="62"/>
+      <c r="L98" s="87"/>
+      <c r="M98" s="87"/>
+      <c r="N98" s="108"/>
+      <c r="O98" s="109"/>
+      <c r="P98" s="109"/>
+      <c r="Q98" s="110"/>
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
@@ -8099,23 +8207,23 @@
       <c r="AQ98" s="5"/>
     </row>
     <row r="99" spans="1:43" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="171"/>
-      <c r="B99" s="174"/>
-      <c r="C99" s="175"/>
-      <c r="D99" s="175"/>
-      <c r="E99" s="175"/>
-      <c r="F99" s="175"/>
-      <c r="G99" s="175"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="57"/>
-      <c r="M99" s="57"/>
-      <c r="N99" s="67"/>
-      <c r="O99" s="68"/>
-      <c r="P99" s="68"/>
-      <c r="Q99" s="69"/>
+      <c r="A99" s="87"/>
+      <c r="B99" s="169"/>
+      <c r="C99" s="170"/>
+      <c r="D99" s="170"/>
+      <c r="E99" s="170"/>
+      <c r="F99" s="170"/>
+      <c r="G99" s="170"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
+      <c r="J99" s="64"/>
+      <c r="K99" s="65"/>
+      <c r="L99" s="87"/>
+      <c r="M99" s="87"/>
+      <c r="N99" s="108"/>
+      <c r="O99" s="109"/>
+      <c r="P99" s="109"/>
+      <c r="Q99" s="110"/>
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
       <c r="T99" s="8"/>
@@ -8144,29 +8252,29 @@
       <c r="AQ99" s="5"/>
     </row>
     <row r="100" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="171">
+      <c r="A100" s="87">
         <v>6</v>
       </c>
-      <c r="B100" s="172" t="s">
+      <c r="B100" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="C100" s="173"/>
-      <c r="D100" s="173"/>
-      <c r="E100" s="173"/>
-      <c r="F100" s="173"/>
-      <c r="G100" s="173"/>
-      <c r="H100" s="49" t="s">
+      <c r="C100" s="168"/>
+      <c r="D100" s="168"/>
+      <c r="E100" s="168"/>
+      <c r="F100" s="168"/>
+      <c r="G100" s="168"/>
+      <c r="H100" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I100" s="50"/>
-      <c r="J100" s="50"/>
-      <c r="K100" s="51"/>
-      <c r="L100" s="57"/>
-      <c r="M100" s="57"/>
-      <c r="N100" s="67"/>
-      <c r="O100" s="68"/>
-      <c r="P100" s="68"/>
-      <c r="Q100" s="69"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="62"/>
+      <c r="L100" s="87"/>
+      <c r="M100" s="87"/>
+      <c r="N100" s="108"/>
+      <c r="O100" s="109"/>
+      <c r="P100" s="109"/>
+      <c r="Q100" s="110"/>
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
       <c r="T100" s="8"/>
@@ -8195,23 +8303,23 @@
       <c r="AQ100" s="5"/>
     </row>
     <row r="101" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="171"/>
-      <c r="B101" s="174"/>
-      <c r="C101" s="175"/>
-      <c r="D101" s="175"/>
-      <c r="E101" s="175"/>
-      <c r="F101" s="175"/>
-      <c r="G101" s="175"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="57"/>
-      <c r="M101" s="57"/>
-      <c r="N101" s="67"/>
-      <c r="O101" s="68"/>
-      <c r="P101" s="68"/>
-      <c r="Q101" s="69"/>
+      <c r="A101" s="87"/>
+      <c r="B101" s="169"/>
+      <c r="C101" s="170"/>
+      <c r="D101" s="170"/>
+      <c r="E101" s="170"/>
+      <c r="F101" s="170"/>
+      <c r="G101" s="170"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="64"/>
+      <c r="J101" s="64"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="87"/>
+      <c r="M101" s="87"/>
+      <c r="N101" s="108"/>
+      <c r="O101" s="109"/>
+      <c r="P101" s="109"/>
+      <c r="Q101" s="110"/>
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
@@ -8240,29 +8348,29 @@
       <c r="AQ101" s="5"/>
     </row>
     <row r="102" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="171">
+      <c r="A102" s="87">
         <v>7</v>
       </c>
-      <c r="B102" s="172" t="s">
+      <c r="B102" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="C102" s="173"/>
-      <c r="D102" s="173"/>
-      <c r="E102" s="173"/>
-      <c r="F102" s="173"/>
-      <c r="G102" s="173"/>
-      <c r="H102" s="49" t="s">
+      <c r="C102" s="168"/>
+      <c r="D102" s="168"/>
+      <c r="E102" s="168"/>
+      <c r="F102" s="168"/>
+      <c r="G102" s="168"/>
+      <c r="H102" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I102" s="50"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="57"/>
-      <c r="M102" s="57"/>
-      <c r="N102" s="67"/>
-      <c r="O102" s="68"/>
-      <c r="P102" s="68"/>
-      <c r="Q102" s="69"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="61"/>
+      <c r="K102" s="62"/>
+      <c r="L102" s="87"/>
+      <c r="M102" s="87"/>
+      <c r="N102" s="108"/>
+      <c r="O102" s="109"/>
+      <c r="P102" s="109"/>
+      <c r="Q102" s="110"/>
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
       <c r="T102" s="8"/>
@@ -8291,23 +8399,23 @@
       <c r="AQ102" s="5"/>
     </row>
     <row r="103" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="171"/>
-      <c r="B103" s="174"/>
-      <c r="C103" s="175"/>
-      <c r="D103" s="175"/>
-      <c r="E103" s="175"/>
-      <c r="F103" s="175"/>
-      <c r="G103" s="175"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="53"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="57"/>
-      <c r="M103" s="57"/>
-      <c r="N103" s="70"/>
-      <c r="O103" s="71"/>
-      <c r="P103" s="71"/>
-      <c r="Q103" s="72"/>
+      <c r="A103" s="87"/>
+      <c r="B103" s="169"/>
+      <c r="C103" s="170"/>
+      <c r="D103" s="170"/>
+      <c r="E103" s="170"/>
+      <c r="F103" s="170"/>
+      <c r="G103" s="170"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
+      <c r="J103" s="64"/>
+      <c r="K103" s="65"/>
+      <c r="L103" s="87"/>
+      <c r="M103" s="87"/>
+      <c r="N103" s="111"/>
+      <c r="O103" s="112"/>
+      <c r="P103" s="112"/>
+      <c r="Q103" s="113"/>
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
@@ -8336,33 +8444,33 @@
       <c r="AQ103" s="7"/>
     </row>
     <row r="104" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="243" t="s">
+      <c r="A104" s="258" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="143" t="s">
+      <c r="B104" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C104" s="244"/>
-      <c r="D104" s="244"/>
-      <c r="E104" s="244"/>
-      <c r="F104" s="244"/>
-      <c r="G104" s="245"/>
-      <c r="H104" s="184" t="s">
+      <c r="C104" s="259"/>
+      <c r="D104" s="259"/>
+      <c r="E104" s="259"/>
+      <c r="F104" s="259"/>
+      <c r="G104" s="260"/>
+      <c r="H104" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="I104" s="144"/>
-      <c r="J104" s="144"/>
-      <c r="K104" s="145"/>
-      <c r="L104" s="216" t="s">
+      <c r="I104" s="137"/>
+      <c r="J104" s="137"/>
+      <c r="K104" s="138"/>
+      <c r="L104" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="M104" s="217"/>
-      <c r="N104" s="216" t="s">
+      <c r="M104" s="183"/>
+      <c r="N104" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="O104" s="220"/>
-      <c r="P104" s="220"/>
-      <c r="Q104" s="217"/>
+      <c r="O104" s="186"/>
+      <c r="P104" s="186"/>
+      <c r="Q104" s="183"/>
       <c r="R104" s="8"/>
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
@@ -8391,23 +8499,23 @@
       <c r="AQ104" s="5"/>
     </row>
     <row r="105" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="87"/>
-      <c r="B105" s="246"/>
-      <c r="C105" s="247"/>
-      <c r="D105" s="247"/>
-      <c r="E105" s="247"/>
-      <c r="F105" s="247"/>
-      <c r="G105" s="248"/>
-      <c r="H105" s="146"/>
-      <c r="I105" s="147"/>
-      <c r="J105" s="147"/>
-      <c r="K105" s="148"/>
-      <c r="L105" s="218"/>
-      <c r="M105" s="219"/>
-      <c r="N105" s="218"/>
-      <c r="O105" s="221"/>
-      <c r="P105" s="221"/>
-      <c r="Q105" s="219"/>
+      <c r="A105" s="49"/>
+      <c r="B105" s="261"/>
+      <c r="C105" s="262"/>
+      <c r="D105" s="262"/>
+      <c r="E105" s="262"/>
+      <c r="F105" s="262"/>
+      <c r="G105" s="263"/>
+      <c r="H105" s="139"/>
+      <c r="I105" s="140"/>
+      <c r="J105" s="140"/>
+      <c r="K105" s="141"/>
+      <c r="L105" s="184"/>
+      <c r="M105" s="185"/>
+      <c r="N105" s="184"/>
+      <c r="O105" s="187"/>
+      <c r="P105" s="187"/>
+      <c r="Q105" s="185"/>
       <c r="R105" s="8"/>
       <c r="S105" s="8"/>
       <c r="T105" s="8"/>
@@ -8436,29 +8544,31 @@
       <c r="AQ105" s="5"/>
     </row>
     <row r="106" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="171">
+      <c r="A106" s="87">
         <v>1</v>
       </c>
-      <c r="B106" s="172" t="s">
+      <c r="B106" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="C106" s="173"/>
-      <c r="D106" s="173"/>
-      <c r="E106" s="173"/>
-      <c r="F106" s="173"/>
-      <c r="G106" s="173"/>
-      <c r="H106" s="178" t="s">
+      <c r="C106" s="168"/>
+      <c r="D106" s="168"/>
+      <c r="E106" s="168"/>
+      <c r="F106" s="168"/>
+      <c r="G106" s="168"/>
+      <c r="H106" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I106" s="179"/>
-      <c r="J106" s="179"/>
-      <c r="K106" s="180"/>
-      <c r="L106" s="57"/>
-      <c r="M106" s="57"/>
-      <c r="N106" s="64"/>
-      <c r="O106" s="65"/>
-      <c r="P106" s="65"/>
-      <c r="Q106" s="66"/>
+      <c r="I106" s="189"/>
+      <c r="J106" s="189"/>
+      <c r="K106" s="190"/>
+      <c r="L106" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M106" s="87"/>
+      <c r="N106" s="105"/>
+      <c r="O106" s="106"/>
+      <c r="P106" s="106"/>
+      <c r="Q106" s="107"/>
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
       <c r="T106" s="8"/>
@@ -8487,23 +8597,23 @@
       <c r="AQ106" s="5"/>
     </row>
     <row r="107" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="171"/>
-      <c r="B107" s="174"/>
-      <c r="C107" s="175"/>
-      <c r="D107" s="175"/>
-      <c r="E107" s="175"/>
-      <c r="F107" s="175"/>
-      <c r="G107" s="175"/>
-      <c r="H107" s="181"/>
-      <c r="I107" s="182"/>
-      <c r="J107" s="182"/>
-      <c r="K107" s="183"/>
-      <c r="L107" s="57"/>
-      <c r="M107" s="57"/>
-      <c r="N107" s="67"/>
-      <c r="O107" s="68"/>
-      <c r="P107" s="68"/>
-      <c r="Q107" s="69"/>
+      <c r="A107" s="87"/>
+      <c r="B107" s="169"/>
+      <c r="C107" s="170"/>
+      <c r="D107" s="170"/>
+      <c r="E107" s="170"/>
+      <c r="F107" s="170"/>
+      <c r="G107" s="170"/>
+      <c r="H107" s="191"/>
+      <c r="I107" s="192"/>
+      <c r="J107" s="192"/>
+      <c r="K107" s="193"/>
+      <c r="L107" s="87"/>
+      <c r="M107" s="87"/>
+      <c r="N107" s="108"/>
+      <c r="O107" s="109"/>
+      <c r="P107" s="109"/>
+      <c r="Q107" s="110"/>
       <c r="R107" s="8"/>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
@@ -8532,29 +8642,31 @@
       <c r="AQ107" s="5"/>
     </row>
     <row r="108" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="171">
+      <c r="A108" s="87">
         <v>2</v>
       </c>
-      <c r="B108" s="172" t="s">
+      <c r="B108" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="173"/>
-      <c r="D108" s="173"/>
-      <c r="E108" s="173"/>
-      <c r="F108" s="173"/>
-      <c r="G108" s="173"/>
-      <c r="H108" s="178" t="s">
+      <c r="C108" s="168"/>
+      <c r="D108" s="168"/>
+      <c r="E108" s="168"/>
+      <c r="F108" s="168"/>
+      <c r="G108" s="168"/>
+      <c r="H108" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I108" s="179"/>
-      <c r="J108" s="179"/>
-      <c r="K108" s="180"/>
-      <c r="L108" s="57"/>
-      <c r="M108" s="57"/>
-      <c r="N108" s="67"/>
-      <c r="O108" s="68"/>
-      <c r="P108" s="68"/>
-      <c r="Q108" s="69"/>
+      <c r="I108" s="189"/>
+      <c r="J108" s="189"/>
+      <c r="K108" s="190"/>
+      <c r="L108" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M108" s="87"/>
+      <c r="N108" s="108"/>
+      <c r="O108" s="109"/>
+      <c r="P108" s="109"/>
+      <c r="Q108" s="110"/>
       <c r="R108" s="8"/>
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
@@ -8583,23 +8695,23 @@
       <c r="AQ108" s="5"/>
     </row>
     <row r="109" spans="1:43" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="171"/>
-      <c r="B109" s="174"/>
-      <c r="C109" s="175"/>
-      <c r="D109" s="175"/>
-      <c r="E109" s="175"/>
-      <c r="F109" s="175"/>
-      <c r="G109" s="175"/>
-      <c r="H109" s="181"/>
-      <c r="I109" s="182"/>
-      <c r="J109" s="182"/>
-      <c r="K109" s="183"/>
-      <c r="L109" s="57"/>
-      <c r="M109" s="57"/>
-      <c r="N109" s="67"/>
-      <c r="O109" s="68"/>
-      <c r="P109" s="68"/>
-      <c r="Q109" s="69"/>
+      <c r="A109" s="87"/>
+      <c r="B109" s="169"/>
+      <c r="C109" s="170"/>
+      <c r="D109" s="170"/>
+      <c r="E109" s="170"/>
+      <c r="F109" s="170"/>
+      <c r="G109" s="170"/>
+      <c r="H109" s="191"/>
+      <c r="I109" s="192"/>
+      <c r="J109" s="192"/>
+      <c r="K109" s="193"/>
+      <c r="L109" s="87"/>
+      <c r="M109" s="87"/>
+      <c r="N109" s="108"/>
+      <c r="O109" s="109"/>
+      <c r="P109" s="109"/>
+      <c r="Q109" s="110"/>
       <c r="R109" s="8"/>
       <c r="S109" s="8"/>
       <c r="T109" s="8"/>
@@ -8628,29 +8740,31 @@
       <c r="AQ109" s="5"/>
     </row>
     <row r="110" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="171">
+      <c r="A110" s="87">
         <v>3</v>
       </c>
-      <c r="B110" s="172" t="s">
+      <c r="B110" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="173"/>
-      <c r="D110" s="173"/>
-      <c r="E110" s="173"/>
-      <c r="F110" s="173"/>
-      <c r="G110" s="173"/>
-      <c r="H110" s="178" t="s">
+      <c r="C110" s="168"/>
+      <c r="D110" s="168"/>
+      <c r="E110" s="168"/>
+      <c r="F110" s="168"/>
+      <c r="G110" s="168"/>
+      <c r="H110" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I110" s="179"/>
-      <c r="J110" s="179"/>
-      <c r="K110" s="180"/>
-      <c r="L110" s="57"/>
-      <c r="M110" s="57"/>
-      <c r="N110" s="67"/>
-      <c r="O110" s="68"/>
-      <c r="P110" s="68"/>
-      <c r="Q110" s="69"/>
+      <c r="I110" s="189"/>
+      <c r="J110" s="189"/>
+      <c r="K110" s="190"/>
+      <c r="L110" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M110" s="87"/>
+      <c r="N110" s="108"/>
+      <c r="O110" s="109"/>
+      <c r="P110" s="109"/>
+      <c r="Q110" s="110"/>
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
       <c r="T110" s="8"/>
@@ -8679,23 +8793,23 @@
       <c r="AQ110" s="5"/>
     </row>
     <row r="111" spans="1:43" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="171"/>
-      <c r="B111" s="174"/>
-      <c r="C111" s="175"/>
-      <c r="D111" s="175"/>
-      <c r="E111" s="175"/>
-      <c r="F111" s="175"/>
-      <c r="G111" s="175"/>
-      <c r="H111" s="181"/>
-      <c r="I111" s="182"/>
-      <c r="J111" s="182"/>
-      <c r="K111" s="183"/>
-      <c r="L111" s="57"/>
-      <c r="M111" s="57"/>
-      <c r="N111" s="67"/>
-      <c r="O111" s="68"/>
-      <c r="P111" s="68"/>
-      <c r="Q111" s="69"/>
+      <c r="A111" s="87"/>
+      <c r="B111" s="169"/>
+      <c r="C111" s="170"/>
+      <c r="D111" s="170"/>
+      <c r="E111" s="170"/>
+      <c r="F111" s="170"/>
+      <c r="G111" s="170"/>
+      <c r="H111" s="191"/>
+      <c r="I111" s="192"/>
+      <c r="J111" s="192"/>
+      <c r="K111" s="193"/>
+      <c r="L111" s="87"/>
+      <c r="M111" s="87"/>
+      <c r="N111" s="108"/>
+      <c r="O111" s="109"/>
+      <c r="P111" s="109"/>
+      <c r="Q111" s="110"/>
       <c r="R111" s="8"/>
       <c r="S111" s="8"/>
       <c r="T111" s="8"/>
@@ -8724,29 +8838,31 @@
       <c r="AQ111" s="5"/>
     </row>
     <row r="112" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="171">
+      <c r="A112" s="87">
         <v>4</v>
       </c>
-      <c r="B112" s="172" t="s">
+      <c r="B112" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="C112" s="173"/>
-      <c r="D112" s="173"/>
-      <c r="E112" s="173"/>
-      <c r="F112" s="173"/>
-      <c r="G112" s="173"/>
-      <c r="H112" s="178" t="s">
+      <c r="C112" s="168"/>
+      <c r="D112" s="168"/>
+      <c r="E112" s="168"/>
+      <c r="F112" s="168"/>
+      <c r="G112" s="168"/>
+      <c r="H112" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I112" s="179"/>
-      <c r="J112" s="179"/>
-      <c r="K112" s="180"/>
-      <c r="L112" s="57"/>
-      <c r="M112" s="57"/>
-      <c r="N112" s="67"/>
-      <c r="O112" s="68"/>
-      <c r="P112" s="68"/>
-      <c r="Q112" s="69"/>
+      <c r="I112" s="189"/>
+      <c r="J112" s="189"/>
+      <c r="K112" s="190"/>
+      <c r="L112" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M112" s="87"/>
+      <c r="N112" s="108"/>
+      <c r="O112" s="109"/>
+      <c r="P112" s="109"/>
+      <c r="Q112" s="110"/>
       <c r="R112" s="8"/>
       <c r="S112" s="8"/>
       <c r="T112" s="8"/>
@@ -8775,23 +8891,23 @@
       <c r="AQ112" s="5"/>
     </row>
     <row r="113" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="171"/>
-      <c r="B113" s="174"/>
-      <c r="C113" s="175"/>
-      <c r="D113" s="175"/>
-      <c r="E113" s="175"/>
-      <c r="F113" s="175"/>
-      <c r="G113" s="175"/>
-      <c r="H113" s="181"/>
-      <c r="I113" s="182"/>
-      <c r="J113" s="182"/>
-      <c r="K113" s="183"/>
-      <c r="L113" s="57"/>
-      <c r="M113" s="57"/>
-      <c r="N113" s="67"/>
-      <c r="O113" s="68"/>
-      <c r="P113" s="68"/>
-      <c r="Q113" s="69"/>
+      <c r="A113" s="87"/>
+      <c r="B113" s="169"/>
+      <c r="C113" s="170"/>
+      <c r="D113" s="170"/>
+      <c r="E113" s="170"/>
+      <c r="F113" s="170"/>
+      <c r="G113" s="170"/>
+      <c r="H113" s="191"/>
+      <c r="I113" s="192"/>
+      <c r="J113" s="192"/>
+      <c r="K113" s="193"/>
+      <c r="L113" s="87"/>
+      <c r="M113" s="87"/>
+      <c r="N113" s="108"/>
+      <c r="O113" s="109"/>
+      <c r="P113" s="109"/>
+      <c r="Q113" s="110"/>
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
       <c r="T113" s="8"/>
@@ -8820,29 +8936,31 @@
       <c r="AQ113" s="5"/>
     </row>
     <row r="114" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="171">
+      <c r="A114" s="87">
         <v>5</v>
       </c>
-      <c r="B114" s="172" t="s">
+      <c r="B114" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="C114" s="173"/>
-      <c r="D114" s="173"/>
-      <c r="E114" s="173"/>
-      <c r="F114" s="173"/>
-      <c r="G114" s="173"/>
-      <c r="H114" s="178" t="s">
+      <c r="C114" s="168"/>
+      <c r="D114" s="168"/>
+      <c r="E114" s="168"/>
+      <c r="F114" s="168"/>
+      <c r="G114" s="168"/>
+      <c r="H114" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I114" s="179"/>
-      <c r="J114" s="179"/>
-      <c r="K114" s="180"/>
-      <c r="L114" s="57"/>
-      <c r="M114" s="57"/>
-      <c r="N114" s="67"/>
-      <c r="O114" s="68"/>
-      <c r="P114" s="68"/>
-      <c r="Q114" s="69"/>
+      <c r="I114" s="189"/>
+      <c r="J114" s="189"/>
+      <c r="K114" s="190"/>
+      <c r="L114" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M114" s="87"/>
+      <c r="N114" s="108"/>
+      <c r="O114" s="109"/>
+      <c r="P114" s="109"/>
+      <c r="Q114" s="110"/>
       <c r="R114" s="8"/>
       <c r="S114" s="8"/>
       <c r="T114" s="8"/>
@@ -8871,23 +8989,23 @@
       <c r="AQ114" s="5"/>
     </row>
     <row r="115" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="171"/>
-      <c r="B115" s="174"/>
-      <c r="C115" s="175"/>
-      <c r="D115" s="175"/>
-      <c r="E115" s="175"/>
-      <c r="F115" s="175"/>
-      <c r="G115" s="175"/>
-      <c r="H115" s="181"/>
-      <c r="I115" s="182"/>
-      <c r="J115" s="182"/>
-      <c r="K115" s="183"/>
-      <c r="L115" s="57"/>
-      <c r="M115" s="57"/>
-      <c r="N115" s="67"/>
-      <c r="O115" s="68"/>
-      <c r="P115" s="68"/>
-      <c r="Q115" s="69"/>
+      <c r="A115" s="87"/>
+      <c r="B115" s="169"/>
+      <c r="C115" s="170"/>
+      <c r="D115" s="170"/>
+      <c r="E115" s="170"/>
+      <c r="F115" s="170"/>
+      <c r="G115" s="170"/>
+      <c r="H115" s="191"/>
+      <c r="I115" s="192"/>
+      <c r="J115" s="192"/>
+      <c r="K115" s="193"/>
+      <c r="L115" s="87"/>
+      <c r="M115" s="87"/>
+      <c r="N115" s="108"/>
+      <c r="O115" s="109"/>
+      <c r="P115" s="109"/>
+      <c r="Q115" s="110"/>
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
       <c r="T115" s="8"/>
@@ -8916,29 +9034,31 @@
       <c r="AQ115" s="5"/>
     </row>
     <row r="116" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="171">
+      <c r="A116" s="87">
         <v>6</v>
       </c>
-      <c r="B116" s="172" t="s">
+      <c r="B116" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="173"/>
-      <c r="D116" s="173"/>
-      <c r="E116" s="173"/>
-      <c r="F116" s="173"/>
-      <c r="G116" s="173"/>
-      <c r="H116" s="178" t="s">
+      <c r="C116" s="168"/>
+      <c r="D116" s="168"/>
+      <c r="E116" s="168"/>
+      <c r="F116" s="168"/>
+      <c r="G116" s="168"/>
+      <c r="H116" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I116" s="179"/>
-      <c r="J116" s="179"/>
-      <c r="K116" s="180"/>
-      <c r="L116" s="57"/>
-      <c r="M116" s="57"/>
-      <c r="N116" s="67"/>
-      <c r="O116" s="68"/>
-      <c r="P116" s="68"/>
-      <c r="Q116" s="69"/>
+      <c r="I116" s="189"/>
+      <c r="J116" s="189"/>
+      <c r="K116" s="190"/>
+      <c r="L116" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M116" s="87"/>
+      <c r="N116" s="108"/>
+      <c r="O116" s="109"/>
+      <c r="P116" s="109"/>
+      <c r="Q116" s="110"/>
       <c r="R116" s="8"/>
       <c r="S116" s="8"/>
       <c r="T116" s="8"/>
@@ -8967,23 +9087,23 @@
       <c r="AQ116" s="5"/>
     </row>
     <row r="117" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="171"/>
-      <c r="B117" s="174"/>
-      <c r="C117" s="175"/>
-      <c r="D117" s="175"/>
-      <c r="E117" s="175"/>
-      <c r="F117" s="175"/>
-      <c r="G117" s="175"/>
-      <c r="H117" s="181"/>
-      <c r="I117" s="182"/>
-      <c r="J117" s="182"/>
-      <c r="K117" s="183"/>
-      <c r="L117" s="57"/>
-      <c r="M117" s="57"/>
-      <c r="N117" s="67"/>
-      <c r="O117" s="68"/>
-      <c r="P117" s="68"/>
-      <c r="Q117" s="69"/>
+      <c r="A117" s="87"/>
+      <c r="B117" s="169"/>
+      <c r="C117" s="170"/>
+      <c r="D117" s="170"/>
+      <c r="E117" s="170"/>
+      <c r="F117" s="170"/>
+      <c r="G117" s="170"/>
+      <c r="H117" s="191"/>
+      <c r="I117" s="192"/>
+      <c r="J117" s="192"/>
+      <c r="K117" s="193"/>
+      <c r="L117" s="87"/>
+      <c r="M117" s="87"/>
+      <c r="N117" s="108"/>
+      <c r="O117" s="109"/>
+      <c r="P117" s="109"/>
+      <c r="Q117" s="110"/>
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
@@ -9012,29 +9132,31 @@
       <c r="AQ117" s="5"/>
     </row>
     <row r="118" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="171">
+      <c r="A118" s="87">
         <v>7</v>
       </c>
-      <c r="B118" s="172" t="s">
+      <c r="B118" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="173"/>
-      <c r="D118" s="173"/>
-      <c r="E118" s="173"/>
-      <c r="F118" s="173"/>
-      <c r="G118" s="173"/>
-      <c r="H118" s="178" t="s">
+      <c r="C118" s="168"/>
+      <c r="D118" s="168"/>
+      <c r="E118" s="168"/>
+      <c r="F118" s="168"/>
+      <c r="G118" s="168"/>
+      <c r="H118" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I118" s="179"/>
-      <c r="J118" s="179"/>
-      <c r="K118" s="180"/>
-      <c r="L118" s="57"/>
-      <c r="M118" s="57"/>
-      <c r="N118" s="67"/>
-      <c r="O118" s="68"/>
-      <c r="P118" s="68"/>
-      <c r="Q118" s="69"/>
+      <c r="I118" s="189"/>
+      <c r="J118" s="189"/>
+      <c r="K118" s="190"/>
+      <c r="L118" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M118" s="87"/>
+      <c r="N118" s="108"/>
+      <c r="O118" s="109"/>
+      <c r="P118" s="109"/>
+      <c r="Q118" s="110"/>
       <c r="R118" s="8"/>
       <c r="S118" s="8"/>
       <c r="T118" s="8"/>
@@ -9063,23 +9185,23 @@
       <c r="AQ118" s="5"/>
     </row>
     <row r="119" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="171"/>
-      <c r="B119" s="174"/>
-      <c r="C119" s="175"/>
-      <c r="D119" s="175"/>
-      <c r="E119" s="175"/>
-      <c r="F119" s="175"/>
-      <c r="G119" s="175"/>
-      <c r="H119" s="181"/>
-      <c r="I119" s="182"/>
-      <c r="J119" s="182"/>
-      <c r="K119" s="183"/>
-      <c r="L119" s="57"/>
-      <c r="M119" s="57"/>
-      <c r="N119" s="67"/>
-      <c r="O119" s="68"/>
-      <c r="P119" s="68"/>
-      <c r="Q119" s="69"/>
+      <c r="A119" s="87"/>
+      <c r="B119" s="169"/>
+      <c r="C119" s="170"/>
+      <c r="D119" s="170"/>
+      <c r="E119" s="170"/>
+      <c r="F119" s="170"/>
+      <c r="G119" s="170"/>
+      <c r="H119" s="191"/>
+      <c r="I119" s="192"/>
+      <c r="J119" s="192"/>
+      <c r="K119" s="193"/>
+      <c r="L119" s="87"/>
+      <c r="M119" s="87"/>
+      <c r="N119" s="108"/>
+      <c r="O119" s="109"/>
+      <c r="P119" s="109"/>
+      <c r="Q119" s="110"/>
       <c r="R119" s="8"/>
       <c r="S119" s="8"/>
       <c r="T119" s="8"/>
@@ -9108,29 +9230,31 @@
       <c r="AQ119" s="5"/>
     </row>
     <row r="120" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="171">
+      <c r="A120" s="87">
         <v>8</v>
       </c>
-      <c r="B120" s="172" t="s">
+      <c r="B120" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="173"/>
-      <c r="D120" s="173"/>
-      <c r="E120" s="173"/>
-      <c r="F120" s="173"/>
-      <c r="G120" s="173"/>
-      <c r="H120" s="178" t="s">
+      <c r="C120" s="168"/>
+      <c r="D120" s="168"/>
+      <c r="E120" s="168"/>
+      <c r="F120" s="168"/>
+      <c r="G120" s="168"/>
+      <c r="H120" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I120" s="179"/>
-      <c r="J120" s="179"/>
-      <c r="K120" s="180"/>
-      <c r="L120" s="57"/>
-      <c r="M120" s="57"/>
-      <c r="N120" s="67"/>
-      <c r="O120" s="68"/>
-      <c r="P120" s="68"/>
-      <c r="Q120" s="69"/>
+      <c r="I120" s="189"/>
+      <c r="J120" s="189"/>
+      <c r="K120" s="190"/>
+      <c r="L120" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M120" s="87"/>
+      <c r="N120" s="108"/>
+      <c r="O120" s="109"/>
+      <c r="P120" s="109"/>
+      <c r="Q120" s="110"/>
       <c r="R120" s="8"/>
       <c r="S120" s="8"/>
       <c r="T120" s="8"/>
@@ -9159,23 +9283,23 @@
       <c r="AQ120" s="5"/>
     </row>
     <row r="121" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="171"/>
-      <c r="B121" s="174"/>
-      <c r="C121" s="175"/>
-      <c r="D121" s="175"/>
-      <c r="E121" s="175"/>
-      <c r="F121" s="175"/>
-      <c r="G121" s="175"/>
-      <c r="H121" s="181"/>
-      <c r="I121" s="182"/>
-      <c r="J121" s="182"/>
-      <c r="K121" s="183"/>
-      <c r="L121" s="57"/>
-      <c r="M121" s="57"/>
-      <c r="N121" s="67"/>
-      <c r="O121" s="68"/>
-      <c r="P121" s="68"/>
-      <c r="Q121" s="69"/>
+      <c r="A121" s="87"/>
+      <c r="B121" s="169"/>
+      <c r="C121" s="170"/>
+      <c r="D121" s="170"/>
+      <c r="E121" s="170"/>
+      <c r="F121" s="170"/>
+      <c r="G121" s="170"/>
+      <c r="H121" s="191"/>
+      <c r="I121" s="192"/>
+      <c r="J121" s="192"/>
+      <c r="K121" s="193"/>
+      <c r="L121" s="87"/>
+      <c r="M121" s="87"/>
+      <c r="N121" s="108"/>
+      <c r="O121" s="109"/>
+      <c r="P121" s="109"/>
+      <c r="Q121" s="110"/>
       <c r="R121" s="8"/>
       <c r="S121" s="8"/>
       <c r="T121" s="8"/>
@@ -9204,29 +9328,31 @@
       <c r="AQ121" s="5"/>
     </row>
     <row r="122" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="171">
+      <c r="A122" s="87">
         <v>9</v>
       </c>
-      <c r="B122" s="172" t="s">
+      <c r="B122" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="C122" s="173"/>
-      <c r="D122" s="173"/>
-      <c r="E122" s="173"/>
-      <c r="F122" s="173"/>
-      <c r="G122" s="173"/>
-      <c r="H122" s="178" t="s">
+      <c r="C122" s="168"/>
+      <c r="D122" s="168"/>
+      <c r="E122" s="168"/>
+      <c r="F122" s="168"/>
+      <c r="G122" s="168"/>
+      <c r="H122" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I122" s="179"/>
-      <c r="J122" s="179"/>
-      <c r="K122" s="180"/>
-      <c r="L122" s="57"/>
-      <c r="M122" s="57"/>
-      <c r="N122" s="67"/>
-      <c r="O122" s="68"/>
-      <c r="P122" s="68"/>
-      <c r="Q122" s="69"/>
+      <c r="I122" s="189"/>
+      <c r="J122" s="189"/>
+      <c r="K122" s="190"/>
+      <c r="L122" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M122" s="87"/>
+      <c r="N122" s="108"/>
+      <c r="O122" s="109"/>
+      <c r="P122" s="109"/>
+      <c r="Q122" s="110"/>
       <c r="R122" s="8"/>
       <c r="S122" s="8"/>
       <c r="T122" s="8"/>
@@ -9255,23 +9381,23 @@
       <c r="AQ122" s="5"/>
     </row>
     <row r="123" spans="1:43" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="171"/>
-      <c r="B123" s="174"/>
-      <c r="C123" s="175"/>
-      <c r="D123" s="175"/>
-      <c r="E123" s="175"/>
-      <c r="F123" s="175"/>
-      <c r="G123" s="175"/>
-      <c r="H123" s="181"/>
-      <c r="I123" s="182"/>
-      <c r="J123" s="182"/>
-      <c r="K123" s="183"/>
-      <c r="L123" s="57"/>
-      <c r="M123" s="57"/>
-      <c r="N123" s="67"/>
-      <c r="O123" s="68"/>
-      <c r="P123" s="68"/>
-      <c r="Q123" s="69"/>
+      <c r="A123" s="87"/>
+      <c r="B123" s="169"/>
+      <c r="C123" s="170"/>
+      <c r="D123" s="170"/>
+      <c r="E123" s="170"/>
+      <c r="F123" s="170"/>
+      <c r="G123" s="170"/>
+      <c r="H123" s="191"/>
+      <c r="I123" s="192"/>
+      <c r="J123" s="192"/>
+      <c r="K123" s="193"/>
+      <c r="L123" s="87"/>
+      <c r="M123" s="87"/>
+      <c r="N123" s="108"/>
+      <c r="O123" s="109"/>
+      <c r="P123" s="109"/>
+      <c r="Q123" s="110"/>
       <c r="R123" s="8"/>
       <c r="S123" s="8"/>
       <c r="T123" s="8"/>
@@ -9300,29 +9426,31 @@
       <c r="AQ123" s="5"/>
     </row>
     <row r="124" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="222">
+      <c r="A124" s="80">
         <v>10</v>
       </c>
-      <c r="B124" s="172" t="s">
+      <c r="B124" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="173"/>
-      <c r="D124" s="173"/>
-      <c r="E124" s="173"/>
-      <c r="F124" s="173"/>
-      <c r="G124" s="173"/>
-      <c r="H124" s="178" t="s">
+      <c r="C124" s="168"/>
+      <c r="D124" s="168"/>
+      <c r="E124" s="168"/>
+      <c r="F124" s="168"/>
+      <c r="G124" s="168"/>
+      <c r="H124" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I124" s="179"/>
-      <c r="J124" s="179"/>
-      <c r="K124" s="180"/>
-      <c r="L124" s="57"/>
-      <c r="M124" s="57"/>
-      <c r="N124" s="67"/>
-      <c r="O124" s="68"/>
-      <c r="P124" s="68"/>
-      <c r="Q124" s="69"/>
+      <c r="I124" s="189"/>
+      <c r="J124" s="189"/>
+      <c r="K124" s="190"/>
+      <c r="L124" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M124" s="87"/>
+      <c r="N124" s="108"/>
+      <c r="O124" s="109"/>
+      <c r="P124" s="109"/>
+      <c r="Q124" s="110"/>
       <c r="R124" s="8"/>
       <c r="S124" s="8"/>
       <c r="T124" s="8"/>
@@ -9351,23 +9479,23 @@
       <c r="AQ124" s="5"/>
     </row>
     <row r="125" spans="1:43" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="223"/>
-      <c r="B125" s="174"/>
-      <c r="C125" s="175"/>
-      <c r="D125" s="175"/>
-      <c r="E125" s="175"/>
-      <c r="F125" s="175"/>
-      <c r="G125" s="175"/>
-      <c r="H125" s="181"/>
-      <c r="I125" s="182"/>
-      <c r="J125" s="182"/>
-      <c r="K125" s="183"/>
-      <c r="L125" s="57"/>
-      <c r="M125" s="57"/>
-      <c r="N125" s="67"/>
-      <c r="O125" s="68"/>
-      <c r="P125" s="68"/>
-      <c r="Q125" s="69"/>
+      <c r="A125" s="180"/>
+      <c r="B125" s="169"/>
+      <c r="C125" s="170"/>
+      <c r="D125" s="170"/>
+      <c r="E125" s="170"/>
+      <c r="F125" s="170"/>
+      <c r="G125" s="170"/>
+      <c r="H125" s="191"/>
+      <c r="I125" s="192"/>
+      <c r="J125" s="192"/>
+      <c r="K125" s="193"/>
+      <c r="L125" s="87"/>
+      <c r="M125" s="87"/>
+      <c r="N125" s="108"/>
+      <c r="O125" s="109"/>
+      <c r="P125" s="109"/>
+      <c r="Q125" s="110"/>
       <c r="R125" s="8"/>
       <c r="S125" s="8"/>
       <c r="T125" s="8"/>
@@ -9396,29 +9524,31 @@
       <c r="AQ125" s="5"/>
     </row>
     <row r="126" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="222">
+      <c r="A126" s="80">
         <v>11</v>
       </c>
-      <c r="B126" s="172" t="s">
+      <c r="B126" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="C126" s="173"/>
-      <c r="D126" s="173"/>
-      <c r="E126" s="173"/>
-      <c r="F126" s="173"/>
-      <c r="G126" s="173"/>
-      <c r="H126" s="178" t="s">
+      <c r="C126" s="168"/>
+      <c r="D126" s="168"/>
+      <c r="E126" s="168"/>
+      <c r="F126" s="168"/>
+      <c r="G126" s="168"/>
+      <c r="H126" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I126" s="179"/>
-      <c r="J126" s="179"/>
-      <c r="K126" s="180"/>
-      <c r="L126" s="57"/>
-      <c r="M126" s="57"/>
-      <c r="N126" s="67"/>
-      <c r="O126" s="68"/>
-      <c r="P126" s="68"/>
-      <c r="Q126" s="69"/>
+      <c r="I126" s="189"/>
+      <c r="J126" s="189"/>
+      <c r="K126" s="190"/>
+      <c r="L126" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M126" s="87"/>
+      <c r="N126" s="108"/>
+      <c r="O126" s="109"/>
+      <c r="P126" s="109"/>
+      <c r="Q126" s="110"/>
       <c r="R126" s="8"/>
       <c r="S126" s="8"/>
       <c r="T126" s="8"/>
@@ -9447,23 +9577,23 @@
       <c r="AQ126" s="5"/>
     </row>
     <row r="127" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="223"/>
-      <c r="B127" s="174"/>
-      <c r="C127" s="175"/>
-      <c r="D127" s="175"/>
-      <c r="E127" s="175"/>
-      <c r="F127" s="175"/>
-      <c r="G127" s="175"/>
-      <c r="H127" s="181"/>
-      <c r="I127" s="182"/>
-      <c r="J127" s="182"/>
-      <c r="K127" s="183"/>
-      <c r="L127" s="57"/>
-      <c r="M127" s="57"/>
-      <c r="N127" s="67"/>
-      <c r="O127" s="68"/>
-      <c r="P127" s="68"/>
-      <c r="Q127" s="69"/>
+      <c r="A127" s="180"/>
+      <c r="B127" s="169"/>
+      <c r="C127" s="170"/>
+      <c r="D127" s="170"/>
+      <c r="E127" s="170"/>
+      <c r="F127" s="170"/>
+      <c r="G127" s="170"/>
+      <c r="H127" s="191"/>
+      <c r="I127" s="192"/>
+      <c r="J127" s="192"/>
+      <c r="K127" s="193"/>
+      <c r="L127" s="87"/>
+      <c r="M127" s="87"/>
+      <c r="N127" s="108"/>
+      <c r="O127" s="109"/>
+      <c r="P127" s="109"/>
+      <c r="Q127" s="110"/>
       <c r="R127" s="8"/>
       <c r="S127" s="8"/>
       <c r="T127" s="8"/>
@@ -9492,29 +9622,31 @@
       <c r="AQ127" s="5"/>
     </row>
     <row r="128" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="101">
+      <c r="A128" s="94">
         <v>12</v>
       </c>
-      <c r="B128" s="172" t="s">
+      <c r="B128" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="173"/>
-      <c r="D128" s="173"/>
-      <c r="E128" s="173"/>
-      <c r="F128" s="173"/>
-      <c r="G128" s="173"/>
-      <c r="H128" s="178" t="s">
+      <c r="C128" s="168"/>
+      <c r="D128" s="168"/>
+      <c r="E128" s="168"/>
+      <c r="F128" s="168"/>
+      <c r="G128" s="168"/>
+      <c r="H128" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I128" s="179"/>
-      <c r="J128" s="179"/>
-      <c r="K128" s="180"/>
-      <c r="L128" s="64"/>
-      <c r="M128" s="66"/>
-      <c r="N128" s="67"/>
-      <c r="O128" s="68"/>
-      <c r="P128" s="68"/>
-      <c r="Q128" s="69"/>
+      <c r="I128" s="189"/>
+      <c r="J128" s="189"/>
+      <c r="K128" s="190"/>
+      <c r="L128" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M128" s="87"/>
+      <c r="N128" s="108"/>
+      <c r="O128" s="109"/>
+      <c r="P128" s="109"/>
+      <c r="Q128" s="110"/>
       <c r="R128" s="8"/>
       <c r="S128" s="8"/>
       <c r="T128" s="8"/>
@@ -9543,23 +9675,23 @@
       <c r="AQ128" s="5"/>
     </row>
     <row r="129" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="103"/>
-      <c r="B129" s="174"/>
-      <c r="C129" s="175"/>
-      <c r="D129" s="175"/>
-      <c r="E129" s="175"/>
-      <c r="F129" s="175"/>
-      <c r="G129" s="175"/>
-      <c r="H129" s="181"/>
-      <c r="I129" s="182"/>
-      <c r="J129" s="182"/>
-      <c r="K129" s="183"/>
-      <c r="L129" s="70"/>
-      <c r="M129" s="72"/>
-      <c r="N129" s="70"/>
-      <c r="O129" s="71"/>
-      <c r="P129" s="71"/>
-      <c r="Q129" s="72"/>
+      <c r="A129" s="96"/>
+      <c r="B129" s="169"/>
+      <c r="C129" s="170"/>
+      <c r="D129" s="170"/>
+      <c r="E129" s="170"/>
+      <c r="F129" s="170"/>
+      <c r="G129" s="170"/>
+      <c r="H129" s="191"/>
+      <c r="I129" s="192"/>
+      <c r="J129" s="192"/>
+      <c r="K129" s="193"/>
+      <c r="L129" s="87"/>
+      <c r="M129" s="87"/>
+      <c r="N129" s="111"/>
+      <c r="O129" s="112"/>
+      <c r="P129" s="112"/>
+      <c r="Q129" s="113"/>
       <c r="R129" s="8"/>
       <c r="S129" s="8"/>
       <c r="T129" s="8"/>
@@ -9588,278 +9720,278 @@
       <c r="AQ129" s="5"/>
     </row>
     <row r="130" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="224" t="s">
+      <c r="A130" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="224"/>
-      <c r="C130" s="224"/>
-      <c r="D130" s="224"/>
-      <c r="E130" s="224"/>
-      <c r="F130" s="224"/>
-      <c r="G130" s="224"/>
-      <c r="H130" s="224"/>
-      <c r="I130" s="224"/>
-      <c r="J130" s="224"/>
-      <c r="K130" s="224"/>
-      <c r="L130" s="224"/>
-      <c r="M130" s="224"/>
-      <c r="N130" s="224"/>
-      <c r="O130" s="224"/>
-      <c r="P130" s="224"/>
-      <c r="Q130" s="224"/>
-      <c r="R130" s="224"/>
-      <c r="S130" s="224"/>
-      <c r="T130" s="224"/>
-      <c r="U130" s="224"/>
-      <c r="V130" s="224"/>
-      <c r="W130" s="224"/>
-      <c r="X130" s="224"/>
-      <c r="Y130" s="224"/>
-      <c r="Z130" s="224"/>
-      <c r="AA130" s="224"/>
-      <c r="AB130" s="224"/>
-      <c r="AC130" s="224"/>
-      <c r="AD130" s="224"/>
-      <c r="AE130" s="224"/>
-      <c r="AF130" s="224"/>
-      <c r="AG130" s="227" t="s">
+      <c r="B130" s="222"/>
+      <c r="C130" s="222"/>
+      <c r="D130" s="222"/>
+      <c r="E130" s="222"/>
+      <c r="F130" s="222"/>
+      <c r="G130" s="222"/>
+      <c r="H130" s="222"/>
+      <c r="I130" s="222"/>
+      <c r="J130" s="222"/>
+      <c r="K130" s="222"/>
+      <c r="L130" s="222"/>
+      <c r="M130" s="222"/>
+      <c r="N130" s="222"/>
+      <c r="O130" s="222"/>
+      <c r="P130" s="222"/>
+      <c r="Q130" s="222"/>
+      <c r="R130" s="222"/>
+      <c r="S130" s="222"/>
+      <c r="T130" s="222"/>
+      <c r="U130" s="222"/>
+      <c r="V130" s="222"/>
+      <c r="W130" s="222"/>
+      <c r="X130" s="222"/>
+      <c r="Y130" s="222"/>
+      <c r="Z130" s="222"/>
+      <c r="AA130" s="222"/>
+      <c r="AB130" s="222"/>
+      <c r="AC130" s="222"/>
+      <c r="AD130" s="222"/>
+      <c r="AE130" s="222"/>
+      <c r="AF130" s="222"/>
+      <c r="AG130" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="AH130" s="227"/>
-      <c r="AI130" s="227"/>
-      <c r="AJ130" s="227"/>
-      <c r="AK130" s="227"/>
-      <c r="AL130" s="227"/>
-      <c r="AM130" s="227"/>
-      <c r="AN130" s="227"/>
-      <c r="AO130" s="227"/>
-      <c r="AP130" s="227"/>
-      <c r="AQ130" s="227"/>
+      <c r="AH130" s="238"/>
+      <c r="AI130" s="238"/>
+      <c r="AJ130" s="238"/>
+      <c r="AK130" s="238"/>
+      <c r="AL130" s="238"/>
+      <c r="AM130" s="238"/>
+      <c r="AN130" s="238"/>
+      <c r="AO130" s="238"/>
+      <c r="AP130" s="238"/>
+      <c r="AQ130" s="239"/>
     </row>
     <row r="131" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="225"/>
-      <c r="B131" s="225"/>
-      <c r="C131" s="225"/>
-      <c r="D131" s="225"/>
-      <c r="E131" s="225"/>
-      <c r="F131" s="225"/>
-      <c r="G131" s="225"/>
-      <c r="H131" s="225"/>
-      <c r="I131" s="225"/>
-      <c r="J131" s="225"/>
-      <c r="K131" s="225"/>
-      <c r="L131" s="225"/>
-      <c r="M131" s="225"/>
-      <c r="N131" s="225"/>
-      <c r="O131" s="225"/>
-      <c r="P131" s="225"/>
-      <c r="Q131" s="225"/>
-      <c r="R131" s="225"/>
-      <c r="S131" s="225"/>
-      <c r="T131" s="225"/>
-      <c r="U131" s="225"/>
-      <c r="V131" s="225"/>
-      <c r="W131" s="225"/>
-      <c r="X131" s="225"/>
-      <c r="Y131" s="225"/>
-      <c r="Z131" s="225"/>
-      <c r="AA131" s="225"/>
-      <c r="AB131" s="225"/>
-      <c r="AC131" s="225"/>
-      <c r="AD131" s="225"/>
-      <c r="AE131" s="225"/>
-      <c r="AF131" s="225"/>
-      <c r="AG131" s="228"/>
-      <c r="AH131" s="228"/>
-      <c r="AI131" s="228"/>
-      <c r="AJ131" s="228"/>
-      <c r="AK131" s="228"/>
-      <c r="AL131" s="228"/>
-      <c r="AM131" s="228"/>
-      <c r="AN131" s="228"/>
-      <c r="AO131" s="228"/>
-      <c r="AP131" s="228"/>
-      <c r="AQ131" s="228"/>
+      <c r="A131" s="223"/>
+      <c r="B131" s="223"/>
+      <c r="C131" s="223"/>
+      <c r="D131" s="223"/>
+      <c r="E131" s="223"/>
+      <c r="F131" s="223"/>
+      <c r="G131" s="223"/>
+      <c r="H131" s="223"/>
+      <c r="I131" s="223"/>
+      <c r="J131" s="223"/>
+      <c r="K131" s="223"/>
+      <c r="L131" s="223"/>
+      <c r="M131" s="223"/>
+      <c r="N131" s="223"/>
+      <c r="O131" s="223"/>
+      <c r="P131" s="223"/>
+      <c r="Q131" s="223"/>
+      <c r="R131" s="223"/>
+      <c r="S131" s="223"/>
+      <c r="T131" s="223"/>
+      <c r="U131" s="223"/>
+      <c r="V131" s="223"/>
+      <c r="W131" s="223"/>
+      <c r="X131" s="223"/>
+      <c r="Y131" s="223"/>
+      <c r="Z131" s="223"/>
+      <c r="AA131" s="223"/>
+      <c r="AB131" s="223"/>
+      <c r="AC131" s="223"/>
+      <c r="AD131" s="223"/>
+      <c r="AE131" s="223"/>
+      <c r="AF131" s="223"/>
+      <c r="AG131" s="240"/>
+      <c r="AH131" s="241"/>
+      <c r="AI131" s="241"/>
+      <c r="AJ131" s="241"/>
+      <c r="AK131" s="241"/>
+      <c r="AL131" s="241"/>
+      <c r="AM131" s="241"/>
+      <c r="AN131" s="241"/>
+      <c r="AO131" s="241"/>
+      <c r="AP131" s="241"/>
+      <c r="AQ131" s="242"/>
     </row>
     <row r="132" spans="1:43" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="225"/>
-      <c r="B132" s="225"/>
-      <c r="C132" s="225"/>
-      <c r="D132" s="225"/>
-      <c r="E132" s="225"/>
-      <c r="F132" s="225"/>
-      <c r="G132" s="225"/>
-      <c r="H132" s="225"/>
-      <c r="I132" s="225"/>
-      <c r="J132" s="225"/>
-      <c r="K132" s="225"/>
-      <c r="L132" s="225"/>
-      <c r="M132" s="225"/>
-      <c r="N132" s="225"/>
-      <c r="O132" s="225"/>
-      <c r="P132" s="225"/>
-      <c r="Q132" s="225"/>
-      <c r="R132" s="225"/>
-      <c r="S132" s="225"/>
-      <c r="T132" s="225"/>
-      <c r="U132" s="225"/>
-      <c r="V132" s="225"/>
-      <c r="W132" s="225"/>
-      <c r="X132" s="225"/>
-      <c r="Y132" s="225"/>
-      <c r="Z132" s="225"/>
-      <c r="AA132" s="225"/>
-      <c r="AB132" s="225"/>
-      <c r="AC132" s="225"/>
-      <c r="AD132" s="225"/>
-      <c r="AE132" s="225"/>
-      <c r="AF132" s="225"/>
-      <c r="AG132" s="228"/>
-      <c r="AH132" s="228"/>
-      <c r="AI132" s="228"/>
-      <c r="AJ132" s="228"/>
-      <c r="AK132" s="228"/>
-      <c r="AL132" s="228"/>
-      <c r="AM132" s="228"/>
-      <c r="AN132" s="228"/>
-      <c r="AO132" s="228"/>
-      <c r="AP132" s="228"/>
-      <c r="AQ132" s="228"/>
+      <c r="A132" s="223"/>
+      <c r="B132" s="223"/>
+      <c r="C132" s="223"/>
+      <c r="D132" s="223"/>
+      <c r="E132" s="223"/>
+      <c r="F132" s="223"/>
+      <c r="G132" s="223"/>
+      <c r="H132" s="223"/>
+      <c r="I132" s="223"/>
+      <c r="J132" s="223"/>
+      <c r="K132" s="223"/>
+      <c r="L132" s="223"/>
+      <c r="M132" s="223"/>
+      <c r="N132" s="223"/>
+      <c r="O132" s="223"/>
+      <c r="P132" s="223"/>
+      <c r="Q132" s="223"/>
+      <c r="R132" s="223"/>
+      <c r="S132" s="223"/>
+      <c r="T132" s="223"/>
+      <c r="U132" s="223"/>
+      <c r="V132" s="223"/>
+      <c r="W132" s="223"/>
+      <c r="X132" s="223"/>
+      <c r="Y132" s="223"/>
+      <c r="Z132" s="223"/>
+      <c r="AA132" s="223"/>
+      <c r="AB132" s="223"/>
+      <c r="AC132" s="223"/>
+      <c r="AD132" s="223"/>
+      <c r="AE132" s="223"/>
+      <c r="AF132" s="223"/>
+      <c r="AG132" s="240"/>
+      <c r="AH132" s="241"/>
+      <c r="AI132" s="241"/>
+      <c r="AJ132" s="241"/>
+      <c r="AK132" s="242"/>
+      <c r="AL132" s="240"/>
+      <c r="AM132" s="241"/>
+      <c r="AN132" s="241"/>
+      <c r="AO132" s="241"/>
+      <c r="AP132" s="241"/>
+      <c r="AQ132" s="242"/>
     </row>
     <row r="133" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="225"/>
-      <c r="B133" s="225"/>
-      <c r="C133" s="225"/>
-      <c r="D133" s="225"/>
-      <c r="E133" s="225"/>
-      <c r="F133" s="225"/>
-      <c r="G133" s="225"/>
-      <c r="H133" s="225"/>
-      <c r="I133" s="225"/>
-      <c r="J133" s="225"/>
-      <c r="K133" s="225"/>
-      <c r="L133" s="225"/>
-      <c r="M133" s="225"/>
-      <c r="N133" s="225"/>
-      <c r="O133" s="225"/>
-      <c r="P133" s="225"/>
-      <c r="Q133" s="225"/>
-      <c r="R133" s="225"/>
-      <c r="S133" s="225"/>
-      <c r="T133" s="225"/>
-      <c r="U133" s="225"/>
-      <c r="V133" s="225"/>
-      <c r="W133" s="225"/>
-      <c r="X133" s="225"/>
-      <c r="Y133" s="225"/>
-      <c r="Z133" s="225"/>
-      <c r="AA133" s="225"/>
-      <c r="AB133" s="225"/>
-      <c r="AC133" s="225"/>
-      <c r="AD133" s="225"/>
-      <c r="AE133" s="225"/>
-      <c r="AF133" s="225"/>
-      <c r="AG133" s="228"/>
-      <c r="AH133" s="228"/>
-      <c r="AI133" s="228"/>
-      <c r="AJ133" s="228"/>
-      <c r="AK133" s="228"/>
-      <c r="AL133" s="228"/>
-      <c r="AM133" s="228"/>
-      <c r="AN133" s="228"/>
-      <c r="AO133" s="228"/>
-      <c r="AP133" s="228"/>
-      <c r="AQ133" s="228"/>
+      <c r="A133" s="223"/>
+      <c r="B133" s="223"/>
+      <c r="C133" s="223"/>
+      <c r="D133" s="223"/>
+      <c r="E133" s="223"/>
+      <c r="F133" s="223"/>
+      <c r="G133" s="223"/>
+      <c r="H133" s="223"/>
+      <c r="I133" s="223"/>
+      <c r="J133" s="223"/>
+      <c r="K133" s="223"/>
+      <c r="L133" s="223"/>
+      <c r="M133" s="223"/>
+      <c r="N133" s="223"/>
+      <c r="O133" s="223"/>
+      <c r="P133" s="223"/>
+      <c r="Q133" s="223"/>
+      <c r="R133" s="223"/>
+      <c r="S133" s="223"/>
+      <c r="T133" s="223"/>
+      <c r="U133" s="223"/>
+      <c r="V133" s="223"/>
+      <c r="W133" s="223"/>
+      <c r="X133" s="223"/>
+      <c r="Y133" s="223"/>
+      <c r="Z133" s="223"/>
+      <c r="AA133" s="223"/>
+      <c r="AB133" s="223"/>
+      <c r="AC133" s="223"/>
+      <c r="AD133" s="223"/>
+      <c r="AE133" s="223"/>
+      <c r="AF133" s="223"/>
+      <c r="AG133" s="240"/>
+      <c r="AH133" s="241"/>
+      <c r="AI133" s="241"/>
+      <c r="AJ133" s="241"/>
+      <c r="AK133" s="242"/>
+      <c r="AL133" s="240"/>
+      <c r="AM133" s="241"/>
+      <c r="AN133" s="241"/>
+      <c r="AO133" s="241"/>
+      <c r="AP133" s="241"/>
+      <c r="AQ133" s="242"/>
     </row>
     <row r="134" spans="1:43" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="225"/>
-      <c r="B134" s="225"/>
-      <c r="C134" s="225"/>
-      <c r="D134" s="225"/>
-      <c r="E134" s="225"/>
-      <c r="F134" s="225"/>
-      <c r="G134" s="225"/>
-      <c r="H134" s="225"/>
-      <c r="I134" s="225"/>
-      <c r="J134" s="225"/>
-      <c r="K134" s="225"/>
-      <c r="L134" s="225"/>
-      <c r="M134" s="225"/>
-      <c r="N134" s="225"/>
-      <c r="O134" s="225"/>
-      <c r="P134" s="225"/>
-      <c r="Q134" s="225"/>
-      <c r="R134" s="225"/>
-      <c r="S134" s="225"/>
-      <c r="T134" s="225"/>
-      <c r="U134" s="225"/>
-      <c r="V134" s="225"/>
-      <c r="W134" s="225"/>
-      <c r="X134" s="225"/>
-      <c r="Y134" s="225"/>
-      <c r="Z134" s="225"/>
-      <c r="AA134" s="225"/>
-      <c r="AB134" s="225"/>
-      <c r="AC134" s="225"/>
-      <c r="AD134" s="225"/>
-      <c r="AE134" s="225"/>
-      <c r="AF134" s="225"/>
-      <c r="AG134" s="228"/>
-      <c r="AH134" s="228"/>
-      <c r="AI134" s="228"/>
-      <c r="AJ134" s="228"/>
-      <c r="AK134" s="228"/>
-      <c r="AL134" s="228"/>
-      <c r="AM134" s="228"/>
-      <c r="AN134" s="228"/>
-      <c r="AO134" s="228"/>
-      <c r="AP134" s="228"/>
-      <c r="AQ134" s="228"/>
+      <c r="A134" s="223"/>
+      <c r="B134" s="223"/>
+      <c r="C134" s="223"/>
+      <c r="D134" s="223"/>
+      <c r="E134" s="223"/>
+      <c r="F134" s="223"/>
+      <c r="G134" s="223"/>
+      <c r="H134" s="223"/>
+      <c r="I134" s="223"/>
+      <c r="J134" s="223"/>
+      <c r="K134" s="223"/>
+      <c r="L134" s="223"/>
+      <c r="M134" s="223"/>
+      <c r="N134" s="223"/>
+      <c r="O134" s="223"/>
+      <c r="P134" s="223"/>
+      <c r="Q134" s="223"/>
+      <c r="R134" s="223"/>
+      <c r="S134" s="223"/>
+      <c r="T134" s="223"/>
+      <c r="U134" s="223"/>
+      <c r="V134" s="223"/>
+      <c r="W134" s="223"/>
+      <c r="X134" s="223"/>
+      <c r="Y134" s="223"/>
+      <c r="Z134" s="223"/>
+      <c r="AA134" s="223"/>
+      <c r="AB134" s="223"/>
+      <c r="AC134" s="223"/>
+      <c r="AD134" s="223"/>
+      <c r="AE134" s="223"/>
+      <c r="AF134" s="223"/>
+      <c r="AG134" s="240"/>
+      <c r="AH134" s="241"/>
+      <c r="AI134" s="241"/>
+      <c r="AJ134" s="241"/>
+      <c r="AK134" s="242"/>
+      <c r="AL134" s="240"/>
+      <c r="AM134" s="241"/>
+      <c r="AN134" s="241"/>
+      <c r="AO134" s="241"/>
+      <c r="AP134" s="241"/>
+      <c r="AQ134" s="242"/>
     </row>
     <row r="135" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="226"/>
-      <c r="B135" s="226"/>
-      <c r="C135" s="226"/>
-      <c r="D135" s="226"/>
-      <c r="E135" s="226"/>
-      <c r="F135" s="226"/>
-      <c r="G135" s="226"/>
-      <c r="H135" s="226"/>
-      <c r="I135" s="226"/>
-      <c r="J135" s="226"/>
-      <c r="K135" s="226"/>
-      <c r="L135" s="226"/>
-      <c r="M135" s="226"/>
-      <c r="N135" s="226"/>
-      <c r="O135" s="226"/>
-      <c r="P135" s="226"/>
-      <c r="Q135" s="226"/>
-      <c r="R135" s="226"/>
-      <c r="S135" s="226"/>
-      <c r="T135" s="226"/>
-      <c r="U135" s="226"/>
-      <c r="V135" s="226"/>
-      <c r="W135" s="226"/>
-      <c r="X135" s="226"/>
-      <c r="Y135" s="226"/>
-      <c r="Z135" s="226"/>
-      <c r="AA135" s="226"/>
-      <c r="AB135" s="226"/>
-      <c r="AC135" s="226"/>
-      <c r="AD135" s="226"/>
-      <c r="AE135" s="226"/>
-      <c r="AF135" s="226"/>
-      <c r="AG135" s="229"/>
-      <c r="AH135" s="229"/>
-      <c r="AI135" s="229"/>
-      <c r="AJ135" s="229"/>
-      <c r="AK135" s="229"/>
-      <c r="AL135" s="229"/>
-      <c r="AM135" s="229"/>
-      <c r="AN135" s="229"/>
-      <c r="AO135" s="229"/>
-      <c r="AP135" s="229"/>
-      <c r="AQ135" s="229"/>
+      <c r="A135" s="224"/>
+      <c r="B135" s="224"/>
+      <c r="C135" s="224"/>
+      <c r="D135" s="224"/>
+      <c r="E135" s="224"/>
+      <c r="F135" s="224"/>
+      <c r="G135" s="224"/>
+      <c r="H135" s="224"/>
+      <c r="I135" s="224"/>
+      <c r="J135" s="224"/>
+      <c r="K135" s="224"/>
+      <c r="L135" s="224"/>
+      <c r="M135" s="224"/>
+      <c r="N135" s="224"/>
+      <c r="O135" s="224"/>
+      <c r="P135" s="224"/>
+      <c r="Q135" s="224"/>
+      <c r="R135" s="224"/>
+      <c r="S135" s="224"/>
+      <c r="T135" s="224"/>
+      <c r="U135" s="224"/>
+      <c r="V135" s="224"/>
+      <c r="W135" s="224"/>
+      <c r="X135" s="224"/>
+      <c r="Y135" s="224"/>
+      <c r="Z135" s="224"/>
+      <c r="AA135" s="224"/>
+      <c r="AB135" s="224"/>
+      <c r="AC135" s="224"/>
+      <c r="AD135" s="224"/>
+      <c r="AE135" s="224"/>
+      <c r="AF135" s="224"/>
+      <c r="AG135" s="243"/>
+      <c r="AH135" s="244"/>
+      <c r="AI135" s="244"/>
+      <c r="AJ135" s="244"/>
+      <c r="AK135" s="245"/>
+      <c r="AL135" s="243"/>
+      <c r="AM135" s="244"/>
+      <c r="AN135" s="244"/>
+      <c r="AO135" s="244"/>
+      <c r="AP135" s="244"/>
+      <c r="AQ135" s="245"/>
     </row>
     <row r="136" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
@@ -9994,7 +10126,12 @@
     <row r="222" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="223" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="411">
+  <mergeCells count="414">
+    <mergeCell ref="AL40:AQ40"/>
+    <mergeCell ref="AL41:AQ45"/>
+    <mergeCell ref="AG130:AQ131"/>
+    <mergeCell ref="AG132:AK135"/>
+    <mergeCell ref="AL132:AQ135"/>
     <mergeCell ref="H70:K71"/>
     <mergeCell ref="A69:Q69"/>
     <mergeCell ref="L65:M66"/>
@@ -10014,6 +10151,7 @@
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="L92:M93"/>
     <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B91:G91"/>
     <mergeCell ref="L94:M95"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="L102:M103"/>
@@ -10025,6 +10163,9 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="L106:M107"/>
+    <mergeCell ref="L116:M117"/>
     <mergeCell ref="B108:G109"/>
     <mergeCell ref="H108:K109"/>
     <mergeCell ref="B92:G93"/>
@@ -10033,18 +10174,19 @@
     <mergeCell ref="H94:K95"/>
     <mergeCell ref="B96:G97"/>
     <mergeCell ref="H96:K97"/>
-    <mergeCell ref="B74:G75"/>
-    <mergeCell ref="H74:K75"/>
-    <mergeCell ref="B76:G77"/>
-    <mergeCell ref="H76:K77"/>
-    <mergeCell ref="H80:K81"/>
     <mergeCell ref="B100:G101"/>
     <mergeCell ref="H100:K101"/>
     <mergeCell ref="B102:G103"/>
     <mergeCell ref="H102:K103"/>
-    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="L122:M123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="L124:M125"/>
+    <mergeCell ref="B122:G123"/>
+    <mergeCell ref="H122:K123"/>
+    <mergeCell ref="B124:G125"/>
+    <mergeCell ref="H124:K125"/>
     <mergeCell ref="A130:AF135"/>
-    <mergeCell ref="AG130:AQ135"/>
     <mergeCell ref="A126:A127"/>
     <mergeCell ref="L126:M127"/>
     <mergeCell ref="A128:A129"/>
@@ -10053,21 +10195,6 @@
     <mergeCell ref="H126:K127"/>
     <mergeCell ref="B128:G129"/>
     <mergeCell ref="H128:K129"/>
-    <mergeCell ref="L120:M121"/>
-    <mergeCell ref="B118:G119"/>
-    <mergeCell ref="H118:K119"/>
-    <mergeCell ref="B120:G121"/>
-    <mergeCell ref="H120:K121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="L122:M123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="L124:M125"/>
-    <mergeCell ref="B122:G123"/>
-    <mergeCell ref="H122:K123"/>
-    <mergeCell ref="B124:G125"/>
-    <mergeCell ref="H124:K125"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="L106:M107"/>
     <mergeCell ref="N106:Q129"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="L108:M109"/>
@@ -10075,6 +10202,23 @@
     <mergeCell ref="L110:M111"/>
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="L112:M113"/>
+    <mergeCell ref="B114:G115"/>
+    <mergeCell ref="H114:K115"/>
+    <mergeCell ref="B116:G117"/>
+    <mergeCell ref="H116:K117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="L118:M119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="L98:M99"/>
+    <mergeCell ref="L88:M89"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L120:M121"/>
+    <mergeCell ref="B118:G119"/>
+    <mergeCell ref="H118:K119"/>
+    <mergeCell ref="B120:G121"/>
+    <mergeCell ref="H120:K121"/>
     <mergeCell ref="B110:G111"/>
     <mergeCell ref="H110:K111"/>
     <mergeCell ref="B112:G113"/>
@@ -10082,23 +10226,13 @@
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="L114:M115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="L116:M117"/>
-    <mergeCell ref="B114:G115"/>
-    <mergeCell ref="H114:K115"/>
-    <mergeCell ref="B116:G117"/>
-    <mergeCell ref="H116:K117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="L118:M119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="L98:M99"/>
-    <mergeCell ref="L88:M89"/>
     <mergeCell ref="N88:Q89"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="B88:G89"/>
     <mergeCell ref="H88:K89"/>
     <mergeCell ref="B98:G99"/>
     <mergeCell ref="H98:K99"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="AL39:AN39"/>
     <mergeCell ref="AO39:AQ39"/>
     <mergeCell ref="E44:G45"/>
@@ -10122,12 +10256,24 @@
     <mergeCell ref="H67:K68"/>
     <mergeCell ref="L70:M71"/>
     <mergeCell ref="N70:Q71"/>
-    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="H86:K87"/>
     <mergeCell ref="AL38:AN38"/>
     <mergeCell ref="N57:Q58"/>
     <mergeCell ref="L59:M60"/>
     <mergeCell ref="L52:M53"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="V40:AK45"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="E40:G41"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="N48:Q56"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="L67:M68"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A40:D43"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="B59:G60"/>
     <mergeCell ref="H59:K60"/>
     <mergeCell ref="L57:M58"/>
@@ -10136,17 +10282,10 @@
     <mergeCell ref="B57:G58"/>
     <mergeCell ref="H57:K58"/>
     <mergeCell ref="A54:A56"/>
-    <mergeCell ref="V40:AK45"/>
-    <mergeCell ref="AL40:AQ45"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="E40:G41"/>
     <mergeCell ref="H52:K53"/>
     <mergeCell ref="B54:G56"/>
     <mergeCell ref="H54:K56"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="L54:M56"/>
     <mergeCell ref="N72:Q87"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="L74:M75"/>
@@ -10165,8 +10304,11 @@
     <mergeCell ref="B84:G85"/>
     <mergeCell ref="H84:K85"/>
     <mergeCell ref="B86:G87"/>
-    <mergeCell ref="H86:K87"/>
-    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B74:G75"/>
+    <mergeCell ref="H74:K75"/>
+    <mergeCell ref="B76:G77"/>
+    <mergeCell ref="H76:K77"/>
+    <mergeCell ref="H80:K81"/>
     <mergeCell ref="B70:G71"/>
     <mergeCell ref="A12:Q12"/>
     <mergeCell ref="A26:D33"/>
@@ -10190,17 +10332,27 @@
     <mergeCell ref="E28:G29"/>
     <mergeCell ref="E30:G31"/>
     <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="AL32:AN32"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="AG35:AI35"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="K37:M37"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="K35:M35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="AO29:AQ29"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="AJ36:AK36"/>
     <mergeCell ref="AO32:AQ32"/>
     <mergeCell ref="AO31:AQ31"/>
     <mergeCell ref="AO33:AQ33"/>
@@ -10214,34 +10366,6 @@
     <mergeCell ref="AG32:AI32"/>
     <mergeCell ref="AJ33:AK33"/>
     <mergeCell ref="AL31:AN31"/>
-    <mergeCell ref="AL32:AN32"/>
-    <mergeCell ref="AJ35:AK35"/>
-    <mergeCell ref="AG35:AI35"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N46:Q47"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="B48:G49"/>
-    <mergeCell ref="H48:K49"/>
-    <mergeCell ref="B50:G51"/>
-    <mergeCell ref="H50:K51"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="R11:AQ11"/>
-    <mergeCell ref="AL25:AN25"/>
-    <mergeCell ref="AO29:AQ29"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="K27:M27"/>
@@ -10249,6 +10373,19 @@
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="K29:M29"/>
+    <mergeCell ref="AG30:AI30"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="AL26:AN26"/>
+    <mergeCell ref="AL27:AN27"/>
+    <mergeCell ref="AL28:AN28"/>
+    <mergeCell ref="AL29:AN29"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="AO30:AQ30"/>
+    <mergeCell ref="AL30:AN30"/>
     <mergeCell ref="G1:AI3"/>
     <mergeCell ref="AJ1:AQ3"/>
     <mergeCell ref="A4:AI6"/>
@@ -10261,20 +10398,11 @@
     <mergeCell ref="AJ4:AM10"/>
     <mergeCell ref="K7:U8"/>
     <mergeCell ref="V7:AI8"/>
-    <mergeCell ref="AG30:AI30"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AL26:AN26"/>
-    <mergeCell ref="AL27:AN27"/>
-    <mergeCell ref="AL28:AN28"/>
-    <mergeCell ref="AL29:AN29"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="AO30:AQ30"/>
-    <mergeCell ref="AL30:AN30"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="R11:AQ11"/>
+    <mergeCell ref="AL25:AN25"/>
     <mergeCell ref="AD25:AF25"/>
     <mergeCell ref="AO25:AQ25"/>
     <mergeCell ref="AO26:AQ26"/>
@@ -10297,13 +10425,8 @@
     <mergeCell ref="AG29:AI29"/>
     <mergeCell ref="AD35:AF35"/>
     <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="N48:Q56"/>
-    <mergeCell ref="L54:M56"/>
-    <mergeCell ref="L67:M68"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A40:D43"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AA28:AC29"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="K41:M41"/>
@@ -10323,12 +10446,11 @@
     <mergeCell ref="B52:G53"/>
     <mergeCell ref="H63:K64"/>
     <mergeCell ref="A63:A64"/>
-    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H65:K66"/>
+    <mergeCell ref="K42:M42"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="L48:M49"/>
-    <mergeCell ref="H65:K66"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="AG39:AI39"/>
+    <mergeCell ref="A70:A71"/>
     <mergeCell ref="K31:M31"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="K32:M32"/>
@@ -10341,16 +10463,13 @@
     <mergeCell ref="P35:R35"/>
     <mergeCell ref="AA34:AC35"/>
     <mergeCell ref="AA36:AC37"/>
-    <mergeCell ref="AG37:AI37"/>
     <mergeCell ref="P34:R34"/>
     <mergeCell ref="S34:U34"/>
     <mergeCell ref="S35:U35"/>
-    <mergeCell ref="S41:U41"/>
     <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AD29:AF29"/>
     <mergeCell ref="W28:Z33"/>
-    <mergeCell ref="AA28:AC29"/>
-    <mergeCell ref="AA30:AC31"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AD31:AF31"/>
     <mergeCell ref="AA32:AC33"/>
     <mergeCell ref="P32:R32"/>
     <mergeCell ref="S32:U32"/>
@@ -10358,13 +10477,23 @@
     <mergeCell ref="AD36:AF36"/>
     <mergeCell ref="AD32:AF32"/>
     <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="AG36:AI36"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N46:Q47"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="B48:G49"/>
+    <mergeCell ref="H48:K49"/>
+    <mergeCell ref="B50:G51"/>
+    <mergeCell ref="H50:K51"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:O39"/>
     <mergeCell ref="N45:O45"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="AG38:AI38"/>
     <mergeCell ref="AJ39:AK39"/>
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="N42:O42"/>
@@ -10383,6 +10512,11 @@
     <mergeCell ref="S42:U42"/>
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="S40:U40"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="AG39:AI39"/>
+    <mergeCell ref="AG37:AI37"/>
+    <mergeCell ref="AG36:AI36"/>
+    <mergeCell ref="AG38:AI38"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="AG25:AI25"/>
@@ -10406,6 +10540,7 @@
     <mergeCell ref="S25:U25"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="S26:U26"/>
+    <mergeCell ref="AA30:AC31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10421,7 +10556,7 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
